--- a/成品/R1/卫生信息数据元_校对.xlsx
+++ b/成品/R1/卫生信息数据元_校对.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="1230" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="11640" yWindow="1230" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="209">
   <si>
     <t>Ballot Comment Submission</t>
   </si>
@@ -1038,6 +1038,10 @@
   </si>
   <si>
     <t>1发生遗漏 建议添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否应该指定编码系统或值集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1921,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U243"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2147,7 +2151,9 @@
       <c r="F7" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="34" t="s">
+        <v>208</v>
+      </c>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
@@ -6674,10 +6680,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U243"/>
+  <dimension ref="A1:U242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6843,7 +6849,7 @@
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
       <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="16"/>
       <c r="I6" s="17"/>
       <c r="J6" s="18"/>
@@ -6860,7 +6866,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
       <c r="F7" s="34"/>
-      <c r="G7" s="15"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
@@ -6877,7 +6883,7 @@
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -6894,7 +6900,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
       <c r="F9" s="34"/>
-      <c r="G9" s="15"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="16"/>
       <c r="I9" s="17"/>
       <c r="J9" s="18"/>
@@ -7006,7 +7012,7 @@
       <c r="N15" s="21"/>
       <c r="R15" s="12"/>
     </row>
-    <row r="16" spans="1:21" s="22" customFormat="1" ht="52.9" customHeight="1">
+    <row r="16" spans="1:21" s="22" customFormat="1" ht="14.25">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -7030,7 +7036,7 @@
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="16"/>
       <c r="I17" s="17"/>
       <c r="J17" s="18"/>
@@ -7064,7 +7070,7 @@
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="15"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
       <c r="J19" s="18"/>
@@ -7081,7 +7087,7 @@
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
       <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="16"/>
       <c r="I20" s="17"/>
       <c r="J20" s="18"/>
@@ -7098,7 +7104,7 @@
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="15"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="16"/>
       <c r="I21" s="17"/>
       <c r="J21" s="18"/>
@@ -7115,7 +7121,7 @@
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="16"/>
       <c r="I22" s="17"/>
       <c r="J22" s="18"/>
@@ -7149,7 +7155,7 @@
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="15"/>
+      <c r="G24" s="34"/>
       <c r="H24" s="16"/>
       <c r="I24" s="17"/>
       <c r="J24" s="18"/>
@@ -7166,7 +7172,7 @@
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
       <c r="J25" s="18"/>
@@ -7217,7 +7223,7 @@
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
       <c r="F28" s="34"/>
-      <c r="G28" s="15"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="16"/>
       <c r="I28" s="17"/>
       <c r="J28" s="18"/>
@@ -7234,7 +7240,7 @@
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
       <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="16"/>
       <c r="I29" s="17"/>
       <c r="J29" s="18"/>
@@ -10864,23 +10870,6 @@
       <c r="M242" s="20"/>
       <c r="N242" s="21"/>
       <c r="R242" s="12"/>
-    </row>
-    <row r="243" spans="1:18" s="22" customFormat="1" ht="14.25">
-      <c r="A243" s="13"/>
-      <c r="B243" s="14"/>
-      <c r="C243" s="14"/>
-      <c r="D243" s="14"/>
-      <c r="E243" s="15"/>
-      <c r="F243" s="34"/>
-      <c r="G243" s="15"/>
-      <c r="H243" s="16"/>
-      <c r="I243" s="17"/>
-      <c r="J243" s="18"/>
-      <c r="K243" s="19"/>
-      <c r="L243" s="20"/>
-      <c r="M243" s="20"/>
-      <c r="N243" s="21"/>
-      <c r="R243" s="12"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -10900,38 +10889,38 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"卫生部"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="JD4:JG5 SZ4:TC5 ACV4:ACY5 AMR4:AMU5 AWN4:AWQ5 BGJ4:BGM5 BQF4:BQI5 CAB4:CAE5 CJX4:CKA5 CTT4:CTW5 DDP4:DDS5 DNL4:DNO5 DXH4:DXK5 EHD4:EHG5 EQZ4:ERC5 FAV4:FAY5 FKR4:FKU5 FUN4:FUQ5 GEJ4:GEM5 GOF4:GOI5 GYB4:GYE5 HHX4:HIA5 HRT4:HRW5 IBP4:IBS5 ILL4:ILO5 IVH4:IVK5 JFD4:JFG5 JOZ4:JPC5 JYV4:JYY5 KIR4:KIU5 KSN4:KSQ5 LCJ4:LCM5 LMF4:LMI5 LWB4:LWE5 MFX4:MGA5 MPT4:MPW5 MZP4:MZS5 NJL4:NJO5 NTH4:NTK5 ODD4:ODG5 OMZ4:ONC5 OWV4:OWY5 PGR4:PGU5 PQN4:PQQ5 QAJ4:QAM5 QKF4:QKI5 QUB4:QUE5 RDX4:REA5 RNT4:RNW5 RXP4:RXS5 SHL4:SHO5 SRH4:SRK5 TBD4:TBG5 TKZ4:TLC5 TUV4:TUY5 UER4:UEU5 UON4:UOQ5 UYJ4:UYM5 VIF4:VII5 VSB4:VSE5 WBX4:WCA5 WLT4:WLW5 WVP4:WVS5 II4:IJ5 SE4:SF5 ACA4:ACB5 ALW4:ALX5 AVS4:AVT5 BFO4:BFP5 BPK4:BPL5 BZG4:BZH5 CJC4:CJD5 CSY4:CSZ5 DCU4:DCV5 DMQ4:DMR5 DWM4:DWN5 EGI4:EGJ5 EQE4:EQF5 FAA4:FAB5 FJW4:FJX5 FTS4:FTT5 GDO4:GDP5 GNK4:GNL5 GXG4:GXH5 HHC4:HHD5 HQY4:HQZ5 IAU4:IAV5 IKQ4:IKR5 IUM4:IUN5 JEI4:JEJ5 JOE4:JOF5 JYA4:JYB5 KHW4:KHX5 KRS4:KRT5 LBO4:LBP5 LLK4:LLL5 LVG4:LVH5 MFC4:MFD5 MOY4:MOZ5 MYU4:MYV5 NIQ4:NIR5 NSM4:NSN5 OCI4:OCJ5 OME4:OMF5 OWA4:OWB5 PFW4:PFX5 PPS4:PPT5 PZO4:PZP5 QJK4:QJL5 QTG4:QTH5 RDC4:RDD5 RMY4:RMZ5 RWU4:RWV5 SGQ4:SGR5 SQM4:SQN5 TAI4:TAJ5 TKE4:TKF5 TUA4:TUB5 UDW4:UDX5 UNS4:UNT5 UXO4:UXP5 VHK4:VHL5 VRG4:VRH5 WBC4:WBD5 WKY4:WKZ5 WUU4:WUV5 J4:M5"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IN4:IN5 SJ4:SJ5 ACF4:ACF5 AMB4:AMB5 AVX4:AVX5 BFT4:BFT5 BPP4:BPP5 BZL4:BZL5 CJH4:CJH5 CTD4:CTD5 DCZ4:DCZ5 DMV4:DMV5 DWR4:DWR5 EGN4:EGN5 EQJ4:EQJ5 FAF4:FAF5 FKB4:FKB5 FTX4:FTX5 GDT4:GDT5 GNP4:GNP5 GXL4:GXL5 HHH4:HHH5 HRD4:HRD5 IAZ4:IAZ5 IKV4:IKV5 IUR4:IUR5 JEN4:JEN5 JOJ4:JOJ5 JYF4:JYF5 KIB4:KIB5 KRX4:KRX5 LBT4:LBT5 LLP4:LLP5 LVL4:LVL5 MFH4:MFH5 MPD4:MPD5 MYZ4:MYZ5 NIV4:NIV5 NSR4:NSR5 OCN4:OCN5 OMJ4:OMJ5 OWF4:OWF5 PGB4:PGB5 PPX4:PPX5 PZT4:PZT5 QJP4:QJP5 QTL4:QTL5 RDH4:RDH5 RND4:RND5 RWZ4:RWZ5 SGV4:SGV5 SQR4:SQR5 TAN4:TAN5 TKJ4:TKJ5 TUF4:TUF5 UEB4:UEB5 UNX4:UNX5 UXT4:UXT5 VHP4:VHP5 VRL4:VRL5 WBH4:WBH5 WLD4:WLD5 WUZ4:WUZ5">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="JD4:JG4 J4:M4 WUU4:WUV4 WKY4:WKZ4 WBC4:WBD4 VRG4:VRH4 VHK4:VHL4 UXO4:UXP4 UNS4:UNT4 UDW4:UDX4 TUA4:TUB4 TKE4:TKF4 TAI4:TAJ4 SQM4:SQN4 SGQ4:SGR4 RWU4:RWV4 RMY4:RMZ4 RDC4:RDD4 QTG4:QTH4 QJK4:QJL4 PZO4:PZP4 PPS4:PPT4 PFW4:PFX4 OWA4:OWB4 OME4:OMF4 OCI4:OCJ4 NSM4:NSN4 NIQ4:NIR4 MYU4:MYV4 MOY4:MOZ4 MFC4:MFD4 LVG4:LVH4 LLK4:LLL4 LBO4:LBP4 KRS4:KRT4 KHW4:KHX4 JYA4:JYB4 JOE4:JOF4 JEI4:JEJ4 IUM4:IUN4 IKQ4:IKR4 IAU4:IAV4 HQY4:HQZ4 HHC4:HHD4 GXG4:GXH4 GNK4:GNL4 GDO4:GDP4 FTS4:FTT4 FJW4:FJX4 FAA4:FAB4 EQE4:EQF4 EGI4:EGJ4 DWM4:DWN4 DMQ4:DMR4 DCU4:DCV4 CSY4:CSZ4 CJC4:CJD4 BZG4:BZH4 BPK4:BPL4 BFO4:BFP4 AVS4:AVT4 ALW4:ALX4 ACA4:ACB4 SE4:SF4 II4:IJ4 WVP4:WVS4 WLT4:WLW4 WBX4:WCA4 VSB4:VSE4 VIF4:VII4 UYJ4:UYM4 UON4:UOQ4 UER4:UEU4 TUV4:TUY4 TKZ4:TLC4 TBD4:TBG4 SRH4:SRK4 SHL4:SHO4 RXP4:RXS4 RNT4:RNW4 RDX4:REA4 QUB4:QUE4 QKF4:QKI4 QAJ4:QAM4 PQN4:PQQ4 PGR4:PGU4 OWV4:OWY4 OMZ4:ONC4 ODD4:ODG4 NTH4:NTK4 NJL4:NJO4 MZP4:MZS4 MPT4:MPW4 MFX4:MGA4 LWB4:LWE4 LMF4:LMI4 LCJ4:LCM4 KSN4:KSQ4 KIR4:KIU4 JYV4:JYY4 JOZ4:JPC4 JFD4:JFG4 IVH4:IVK4 ILL4:ILO4 IBP4:IBS4 HRT4:HRW4 HHX4:HIA4 GYB4:GYE4 GOF4:GOI4 GEJ4:GEM4 FUN4:FUQ4 FKR4:FKU4 FAV4:FAY4 EQZ4:ERC4 EHD4:EHG4 DXH4:DXK4 DNL4:DNO4 DDP4:DDS4 CTT4:CTW4 CJX4:CKA4 CAB4:CAE4 BQF4:BQI4 BGJ4:BGM4 AWN4:AWQ4 AMR4:AMU4 ACV4:ACY4 SZ4:TC4"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IN4 WUZ4 WLD4 WBH4 VRL4 VHP4 UXT4 UNX4 UEB4 TUF4 TKJ4 TAN4 SQR4 SGV4 RWZ4 RND4 RDH4 QTL4 QJP4 PZT4 PPX4 PGB4 OWF4 OMJ4 OCN4 NSR4 NIV4 MYZ4 MPD4 MFH4 LVL4 LLP4 LBT4 KRX4 KIB4 JYF4 JOJ4 JEN4 IUR4 IKV4 IAZ4 HRD4 HHH4 GXL4 GNP4 GDT4 FTX4 FKB4 FAF4 EQJ4 EGN4 DWR4 DMV4 DCZ4 CTD4 CJH4 BZL4 BPP4 BFT4 AVX4 AMB4 ACF4 SJ4">
       <formula1>"Neg-Mj,Neg-Mi,A-S,A-T,A-Q,A-C"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="JC4:JC5 SY4:SY5 ACU4:ACU5 AMQ4:AMQ5 AWM4:AWM5 BGI4:BGI5 BQE4:BQE5 CAA4:CAA5 CJW4:CJW5 CTS4:CTS5 DDO4:DDO5 DNK4:DNK5 DXG4:DXG5 EHC4:EHC5 EQY4:EQY5 FAU4:FAU5 FKQ4:FKQ5 FUM4:FUM5 GEI4:GEI5 GOE4:GOE5 GYA4:GYA5 HHW4:HHW5 HRS4:HRS5 IBO4:IBO5 ILK4:ILK5 IVG4:IVG5 JFC4:JFC5 JOY4:JOY5 JYU4:JYU5 KIQ4:KIQ5 KSM4:KSM5 LCI4:LCI5 LME4:LME5 LWA4:LWA5 MFW4:MFW5 MPS4:MPS5 MZO4:MZO5 NJK4:NJK5 NTG4:NTG5 ODC4:ODC5 OMY4:OMY5 OWU4:OWU5 PGQ4:PGQ5 PQM4:PQM5 QAI4:QAI5 QKE4:QKE5 QUA4:QUA5 RDW4:RDW5 RNS4:RNS5 RXO4:RXO5 SHK4:SHK5 SRG4:SRG5 TBC4:TBC5 TKY4:TKY5 TUU4:TUU5 UEQ4:UEQ5 UOM4:UOM5 UYI4:UYI5 VIE4:VIE5 VSA4:VSA5 WBW4:WBW5 WLS4:WLS5 WVO4:WVO5 IM4:IM5 SI4:SI5 ACE4:ACE5 AMA4:AMA5 AVW4:AVW5 BFS4:BFS5 BPO4:BPO5 BZK4:BZK5 CJG4:CJG5 CTC4:CTC5 DCY4:DCY5 DMU4:DMU5 DWQ4:DWQ5 EGM4:EGM5 EQI4:EQI5 FAE4:FAE5 FKA4:FKA5 FTW4:FTW5 GDS4:GDS5 GNO4:GNO5 GXK4:GXK5 HHG4:HHG5 HRC4:HRC5 IAY4:IAY5 IKU4:IKU5 IUQ4:IUQ5 JEM4:JEM5 JOI4:JOI5 JYE4:JYE5 KIA4:KIA5 KRW4:KRW5 LBS4:LBS5 LLO4:LLO5 LVK4:LVK5 MFG4:MFG5 MPC4:MPC5 MYY4:MYY5 NIU4:NIU5 NSQ4:NSQ5 OCM4:OCM5 OMI4:OMI5 OWE4:OWE5 PGA4:PGA5 PPW4:PPW5 PZS4:PZS5 QJO4:QJO5 QTK4:QTK5 RDG4:RDG5 RNC4:RNC5 RWY4:RWY5 SGU4:SGU5 SQQ4:SQQ5 TAM4:TAM5 TKI4:TKI5 TUE4:TUE5 UEA4:UEA5 UNW4:UNW5 UXS4:UXS5 VHO4:VHO5 VRK4:VRK5 WBG4:WBG5 WLC4:WLC5 WUY4:WUY5">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="JC4 WUY4 WLC4 WBG4 VRK4 VHO4 UXS4 UNW4 UEA4 TUE4 TKI4 TAM4 SQQ4 SGU4 RWY4 RNC4 RDG4 QTK4 QJO4 PZS4 PPW4 PGA4 OWE4 OMI4 OCM4 NSQ4 NIU4 MYY4 MPC4 MFG4 LVK4 LLO4 LBS4 KRW4 KIA4 JYE4 JOI4 JEM4 IUQ4 IKU4 IAY4 HRC4 HHG4 GXK4 GNO4 GDS4 FTW4 FKA4 FAE4 EQI4 EGM4 DWQ4 DMU4 DCY4 CTC4 CJG4 BZK4 BPO4 BFS4 AVW4 AMA4 ACE4 SI4 IM4 WVO4 WLS4 WBW4 VSA4 VIE4 UYI4 UOM4 UEQ4 TUU4 TKY4 TBC4 SRG4 SHK4 RXO4 RNS4 RDW4 QUA4 QKE4 QAI4 PQM4 PGQ4 OWU4 OMY4 ODC4 NTG4 NJK4 MZO4 MPS4 MFW4 LWA4 LME4 LCI4 KSM4 KIQ4 JYU4 JOY4 JFC4 IVG4 ILK4 IBO4 HRS4 HHW4 GYA4 GOE4 GEI4 FUM4 FKQ4 FAU4 EQY4 EHC4 DXG4 DNK4 DDO4 CTS4 CJW4 CAA4 BQE4 BGI4 AWM4 AMQ4 ACU4 SY4">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IU4:IU5 SQ4:SQ5 ACM4:ACM5 AMI4:AMI5 AWE4:AWE5 BGA4:BGA5 BPW4:BPW5 BZS4:BZS5 CJO4:CJO5 CTK4:CTK5 DDG4:DDG5 DNC4:DNC5 DWY4:DWY5 EGU4:EGU5 EQQ4:EQQ5 FAM4:FAM5 FKI4:FKI5 FUE4:FUE5 GEA4:GEA5 GNW4:GNW5 GXS4:GXS5 HHO4:HHO5 HRK4:HRK5 IBG4:IBG5 ILC4:ILC5 IUY4:IUY5 JEU4:JEU5 JOQ4:JOQ5 JYM4:JYM5 KII4:KII5 KSE4:KSE5 LCA4:LCA5 LLW4:LLW5 LVS4:LVS5 MFO4:MFO5 MPK4:MPK5 MZG4:MZG5 NJC4:NJC5 NSY4:NSY5 OCU4:OCU5 OMQ4:OMQ5 OWM4:OWM5 PGI4:PGI5 PQE4:PQE5 QAA4:QAA5 QJW4:QJW5 QTS4:QTS5 RDO4:RDO5 RNK4:RNK5 RXG4:RXG5 SHC4:SHC5 SQY4:SQY5 TAU4:TAU5 TKQ4:TKQ5 TUM4:TUM5 UEI4:UEI5 UOE4:UOE5 UYA4:UYA5 VHW4:VHW5 VRS4:VRS5 WBO4:WBO5 WLK4:WLK5 WVG4:WVG5">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IU4 WVG4 WLK4 WBO4 VRS4 VHW4 UYA4 UOE4 UEI4 TUM4 TKQ4 TAU4 SQY4 SHC4 RXG4 RNK4 RDO4 QTS4 QJW4 QAA4 PQE4 PGI4 OWM4 OMQ4 OCU4 NSY4 NJC4 MZG4 MPK4 MFO4 LVS4 LLW4 LCA4 KSE4 KII4 JYM4 JOQ4 JEU4 IUY4 ILC4 IBG4 HRK4 HHO4 GXS4 GNW4 GEA4 FUE4 FKI4 FAM4 EQQ4 EGU4 DWY4 DNC4 DDG4 CTK4 CJO4 BZS4 BPW4 BGA4 AWE4 AMI4 ACM4 SQ4">
       <formula1>"Withdraw,Retract"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IL4:IL5 SH4:SH5 ACD4:ACD5 ALZ4:ALZ5 AVV4:AVV5 BFR4:BFR5 BPN4:BPN5 BZJ4:BZJ5 CJF4:CJF5 CTB4:CTB5 DCX4:DCX5 DMT4:DMT5 DWP4:DWP5 EGL4:EGL5 EQH4:EQH5 FAD4:FAD5 FJZ4:FJZ5 FTV4:FTV5 GDR4:GDR5 GNN4:GNN5 GXJ4:GXJ5 HHF4:HHF5 HRB4:HRB5 IAX4:IAX5 IKT4:IKT5 IUP4:IUP5 JEL4:JEL5 JOH4:JOH5 JYD4:JYD5 KHZ4:KHZ5 KRV4:KRV5 LBR4:LBR5 LLN4:LLN5 LVJ4:LVJ5 MFF4:MFF5 MPB4:MPB5 MYX4:MYX5 NIT4:NIT5 NSP4:NSP5 OCL4:OCL5 OMH4:OMH5 OWD4:OWD5 PFZ4:PFZ5 PPV4:PPV5 PZR4:PZR5 QJN4:QJN5 QTJ4:QTJ5 RDF4:RDF5 RNB4:RNB5 RWX4:RWX5 SGT4:SGT5 SQP4:SQP5 TAL4:TAL5 TKH4:TKH5 TUD4:TUD5 UDZ4:UDZ5 UNV4:UNV5 UXR4:UXR5 VHN4:VHN5 VRJ4:VRJ5 WBF4:WBF5 WLB4:WLB5 WUX4:WUX5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IL4 WUX4 WLB4 WBF4 VRJ4 VHN4 UXR4 UNV4 UDZ4 TUD4 TKH4 TAL4 SQP4 SGT4 RWX4 RNB4 RDF4 QTJ4 QJN4 PZR4 PPV4 PFZ4 OWD4 OMH4 OCL4 NSP4 NIT4 MYX4 MPB4 MFF4 LVJ4 LLN4 LBR4 KRV4 KHZ4 JYD4 JOH4 JEL4 IUP4 IKT4 IAX4 HRB4 HHF4 GXJ4 GNN4 GDR4 FTV4 FJZ4 FAD4 EQH4 EGL4 DWP4 DMT4 DCX4 CTB4 CJF4 BZJ4 BPN4 BFR4 AVV4 ALZ4 ACD4 SH4">
       <formula1>"AB,AI,Backbone (ref),Bloodbank,CI,CR,CT,Datatypes Abstract,OO,Glossary (ref),LB,MI,MR,MT,PA,PC,PM,QI,Refinement,RI,RIM,RT,RR,RX,SC,UML-ITS DataTypes,V3 Help Guide (ref),Vocabulary (ref),XML-ITS DataTypes,XML-ITS Structures"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IR4:IR5 SN4:SN5 ACJ4:ACJ5 AMF4:AMF5 AWB4:AWB5 BFX4:BFX5 BPT4:BPT5 BZP4:BZP5 CJL4:CJL5 CTH4:CTH5 DDD4:DDD5 DMZ4:DMZ5 DWV4:DWV5 EGR4:EGR5 EQN4:EQN5 FAJ4:FAJ5 FKF4:FKF5 FUB4:FUB5 GDX4:GDX5 GNT4:GNT5 GXP4:GXP5 HHL4:HHL5 HRH4:HRH5 IBD4:IBD5 IKZ4:IKZ5 IUV4:IUV5 JER4:JER5 JON4:JON5 JYJ4:JYJ5 KIF4:KIF5 KSB4:KSB5 LBX4:LBX5 LLT4:LLT5 LVP4:LVP5 MFL4:MFL5 MPH4:MPH5 MZD4:MZD5 NIZ4:NIZ5 NSV4:NSV5 OCR4:OCR5 OMN4:OMN5 OWJ4:OWJ5 PGF4:PGF5 PQB4:PQB5 PZX4:PZX5 QJT4:QJT5 QTP4:QTP5 RDL4:RDL5 RNH4:RNH5 RXD4:RXD5 SGZ4:SGZ5 SQV4:SQV5 TAR4:TAR5 TKN4:TKN5 TUJ4:TUJ5 UEF4:UEF5 UOB4:UOB5 UXX4:UXX5 VHT4:VHT5 VRP4:VRP5 WBL4:WBL5 WLH4:WLH5 WVD4:WVD5 H4:H5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IR4 H4 WVD4 WLH4 WBL4 VRP4 VHT4 UXX4 UOB4 UEF4 TUJ4 TKN4 TAR4 SQV4 SGZ4 RXD4 RNH4 RDL4 QTP4 QJT4 PZX4 PQB4 PGF4 OWJ4 OMN4 OCR4 NSV4 NIZ4 MZD4 MPH4 MFL4 LVP4 LLT4 LBX4 KSB4 KIF4 JYJ4 JON4 JER4 IUV4 IKZ4 IBD4 HRH4 HHL4 GXP4 GNT4 GDX4 FUB4 FKF4 FAJ4 EQN4 EGR4 DWV4 DMZ4 DDD4 CTH4 CJL4 BZP4 BPT4 BFX4 AWB4 AMF4 ACJ4 SN4">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IT4:IT5 SP4:SP5 ACL4:ACL5 AMH4:AMH5 AWD4:AWD5 BFZ4:BFZ5 BPV4:BPV5 BZR4:BZR5 CJN4:CJN5 CTJ4:CTJ5 DDF4:DDF5 DNB4:DNB5 DWX4:DWX5 EGT4:EGT5 EQP4:EQP5 FAL4:FAL5 FKH4:FKH5 FUD4:FUD5 GDZ4:GDZ5 GNV4:GNV5 GXR4:GXR5 HHN4:HHN5 HRJ4:HRJ5 IBF4:IBF5 ILB4:ILB5 IUX4:IUX5 JET4:JET5 JOP4:JOP5 JYL4:JYL5 KIH4:KIH5 KSD4:KSD5 LBZ4:LBZ5 LLV4:LLV5 LVR4:LVR5 MFN4:MFN5 MPJ4:MPJ5 MZF4:MZF5 NJB4:NJB5 NSX4:NSX5 OCT4:OCT5 OMP4:OMP5 OWL4:OWL5 PGH4:PGH5 PQD4:PQD5 PZZ4:PZZ5 QJV4:QJV5 QTR4:QTR5 RDN4:RDN5 RNJ4:RNJ5 RXF4:RXF5 SHB4:SHB5 SQX4:SQX5 TAT4:TAT5 TKP4:TKP5 TUL4:TUL5 UEH4:UEH5 UOD4:UOD5 UXZ4:UXZ5 VHV4:VHV5 VRR4:VRR5 WBN4:WBN5 WLJ4:WLJ5 WVF4:WVF5">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IT4 WVF4 WLJ4 WBN4 VRR4 VHV4 UXZ4 UOD4 UEH4 TUL4 TKP4 TAT4 SQX4 SHB4 RXF4 RNJ4 RDN4 QTR4 QJV4 PZZ4 PQD4 PGH4 OWL4 OMP4 OCT4 NSX4 NJB4 MZF4 MPJ4 MFN4 LVR4 LLV4 LBZ4 KSD4 KIH4 JYL4 JOP4 JET4 IUX4 ILB4 IBF4 HRJ4 HHN4 GXR4 GNV4 GDZ4 FUD4 FKH4 FAL4 EQP4 EGT4 DWX4 DNB4 DDF4 CTJ4 CJN4 BZR4 BPV4 BFZ4 AWD4 AMH4 ACL4 SP4">
       <formula1>dispositionstatus</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="JI4:JJ5 TE4:TF5 ADA4:ADB5 AMW4:AMX5 AWS4:AWT5 BGO4:BGP5 BQK4:BQL5 CAG4:CAH5 CKC4:CKD5 CTY4:CTZ5 DDU4:DDV5 DNQ4:DNR5 DXM4:DXN5 EHI4:EHJ5 ERE4:ERF5 FBA4:FBB5 FKW4:FKX5 FUS4:FUT5 GEO4:GEP5 GOK4:GOL5 GYG4:GYH5 HIC4:HID5 HRY4:HRZ5 IBU4:IBV5 ILQ4:ILR5 IVM4:IVN5 JFI4:JFJ5 JPE4:JPF5 JZA4:JZB5 KIW4:KIX5 KSS4:KST5 LCO4:LCP5 LMK4:LML5 LWG4:LWH5 MGC4:MGD5 MPY4:MPZ5 MZU4:MZV5 NJQ4:NJR5 NTM4:NTN5 ODI4:ODJ5 ONE4:ONF5 OXA4:OXB5 PGW4:PGX5 PQS4:PQT5 QAO4:QAP5 QKK4:QKL5 QUG4:QUH5 REC4:RED5 RNY4:RNZ5 RXU4:RXV5 SHQ4:SHR5 SRM4:SRN5 TBI4:TBJ5 TLE4:TLF5 TVA4:TVB5 UEW4:UEX5 UOS4:UOT5 UYO4:UYP5 VIK4:VIL5 VSG4:VSH5 WCC4:WCD5 WLY4:WLZ5 WVU4:WVV5">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="JI4:JJ4 WVU4:WVV4 WLY4:WLZ4 WCC4:WCD4 VSG4:VSH4 VIK4:VIL4 UYO4:UYP4 UOS4:UOT4 UEW4:UEX4 TVA4:TVB4 TLE4:TLF4 TBI4:TBJ4 SRM4:SRN4 SHQ4:SHR4 RXU4:RXV4 RNY4:RNZ4 REC4:RED4 QUG4:QUH4 QKK4:QKL4 QAO4:QAP4 PQS4:PQT4 PGW4:PGX4 OXA4:OXB4 ONE4:ONF4 ODI4:ODJ4 NTM4:NTN4 NJQ4:NJR4 MZU4:MZV4 MPY4:MPZ4 MGC4:MGD4 LWG4:LWH4 LMK4:LML4 LCO4:LCP4 KSS4:KST4 KIW4:KIX4 JZA4:JZB4 JPE4:JPF4 JFI4:JFJ4 IVM4:IVN4 ILQ4:ILR4 IBU4:IBV4 HRY4:HRZ4 HIC4:HID4 GYG4:GYH4 GOK4:GOL4 GEO4:GEP4 FUS4:FUT4 FKW4:FKX4 FBA4:FBB4 ERE4:ERF4 EHI4:EHJ4 DXM4:DXN4 DNQ4:DNR4 DDU4:DDV4 CTY4:CTZ4 CKC4:CKD4 CAG4:CAH4 BQK4:BQL4 BGO4:BGP4 AWS4:AWT4 AMW4:AMX4 ADA4:ADB4 TE4:TF4">
       <formula1>"ARB,CCOW,CDS,CQ,Ed,EHR,FM,M and M,M and M/ CMETs,M and M/ Templates,M and M/ Tooling,MedRec,OO,PA,PC,PM,Publishing,RCRIM,Sched,StructDocs,Implementation,Vocab"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IH4:IH5 SD4:SD5 ABZ4:ABZ5 ALV4:ALV5 AVR4:AVR5 BFN4:BFN5 BPJ4:BPJ5 BZF4:BZF5 CJB4:CJB5 CSX4:CSX5 DCT4:DCT5 DMP4:DMP5 DWL4:DWL5 EGH4:EGH5 EQD4:EQD5 EZZ4:EZZ5 FJV4:FJV5 FTR4:FTR5 GDN4:GDN5 GNJ4:GNJ5 GXF4:GXF5 HHB4:HHB5 HQX4:HQX5 IAT4:IAT5 IKP4:IKP5 IUL4:IUL5 JEH4:JEH5 JOD4:JOD5 JXZ4:JXZ5 KHV4:KHV5 KRR4:KRR5 LBN4:LBN5 LLJ4:LLJ5 LVF4:LVF5 MFB4:MFB5 MOX4:MOX5 MYT4:MYT5 NIP4:NIP5 NSL4:NSL5 OCH4:OCH5 OMD4:OMD5 OVZ4:OVZ5 PFV4:PFV5 PPR4:PPR5 PZN4:PZN5 QJJ4:QJJ5 QTF4:QTF5 RDB4:RDB5 RMX4:RMX5 RWT4:RWT5 SGP4:SGP5 SQL4:SQL5 TAH4:TAH5 TKD4:TKD5 TTZ4:TTZ5 UDV4:UDV5 UNR4:UNR5 UXN4:UXN5 VHJ4:VHJ5 VRF4:VRF5 WBB4:WBB5 WKX4:WKX5 WUT4:WUT5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IH4 WUT4 WKX4 WBB4 VRF4 VHJ4 UXN4 UNR4 UDV4 TTZ4 TKD4 TAH4 SQL4 SGP4 RWT4 RMX4 RDB4 QTF4 QJJ4 PZN4 PPR4 PFV4 OVZ4 OMD4 OCH4 NSL4 NIP4 MYT4 MOX4 MFB4 LVF4 LLJ4 LBN4 KRR4 KHV4 JXZ4 JOD4 JEH4 IUL4 IKP4 IAT4 HQX4 HHB4 GXF4 GNJ4 GDN4 FTR4 FJV4 EZZ4 EQD4 EGH4 DWL4 DMP4 DCT4 CSX4 CJB4 BZF4 BPJ4 BFN4 AVR4 ALV4 ABZ4 SD4">
       <formula1>Artifact_type</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IV4:IV5 SR4:SR5 ACN4:ACN5 AMJ4:AMJ5 AWF4:AWF5 BGB4:BGB5 BPX4:BPX5 BZT4:BZT5 CJP4:CJP5 CTL4:CTL5 DDH4:DDH5 DND4:DND5 DWZ4:DWZ5 EGV4:EGV5 EQR4:EQR5 FAN4:FAN5 FKJ4:FKJ5 FUF4:FUF5 GEB4:GEB5 GNX4:GNX5 GXT4:GXT5 HHP4:HHP5 HRL4:HRL5 IBH4:IBH5 ILD4:ILD5 IUZ4:IUZ5 JEV4:JEV5 JOR4:JOR5 JYN4:JYN5 KIJ4:KIJ5 KSF4:KSF5 LCB4:LCB5 LLX4:LLX5 LVT4:LVT5 MFP4:MFP5 MPL4:MPL5 MZH4:MZH5 NJD4:NJD5 NSZ4:NSZ5 OCV4:OCV5 OMR4:OMR5 OWN4:OWN5 PGJ4:PGJ5 PQF4:PQF5 QAB4:QAB5 QJX4:QJX5 QTT4:QTT5 RDP4:RDP5 RNL4:RNL5 RXH4:RXH5 SHD4:SHD5 SQZ4:SQZ5 TAV4:TAV5 TKR4:TKR5 TUN4:TUN5 UEJ4:UEJ5 UOF4:UOF5 UYB4:UYB5 VHX4:VHX5 VRT4:VRT5 WBP4:WBP5 WLL4:WLL5 WVH4:WVH5">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IV4 WVH4 WLL4 WBP4 VRT4 VHX4 UYB4 UOF4 UEJ4 TUN4 TKR4 TAV4 SQZ4 SHD4 RXH4 RNL4 RDP4 QTT4 QJX4 QAB4 PQF4 PGJ4 OWN4 OMR4 OCV4 NSZ4 NJD4 MZH4 MPL4 MFP4 LVT4 LLX4 LCB4 KSF4 KIJ4 JYN4 JOR4 JEV4 IUZ4 ILD4 IBH4 HRL4 HHP4 GXT4 GNX4 GEB4 FUF4 FKJ4 FAN4 EQR4 EGV4 DWZ4 DND4 DDH4 CTL4 CJP4 BZT4 BPX4 BGB4 AWF4 AMJ4 ACN4 SR4">
       <formula1>"ARB,Attach,Cardio,CCBC,CCOW,CDS,CG,Conform,Ed,EHR,FM,II,Implementation,InM,ITS,Lab,M and M,M and M/ CMETs,M and M/ Templates,M and M/ Tooling,MedRec,OO,PA,PC,PHER,PM,PS,PSC,Publishing,RCRIM,RX,Sched,Security,SOA,StructDocs,Vocab"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IG4:IG5 SC4:SC5 ABY4:ABY5 ALU4:ALU5 AVQ4:AVQ5 BFM4:BFM5 BPI4:BPI5 BZE4:BZE5 CJA4:CJA5 CSW4:CSW5 DCS4:DCS5 DMO4:DMO5 DWK4:DWK5 EGG4:EGG5 EQC4:EQC5 EZY4:EZY5 FJU4:FJU5 FTQ4:FTQ5 GDM4:GDM5 GNI4:GNI5 GXE4:GXE5 HHA4:HHA5 HQW4:HQW5 IAS4:IAS5 IKO4:IKO5 IUK4:IUK5 JEG4:JEG5 JOC4:JOC5 JXY4:JXY5 KHU4:KHU5 KRQ4:KRQ5 LBM4:LBM5 LLI4:LLI5 LVE4:LVE5 MFA4:MFA5 MOW4:MOW5 MYS4:MYS5 NIO4:NIO5 NSK4:NSK5 OCG4:OCG5 OMC4:OMC5 OVY4:OVY5 PFU4:PFU5 PPQ4:PPQ5 PZM4:PZM5 QJI4:QJI5 QTE4:QTE5 RDA4:RDA5 RMW4:RMW5 RWS4:RWS5 SGO4:SGO5 SQK4:SQK5 TAG4:TAG5 TKC4:TKC5 TTY4:TTY5 UDU4:UDU5 UNQ4:UNQ5 UXM4:UXM5 VHI4:VHI5 VRE4:VRE5 WBA4:WBA5 WKW4:WKW5 WUS4:WUS5">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IG4 WUS4 WKW4 WBA4 VRE4 VHI4 UXM4 UNQ4 UDU4 TTY4 TKC4 TAG4 SQK4 SGO4 RWS4 RMW4 RDA4 QTE4 QJI4 PZM4 PPQ4 PFU4 OVY4 OMC4 OCG4 NSK4 NIO4 MYS4 MOW4 MFA4 LVE4 LLI4 LBM4 KRQ4 KHU4 JXY4 JOC4 JEG4 IUK4 IKO4 IAS4 HQW4 HHA4 GXE4 GNI4 GDM4 FTQ4 FJU4 EZY4 EQC4 EGG4 DWK4 DMO4 DCS4 CSW4 CJA4 BZE4 BPI4 BFM4 AVQ4 ALU4 ABY4 SC4">
       <formula1>"ArB,Arden,Attach,Cardio,CBCC,CCOW,CDS,CG,CIC,Clinical Statement,Conform,Ed,EHR,FM,II,Implementation,InM,ITS,Lab,M and M,M and M/ CMETs,M and M/ Templates,M and M/ Tooling,MedRec,OO,PA,PC,PHER,PM,PS,PSC,RCRIM,RX,Sched,Security,SOA,StructDocs,Vocab"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JB3:JB5 SX3:SX5 ACT3:ACT5 AMP3:AMP5 AWL3:AWL5 BGH3:BGH5 BQD3:BQD5 BZZ3:BZZ5 CJV3:CJV5 CTR3:CTR5 DDN3:DDN5 DNJ3:DNJ5 DXF3:DXF5 EHB3:EHB5 EQX3:EQX5 FAT3:FAT5 FKP3:FKP5 FUL3:FUL5 GEH3:GEH5 GOD3:GOD5 GXZ3:GXZ5 HHV3:HHV5 HRR3:HRR5 IBN3:IBN5 ILJ3:ILJ5 IVF3:IVF5 JFB3:JFB5 JOX3:JOX5 JYT3:JYT5 KIP3:KIP5 KSL3:KSL5 LCH3:LCH5 LMD3:LMD5 LVZ3:LVZ5 MFV3:MFV5 MPR3:MPR5 MZN3:MZN5 NJJ3:NJJ5 NTF3:NTF5 ODB3:ODB5 OMX3:OMX5 OWT3:OWT5 PGP3:PGP5 PQL3:PQL5 QAH3:QAH5 QKD3:QKD5 QTZ3:QTZ5 RDV3:RDV5 RNR3:RNR5 RXN3:RXN5 SHJ3:SHJ5 SRF3:SRF5 TBB3:TBB5 TKX3:TKX5 TUT3:TUT5 UEP3:UEP5 UOL3:UOL5 UYH3:UYH5 VID3:VID5 VRZ3:VRZ5 WBV3:WBV5 WLR3:WLR5 WVN3:WVN5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JB3:JB4 WVN3:WVN4 WLR3:WLR4 WBV3:WBV4 VRZ3:VRZ4 VID3:VID4 UYH3:UYH4 UOL3:UOL4 UEP3:UEP4 TUT3:TUT4 TKX3:TKX4 TBB3:TBB4 SRF3:SRF4 SHJ3:SHJ4 RXN3:RXN4 RNR3:RNR4 RDV3:RDV4 QTZ3:QTZ4 QKD3:QKD4 QAH3:QAH4 PQL3:PQL4 PGP3:PGP4 OWT3:OWT4 OMX3:OMX4 ODB3:ODB4 NTF3:NTF4 NJJ3:NJJ4 MZN3:MZN4 MPR3:MPR4 MFV3:MFV4 LVZ3:LVZ4 LMD3:LMD4 LCH3:LCH4 KSL3:KSL4 KIP3:KIP4 JYT3:JYT4 JOX3:JOX4 JFB3:JFB4 IVF3:IVF4 ILJ3:ILJ4 IBN3:IBN4 HRR3:HRR4 HHV3:HHV4 GXZ3:GXZ4 GOD3:GOD4 GEH3:GEH4 FUL3:FUL4 FKP3:FKP4 FAT3:FAT4 EQX3:EQX4 EHB3:EHB4 DXF3:DXF4 DNJ3:DNJ4 DDN3:DDN4 CTR3:CTR4 CJV3:CJV4 BZZ3:BZZ4 BQD3:BQD4 BGH3:BGH4 AWL3:AWL4 AMP3:AMP4 ACT3:ACT4 SX3:SX4">
       <formula1>"yes, no, dup"</formula1>
     </dataValidation>
   </dataValidations>

--- a/成品/R1/卫生信息数据元_校对.xlsx
+++ b/成品/R1/卫生信息数据元_校对.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="1230" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="11640" yWindow="1230" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="数据元目录校对" sheetId="1" r:id="rId1"/>
+    <sheet name="数据元目录" sheetId="2" r:id="rId2"/>
+    <sheet name="数据集校对" sheetId="3" r:id="rId3"/>
+    <sheet name="数据集目录" sheetId="4" r:id="rId4"/>
+    <sheet name="数据元值域代码校对" sheetId="5" r:id="rId5"/>
+    <sheet name="数据元值域目录" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$1:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数据元目录!$C$1:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据元目录校对!$A$4:$C$4</definedName>
     <definedName name="Artifact_type">[1]Setup!$A$22:$A$30</definedName>
     <definedName name="dispositionstatus">[1]Setup!$A$20:$K$20</definedName>
   </definedNames>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="789">
   <si>
     <t>Ballot Comment Submission</t>
   </si>
@@ -1044,15 +1046,2691 @@
     <t>是否应该指定编码系统或值集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>数据元数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码系统ID代码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编码系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OID</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码系统名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码系统有效标志</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属标准编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属标准OID(全球唯一标识号)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属标准中文名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属标准英文名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施日期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本信息</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布者</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用标准</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS364.1-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：总则</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Classification and coding for value domain of health data element—
+ Part 1: General specification 
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB/T 10113   分类与编码通用术语</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ISO/IEC 11179-1    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元数据注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MDR).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>框架</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ISO/IEC 11179-3    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元数据注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MDR).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册元模型和基本属性</t>
+    </r>
+  </si>
+  <si>
+    <t>WS364.2-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：标识</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element— Part 2: Identification</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB 11643 公民身份证号码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB/T 2260 中华人民共和国行政区划代码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB/T 10114 县以下行政区划代码编码规则</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>城乡居民健康档案编号</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识编码规则</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>参合农民个人医疗证（卡）号</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>公民身份证号</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>居民健康卡号</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>出生医学证明编号</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口统计学代码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS364.3-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：人口学及社会经济学特征</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element—Part 3: Demographic and social economic characteristic</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV02.01.101</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证件类别代码表</t>
+  </si>
+  <si>
+    <t>WS364.3-2011</t>
+  </si>
+  <si>
+    <t>卫生信息数据元值域代码第3部分：人口学及社会经济学特征</t>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element—Part 3: Demographic and social economic characteristic</t>
+  </si>
+  <si>
+    <t>CV02.01.102</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生（分娩）地点类别代码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV02.01.103</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡地点类别代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV02.01.104</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>传染病患者归属代码</t>
+  </si>
+  <si>
+    <t>社会经济学代码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV02.01.201</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>血缘关系代码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV02.01.202</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>传染病患者职业代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV02.01.203</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭年人均收入代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV02.01.204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗保险类别代码表</t>
+  </si>
+  <si>
+    <t>CV02.10.001</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族近亲婚配者与本人关系代码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS364.4-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生信息数据元值域代码第4部分：健康史</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element—Part 4: Health history</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV02.10.002</t>
+  </si>
+  <si>
+    <t>妊娠终止方式代码表</t>
+  </si>
+  <si>
+    <t>CV02.10.003</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>分娩方式代码表</t>
+  </si>
+  <si>
+    <t>CV02.10.004</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生缺陷儿结局代码表</t>
+  </si>
+  <si>
+    <t>CV02.10.005</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>既往常见疾病种类代码表</t>
+  </si>
+  <si>
+    <t>行为危险因素代码</t>
+  </si>
+  <si>
+    <t>WS364.5-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生信息数据元值域代码第5部分：健康危险因素</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element—Part 5: Health risk factor</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.101</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸烟状态代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.102</t>
+  </si>
+  <si>
+    <t>被动吸烟场所类别代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.103</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸食烟草种类代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.104</t>
+  </si>
+  <si>
+    <t>饮酒频率代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.105</t>
+  </si>
+  <si>
+    <t>饮酒种类代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.106</t>
+  </si>
+  <si>
+    <t>饮食种类代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.107</t>
+  </si>
+  <si>
+    <t>饮食习惯代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.108</t>
+  </si>
+  <si>
+    <t>饮食频率分类代表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.109</t>
+  </si>
+  <si>
+    <t>每天食用的食物食用频率代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.110</t>
+  </si>
+  <si>
+    <t>每年食用的食物食用频率代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.111</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体活动频率代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.112</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>患重性精神疾病对家庭社会的影响代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.113</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾滋病接触史代码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.114</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日饮水量代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.115</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮水类别代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.116</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人不良行为接触史代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业危险因素代码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.201</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业照射种类代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.202</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>受照原因代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.203</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业病危害因素类别代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.204</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>农药名称代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境及其它危险因素代码</t>
+  </si>
+  <si>
+    <t>CV03.00.301</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境危险因素暴露类别代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.302</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房排风设施类别代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.303</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料类型类别代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.304</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>厕所类别代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.401</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>孕早期服药类别代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.402</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>孕产期高危因素代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV03.00.403</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触有害因素类别代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS364.6-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：主诉与症状</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element— Part 6: Chief complaint and symptoms</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV04.01.001</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>妇科及乳腺不适症状代码表</t>
+  </si>
+  <si>
+    <t>CV04.01.002</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳汁量代码表</t>
+  </si>
+  <si>
+    <t>CV04.01.003</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害发生原因代码表</t>
+  </si>
+  <si>
+    <t>CV04.01.004</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害意图类别代码表</t>
+  </si>
+  <si>
+    <t>CV04.01.005</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害发生地点代码表</t>
+  </si>
+  <si>
+    <t>CV04.01.006</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害发生时活动类别代码表</t>
+  </si>
+  <si>
+    <t>CV04.01.007</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似结核患者症状代码表</t>
+  </si>
+  <si>
+    <t>CV04.01.008</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢性丝虫病患者症状代码表</t>
+  </si>
+  <si>
+    <t>CV04.01.009</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神症状代码表</t>
+  </si>
+  <si>
+    <t>CV04.01.010</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童睡眠质量代码表</t>
+  </si>
+  <si>
+    <t>CV04.01.011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童睡眠情况代码表</t>
+  </si>
+  <si>
+    <t>CV04.01.012</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童大便性状代码表</t>
+  </si>
+  <si>
+    <t>CV04.01.013</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>老年人健康状态自我评估代码表</t>
+  </si>
+  <si>
+    <t>CV04.01.014</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>老年人生活自理能力自我评估代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.001</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件检查结果代码表</t>
+  </si>
+  <si>
+    <t>WS364.7-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：体格检查</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element—Part 7: Physical examination</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV04.10.002</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>子宫大小代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.003</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>妇科检查方式代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.004</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤检查结果代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.005</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮肿状况代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.006</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>巩膜检查结果代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.007</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>口唇外观代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.008</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童面色代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.009</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄疸部位代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.010</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>齿列类别代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV04.10.012</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳腺检查结果代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.013</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>肛门指诊检查结果代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.014</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>下肢水肿检查结果代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.015</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>足背动脉搏动代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.016</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害部位代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.017</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢性丝虫病症状发作部位代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.018</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>前囟张力代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.019</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>脐带检查结果代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.020</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童体格发育评价代码</t>
+  </si>
+  <si>
+    <t>CV04.10.021</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>可疑佝偻病症状代码表</t>
+  </si>
+  <si>
+    <t>CV04.10.022</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>可疑佝偻病体征代码表</t>
+  </si>
+  <si>
+    <t>CV04.30.001</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>血吸虫患者肝实质纤维化程度代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS364.8-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分：临床辅助检查</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element—Part 8: Assistant examination</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线摄影体位编码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线摄影方向编码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字符表</t>
+    </r>
+  </si>
+  <si>
+    <t>CV04.50.001</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBV血清学标志阳性项目代码表</t>
+  </si>
+  <si>
+    <t>WS364.9-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生信息数据元值域代码第9部分：实验室检查</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element—Part 9: Laboratory examination</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV04.50.002</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBV基因分型代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.003</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBV血清型代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.004</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐药突变检测阳性项目代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.005</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>血型代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.006</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>采血方式代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.007</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>采血部位代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.008</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生儿疾病筛查项目代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.009</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生儿疾病筛查方法代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.010</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴道分泌物清洁度代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴道细胞学诊断结果代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.012</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>妊娠诊断方法代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.013</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>药敏试验结果代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.014</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰检培养结果代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.015</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿实验室定性检测结果代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.016</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>血吸虫病虫卵检查方法代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.017</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>血吸虫病检测方法代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.018</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>血吸虫病抗体检测方法代码表</t>
+  </si>
+  <si>
+    <t>CV04.50.019</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴道分泌物检查结果代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.001</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院者疾病状态代码表</t>
+  </si>
+  <si>
+    <t>WS364.10-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生信息数据元值域代码第10部分：医学诊断</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element—Part 10: Diagnosis</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV05.01.002</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断状态代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.003</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳糜尿发作诱因代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.004</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害性质代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.005</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>中医体质分类代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.006</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>孕产妇死亡死因分类代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.007</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>胎方位代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.008</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>胎先露代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.009</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>产时并发症代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.010</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>会阴裂伤情况代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤口愈合状况代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.012</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生儿黄疸程度代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.013</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生儿并发症代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.014</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生缺陷诊断依据代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.015</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生缺陷确诊时间类别代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.016</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生缺陷类别代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.017</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>传染病名称代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.018</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>结核病合并症代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.019</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺外结核部位代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.020</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断结核病类型代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.021</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺结核诊断结果代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.022</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>血吸虫病合并症代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.023</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>血吸虫病感染方式代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.024</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>血吸虫病诊断状态代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.025</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚期血吸虫病病例类型代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.026</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>肿瘤临床分期代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.027</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>肿瘤诊断依据代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.028</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>病毒性肝炎类型代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.029</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢性HBV感染临床诊断分类代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.030</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢性乙型肝炎的临床分级代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.031</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝衰竭分类代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.032</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>预防接种后不良反应临床诊断代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.033</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>放射性疾病的分度代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.034</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>放射性疾病的分期代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.035</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>农药中毒原因类型代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.036</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>重性精神疾病名称代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.037</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡最高诊断依据类别代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.038</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>过敏源代码表</t>
+  </si>
+  <si>
+    <t>CV05.01.039</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5岁以下儿童死因分类代码表</t>
+  </si>
+  <si>
+    <t>CV05.10.001</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>残疾情况代码表</t>
+  </si>
+  <si>
+    <t>WS364.11-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生信息数据元值域代码第11部分：医学评估</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element—Part 11: Medical assessment</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV05.10.002</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>心理状态代码表</t>
+  </si>
+  <si>
+    <t>CV05.10.003</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>重性精神疾病患者社会功能情况分类代码表</t>
+  </si>
+  <si>
+    <t>CV05.10.004</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动能力评定分级代码表</t>
+  </si>
+  <si>
+    <t>CV05.10.005</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚前医学检查结果代码表</t>
+  </si>
+  <si>
+    <t>CV05.10.006</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童生长发育评价结果代码表</t>
+  </si>
+  <si>
+    <t>CV05.10.007</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童体弱原因类别代码表</t>
+  </si>
+  <si>
+    <t>CV05.10.008</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>血吸虫病患者劳动能力分级代码表</t>
+  </si>
+  <si>
+    <t>CV05.10.009</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业健康检查结论代码表</t>
+  </si>
+  <si>
+    <t>CV05.10.010</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>病情转归代码表</t>
+  </si>
+  <si>
+    <t>CV05.10.011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害转归代码表</t>
+  </si>
+  <si>
+    <t>CV05.10.012</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>随访评价结果代码表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV05.10.013</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>重性精神疾病患者危险性分级代码表</t>
+  </si>
+  <si>
+    <t>CV05.10.014</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙肝抗病毒治疗的血清学应答代码表</t>
+  </si>
+  <si>
+    <t>CV05.10.015</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5岁以下儿童未治疗或未就医原因代码表</t>
+  </si>
+  <si>
+    <t>CV05.10.016</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响孕产妇死亡的主要因素代码表</t>
+  </si>
+  <si>
+    <t>CV05.10.017</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似食源性异常病例（健康事件）可疑病因代码表</t>
+  </si>
+  <si>
+    <t>CV05.10.018</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似食源性异常病例（健康事件）报告卡上报原因代码表</t>
+  </si>
+  <si>
+    <t>临床干预代码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV06.00.101</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>中药使用类别代码表</t>
+  </si>
+  <si>
+    <t>WS364.12-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生信息数据元值域代码第12部分：计划与干预</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element—Part 12: Medical plan and intervention</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV06.00.102</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>用药途径代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.103</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉方法代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.104</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫内节育器放置时期代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.105</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮下埋植剂埋植时期代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.106</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>输卵管结扎手术方式代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.107</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>输卵管结扎部位代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.108</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生儿抢救方法代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.109</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙肝疫苗接种剂量代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.110</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙肝抗病毒治疗的基本药物代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.111</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙肝抗病毒治疗终止原因代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.112</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙肝治疗方法代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.113</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换抗HBV药物方案原因代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.114</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗结核化疗方案代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.115</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗结核治疗停止原因代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.116</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>结核患者发现方式代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.117</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>结核患者管理方式代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.118</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾滋病抗病毒治疗停药原因代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.119</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾滋病抗病毒治疗终止原因代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.120</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>美沙酮维持治疗终止原因代码表</t>
+  </si>
+  <si>
+    <t>疾病控制与保健干预代码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV06.00.201</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>血吸虫病治疗方案代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.202</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢性丝虫病患者治疗情况代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.203</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>肿瘤患者治疗方式代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.204</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒烟方法类别代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.205</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业性放射性疾病处理情况代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.206</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>肿瘤患者指导内容代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.207</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>随访方式代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.208</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>随访周期建议代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.209</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神康复措施代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.210</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚检医学意见代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.211</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>避孕方式代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.212</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院原因代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.213</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>育龄妇女预防母婴传播干预措施代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.214</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童预防母婴传播干预措施代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.215</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销随访管理原因代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.216</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>婴幼儿添加辅食种类代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.217</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童健康指导代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.218</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险因素控制建议代码表</t>
+  </si>
+  <si>
+    <t>CV06.00.219</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>孕产妇健康指导类别代码表</t>
+  </si>
+  <si>
+    <t>CV07.10.001</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊费用分类代码表</t>
+  </si>
+  <si>
+    <t>WS364.13-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生信息数据元值域代码第13部分：卫生费用</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element—Part 13: Healthcare expenditure</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV07.10.002</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院费用类别代码表</t>
+  </si>
+  <si>
+    <t>CV07.10.003</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗费用来源类别代码表</t>
+  </si>
+  <si>
+    <t>CV07.10.004</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗费用结算方式代码表</t>
+  </si>
+  <si>
+    <t>CV08.10.001</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生监督机构性质代码表</t>
+  </si>
+  <si>
+    <t>WS364.14-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生信息数据元值域代码第14部分：卫生机构</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element—Part 14: Healthcare organization</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV08.10.002</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生监督机构行政级别代码表</t>
+  </si>
+  <si>
+    <t>CV08.10.003</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督机构科室代码表</t>
+  </si>
+  <si>
+    <t>CV08.10.004</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要致死疾病的最高诊断机构级别代码表</t>
+  </si>
+  <si>
+    <t>CV08.10.005</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>肿瘤诊疗机构代码表</t>
+  </si>
+  <si>
+    <t>CV08.10.006</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>血吸虫病诊断（治疗）机构级别代码表</t>
+  </si>
+  <si>
+    <t>CV08.30.001</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生监督机构人员编制类别代码表</t>
+  </si>
+  <si>
+    <t>WS364.15-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生信息数据元值域代码第15部分：卫生人员</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element—Part 15: Health personnel</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV08.30.002</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生监督机构职工类别代码表</t>
+  </si>
+  <si>
+    <t>CV08.30.003</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督员执业范围代码表</t>
+  </si>
+  <si>
+    <t>CV08.30.004</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>助产人员类别代码表</t>
+  </si>
+  <si>
+    <t>CV08.30.005</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>药品代码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV08.50.001</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫苗名称代码</t>
+  </si>
+  <si>
+    <t>WS364.16-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生信息数据元值域代码第16部分：药品、设备与材料</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element—Part 16: Drug, equipment and material</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV08.50.002</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>药物剂型代码</t>
+  </si>
+  <si>
+    <t>CV08.50.003</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>药敏试验药物代码</t>
+  </si>
+  <si>
+    <t>CV08.50.004</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫内节育器种类代码</t>
+  </si>
+  <si>
+    <t>设备与材料代码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV08.50.102</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通工具代码表</t>
+  </si>
+  <si>
+    <t>卫生监督与管理对象代码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS364.17-2011</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生信息数据元值域代码第17部分：卫生管理</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Classification and coding for value domain of health data element—Part 17: Health management</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV09.00.101</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生监督对象类别代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.102</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目性质代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.103</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业病建设项目审核代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.104</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮用水类别代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.105</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV09.00.106</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>制水工艺代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.107</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活饮用水消毒方式代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.108</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验指标代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.109</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业性健康监护体检类别代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.110</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业卫生技术服务业务范围代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.111</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>资质等级代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.112</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>放射性同位素和射线装置的种类代码表</t>
+  </si>
+  <si>
+    <t>卫生监督与管理活动代码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV09.00.201</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生监督量化分级管理等级评定情况代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.202</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生监督检查与行政处罚查处案件来源代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.203</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生监督检查与行政处罚专业类别代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.204</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生行政处罚结果及行政措施代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.205</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共场所违法事实代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.206</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活饮用水违法事实代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.207</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业卫生违法事实代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.208</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>放射卫生违法事实代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.209</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>校内辅助设施类别代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.210</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校卫生违法事实代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.211</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗卫生违法事实代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.212</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>传染病防治违法事实代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.213</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>采供血卫生违法事实代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.214</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政复议情况代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.215</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政诉讼情况代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.216</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政处分类别代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.217</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生监督证书类别代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.218</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV09.00.301</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查结果通知形式代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.401</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入与支出代码表</t>
+  </si>
+  <si>
+    <t>CV09.00.402</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产与负债代码表</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0;\-0;;@\ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1135,8 +3813,48 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1211,6 +3929,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,7 +4138,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1520,6 +4250,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1925,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6399,10 +9161,10 @@
       <formula1>"卫生部"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>Sheet2!$C$2:$C$18</formula1>
+      <formula1>数据元目录!$C$2:$C$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>Sheet2!$B$2:$B$18</formula1>
+      <formula1>数据元目录!$B$2:$B$18</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -6423,24 +9185,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="46.5" customWidth="1"/>
-    <col min="4" max="4" width="92.25" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
-    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -6451,225 +9214,282 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>241</v>
+      </c>
+      <c r="E8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="B11" t="s">
         <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
         <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="B13" t="s">
         <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>175</v>
+      </c>
+      <c r="E13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="B14" t="s">
         <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="B15" t="s">
         <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
         <v>68</v>
       </c>
       <c r="C16" t="s">
         <v>69</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>74</v>
       </c>
       <c r="C18" t="s">
         <v>75</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="18.75">
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="2:4" ht="18.75">
-      <c r="D29" s="31"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="D30" s="32"/>
-    </row>
-    <row r="31" spans="2:4" ht="18.75">
-      <c r="D31" s="33"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="D32" s="32"/>
+    <row r="19" spans="2:5">
+      <c r="D19">
+        <f>SUM(D3:D18)</f>
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="18.75">
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="2:5" ht="18.75">
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="2:5" ht="18.75">
+      <c r="E31" s="33"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="E32" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6683,7 +9503,7 @@
   <dimension ref="A1:U242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10881,10 +13701,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>Sheet4!$E$2:$E$19</formula1>
+      <formula1>数据集目录!$E$2:$E$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>Sheet4!$C$2:$C$19</formula1>
+      <formula1>数据集目录!$C$2:$C$19</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"卫生部"</formula1>
@@ -10942,10 +13762,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10957,7 +13777,7 @@
     <col min="6" max="6" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -10976,8 +13796,11 @@
       <c r="F1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>158</v>
       </c>
@@ -10994,7 +13817,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>163</v>
       </c>
@@ -11011,7 +13834,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>166</v>
       </c>
@@ -11028,7 +13851,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>169</v>
       </c>
@@ -11045,7 +13868,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>171</v>
       </c>
@@ -11062,7 +13885,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>174</v>
       </c>
@@ -11079,7 +13902,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>176</v>
       </c>
@@ -11096,7 +13919,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>178</v>
       </c>
@@ -11113,7 +13936,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>181</v>
       </c>
@@ -11130,7 +13953,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="B11" t="s">
         <v>183</v>
       </c>
@@ -11147,7 +13970,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>185</v>
       </c>
@@ -11164,7 +13987,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>187</v>
       </c>
@@ -11181,7 +14004,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>190</v>
       </c>
@@ -11198,7 +14021,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>192</v>
       </c>
@@ -11215,7 +14038,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>194</v>
       </c>
@@ -11295,4 +14118,4632 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P282"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="45"/>
+    <col min="2" max="2" width="19.25" style="45" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="40.25" style="45" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="45" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="13" style="45" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="41.375" style="45" customWidth="1"/>
+    <col min="9" max="9" width="46" style="45" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="45" customWidth="1"/>
+    <col min="11" max="13" width="9" style="47"/>
+    <col min="14" max="14" width="18.625" style="45" customWidth="1"/>
+    <col min="15" max="254" width="9" style="45"/>
+    <col min="255" max="255" width="19.25" style="45" customWidth="1"/>
+    <col min="256" max="256" width="5.125" style="45" customWidth="1"/>
+    <col min="257" max="257" width="40.25" style="45" customWidth="1"/>
+    <col min="258" max="258" width="16.5" style="45" customWidth="1"/>
+    <col min="259" max="259" width="33.125" style="45" customWidth="1"/>
+    <col min="260" max="260" width="8.5" style="45" customWidth="1"/>
+    <col min="261" max="261" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="262" max="262" width="13.125" style="45" customWidth="1"/>
+    <col min="263" max="263" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="264" max="264" width="41.375" style="45" customWidth="1"/>
+    <col min="265" max="265" width="46" style="45" customWidth="1"/>
+    <col min="266" max="266" width="12.375" style="45" customWidth="1"/>
+    <col min="267" max="269" width="9" style="45"/>
+    <col min="270" max="270" width="18.625" style="45" customWidth="1"/>
+    <col min="271" max="510" width="9" style="45"/>
+    <col min="511" max="511" width="19.25" style="45" customWidth="1"/>
+    <col min="512" max="512" width="5.125" style="45" customWidth="1"/>
+    <col min="513" max="513" width="40.25" style="45" customWidth="1"/>
+    <col min="514" max="514" width="16.5" style="45" customWidth="1"/>
+    <col min="515" max="515" width="33.125" style="45" customWidth="1"/>
+    <col min="516" max="516" width="8.5" style="45" customWidth="1"/>
+    <col min="517" max="517" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="518" max="518" width="13.125" style="45" customWidth="1"/>
+    <col min="519" max="519" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="520" max="520" width="41.375" style="45" customWidth="1"/>
+    <col min="521" max="521" width="46" style="45" customWidth="1"/>
+    <col min="522" max="522" width="12.375" style="45" customWidth="1"/>
+    <col min="523" max="525" width="9" style="45"/>
+    <col min="526" max="526" width="18.625" style="45" customWidth="1"/>
+    <col min="527" max="766" width="9" style="45"/>
+    <col min="767" max="767" width="19.25" style="45" customWidth="1"/>
+    <col min="768" max="768" width="5.125" style="45" customWidth="1"/>
+    <col min="769" max="769" width="40.25" style="45" customWidth="1"/>
+    <col min="770" max="770" width="16.5" style="45" customWidth="1"/>
+    <col min="771" max="771" width="33.125" style="45" customWidth="1"/>
+    <col min="772" max="772" width="8.5" style="45" customWidth="1"/>
+    <col min="773" max="773" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="774" max="774" width="13.125" style="45" customWidth="1"/>
+    <col min="775" max="775" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="776" max="776" width="41.375" style="45" customWidth="1"/>
+    <col min="777" max="777" width="46" style="45" customWidth="1"/>
+    <col min="778" max="778" width="12.375" style="45" customWidth="1"/>
+    <col min="779" max="781" width="9" style="45"/>
+    <col min="782" max="782" width="18.625" style="45" customWidth="1"/>
+    <col min="783" max="1022" width="9" style="45"/>
+    <col min="1023" max="1023" width="19.25" style="45" customWidth="1"/>
+    <col min="1024" max="1024" width="5.125" style="45" customWidth="1"/>
+    <col min="1025" max="1025" width="40.25" style="45" customWidth="1"/>
+    <col min="1026" max="1026" width="16.5" style="45" customWidth="1"/>
+    <col min="1027" max="1027" width="33.125" style="45" customWidth="1"/>
+    <col min="1028" max="1028" width="8.5" style="45" customWidth="1"/>
+    <col min="1029" max="1029" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="1030" max="1030" width="13.125" style="45" customWidth="1"/>
+    <col min="1031" max="1031" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="1032" max="1032" width="41.375" style="45" customWidth="1"/>
+    <col min="1033" max="1033" width="46" style="45" customWidth="1"/>
+    <col min="1034" max="1034" width="12.375" style="45" customWidth="1"/>
+    <col min="1035" max="1037" width="9" style="45"/>
+    <col min="1038" max="1038" width="18.625" style="45" customWidth="1"/>
+    <col min="1039" max="1278" width="9" style="45"/>
+    <col min="1279" max="1279" width="19.25" style="45" customWidth="1"/>
+    <col min="1280" max="1280" width="5.125" style="45" customWidth="1"/>
+    <col min="1281" max="1281" width="40.25" style="45" customWidth="1"/>
+    <col min="1282" max="1282" width="16.5" style="45" customWidth="1"/>
+    <col min="1283" max="1283" width="33.125" style="45" customWidth="1"/>
+    <col min="1284" max="1284" width="8.5" style="45" customWidth="1"/>
+    <col min="1285" max="1285" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="1286" max="1286" width="13.125" style="45" customWidth="1"/>
+    <col min="1287" max="1287" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="1288" max="1288" width="41.375" style="45" customWidth="1"/>
+    <col min="1289" max="1289" width="46" style="45" customWidth="1"/>
+    <col min="1290" max="1290" width="12.375" style="45" customWidth="1"/>
+    <col min="1291" max="1293" width="9" style="45"/>
+    <col min="1294" max="1294" width="18.625" style="45" customWidth="1"/>
+    <col min="1295" max="1534" width="9" style="45"/>
+    <col min="1535" max="1535" width="19.25" style="45" customWidth="1"/>
+    <col min="1536" max="1536" width="5.125" style="45" customWidth="1"/>
+    <col min="1537" max="1537" width="40.25" style="45" customWidth="1"/>
+    <col min="1538" max="1538" width="16.5" style="45" customWidth="1"/>
+    <col min="1539" max="1539" width="33.125" style="45" customWidth="1"/>
+    <col min="1540" max="1540" width="8.5" style="45" customWidth="1"/>
+    <col min="1541" max="1541" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="1542" max="1542" width="13.125" style="45" customWidth="1"/>
+    <col min="1543" max="1543" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="1544" max="1544" width="41.375" style="45" customWidth="1"/>
+    <col min="1545" max="1545" width="46" style="45" customWidth="1"/>
+    <col min="1546" max="1546" width="12.375" style="45" customWidth="1"/>
+    <col min="1547" max="1549" width="9" style="45"/>
+    <col min="1550" max="1550" width="18.625" style="45" customWidth="1"/>
+    <col min="1551" max="1790" width="9" style="45"/>
+    <col min="1791" max="1791" width="19.25" style="45" customWidth="1"/>
+    <col min="1792" max="1792" width="5.125" style="45" customWidth="1"/>
+    <col min="1793" max="1793" width="40.25" style="45" customWidth="1"/>
+    <col min="1794" max="1794" width="16.5" style="45" customWidth="1"/>
+    <col min="1795" max="1795" width="33.125" style="45" customWidth="1"/>
+    <col min="1796" max="1796" width="8.5" style="45" customWidth="1"/>
+    <col min="1797" max="1797" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="1798" max="1798" width="13.125" style="45" customWidth="1"/>
+    <col min="1799" max="1799" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="1800" max="1800" width="41.375" style="45" customWidth="1"/>
+    <col min="1801" max="1801" width="46" style="45" customWidth="1"/>
+    <col min="1802" max="1802" width="12.375" style="45" customWidth="1"/>
+    <col min="1803" max="1805" width="9" style="45"/>
+    <col min="1806" max="1806" width="18.625" style="45" customWidth="1"/>
+    <col min="1807" max="2046" width="9" style="45"/>
+    <col min="2047" max="2047" width="19.25" style="45" customWidth="1"/>
+    <col min="2048" max="2048" width="5.125" style="45" customWidth="1"/>
+    <col min="2049" max="2049" width="40.25" style="45" customWidth="1"/>
+    <col min="2050" max="2050" width="16.5" style="45" customWidth="1"/>
+    <col min="2051" max="2051" width="33.125" style="45" customWidth="1"/>
+    <col min="2052" max="2052" width="8.5" style="45" customWidth="1"/>
+    <col min="2053" max="2053" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="2054" max="2054" width="13.125" style="45" customWidth="1"/>
+    <col min="2055" max="2055" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="2056" max="2056" width="41.375" style="45" customWidth="1"/>
+    <col min="2057" max="2057" width="46" style="45" customWidth="1"/>
+    <col min="2058" max="2058" width="12.375" style="45" customWidth="1"/>
+    <col min="2059" max="2061" width="9" style="45"/>
+    <col min="2062" max="2062" width="18.625" style="45" customWidth="1"/>
+    <col min="2063" max="2302" width="9" style="45"/>
+    <col min="2303" max="2303" width="19.25" style="45" customWidth="1"/>
+    <col min="2304" max="2304" width="5.125" style="45" customWidth="1"/>
+    <col min="2305" max="2305" width="40.25" style="45" customWidth="1"/>
+    <col min="2306" max="2306" width="16.5" style="45" customWidth="1"/>
+    <col min="2307" max="2307" width="33.125" style="45" customWidth="1"/>
+    <col min="2308" max="2308" width="8.5" style="45" customWidth="1"/>
+    <col min="2309" max="2309" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="2310" max="2310" width="13.125" style="45" customWidth="1"/>
+    <col min="2311" max="2311" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="2312" max="2312" width="41.375" style="45" customWidth="1"/>
+    <col min="2313" max="2313" width="46" style="45" customWidth="1"/>
+    <col min="2314" max="2314" width="12.375" style="45" customWidth="1"/>
+    <col min="2315" max="2317" width="9" style="45"/>
+    <col min="2318" max="2318" width="18.625" style="45" customWidth="1"/>
+    <col min="2319" max="2558" width="9" style="45"/>
+    <col min="2559" max="2559" width="19.25" style="45" customWidth="1"/>
+    <col min="2560" max="2560" width="5.125" style="45" customWidth="1"/>
+    <col min="2561" max="2561" width="40.25" style="45" customWidth="1"/>
+    <col min="2562" max="2562" width="16.5" style="45" customWidth="1"/>
+    <col min="2563" max="2563" width="33.125" style="45" customWidth="1"/>
+    <col min="2564" max="2564" width="8.5" style="45" customWidth="1"/>
+    <col min="2565" max="2565" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="2566" max="2566" width="13.125" style="45" customWidth="1"/>
+    <col min="2567" max="2567" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="2568" max="2568" width="41.375" style="45" customWidth="1"/>
+    <col min="2569" max="2569" width="46" style="45" customWidth="1"/>
+    <col min="2570" max="2570" width="12.375" style="45" customWidth="1"/>
+    <col min="2571" max="2573" width="9" style="45"/>
+    <col min="2574" max="2574" width="18.625" style="45" customWidth="1"/>
+    <col min="2575" max="2814" width="9" style="45"/>
+    <col min="2815" max="2815" width="19.25" style="45" customWidth="1"/>
+    <col min="2816" max="2816" width="5.125" style="45" customWidth="1"/>
+    <col min="2817" max="2817" width="40.25" style="45" customWidth="1"/>
+    <col min="2818" max="2818" width="16.5" style="45" customWidth="1"/>
+    <col min="2819" max="2819" width="33.125" style="45" customWidth="1"/>
+    <col min="2820" max="2820" width="8.5" style="45" customWidth="1"/>
+    <col min="2821" max="2821" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="2822" max="2822" width="13.125" style="45" customWidth="1"/>
+    <col min="2823" max="2823" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="2824" max="2824" width="41.375" style="45" customWidth="1"/>
+    <col min="2825" max="2825" width="46" style="45" customWidth="1"/>
+    <col min="2826" max="2826" width="12.375" style="45" customWidth="1"/>
+    <col min="2827" max="2829" width="9" style="45"/>
+    <col min="2830" max="2830" width="18.625" style="45" customWidth="1"/>
+    <col min="2831" max="3070" width="9" style="45"/>
+    <col min="3071" max="3071" width="19.25" style="45" customWidth="1"/>
+    <col min="3072" max="3072" width="5.125" style="45" customWidth="1"/>
+    <col min="3073" max="3073" width="40.25" style="45" customWidth="1"/>
+    <col min="3074" max="3074" width="16.5" style="45" customWidth="1"/>
+    <col min="3075" max="3075" width="33.125" style="45" customWidth="1"/>
+    <col min="3076" max="3076" width="8.5" style="45" customWidth="1"/>
+    <col min="3077" max="3077" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="3078" max="3078" width="13.125" style="45" customWidth="1"/>
+    <col min="3079" max="3079" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="3080" max="3080" width="41.375" style="45" customWidth="1"/>
+    <col min="3081" max="3081" width="46" style="45" customWidth="1"/>
+    <col min="3082" max="3082" width="12.375" style="45" customWidth="1"/>
+    <col min="3083" max="3085" width="9" style="45"/>
+    <col min="3086" max="3086" width="18.625" style="45" customWidth="1"/>
+    <col min="3087" max="3326" width="9" style="45"/>
+    <col min="3327" max="3327" width="19.25" style="45" customWidth="1"/>
+    <col min="3328" max="3328" width="5.125" style="45" customWidth="1"/>
+    <col min="3329" max="3329" width="40.25" style="45" customWidth="1"/>
+    <col min="3330" max="3330" width="16.5" style="45" customWidth="1"/>
+    <col min="3331" max="3331" width="33.125" style="45" customWidth="1"/>
+    <col min="3332" max="3332" width="8.5" style="45" customWidth="1"/>
+    <col min="3333" max="3333" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="3334" max="3334" width="13.125" style="45" customWidth="1"/>
+    <col min="3335" max="3335" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="3336" max="3336" width="41.375" style="45" customWidth="1"/>
+    <col min="3337" max="3337" width="46" style="45" customWidth="1"/>
+    <col min="3338" max="3338" width="12.375" style="45" customWidth="1"/>
+    <col min="3339" max="3341" width="9" style="45"/>
+    <col min="3342" max="3342" width="18.625" style="45" customWidth="1"/>
+    <col min="3343" max="3582" width="9" style="45"/>
+    <col min="3583" max="3583" width="19.25" style="45" customWidth="1"/>
+    <col min="3584" max="3584" width="5.125" style="45" customWidth="1"/>
+    <col min="3585" max="3585" width="40.25" style="45" customWidth="1"/>
+    <col min="3586" max="3586" width="16.5" style="45" customWidth="1"/>
+    <col min="3587" max="3587" width="33.125" style="45" customWidth="1"/>
+    <col min="3588" max="3588" width="8.5" style="45" customWidth="1"/>
+    <col min="3589" max="3589" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="3590" max="3590" width="13.125" style="45" customWidth="1"/>
+    <col min="3591" max="3591" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="3592" max="3592" width="41.375" style="45" customWidth="1"/>
+    <col min="3593" max="3593" width="46" style="45" customWidth="1"/>
+    <col min="3594" max="3594" width="12.375" style="45" customWidth="1"/>
+    <col min="3595" max="3597" width="9" style="45"/>
+    <col min="3598" max="3598" width="18.625" style="45" customWidth="1"/>
+    <col min="3599" max="3838" width="9" style="45"/>
+    <col min="3839" max="3839" width="19.25" style="45" customWidth="1"/>
+    <col min="3840" max="3840" width="5.125" style="45" customWidth="1"/>
+    <col min="3841" max="3841" width="40.25" style="45" customWidth="1"/>
+    <col min="3842" max="3842" width="16.5" style="45" customWidth="1"/>
+    <col min="3843" max="3843" width="33.125" style="45" customWidth="1"/>
+    <col min="3844" max="3844" width="8.5" style="45" customWidth="1"/>
+    <col min="3845" max="3845" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="3846" max="3846" width="13.125" style="45" customWidth="1"/>
+    <col min="3847" max="3847" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="3848" max="3848" width="41.375" style="45" customWidth="1"/>
+    <col min="3849" max="3849" width="46" style="45" customWidth="1"/>
+    <col min="3850" max="3850" width="12.375" style="45" customWidth="1"/>
+    <col min="3851" max="3853" width="9" style="45"/>
+    <col min="3854" max="3854" width="18.625" style="45" customWidth="1"/>
+    <col min="3855" max="4094" width="9" style="45"/>
+    <col min="4095" max="4095" width="19.25" style="45" customWidth="1"/>
+    <col min="4096" max="4096" width="5.125" style="45" customWidth="1"/>
+    <col min="4097" max="4097" width="40.25" style="45" customWidth="1"/>
+    <col min="4098" max="4098" width="16.5" style="45" customWidth="1"/>
+    <col min="4099" max="4099" width="33.125" style="45" customWidth="1"/>
+    <col min="4100" max="4100" width="8.5" style="45" customWidth="1"/>
+    <col min="4101" max="4101" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="4102" max="4102" width="13.125" style="45" customWidth="1"/>
+    <col min="4103" max="4103" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="4104" max="4104" width="41.375" style="45" customWidth="1"/>
+    <col min="4105" max="4105" width="46" style="45" customWidth="1"/>
+    <col min="4106" max="4106" width="12.375" style="45" customWidth="1"/>
+    <col min="4107" max="4109" width="9" style="45"/>
+    <col min="4110" max="4110" width="18.625" style="45" customWidth="1"/>
+    <col min="4111" max="4350" width="9" style="45"/>
+    <col min="4351" max="4351" width="19.25" style="45" customWidth="1"/>
+    <col min="4352" max="4352" width="5.125" style="45" customWidth="1"/>
+    <col min="4353" max="4353" width="40.25" style="45" customWidth="1"/>
+    <col min="4354" max="4354" width="16.5" style="45" customWidth="1"/>
+    <col min="4355" max="4355" width="33.125" style="45" customWidth="1"/>
+    <col min="4356" max="4356" width="8.5" style="45" customWidth="1"/>
+    <col min="4357" max="4357" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="4358" max="4358" width="13.125" style="45" customWidth="1"/>
+    <col min="4359" max="4359" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="4360" max="4360" width="41.375" style="45" customWidth="1"/>
+    <col min="4361" max="4361" width="46" style="45" customWidth="1"/>
+    <col min="4362" max="4362" width="12.375" style="45" customWidth="1"/>
+    <col min="4363" max="4365" width="9" style="45"/>
+    <col min="4366" max="4366" width="18.625" style="45" customWidth="1"/>
+    <col min="4367" max="4606" width="9" style="45"/>
+    <col min="4607" max="4607" width="19.25" style="45" customWidth="1"/>
+    <col min="4608" max="4608" width="5.125" style="45" customWidth="1"/>
+    <col min="4609" max="4609" width="40.25" style="45" customWidth="1"/>
+    <col min="4610" max="4610" width="16.5" style="45" customWidth="1"/>
+    <col min="4611" max="4611" width="33.125" style="45" customWidth="1"/>
+    <col min="4612" max="4612" width="8.5" style="45" customWidth="1"/>
+    <col min="4613" max="4613" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="4614" max="4614" width="13.125" style="45" customWidth="1"/>
+    <col min="4615" max="4615" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="4616" max="4616" width="41.375" style="45" customWidth="1"/>
+    <col min="4617" max="4617" width="46" style="45" customWidth="1"/>
+    <col min="4618" max="4618" width="12.375" style="45" customWidth="1"/>
+    <col min="4619" max="4621" width="9" style="45"/>
+    <col min="4622" max="4622" width="18.625" style="45" customWidth="1"/>
+    <col min="4623" max="4862" width="9" style="45"/>
+    <col min="4863" max="4863" width="19.25" style="45" customWidth="1"/>
+    <col min="4864" max="4864" width="5.125" style="45" customWidth="1"/>
+    <col min="4865" max="4865" width="40.25" style="45" customWidth="1"/>
+    <col min="4866" max="4866" width="16.5" style="45" customWidth="1"/>
+    <col min="4867" max="4867" width="33.125" style="45" customWidth="1"/>
+    <col min="4868" max="4868" width="8.5" style="45" customWidth="1"/>
+    <col min="4869" max="4869" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="4870" max="4870" width="13.125" style="45" customWidth="1"/>
+    <col min="4871" max="4871" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="4872" max="4872" width="41.375" style="45" customWidth="1"/>
+    <col min="4873" max="4873" width="46" style="45" customWidth="1"/>
+    <col min="4874" max="4874" width="12.375" style="45" customWidth="1"/>
+    <col min="4875" max="4877" width="9" style="45"/>
+    <col min="4878" max="4878" width="18.625" style="45" customWidth="1"/>
+    <col min="4879" max="5118" width="9" style="45"/>
+    <col min="5119" max="5119" width="19.25" style="45" customWidth="1"/>
+    <col min="5120" max="5120" width="5.125" style="45" customWidth="1"/>
+    <col min="5121" max="5121" width="40.25" style="45" customWidth="1"/>
+    <col min="5122" max="5122" width="16.5" style="45" customWidth="1"/>
+    <col min="5123" max="5123" width="33.125" style="45" customWidth="1"/>
+    <col min="5124" max="5124" width="8.5" style="45" customWidth="1"/>
+    <col min="5125" max="5125" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="5126" max="5126" width="13.125" style="45" customWidth="1"/>
+    <col min="5127" max="5127" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="5128" max="5128" width="41.375" style="45" customWidth="1"/>
+    <col min="5129" max="5129" width="46" style="45" customWidth="1"/>
+    <col min="5130" max="5130" width="12.375" style="45" customWidth="1"/>
+    <col min="5131" max="5133" width="9" style="45"/>
+    <col min="5134" max="5134" width="18.625" style="45" customWidth="1"/>
+    <col min="5135" max="5374" width="9" style="45"/>
+    <col min="5375" max="5375" width="19.25" style="45" customWidth="1"/>
+    <col min="5376" max="5376" width="5.125" style="45" customWidth="1"/>
+    <col min="5377" max="5377" width="40.25" style="45" customWidth="1"/>
+    <col min="5378" max="5378" width="16.5" style="45" customWidth="1"/>
+    <col min="5379" max="5379" width="33.125" style="45" customWidth="1"/>
+    <col min="5380" max="5380" width="8.5" style="45" customWidth="1"/>
+    <col min="5381" max="5381" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="5382" max="5382" width="13.125" style="45" customWidth="1"/>
+    <col min="5383" max="5383" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="5384" max="5384" width="41.375" style="45" customWidth="1"/>
+    <col min="5385" max="5385" width="46" style="45" customWidth="1"/>
+    <col min="5386" max="5386" width="12.375" style="45" customWidth="1"/>
+    <col min="5387" max="5389" width="9" style="45"/>
+    <col min="5390" max="5390" width="18.625" style="45" customWidth="1"/>
+    <col min="5391" max="5630" width="9" style="45"/>
+    <col min="5631" max="5631" width="19.25" style="45" customWidth="1"/>
+    <col min="5632" max="5632" width="5.125" style="45" customWidth="1"/>
+    <col min="5633" max="5633" width="40.25" style="45" customWidth="1"/>
+    <col min="5634" max="5634" width="16.5" style="45" customWidth="1"/>
+    <col min="5635" max="5635" width="33.125" style="45" customWidth="1"/>
+    <col min="5636" max="5636" width="8.5" style="45" customWidth="1"/>
+    <col min="5637" max="5637" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="5638" max="5638" width="13.125" style="45" customWidth="1"/>
+    <col min="5639" max="5639" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="5640" max="5640" width="41.375" style="45" customWidth="1"/>
+    <col min="5641" max="5641" width="46" style="45" customWidth="1"/>
+    <col min="5642" max="5642" width="12.375" style="45" customWidth="1"/>
+    <col min="5643" max="5645" width="9" style="45"/>
+    <col min="5646" max="5646" width="18.625" style="45" customWidth="1"/>
+    <col min="5647" max="5886" width="9" style="45"/>
+    <col min="5887" max="5887" width="19.25" style="45" customWidth="1"/>
+    <col min="5888" max="5888" width="5.125" style="45" customWidth="1"/>
+    <col min="5889" max="5889" width="40.25" style="45" customWidth="1"/>
+    <col min="5890" max="5890" width="16.5" style="45" customWidth="1"/>
+    <col min="5891" max="5891" width="33.125" style="45" customWidth="1"/>
+    <col min="5892" max="5892" width="8.5" style="45" customWidth="1"/>
+    <col min="5893" max="5893" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="5894" max="5894" width="13.125" style="45" customWidth="1"/>
+    <col min="5895" max="5895" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="5896" max="5896" width="41.375" style="45" customWidth="1"/>
+    <col min="5897" max="5897" width="46" style="45" customWidth="1"/>
+    <col min="5898" max="5898" width="12.375" style="45" customWidth="1"/>
+    <col min="5899" max="5901" width="9" style="45"/>
+    <col min="5902" max="5902" width="18.625" style="45" customWidth="1"/>
+    <col min="5903" max="6142" width="9" style="45"/>
+    <col min="6143" max="6143" width="19.25" style="45" customWidth="1"/>
+    <col min="6144" max="6144" width="5.125" style="45" customWidth="1"/>
+    <col min="6145" max="6145" width="40.25" style="45" customWidth="1"/>
+    <col min="6146" max="6146" width="16.5" style="45" customWidth="1"/>
+    <col min="6147" max="6147" width="33.125" style="45" customWidth="1"/>
+    <col min="6148" max="6148" width="8.5" style="45" customWidth="1"/>
+    <col min="6149" max="6149" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="6150" max="6150" width="13.125" style="45" customWidth="1"/>
+    <col min="6151" max="6151" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="6152" max="6152" width="41.375" style="45" customWidth="1"/>
+    <col min="6153" max="6153" width="46" style="45" customWidth="1"/>
+    <col min="6154" max="6154" width="12.375" style="45" customWidth="1"/>
+    <col min="6155" max="6157" width="9" style="45"/>
+    <col min="6158" max="6158" width="18.625" style="45" customWidth="1"/>
+    <col min="6159" max="6398" width="9" style="45"/>
+    <col min="6399" max="6399" width="19.25" style="45" customWidth="1"/>
+    <col min="6400" max="6400" width="5.125" style="45" customWidth="1"/>
+    <col min="6401" max="6401" width="40.25" style="45" customWidth="1"/>
+    <col min="6402" max="6402" width="16.5" style="45" customWidth="1"/>
+    <col min="6403" max="6403" width="33.125" style="45" customWidth="1"/>
+    <col min="6404" max="6404" width="8.5" style="45" customWidth="1"/>
+    <col min="6405" max="6405" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="6406" max="6406" width="13.125" style="45" customWidth="1"/>
+    <col min="6407" max="6407" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="6408" max="6408" width="41.375" style="45" customWidth="1"/>
+    <col min="6409" max="6409" width="46" style="45" customWidth="1"/>
+    <col min="6410" max="6410" width="12.375" style="45" customWidth="1"/>
+    <col min="6411" max="6413" width="9" style="45"/>
+    <col min="6414" max="6414" width="18.625" style="45" customWidth="1"/>
+    <col min="6415" max="6654" width="9" style="45"/>
+    <col min="6655" max="6655" width="19.25" style="45" customWidth="1"/>
+    <col min="6656" max="6656" width="5.125" style="45" customWidth="1"/>
+    <col min="6657" max="6657" width="40.25" style="45" customWidth="1"/>
+    <col min="6658" max="6658" width="16.5" style="45" customWidth="1"/>
+    <col min="6659" max="6659" width="33.125" style="45" customWidth="1"/>
+    <col min="6660" max="6660" width="8.5" style="45" customWidth="1"/>
+    <col min="6661" max="6661" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="6662" max="6662" width="13.125" style="45" customWidth="1"/>
+    <col min="6663" max="6663" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="6664" max="6664" width="41.375" style="45" customWidth="1"/>
+    <col min="6665" max="6665" width="46" style="45" customWidth="1"/>
+    <col min="6666" max="6666" width="12.375" style="45" customWidth="1"/>
+    <col min="6667" max="6669" width="9" style="45"/>
+    <col min="6670" max="6670" width="18.625" style="45" customWidth="1"/>
+    <col min="6671" max="6910" width="9" style="45"/>
+    <col min="6911" max="6911" width="19.25" style="45" customWidth="1"/>
+    <col min="6912" max="6912" width="5.125" style="45" customWidth="1"/>
+    <col min="6913" max="6913" width="40.25" style="45" customWidth="1"/>
+    <col min="6914" max="6914" width="16.5" style="45" customWidth="1"/>
+    <col min="6915" max="6915" width="33.125" style="45" customWidth="1"/>
+    <col min="6916" max="6916" width="8.5" style="45" customWidth="1"/>
+    <col min="6917" max="6917" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="6918" max="6918" width="13.125" style="45" customWidth="1"/>
+    <col min="6919" max="6919" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="6920" max="6920" width="41.375" style="45" customWidth="1"/>
+    <col min="6921" max="6921" width="46" style="45" customWidth="1"/>
+    <col min="6922" max="6922" width="12.375" style="45" customWidth="1"/>
+    <col min="6923" max="6925" width="9" style="45"/>
+    <col min="6926" max="6926" width="18.625" style="45" customWidth="1"/>
+    <col min="6927" max="7166" width="9" style="45"/>
+    <col min="7167" max="7167" width="19.25" style="45" customWidth="1"/>
+    <col min="7168" max="7168" width="5.125" style="45" customWidth="1"/>
+    <col min="7169" max="7169" width="40.25" style="45" customWidth="1"/>
+    <col min="7170" max="7170" width="16.5" style="45" customWidth="1"/>
+    <col min="7171" max="7171" width="33.125" style="45" customWidth="1"/>
+    <col min="7172" max="7172" width="8.5" style="45" customWidth="1"/>
+    <col min="7173" max="7173" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="7174" max="7174" width="13.125" style="45" customWidth="1"/>
+    <col min="7175" max="7175" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="7176" max="7176" width="41.375" style="45" customWidth="1"/>
+    <col min="7177" max="7177" width="46" style="45" customWidth="1"/>
+    <col min="7178" max="7178" width="12.375" style="45" customWidth="1"/>
+    <col min="7179" max="7181" width="9" style="45"/>
+    <col min="7182" max="7182" width="18.625" style="45" customWidth="1"/>
+    <col min="7183" max="7422" width="9" style="45"/>
+    <col min="7423" max="7423" width="19.25" style="45" customWidth="1"/>
+    <col min="7424" max="7424" width="5.125" style="45" customWidth="1"/>
+    <col min="7425" max="7425" width="40.25" style="45" customWidth="1"/>
+    <col min="7426" max="7426" width="16.5" style="45" customWidth="1"/>
+    <col min="7427" max="7427" width="33.125" style="45" customWidth="1"/>
+    <col min="7428" max="7428" width="8.5" style="45" customWidth="1"/>
+    <col min="7429" max="7429" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="7430" max="7430" width="13.125" style="45" customWidth="1"/>
+    <col min="7431" max="7431" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="7432" max="7432" width="41.375" style="45" customWidth="1"/>
+    <col min="7433" max="7433" width="46" style="45" customWidth="1"/>
+    <col min="7434" max="7434" width="12.375" style="45" customWidth="1"/>
+    <col min="7435" max="7437" width="9" style="45"/>
+    <col min="7438" max="7438" width="18.625" style="45" customWidth="1"/>
+    <col min="7439" max="7678" width="9" style="45"/>
+    <col min="7679" max="7679" width="19.25" style="45" customWidth="1"/>
+    <col min="7680" max="7680" width="5.125" style="45" customWidth="1"/>
+    <col min="7681" max="7681" width="40.25" style="45" customWidth="1"/>
+    <col min="7682" max="7682" width="16.5" style="45" customWidth="1"/>
+    <col min="7683" max="7683" width="33.125" style="45" customWidth="1"/>
+    <col min="7684" max="7684" width="8.5" style="45" customWidth="1"/>
+    <col min="7685" max="7685" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="7686" max="7686" width="13.125" style="45" customWidth="1"/>
+    <col min="7687" max="7687" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="7688" max="7688" width="41.375" style="45" customWidth="1"/>
+    <col min="7689" max="7689" width="46" style="45" customWidth="1"/>
+    <col min="7690" max="7690" width="12.375" style="45" customWidth="1"/>
+    <col min="7691" max="7693" width="9" style="45"/>
+    <col min="7694" max="7694" width="18.625" style="45" customWidth="1"/>
+    <col min="7695" max="7934" width="9" style="45"/>
+    <col min="7935" max="7935" width="19.25" style="45" customWidth="1"/>
+    <col min="7936" max="7936" width="5.125" style="45" customWidth="1"/>
+    <col min="7937" max="7937" width="40.25" style="45" customWidth="1"/>
+    <col min="7938" max="7938" width="16.5" style="45" customWidth="1"/>
+    <col min="7939" max="7939" width="33.125" style="45" customWidth="1"/>
+    <col min="7940" max="7940" width="8.5" style="45" customWidth="1"/>
+    <col min="7941" max="7941" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="7942" max="7942" width="13.125" style="45" customWidth="1"/>
+    <col min="7943" max="7943" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="7944" max="7944" width="41.375" style="45" customWidth="1"/>
+    <col min="7945" max="7945" width="46" style="45" customWidth="1"/>
+    <col min="7946" max="7946" width="12.375" style="45" customWidth="1"/>
+    <col min="7947" max="7949" width="9" style="45"/>
+    <col min="7950" max="7950" width="18.625" style="45" customWidth="1"/>
+    <col min="7951" max="8190" width="9" style="45"/>
+    <col min="8191" max="8191" width="19.25" style="45" customWidth="1"/>
+    <col min="8192" max="8192" width="5.125" style="45" customWidth="1"/>
+    <col min="8193" max="8193" width="40.25" style="45" customWidth="1"/>
+    <col min="8194" max="8194" width="16.5" style="45" customWidth="1"/>
+    <col min="8195" max="8195" width="33.125" style="45" customWidth="1"/>
+    <col min="8196" max="8196" width="8.5" style="45" customWidth="1"/>
+    <col min="8197" max="8197" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="8198" max="8198" width="13.125" style="45" customWidth="1"/>
+    <col min="8199" max="8199" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="8200" max="8200" width="41.375" style="45" customWidth="1"/>
+    <col min="8201" max="8201" width="46" style="45" customWidth="1"/>
+    <col min="8202" max="8202" width="12.375" style="45" customWidth="1"/>
+    <col min="8203" max="8205" width="9" style="45"/>
+    <col min="8206" max="8206" width="18.625" style="45" customWidth="1"/>
+    <col min="8207" max="8446" width="9" style="45"/>
+    <col min="8447" max="8447" width="19.25" style="45" customWidth="1"/>
+    <col min="8448" max="8448" width="5.125" style="45" customWidth="1"/>
+    <col min="8449" max="8449" width="40.25" style="45" customWidth="1"/>
+    <col min="8450" max="8450" width="16.5" style="45" customWidth="1"/>
+    <col min="8451" max="8451" width="33.125" style="45" customWidth="1"/>
+    <col min="8452" max="8452" width="8.5" style="45" customWidth="1"/>
+    <col min="8453" max="8453" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="8454" max="8454" width="13.125" style="45" customWidth="1"/>
+    <col min="8455" max="8455" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="8456" max="8456" width="41.375" style="45" customWidth="1"/>
+    <col min="8457" max="8457" width="46" style="45" customWidth="1"/>
+    <col min="8458" max="8458" width="12.375" style="45" customWidth="1"/>
+    <col min="8459" max="8461" width="9" style="45"/>
+    <col min="8462" max="8462" width="18.625" style="45" customWidth="1"/>
+    <col min="8463" max="8702" width="9" style="45"/>
+    <col min="8703" max="8703" width="19.25" style="45" customWidth="1"/>
+    <col min="8704" max="8704" width="5.125" style="45" customWidth="1"/>
+    <col min="8705" max="8705" width="40.25" style="45" customWidth="1"/>
+    <col min="8706" max="8706" width="16.5" style="45" customWidth="1"/>
+    <col min="8707" max="8707" width="33.125" style="45" customWidth="1"/>
+    <col min="8708" max="8708" width="8.5" style="45" customWidth="1"/>
+    <col min="8709" max="8709" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="8710" max="8710" width="13.125" style="45" customWidth="1"/>
+    <col min="8711" max="8711" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="8712" max="8712" width="41.375" style="45" customWidth="1"/>
+    <col min="8713" max="8713" width="46" style="45" customWidth="1"/>
+    <col min="8714" max="8714" width="12.375" style="45" customWidth="1"/>
+    <col min="8715" max="8717" width="9" style="45"/>
+    <col min="8718" max="8718" width="18.625" style="45" customWidth="1"/>
+    <col min="8719" max="8958" width="9" style="45"/>
+    <col min="8959" max="8959" width="19.25" style="45" customWidth="1"/>
+    <col min="8960" max="8960" width="5.125" style="45" customWidth="1"/>
+    <col min="8961" max="8961" width="40.25" style="45" customWidth="1"/>
+    <col min="8962" max="8962" width="16.5" style="45" customWidth="1"/>
+    <col min="8963" max="8963" width="33.125" style="45" customWidth="1"/>
+    <col min="8964" max="8964" width="8.5" style="45" customWidth="1"/>
+    <col min="8965" max="8965" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="8966" max="8966" width="13.125" style="45" customWidth="1"/>
+    <col min="8967" max="8967" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="8968" max="8968" width="41.375" style="45" customWidth="1"/>
+    <col min="8969" max="8969" width="46" style="45" customWidth="1"/>
+    <col min="8970" max="8970" width="12.375" style="45" customWidth="1"/>
+    <col min="8971" max="8973" width="9" style="45"/>
+    <col min="8974" max="8974" width="18.625" style="45" customWidth="1"/>
+    <col min="8975" max="9214" width="9" style="45"/>
+    <col min="9215" max="9215" width="19.25" style="45" customWidth="1"/>
+    <col min="9216" max="9216" width="5.125" style="45" customWidth="1"/>
+    <col min="9217" max="9217" width="40.25" style="45" customWidth="1"/>
+    <col min="9218" max="9218" width="16.5" style="45" customWidth="1"/>
+    <col min="9219" max="9219" width="33.125" style="45" customWidth="1"/>
+    <col min="9220" max="9220" width="8.5" style="45" customWidth="1"/>
+    <col min="9221" max="9221" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="9222" max="9222" width="13.125" style="45" customWidth="1"/>
+    <col min="9223" max="9223" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="9224" max="9224" width="41.375" style="45" customWidth="1"/>
+    <col min="9225" max="9225" width="46" style="45" customWidth="1"/>
+    <col min="9226" max="9226" width="12.375" style="45" customWidth="1"/>
+    <col min="9227" max="9229" width="9" style="45"/>
+    <col min="9230" max="9230" width="18.625" style="45" customWidth="1"/>
+    <col min="9231" max="9470" width="9" style="45"/>
+    <col min="9471" max="9471" width="19.25" style="45" customWidth="1"/>
+    <col min="9472" max="9472" width="5.125" style="45" customWidth="1"/>
+    <col min="9473" max="9473" width="40.25" style="45" customWidth="1"/>
+    <col min="9474" max="9474" width="16.5" style="45" customWidth="1"/>
+    <col min="9475" max="9475" width="33.125" style="45" customWidth="1"/>
+    <col min="9476" max="9476" width="8.5" style="45" customWidth="1"/>
+    <col min="9477" max="9477" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="9478" max="9478" width="13.125" style="45" customWidth="1"/>
+    <col min="9479" max="9479" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="9480" max="9480" width="41.375" style="45" customWidth="1"/>
+    <col min="9481" max="9481" width="46" style="45" customWidth="1"/>
+    <col min="9482" max="9482" width="12.375" style="45" customWidth="1"/>
+    <col min="9483" max="9485" width="9" style="45"/>
+    <col min="9486" max="9486" width="18.625" style="45" customWidth="1"/>
+    <col min="9487" max="9726" width="9" style="45"/>
+    <col min="9727" max="9727" width="19.25" style="45" customWidth="1"/>
+    <col min="9728" max="9728" width="5.125" style="45" customWidth="1"/>
+    <col min="9729" max="9729" width="40.25" style="45" customWidth="1"/>
+    <col min="9730" max="9730" width="16.5" style="45" customWidth="1"/>
+    <col min="9731" max="9731" width="33.125" style="45" customWidth="1"/>
+    <col min="9732" max="9732" width="8.5" style="45" customWidth="1"/>
+    <col min="9733" max="9733" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="9734" max="9734" width="13.125" style="45" customWidth="1"/>
+    <col min="9735" max="9735" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="9736" max="9736" width="41.375" style="45" customWidth="1"/>
+    <col min="9737" max="9737" width="46" style="45" customWidth="1"/>
+    <col min="9738" max="9738" width="12.375" style="45" customWidth="1"/>
+    <col min="9739" max="9741" width="9" style="45"/>
+    <col min="9742" max="9742" width="18.625" style="45" customWidth="1"/>
+    <col min="9743" max="9982" width="9" style="45"/>
+    <col min="9983" max="9983" width="19.25" style="45" customWidth="1"/>
+    <col min="9984" max="9984" width="5.125" style="45" customWidth="1"/>
+    <col min="9985" max="9985" width="40.25" style="45" customWidth="1"/>
+    <col min="9986" max="9986" width="16.5" style="45" customWidth="1"/>
+    <col min="9987" max="9987" width="33.125" style="45" customWidth="1"/>
+    <col min="9988" max="9988" width="8.5" style="45" customWidth="1"/>
+    <col min="9989" max="9989" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="9990" max="9990" width="13.125" style="45" customWidth="1"/>
+    <col min="9991" max="9991" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="9992" max="9992" width="41.375" style="45" customWidth="1"/>
+    <col min="9993" max="9993" width="46" style="45" customWidth="1"/>
+    <col min="9994" max="9994" width="12.375" style="45" customWidth="1"/>
+    <col min="9995" max="9997" width="9" style="45"/>
+    <col min="9998" max="9998" width="18.625" style="45" customWidth="1"/>
+    <col min="9999" max="10238" width="9" style="45"/>
+    <col min="10239" max="10239" width="19.25" style="45" customWidth="1"/>
+    <col min="10240" max="10240" width="5.125" style="45" customWidth="1"/>
+    <col min="10241" max="10241" width="40.25" style="45" customWidth="1"/>
+    <col min="10242" max="10242" width="16.5" style="45" customWidth="1"/>
+    <col min="10243" max="10243" width="33.125" style="45" customWidth="1"/>
+    <col min="10244" max="10244" width="8.5" style="45" customWidth="1"/>
+    <col min="10245" max="10245" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="10246" max="10246" width="13.125" style="45" customWidth="1"/>
+    <col min="10247" max="10247" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="10248" max="10248" width="41.375" style="45" customWidth="1"/>
+    <col min="10249" max="10249" width="46" style="45" customWidth="1"/>
+    <col min="10250" max="10250" width="12.375" style="45" customWidth="1"/>
+    <col min="10251" max="10253" width="9" style="45"/>
+    <col min="10254" max="10254" width="18.625" style="45" customWidth="1"/>
+    <col min="10255" max="10494" width="9" style="45"/>
+    <col min="10495" max="10495" width="19.25" style="45" customWidth="1"/>
+    <col min="10496" max="10496" width="5.125" style="45" customWidth="1"/>
+    <col min="10497" max="10497" width="40.25" style="45" customWidth="1"/>
+    <col min="10498" max="10498" width="16.5" style="45" customWidth="1"/>
+    <col min="10499" max="10499" width="33.125" style="45" customWidth="1"/>
+    <col min="10500" max="10500" width="8.5" style="45" customWidth="1"/>
+    <col min="10501" max="10501" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="10502" max="10502" width="13.125" style="45" customWidth="1"/>
+    <col min="10503" max="10503" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="10504" max="10504" width="41.375" style="45" customWidth="1"/>
+    <col min="10505" max="10505" width="46" style="45" customWidth="1"/>
+    <col min="10506" max="10506" width="12.375" style="45" customWidth="1"/>
+    <col min="10507" max="10509" width="9" style="45"/>
+    <col min="10510" max="10510" width="18.625" style="45" customWidth="1"/>
+    <col min="10511" max="10750" width="9" style="45"/>
+    <col min="10751" max="10751" width="19.25" style="45" customWidth="1"/>
+    <col min="10752" max="10752" width="5.125" style="45" customWidth="1"/>
+    <col min="10753" max="10753" width="40.25" style="45" customWidth="1"/>
+    <col min="10754" max="10754" width="16.5" style="45" customWidth="1"/>
+    <col min="10755" max="10755" width="33.125" style="45" customWidth="1"/>
+    <col min="10756" max="10756" width="8.5" style="45" customWidth="1"/>
+    <col min="10757" max="10757" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="10758" max="10758" width="13.125" style="45" customWidth="1"/>
+    <col min="10759" max="10759" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="10760" max="10760" width="41.375" style="45" customWidth="1"/>
+    <col min="10761" max="10761" width="46" style="45" customWidth="1"/>
+    <col min="10762" max="10762" width="12.375" style="45" customWidth="1"/>
+    <col min="10763" max="10765" width="9" style="45"/>
+    <col min="10766" max="10766" width="18.625" style="45" customWidth="1"/>
+    <col min="10767" max="11006" width="9" style="45"/>
+    <col min="11007" max="11007" width="19.25" style="45" customWidth="1"/>
+    <col min="11008" max="11008" width="5.125" style="45" customWidth="1"/>
+    <col min="11009" max="11009" width="40.25" style="45" customWidth="1"/>
+    <col min="11010" max="11010" width="16.5" style="45" customWidth="1"/>
+    <col min="11011" max="11011" width="33.125" style="45" customWidth="1"/>
+    <col min="11012" max="11012" width="8.5" style="45" customWidth="1"/>
+    <col min="11013" max="11013" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="11014" max="11014" width="13.125" style="45" customWidth="1"/>
+    <col min="11015" max="11015" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="11016" max="11016" width="41.375" style="45" customWidth="1"/>
+    <col min="11017" max="11017" width="46" style="45" customWidth="1"/>
+    <col min="11018" max="11018" width="12.375" style="45" customWidth="1"/>
+    <col min="11019" max="11021" width="9" style="45"/>
+    <col min="11022" max="11022" width="18.625" style="45" customWidth="1"/>
+    <col min="11023" max="11262" width="9" style="45"/>
+    <col min="11263" max="11263" width="19.25" style="45" customWidth="1"/>
+    <col min="11264" max="11264" width="5.125" style="45" customWidth="1"/>
+    <col min="11265" max="11265" width="40.25" style="45" customWidth="1"/>
+    <col min="11266" max="11266" width="16.5" style="45" customWidth="1"/>
+    <col min="11267" max="11267" width="33.125" style="45" customWidth="1"/>
+    <col min="11268" max="11268" width="8.5" style="45" customWidth="1"/>
+    <col min="11269" max="11269" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="11270" max="11270" width="13.125" style="45" customWidth="1"/>
+    <col min="11271" max="11271" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="11272" max="11272" width="41.375" style="45" customWidth="1"/>
+    <col min="11273" max="11273" width="46" style="45" customWidth="1"/>
+    <col min="11274" max="11274" width="12.375" style="45" customWidth="1"/>
+    <col min="11275" max="11277" width="9" style="45"/>
+    <col min="11278" max="11278" width="18.625" style="45" customWidth="1"/>
+    <col min="11279" max="11518" width="9" style="45"/>
+    <col min="11519" max="11519" width="19.25" style="45" customWidth="1"/>
+    <col min="11520" max="11520" width="5.125" style="45" customWidth="1"/>
+    <col min="11521" max="11521" width="40.25" style="45" customWidth="1"/>
+    <col min="11522" max="11522" width="16.5" style="45" customWidth="1"/>
+    <col min="11523" max="11523" width="33.125" style="45" customWidth="1"/>
+    <col min="11524" max="11524" width="8.5" style="45" customWidth="1"/>
+    <col min="11525" max="11525" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="11526" max="11526" width="13.125" style="45" customWidth="1"/>
+    <col min="11527" max="11527" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="11528" max="11528" width="41.375" style="45" customWidth="1"/>
+    <col min="11529" max="11529" width="46" style="45" customWidth="1"/>
+    <col min="11530" max="11530" width="12.375" style="45" customWidth="1"/>
+    <col min="11531" max="11533" width="9" style="45"/>
+    <col min="11534" max="11534" width="18.625" style="45" customWidth="1"/>
+    <col min="11535" max="11774" width="9" style="45"/>
+    <col min="11775" max="11775" width="19.25" style="45" customWidth="1"/>
+    <col min="11776" max="11776" width="5.125" style="45" customWidth="1"/>
+    <col min="11777" max="11777" width="40.25" style="45" customWidth="1"/>
+    <col min="11778" max="11778" width="16.5" style="45" customWidth="1"/>
+    <col min="11779" max="11779" width="33.125" style="45" customWidth="1"/>
+    <col min="11780" max="11780" width="8.5" style="45" customWidth="1"/>
+    <col min="11781" max="11781" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="11782" max="11782" width="13.125" style="45" customWidth="1"/>
+    <col min="11783" max="11783" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="11784" max="11784" width="41.375" style="45" customWidth="1"/>
+    <col min="11785" max="11785" width="46" style="45" customWidth="1"/>
+    <col min="11786" max="11786" width="12.375" style="45" customWidth="1"/>
+    <col min="11787" max="11789" width="9" style="45"/>
+    <col min="11790" max="11790" width="18.625" style="45" customWidth="1"/>
+    <col min="11791" max="12030" width="9" style="45"/>
+    <col min="12031" max="12031" width="19.25" style="45" customWidth="1"/>
+    <col min="12032" max="12032" width="5.125" style="45" customWidth="1"/>
+    <col min="12033" max="12033" width="40.25" style="45" customWidth="1"/>
+    <col min="12034" max="12034" width="16.5" style="45" customWidth="1"/>
+    <col min="12035" max="12035" width="33.125" style="45" customWidth="1"/>
+    <col min="12036" max="12036" width="8.5" style="45" customWidth="1"/>
+    <col min="12037" max="12037" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="12038" max="12038" width="13.125" style="45" customWidth="1"/>
+    <col min="12039" max="12039" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="12040" max="12040" width="41.375" style="45" customWidth="1"/>
+    <col min="12041" max="12041" width="46" style="45" customWidth="1"/>
+    <col min="12042" max="12042" width="12.375" style="45" customWidth="1"/>
+    <col min="12043" max="12045" width="9" style="45"/>
+    <col min="12046" max="12046" width="18.625" style="45" customWidth="1"/>
+    <col min="12047" max="12286" width="9" style="45"/>
+    <col min="12287" max="12287" width="19.25" style="45" customWidth="1"/>
+    <col min="12288" max="12288" width="5.125" style="45" customWidth="1"/>
+    <col min="12289" max="12289" width="40.25" style="45" customWidth="1"/>
+    <col min="12290" max="12290" width="16.5" style="45" customWidth="1"/>
+    <col min="12291" max="12291" width="33.125" style="45" customWidth="1"/>
+    <col min="12292" max="12292" width="8.5" style="45" customWidth="1"/>
+    <col min="12293" max="12293" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="12294" max="12294" width="13.125" style="45" customWidth="1"/>
+    <col min="12295" max="12295" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="12296" max="12296" width="41.375" style="45" customWidth="1"/>
+    <col min="12297" max="12297" width="46" style="45" customWidth="1"/>
+    <col min="12298" max="12298" width="12.375" style="45" customWidth="1"/>
+    <col min="12299" max="12301" width="9" style="45"/>
+    <col min="12302" max="12302" width="18.625" style="45" customWidth="1"/>
+    <col min="12303" max="12542" width="9" style="45"/>
+    <col min="12543" max="12543" width="19.25" style="45" customWidth="1"/>
+    <col min="12544" max="12544" width="5.125" style="45" customWidth="1"/>
+    <col min="12545" max="12545" width="40.25" style="45" customWidth="1"/>
+    <col min="12546" max="12546" width="16.5" style="45" customWidth="1"/>
+    <col min="12547" max="12547" width="33.125" style="45" customWidth="1"/>
+    <col min="12548" max="12548" width="8.5" style="45" customWidth="1"/>
+    <col min="12549" max="12549" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="12550" max="12550" width="13.125" style="45" customWidth="1"/>
+    <col min="12551" max="12551" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="12552" max="12552" width="41.375" style="45" customWidth="1"/>
+    <col min="12553" max="12553" width="46" style="45" customWidth="1"/>
+    <col min="12554" max="12554" width="12.375" style="45" customWidth="1"/>
+    <col min="12555" max="12557" width="9" style="45"/>
+    <col min="12558" max="12558" width="18.625" style="45" customWidth="1"/>
+    <col min="12559" max="12798" width="9" style="45"/>
+    <col min="12799" max="12799" width="19.25" style="45" customWidth="1"/>
+    <col min="12800" max="12800" width="5.125" style="45" customWidth="1"/>
+    <col min="12801" max="12801" width="40.25" style="45" customWidth="1"/>
+    <col min="12802" max="12802" width="16.5" style="45" customWidth="1"/>
+    <col min="12803" max="12803" width="33.125" style="45" customWidth="1"/>
+    <col min="12804" max="12804" width="8.5" style="45" customWidth="1"/>
+    <col min="12805" max="12805" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="12806" max="12806" width="13.125" style="45" customWidth="1"/>
+    <col min="12807" max="12807" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="12808" max="12808" width="41.375" style="45" customWidth="1"/>
+    <col min="12809" max="12809" width="46" style="45" customWidth="1"/>
+    <col min="12810" max="12810" width="12.375" style="45" customWidth="1"/>
+    <col min="12811" max="12813" width="9" style="45"/>
+    <col min="12814" max="12814" width="18.625" style="45" customWidth="1"/>
+    <col min="12815" max="13054" width="9" style="45"/>
+    <col min="13055" max="13055" width="19.25" style="45" customWidth="1"/>
+    <col min="13056" max="13056" width="5.125" style="45" customWidth="1"/>
+    <col min="13057" max="13057" width="40.25" style="45" customWidth="1"/>
+    <col min="13058" max="13058" width="16.5" style="45" customWidth="1"/>
+    <col min="13059" max="13059" width="33.125" style="45" customWidth="1"/>
+    <col min="13060" max="13060" width="8.5" style="45" customWidth="1"/>
+    <col min="13061" max="13061" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="13062" max="13062" width="13.125" style="45" customWidth="1"/>
+    <col min="13063" max="13063" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="13064" max="13064" width="41.375" style="45" customWidth="1"/>
+    <col min="13065" max="13065" width="46" style="45" customWidth="1"/>
+    <col min="13066" max="13066" width="12.375" style="45" customWidth="1"/>
+    <col min="13067" max="13069" width="9" style="45"/>
+    <col min="13070" max="13070" width="18.625" style="45" customWidth="1"/>
+    <col min="13071" max="13310" width="9" style="45"/>
+    <col min="13311" max="13311" width="19.25" style="45" customWidth="1"/>
+    <col min="13312" max="13312" width="5.125" style="45" customWidth="1"/>
+    <col min="13313" max="13313" width="40.25" style="45" customWidth="1"/>
+    <col min="13314" max="13314" width="16.5" style="45" customWidth="1"/>
+    <col min="13315" max="13315" width="33.125" style="45" customWidth="1"/>
+    <col min="13316" max="13316" width="8.5" style="45" customWidth="1"/>
+    <col min="13317" max="13317" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="13318" max="13318" width="13.125" style="45" customWidth="1"/>
+    <col min="13319" max="13319" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="13320" max="13320" width="41.375" style="45" customWidth="1"/>
+    <col min="13321" max="13321" width="46" style="45" customWidth="1"/>
+    <col min="13322" max="13322" width="12.375" style="45" customWidth="1"/>
+    <col min="13323" max="13325" width="9" style="45"/>
+    <col min="13326" max="13326" width="18.625" style="45" customWidth="1"/>
+    <col min="13327" max="13566" width="9" style="45"/>
+    <col min="13567" max="13567" width="19.25" style="45" customWidth="1"/>
+    <col min="13568" max="13568" width="5.125" style="45" customWidth="1"/>
+    <col min="13569" max="13569" width="40.25" style="45" customWidth="1"/>
+    <col min="13570" max="13570" width="16.5" style="45" customWidth="1"/>
+    <col min="13571" max="13571" width="33.125" style="45" customWidth="1"/>
+    <col min="13572" max="13572" width="8.5" style="45" customWidth="1"/>
+    <col min="13573" max="13573" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="13574" max="13574" width="13.125" style="45" customWidth="1"/>
+    <col min="13575" max="13575" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="13576" max="13576" width="41.375" style="45" customWidth="1"/>
+    <col min="13577" max="13577" width="46" style="45" customWidth="1"/>
+    <col min="13578" max="13578" width="12.375" style="45" customWidth="1"/>
+    <col min="13579" max="13581" width="9" style="45"/>
+    <col min="13582" max="13582" width="18.625" style="45" customWidth="1"/>
+    <col min="13583" max="13822" width="9" style="45"/>
+    <col min="13823" max="13823" width="19.25" style="45" customWidth="1"/>
+    <col min="13824" max="13824" width="5.125" style="45" customWidth="1"/>
+    <col min="13825" max="13825" width="40.25" style="45" customWidth="1"/>
+    <col min="13826" max="13826" width="16.5" style="45" customWidth="1"/>
+    <col min="13827" max="13827" width="33.125" style="45" customWidth="1"/>
+    <col min="13828" max="13828" width="8.5" style="45" customWidth="1"/>
+    <col min="13829" max="13829" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="13830" max="13830" width="13.125" style="45" customWidth="1"/>
+    <col min="13831" max="13831" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="13832" max="13832" width="41.375" style="45" customWidth="1"/>
+    <col min="13833" max="13833" width="46" style="45" customWidth="1"/>
+    <col min="13834" max="13834" width="12.375" style="45" customWidth="1"/>
+    <col min="13835" max="13837" width="9" style="45"/>
+    <col min="13838" max="13838" width="18.625" style="45" customWidth="1"/>
+    <col min="13839" max="14078" width="9" style="45"/>
+    <col min="14079" max="14079" width="19.25" style="45" customWidth="1"/>
+    <col min="14080" max="14080" width="5.125" style="45" customWidth="1"/>
+    <col min="14081" max="14081" width="40.25" style="45" customWidth="1"/>
+    <col min="14082" max="14082" width="16.5" style="45" customWidth="1"/>
+    <col min="14083" max="14083" width="33.125" style="45" customWidth="1"/>
+    <col min="14084" max="14084" width="8.5" style="45" customWidth="1"/>
+    <col min="14085" max="14085" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="14086" max="14086" width="13.125" style="45" customWidth="1"/>
+    <col min="14087" max="14087" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="14088" max="14088" width="41.375" style="45" customWidth="1"/>
+    <col min="14089" max="14089" width="46" style="45" customWidth="1"/>
+    <col min="14090" max="14090" width="12.375" style="45" customWidth="1"/>
+    <col min="14091" max="14093" width="9" style="45"/>
+    <col min="14094" max="14094" width="18.625" style="45" customWidth="1"/>
+    <col min="14095" max="14334" width="9" style="45"/>
+    <col min="14335" max="14335" width="19.25" style="45" customWidth="1"/>
+    <col min="14336" max="14336" width="5.125" style="45" customWidth="1"/>
+    <col min="14337" max="14337" width="40.25" style="45" customWidth="1"/>
+    <col min="14338" max="14338" width="16.5" style="45" customWidth="1"/>
+    <col min="14339" max="14339" width="33.125" style="45" customWidth="1"/>
+    <col min="14340" max="14340" width="8.5" style="45" customWidth="1"/>
+    <col min="14341" max="14341" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="14342" max="14342" width="13.125" style="45" customWidth="1"/>
+    <col min="14343" max="14343" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="14344" max="14344" width="41.375" style="45" customWidth="1"/>
+    <col min="14345" max="14345" width="46" style="45" customWidth="1"/>
+    <col min="14346" max="14346" width="12.375" style="45" customWidth="1"/>
+    <col min="14347" max="14349" width="9" style="45"/>
+    <col min="14350" max="14350" width="18.625" style="45" customWidth="1"/>
+    <col min="14351" max="14590" width="9" style="45"/>
+    <col min="14591" max="14591" width="19.25" style="45" customWidth="1"/>
+    <col min="14592" max="14592" width="5.125" style="45" customWidth="1"/>
+    <col min="14593" max="14593" width="40.25" style="45" customWidth="1"/>
+    <col min="14594" max="14594" width="16.5" style="45" customWidth="1"/>
+    <col min="14595" max="14595" width="33.125" style="45" customWidth="1"/>
+    <col min="14596" max="14596" width="8.5" style="45" customWidth="1"/>
+    <col min="14597" max="14597" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="14598" max="14598" width="13.125" style="45" customWidth="1"/>
+    <col min="14599" max="14599" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="14600" max="14600" width="41.375" style="45" customWidth="1"/>
+    <col min="14601" max="14601" width="46" style="45" customWidth="1"/>
+    <col min="14602" max="14602" width="12.375" style="45" customWidth="1"/>
+    <col min="14603" max="14605" width="9" style="45"/>
+    <col min="14606" max="14606" width="18.625" style="45" customWidth="1"/>
+    <col min="14607" max="14846" width="9" style="45"/>
+    <col min="14847" max="14847" width="19.25" style="45" customWidth="1"/>
+    <col min="14848" max="14848" width="5.125" style="45" customWidth="1"/>
+    <col min="14849" max="14849" width="40.25" style="45" customWidth="1"/>
+    <col min="14850" max="14850" width="16.5" style="45" customWidth="1"/>
+    <col min="14851" max="14851" width="33.125" style="45" customWidth="1"/>
+    <col min="14852" max="14852" width="8.5" style="45" customWidth="1"/>
+    <col min="14853" max="14853" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="14854" max="14854" width="13.125" style="45" customWidth="1"/>
+    <col min="14855" max="14855" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="14856" max="14856" width="41.375" style="45" customWidth="1"/>
+    <col min="14857" max="14857" width="46" style="45" customWidth="1"/>
+    <col min="14858" max="14858" width="12.375" style="45" customWidth="1"/>
+    <col min="14859" max="14861" width="9" style="45"/>
+    <col min="14862" max="14862" width="18.625" style="45" customWidth="1"/>
+    <col min="14863" max="15102" width="9" style="45"/>
+    <col min="15103" max="15103" width="19.25" style="45" customWidth="1"/>
+    <col min="15104" max="15104" width="5.125" style="45" customWidth="1"/>
+    <col min="15105" max="15105" width="40.25" style="45" customWidth="1"/>
+    <col min="15106" max="15106" width="16.5" style="45" customWidth="1"/>
+    <col min="15107" max="15107" width="33.125" style="45" customWidth="1"/>
+    <col min="15108" max="15108" width="8.5" style="45" customWidth="1"/>
+    <col min="15109" max="15109" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="15110" max="15110" width="13.125" style="45" customWidth="1"/>
+    <col min="15111" max="15111" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="15112" max="15112" width="41.375" style="45" customWidth="1"/>
+    <col min="15113" max="15113" width="46" style="45" customWidth="1"/>
+    <col min="15114" max="15114" width="12.375" style="45" customWidth="1"/>
+    <col min="15115" max="15117" width="9" style="45"/>
+    <col min="15118" max="15118" width="18.625" style="45" customWidth="1"/>
+    <col min="15119" max="15358" width="9" style="45"/>
+    <col min="15359" max="15359" width="19.25" style="45" customWidth="1"/>
+    <col min="15360" max="15360" width="5.125" style="45" customWidth="1"/>
+    <col min="15361" max="15361" width="40.25" style="45" customWidth="1"/>
+    <col min="15362" max="15362" width="16.5" style="45" customWidth="1"/>
+    <col min="15363" max="15363" width="33.125" style="45" customWidth="1"/>
+    <col min="15364" max="15364" width="8.5" style="45" customWidth="1"/>
+    <col min="15365" max="15365" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="15366" max="15366" width="13.125" style="45" customWidth="1"/>
+    <col min="15367" max="15367" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="15368" max="15368" width="41.375" style="45" customWidth="1"/>
+    <col min="15369" max="15369" width="46" style="45" customWidth="1"/>
+    <col min="15370" max="15370" width="12.375" style="45" customWidth="1"/>
+    <col min="15371" max="15373" width="9" style="45"/>
+    <col min="15374" max="15374" width="18.625" style="45" customWidth="1"/>
+    <col min="15375" max="15614" width="9" style="45"/>
+    <col min="15615" max="15615" width="19.25" style="45" customWidth="1"/>
+    <col min="15616" max="15616" width="5.125" style="45" customWidth="1"/>
+    <col min="15617" max="15617" width="40.25" style="45" customWidth="1"/>
+    <col min="15618" max="15618" width="16.5" style="45" customWidth="1"/>
+    <col min="15619" max="15619" width="33.125" style="45" customWidth="1"/>
+    <col min="15620" max="15620" width="8.5" style="45" customWidth="1"/>
+    <col min="15621" max="15621" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="15622" max="15622" width="13.125" style="45" customWidth="1"/>
+    <col min="15623" max="15623" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="15624" max="15624" width="41.375" style="45" customWidth="1"/>
+    <col min="15625" max="15625" width="46" style="45" customWidth="1"/>
+    <col min="15626" max="15626" width="12.375" style="45" customWidth="1"/>
+    <col min="15627" max="15629" width="9" style="45"/>
+    <col min="15630" max="15630" width="18.625" style="45" customWidth="1"/>
+    <col min="15631" max="15870" width="9" style="45"/>
+    <col min="15871" max="15871" width="19.25" style="45" customWidth="1"/>
+    <col min="15872" max="15872" width="5.125" style="45" customWidth="1"/>
+    <col min="15873" max="15873" width="40.25" style="45" customWidth="1"/>
+    <col min="15874" max="15874" width="16.5" style="45" customWidth="1"/>
+    <col min="15875" max="15875" width="33.125" style="45" customWidth="1"/>
+    <col min="15876" max="15876" width="8.5" style="45" customWidth="1"/>
+    <col min="15877" max="15877" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="15878" max="15878" width="13.125" style="45" customWidth="1"/>
+    <col min="15879" max="15879" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="15880" max="15880" width="41.375" style="45" customWidth="1"/>
+    <col min="15881" max="15881" width="46" style="45" customWidth="1"/>
+    <col min="15882" max="15882" width="12.375" style="45" customWidth="1"/>
+    <col min="15883" max="15885" width="9" style="45"/>
+    <col min="15886" max="15886" width="18.625" style="45" customWidth="1"/>
+    <col min="15887" max="16126" width="9" style="45"/>
+    <col min="16127" max="16127" width="19.25" style="45" customWidth="1"/>
+    <col min="16128" max="16128" width="5.125" style="45" customWidth="1"/>
+    <col min="16129" max="16129" width="40.25" style="45" customWidth="1"/>
+    <col min="16130" max="16130" width="16.5" style="45" customWidth="1"/>
+    <col min="16131" max="16131" width="33.125" style="45" customWidth="1"/>
+    <col min="16132" max="16132" width="8.5" style="45" customWidth="1"/>
+    <col min="16133" max="16133" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="16134" max="16134" width="13.125" style="45" customWidth="1"/>
+    <col min="16135" max="16135" width="0" style="45" hidden="1" customWidth="1"/>
+    <col min="16136" max="16136" width="41.375" style="45" customWidth="1"/>
+    <col min="16137" max="16137" width="46" style="45" customWidth="1"/>
+    <col min="16138" max="16138" width="12.375" style="45" customWidth="1"/>
+    <col min="16139" max="16141" width="9" style="45"/>
+    <col min="16142" max="16142" width="18.625" style="45" customWidth="1"/>
+    <col min="16143" max="16384" width="9" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K2" s="47">
+        <v>40940</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O2" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K3" s="47">
+        <v>40940</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="P3" s="39" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="46"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="46"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+    </row>
+    <row r="6" spans="1:16" ht="14.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="46"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="46"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+    </row>
+    <row r="8" spans="1:16" ht="14.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="46"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+    </row>
+    <row r="9" spans="1:16" s="55" customFormat="1">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+    </row>
+    <row r="10" spans="1:16" s="62" customFormat="1">
+      <c r="A10" s="56"/>
+      <c r="B10" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="J10" s="60">
+        <v>40757</v>
+      </c>
+      <c r="K10" s="61">
+        <v>40940</v>
+      </c>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+    </row>
+    <row r="11" spans="1:16" ht="14.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="J11" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K11" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14.25">
+      <c r="B12" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="J12" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K12" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.25">
+      <c r="B13" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="J13" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K13" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14.25">
+      <c r="B14" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="J14" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K14" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="62" customFormat="1">
+      <c r="B15" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="F15" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="I15" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="J15" s="60">
+        <v>40757</v>
+      </c>
+      <c r="K15" s="61">
+        <v>40940</v>
+      </c>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.25">
+      <c r="B16" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K16" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="14.25">
+      <c r="B17" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="J17" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K17" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="14.25">
+      <c r="B18" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="J18" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K18" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="14.25">
+      <c r="B19" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="J19" s="46"/>
+    </row>
+    <row r="20" spans="2:13" s="55" customFormat="1">
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+    </row>
+    <row r="21" spans="2:13" ht="14.25">
+      <c r="B21" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="J21" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K21" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="14.25">
+      <c r="B22" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="J22" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K22" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="14.25">
+      <c r="B23" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="J23" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K23" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="14.25">
+      <c r="B24" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="J24" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K24" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="14.25">
+      <c r="B25" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="J25" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K25" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" s="55" customFormat="1"/>
+    <row r="27" spans="2:13" s="62" customFormat="1">
+      <c r="B27" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="H27" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="I27" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="J27" s="62">
+        <v>40757</v>
+      </c>
+      <c r="K27" s="62">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="14.25">
+      <c r="B28" s="48" t="s">
+        <v>283</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="14.25">
+      <c r="B29" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="14.25">
+      <c r="B30" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="14.25">
+      <c r="B31" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="E31" s="39"/>
+    </row>
+    <row r="32" spans="2:13" ht="14.25">
+      <c r="B32" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="14.25">
+      <c r="B33" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="14.25">
+      <c r="B34" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="14.25">
+      <c r="B35" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" s="39"/>
+    </row>
+    <row r="36" spans="2:5" ht="14.25">
+      <c r="B36" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="14.25">
+      <c r="B37" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="14.25">
+      <c r="B38" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="14.25">
+      <c r="B39" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="E39" s="39"/>
+    </row>
+    <row r="40" spans="2:5" ht="14.25">
+      <c r="B40" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="E40" s="39"/>
+    </row>
+    <row r="41" spans="2:5" ht="14.25">
+      <c r="B41" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="E41" s="39"/>
+    </row>
+    <row r="42" spans="2:5" ht="14.25">
+      <c r="B42" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="E42" s="39"/>
+    </row>
+    <row r="43" spans="2:5" ht="14.25">
+      <c r="B43" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="E43" s="39"/>
+    </row>
+    <row r="44" spans="2:5" s="62" customFormat="1">
+      <c r="B44" s="62" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="14.25">
+      <c r="B45" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="E45" s="39"/>
+    </row>
+    <row r="46" spans="2:5" ht="14.25">
+      <c r="B46" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="E46" s="39"/>
+    </row>
+    <row r="47" spans="2:5" ht="14.25">
+      <c r="B47" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="E47" s="39"/>
+    </row>
+    <row r="48" spans="2:5" ht="14.25">
+      <c r="B48" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="E48" s="39"/>
+    </row>
+    <row r="49" spans="2:11" s="62" customFormat="1">
+      <c r="B49" s="62" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="14.25">
+      <c r="B50" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="E50" s="39"/>
+    </row>
+    <row r="51" spans="2:11" ht="14.25">
+      <c r="B51" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="E51" s="39"/>
+    </row>
+    <row r="52" spans="2:11" ht="14.25">
+      <c r="B52" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="E52" s="39"/>
+    </row>
+    <row r="53" spans="2:11" ht="14.25">
+      <c r="B53" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="E53" s="39"/>
+    </row>
+    <row r="54" spans="2:11" ht="14.25">
+      <c r="B54" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="E54" s="39"/>
+    </row>
+    <row r="55" spans="2:11" ht="14.25">
+      <c r="B55" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="E55" s="39"/>
+    </row>
+    <row r="56" spans="2:11" ht="14.25">
+      <c r="B56" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="E56" s="39"/>
+    </row>
+    <row r="57" spans="2:11" s="55" customFormat="1"/>
+    <row r="58" spans="2:11">
+      <c r="F58" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="J58" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K58" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="14.25">
+      <c r="B59" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="46"/>
+    </row>
+    <row r="60" spans="2:11" ht="14.25">
+      <c r="B60" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="46"/>
+    </row>
+    <row r="61" spans="2:11" ht="14.25">
+      <c r="B61" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="46"/>
+    </row>
+    <row r="62" spans="2:11" ht="14.25">
+      <c r="B62" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="46"/>
+    </row>
+    <row r="63" spans="2:11" ht="14.25">
+      <c r="B63" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="46"/>
+    </row>
+    <row r="64" spans="2:11" ht="14.25">
+      <c r="B64" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="46"/>
+    </row>
+    <row r="65" spans="2:11" ht="14.25">
+      <c r="B65" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="46"/>
+    </row>
+    <row r="66" spans="2:11" ht="14.25">
+      <c r="B66" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="46"/>
+    </row>
+    <row r="67" spans="2:11" ht="14.25">
+      <c r="B67" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="46"/>
+    </row>
+    <row r="68" spans="2:11" ht="14.25">
+      <c r="B68" s="48" t="s">
+        <v>360</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="46"/>
+    </row>
+    <row r="69" spans="2:11" ht="14.25">
+      <c r="B69" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="46"/>
+    </row>
+    <row r="70" spans="2:11" ht="14.25">
+      <c r="B70" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="D70" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="46"/>
+    </row>
+    <row r="71" spans="2:11" ht="14.25">
+      <c r="B71" s="48" t="s">
+        <v>366</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="46"/>
+    </row>
+    <row r="72" spans="2:11" ht="14.25">
+      <c r="B72" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="46"/>
+    </row>
+    <row r="73" spans="2:11" s="55" customFormat="1"/>
+    <row r="74" spans="2:11" ht="14.25">
+      <c r="B74" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="F74" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="I74" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="J74" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K74" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="14.25">
+      <c r="B75" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="D75" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="F75" s="40"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="46"/>
+    </row>
+    <row r="76" spans="2:11" ht="14.25">
+      <c r="B76" s="48" t="s">
+        <v>377</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="46"/>
+    </row>
+    <row r="77" spans="2:11" ht="14.25">
+      <c r="B77" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="D77" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="46"/>
+    </row>
+    <row r="78" spans="2:11" ht="14.25">
+      <c r="B78" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="D78" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="46"/>
+    </row>
+    <row r="79" spans="2:11" ht="14.25">
+      <c r="B79" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="D79" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="46"/>
+    </row>
+    <row r="80" spans="2:11" ht="14.25">
+      <c r="B80" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="46"/>
+    </row>
+    <row r="81" spans="2:10" ht="14.25">
+      <c r="B81" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="46"/>
+    </row>
+    <row r="82" spans="2:10" ht="14.25">
+      <c r="B82" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="D82" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="46"/>
+    </row>
+    <row r="83" spans="2:10" ht="14.25">
+      <c r="B83" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="46"/>
+    </row>
+    <row r="84" spans="2:10" ht="14.25">
+      <c r="B84" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="46"/>
+    </row>
+    <row r="85" spans="2:10" ht="14.25">
+      <c r="B85" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="D85" s="65" t="s">
+        <v>395</v>
+      </c>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="46"/>
+    </row>
+    <row r="86" spans="2:10" ht="14.25">
+      <c r="B86" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="46"/>
+    </row>
+    <row r="87" spans="2:10" ht="14.25">
+      <c r="B87" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="46"/>
+    </row>
+    <row r="88" spans="2:10" ht="14.25">
+      <c r="B88" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="46"/>
+    </row>
+    <row r="89" spans="2:10" ht="14.25">
+      <c r="B89" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="D89" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="46"/>
+    </row>
+    <row r="90" spans="2:10" ht="14.25">
+      <c r="B90" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="D90" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="46"/>
+    </row>
+    <row r="91" spans="2:10" ht="14.25">
+      <c r="B91" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="D91" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="F91" s="40"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="46"/>
+    </row>
+    <row r="92" spans="2:10" ht="14.25">
+      <c r="B92" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="D92" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="46"/>
+    </row>
+    <row r="93" spans="2:10" ht="14.25">
+      <c r="B93" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="D93" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="46"/>
+    </row>
+    <row r="94" spans="2:10" ht="14.25">
+      <c r="B94" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="D94" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+      <c r="H94" s="40"/>
+      <c r="I94" s="40"/>
+      <c r="J94" s="46"/>
+    </row>
+    <row r="95" spans="2:10" ht="14.25">
+      <c r="B95" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="D95" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="46"/>
+    </row>
+    <row r="96" spans="2:10" s="55" customFormat="1"/>
+    <row r="97" spans="2:11" ht="14.25">
+      <c r="B97" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="D97" s="45" t="s">
+        <v>417</v>
+      </c>
+      <c r="F97" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="I97" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="J97" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K97" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="D98" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="46"/>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="D99" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="F99" s="40"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="46"/>
+    </row>
+    <row r="100" spans="2:11" s="55" customFormat="1"/>
+    <row r="101" spans="2:11" ht="14.25">
+      <c r="B101" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="D101" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="F101" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="G101" s="40"/>
+      <c r="H101" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="I101" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="J101" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K101" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" ht="14.25">
+      <c r="B102" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="D102" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="46"/>
+    </row>
+    <row r="103" spans="2:11" ht="14.25">
+      <c r="B103" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="D103" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="46"/>
+    </row>
+    <row r="104" spans="2:11" ht="14.25">
+      <c r="B104" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="D104" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="46"/>
+    </row>
+    <row r="105" spans="2:11" ht="14.25">
+      <c r="B105" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="D105" s="45" t="s">
+        <v>435</v>
+      </c>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="46"/>
+    </row>
+    <row r="106" spans="2:11" ht="14.25">
+      <c r="B106" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="D106" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="46"/>
+    </row>
+    <row r="107" spans="2:11" ht="14.25">
+      <c r="B107" s="48" t="s">
+        <v>438</v>
+      </c>
+      <c r="D107" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="46"/>
+    </row>
+    <row r="108" spans="2:11" ht="14.25">
+      <c r="B108" s="48" t="s">
+        <v>440</v>
+      </c>
+      <c r="D108" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="F108" s="40"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="46"/>
+    </row>
+    <row r="109" spans="2:11" ht="14.25">
+      <c r="B109" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="D109" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="F109" s="40"/>
+      <c r="G109" s="40"/>
+      <c r="H109" s="40"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="46"/>
+    </row>
+    <row r="110" spans="2:11" ht="14.25">
+      <c r="B110" s="48" t="s">
+        <v>444</v>
+      </c>
+      <c r="D110" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="46"/>
+    </row>
+    <row r="111" spans="2:11" ht="14.25">
+      <c r="B111" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="D111" s="45" t="s">
+        <v>447</v>
+      </c>
+      <c r="F111" s="40"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="46"/>
+    </row>
+    <row r="112" spans="2:11" ht="14.25">
+      <c r="B112" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="D112" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="F112" s="40"/>
+      <c r="G112" s="40"/>
+      <c r="H112" s="40"/>
+      <c r="I112" s="40"/>
+      <c r="J112" s="46"/>
+    </row>
+    <row r="113" spans="2:11" ht="14.25">
+      <c r="B113" s="48" t="s">
+        <v>450</v>
+      </c>
+      <c r="D113" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="F113" s="40"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="40"/>
+      <c r="I113" s="40"/>
+      <c r="J113" s="46"/>
+    </row>
+    <row r="114" spans="2:11" ht="14.25">
+      <c r="B114" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="D114" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="F114" s="40"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="40"/>
+      <c r="I114" s="40"/>
+      <c r="J114" s="46"/>
+    </row>
+    <row r="115" spans="2:11" ht="14.25">
+      <c r="B115" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="D115" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="F115" s="40"/>
+      <c r="G115" s="40"/>
+      <c r="H115" s="40"/>
+      <c r="I115" s="40"/>
+      <c r="J115" s="46"/>
+    </row>
+    <row r="116" spans="2:11" ht="14.25">
+      <c r="B116" s="48" t="s">
+        <v>456</v>
+      </c>
+      <c r="D116" s="45" t="s">
+        <v>457</v>
+      </c>
+      <c r="F116" s="40"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="40"/>
+      <c r="I116" s="40"/>
+      <c r="J116" s="46"/>
+    </row>
+    <row r="117" spans="2:11" ht="14.25">
+      <c r="B117" s="48" t="s">
+        <v>458</v>
+      </c>
+      <c r="D117" s="45" t="s">
+        <v>459</v>
+      </c>
+      <c r="F117" s="40"/>
+      <c r="G117" s="40"/>
+      <c r="H117" s="40"/>
+      <c r="I117" s="40"/>
+      <c r="J117" s="46"/>
+    </row>
+    <row r="118" spans="2:11" ht="14.25">
+      <c r="B118" s="48" t="s">
+        <v>460</v>
+      </c>
+      <c r="D118" s="45" t="s">
+        <v>461</v>
+      </c>
+      <c r="F118" s="40"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="40"/>
+      <c r="J118" s="46"/>
+    </row>
+    <row r="119" spans="2:11" ht="14.25">
+      <c r="B119" s="48" t="s">
+        <v>462</v>
+      </c>
+      <c r="D119" s="45" t="s">
+        <v>463</v>
+      </c>
+      <c r="F119" s="40"/>
+      <c r="G119" s="40"/>
+      <c r="H119" s="40"/>
+      <c r="I119" s="40"/>
+      <c r="J119" s="46"/>
+    </row>
+    <row r="120" spans="2:11" s="55" customFormat="1"/>
+    <row r="121" spans="2:11" ht="14.25">
+      <c r="B121" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="D121" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="F121" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="G121" s="40"/>
+      <c r="H121" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="I121" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="J121" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K121" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" ht="14.25">
+      <c r="B122" s="48" t="s">
+        <v>469</v>
+      </c>
+      <c r="D122" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="F122" s="40"/>
+      <c r="G122" s="40"/>
+      <c r="H122" s="40"/>
+      <c r="I122" s="40"/>
+      <c r="J122" s="46"/>
+    </row>
+    <row r="123" spans="2:11" ht="14.25">
+      <c r="B123" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="D123" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="F123" s="40"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="40"/>
+      <c r="I123" s="40"/>
+      <c r="J123" s="46"/>
+    </row>
+    <row r="124" spans="2:11" ht="14.25">
+      <c r="B124" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="D124" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="F124" s="40"/>
+      <c r="G124" s="40"/>
+      <c r="H124" s="40"/>
+      <c r="I124" s="40"/>
+      <c r="J124" s="46"/>
+    </row>
+    <row r="125" spans="2:11" ht="14.25">
+      <c r="B125" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="D125" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="F125" s="40"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="40"/>
+      <c r="I125" s="40"/>
+      <c r="J125" s="46"/>
+    </row>
+    <row r="126" spans="2:11" ht="14.25">
+      <c r="B126" s="48" t="s">
+        <v>477</v>
+      </c>
+      <c r="D126" s="45" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" ht="14.25">
+      <c r="B127" s="48" t="s">
+        <v>479</v>
+      </c>
+      <c r="D127" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="F127" s="40"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="40"/>
+      <c r="I127" s="40"/>
+      <c r="J127" s="46"/>
+    </row>
+    <row r="128" spans="2:11" ht="14.25">
+      <c r="B128" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="D128" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="F128" s="40"/>
+      <c r="G128" s="40"/>
+      <c r="H128" s="40"/>
+      <c r="I128" s="40"/>
+      <c r="J128" s="46"/>
+    </row>
+    <row r="129" spans="2:10" ht="14.25">
+      <c r="B129" s="48" t="s">
+        <v>483</v>
+      </c>
+      <c r="D129" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="F129" s="40"/>
+      <c r="G129" s="40"/>
+      <c r="H129" s="40"/>
+      <c r="I129" s="40"/>
+      <c r="J129" s="46"/>
+    </row>
+    <row r="130" spans="2:10" ht="14.25">
+      <c r="B130" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="D130" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="F130" s="40"/>
+      <c r="G130" s="40"/>
+      <c r="H130" s="40"/>
+      <c r="I130" s="40"/>
+      <c r="J130" s="46"/>
+    </row>
+    <row r="131" spans="2:10" ht="14.25">
+      <c r="B131" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="D131" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="F131" s="40"/>
+      <c r="G131" s="40"/>
+      <c r="H131" s="40"/>
+      <c r="I131" s="40"/>
+      <c r="J131" s="46"/>
+    </row>
+    <row r="132" spans="2:10" ht="14.25">
+      <c r="B132" s="48" t="s">
+        <v>489</v>
+      </c>
+      <c r="D132" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="F132" s="40"/>
+      <c r="G132" s="40"/>
+      <c r="H132" s="40"/>
+      <c r="I132" s="40"/>
+      <c r="J132" s="46"/>
+    </row>
+    <row r="133" spans="2:10" ht="14.25">
+      <c r="B133" s="48" t="s">
+        <v>491</v>
+      </c>
+      <c r="D133" s="45" t="s">
+        <v>492</v>
+      </c>
+      <c r="F133" s="40"/>
+      <c r="G133" s="40"/>
+      <c r="H133" s="40"/>
+      <c r="I133" s="40"/>
+      <c r="J133" s="46"/>
+    </row>
+    <row r="134" spans="2:10" ht="14.25">
+      <c r="B134" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="D134" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="F134" s="40"/>
+      <c r="G134" s="40"/>
+      <c r="H134" s="40"/>
+      <c r="I134" s="40"/>
+      <c r="J134" s="46"/>
+    </row>
+    <row r="135" spans="2:10" ht="14.25">
+      <c r="B135" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="D135" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="F135" s="40"/>
+      <c r="G135" s="40"/>
+      <c r="H135" s="40"/>
+      <c r="I135" s="40"/>
+      <c r="J135" s="46"/>
+    </row>
+    <row r="136" spans="2:10" ht="14.25">
+      <c r="B136" s="48" t="s">
+        <v>497</v>
+      </c>
+      <c r="D136" s="45" t="s">
+        <v>498</v>
+      </c>
+      <c r="F136" s="40"/>
+      <c r="G136" s="40"/>
+      <c r="H136" s="40"/>
+      <c r="I136" s="40"/>
+      <c r="J136" s="46"/>
+    </row>
+    <row r="137" spans="2:10" ht="14.25">
+      <c r="B137" s="48" t="s">
+        <v>499</v>
+      </c>
+      <c r="D137" s="45" t="s">
+        <v>500</v>
+      </c>
+      <c r="F137" s="40"/>
+      <c r="G137" s="40"/>
+      <c r="H137" s="40"/>
+      <c r="I137" s="40"/>
+      <c r="J137" s="46"/>
+    </row>
+    <row r="138" spans="2:10" ht="14.25">
+      <c r="B138" s="48" t="s">
+        <v>501</v>
+      </c>
+      <c r="D138" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="F138" s="40"/>
+      <c r="G138" s="40"/>
+      <c r="H138" s="40"/>
+      <c r="I138" s="40"/>
+      <c r="J138" s="46"/>
+    </row>
+    <row r="139" spans="2:10" ht="14.25">
+      <c r="B139" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="D139" s="45" t="s">
+        <v>504</v>
+      </c>
+      <c r="F139" s="40"/>
+      <c r="G139" s="40"/>
+      <c r="H139" s="40"/>
+      <c r="I139" s="40"/>
+      <c r="J139" s="46"/>
+    </row>
+    <row r="140" spans="2:10" ht="14.25">
+      <c r="B140" s="48" t="s">
+        <v>505</v>
+      </c>
+      <c r="D140" s="45" t="s">
+        <v>506</v>
+      </c>
+      <c r="F140" s="40"/>
+      <c r="G140" s="40"/>
+      <c r="H140" s="40"/>
+      <c r="I140" s="40"/>
+      <c r="J140" s="46"/>
+    </row>
+    <row r="141" spans="2:10" ht="14.25">
+      <c r="B141" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="D141" s="45" t="s">
+        <v>508</v>
+      </c>
+      <c r="F141" s="40"/>
+      <c r="G141" s="40"/>
+      <c r="H141" s="40"/>
+      <c r="I141" s="40"/>
+      <c r="J141" s="46"/>
+    </row>
+    <row r="142" spans="2:10" ht="14.25">
+      <c r="B142" s="48" t="s">
+        <v>509</v>
+      </c>
+      <c r="D142" s="45" t="s">
+        <v>510</v>
+      </c>
+      <c r="F142" s="40"/>
+      <c r="G142" s="40"/>
+      <c r="H142" s="40"/>
+      <c r="I142" s="40"/>
+      <c r="J142" s="46"/>
+    </row>
+    <row r="143" spans="2:10" ht="14.25">
+      <c r="B143" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="D143" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="F143" s="40"/>
+      <c r="G143" s="40"/>
+      <c r="H143" s="40"/>
+      <c r="I143" s="40"/>
+      <c r="J143" s="46"/>
+    </row>
+    <row r="144" spans="2:10" ht="14.25">
+      <c r="B144" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="D144" s="45" t="s">
+        <v>514</v>
+      </c>
+      <c r="F144" s="40"/>
+      <c r="G144" s="40"/>
+      <c r="H144" s="40"/>
+      <c r="I144" s="40"/>
+      <c r="J144" s="46"/>
+    </row>
+    <row r="145" spans="2:10" ht="14.25">
+      <c r="B145" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="D145" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="F145" s="40"/>
+      <c r="G145" s="40"/>
+      <c r="H145" s="40"/>
+      <c r="I145" s="40"/>
+      <c r="J145" s="46"/>
+    </row>
+    <row r="146" spans="2:10" ht="14.25">
+      <c r="B146" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="D146" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="F146" s="40"/>
+      <c r="G146" s="40"/>
+      <c r="H146" s="40"/>
+      <c r="I146" s="40"/>
+      <c r="J146" s="46"/>
+    </row>
+    <row r="147" spans="2:10" ht="14.25">
+      <c r="B147" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="D147" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="F147" s="40"/>
+      <c r="G147" s="40"/>
+      <c r="H147" s="40"/>
+      <c r="I147" s="40"/>
+      <c r="J147" s="46"/>
+    </row>
+    <row r="148" spans="2:10" ht="14.25">
+      <c r="B148" s="48" t="s">
+        <v>521</v>
+      </c>
+      <c r="D148" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="F148" s="40"/>
+      <c r="G148" s="40"/>
+      <c r="H148" s="40"/>
+      <c r="I148" s="40"/>
+      <c r="J148" s="46"/>
+    </row>
+    <row r="149" spans="2:10" ht="14.25">
+      <c r="B149" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="D149" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="F149" s="40"/>
+      <c r="G149" s="40"/>
+      <c r="H149" s="40"/>
+      <c r="I149" s="40"/>
+      <c r="J149" s="46"/>
+    </row>
+    <row r="150" spans="2:10" ht="14.25">
+      <c r="B150" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="D150" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="F150" s="40"/>
+      <c r="G150" s="40"/>
+      <c r="H150" s="40"/>
+      <c r="I150" s="40"/>
+      <c r="J150" s="46"/>
+    </row>
+    <row r="151" spans="2:10" ht="14.25">
+      <c r="B151" s="48" t="s">
+        <v>527</v>
+      </c>
+      <c r="D151" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="F151" s="40"/>
+      <c r="G151" s="40"/>
+      <c r="H151" s="40"/>
+      <c r="I151" s="40"/>
+      <c r="J151" s="46"/>
+    </row>
+    <row r="152" spans="2:10" ht="14.25">
+      <c r="B152" s="48" t="s">
+        <v>529</v>
+      </c>
+      <c r="D152" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="F152" s="40"/>
+      <c r="G152" s="40"/>
+      <c r="H152" s="40"/>
+      <c r="I152" s="40"/>
+      <c r="J152" s="46"/>
+    </row>
+    <row r="153" spans="2:10" ht="14.25">
+      <c r="B153" s="48" t="s">
+        <v>531</v>
+      </c>
+      <c r="D153" s="45" t="s">
+        <v>532</v>
+      </c>
+      <c r="F153" s="40"/>
+      <c r="G153" s="40"/>
+      <c r="H153" s="40"/>
+      <c r="I153" s="40"/>
+      <c r="J153" s="46"/>
+    </row>
+    <row r="154" spans="2:10" ht="14.25">
+      <c r="B154" s="48" t="s">
+        <v>533</v>
+      </c>
+      <c r="D154" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="F154" s="40"/>
+      <c r="G154" s="40"/>
+      <c r="H154" s="40"/>
+      <c r="I154" s="40"/>
+      <c r="J154" s="46"/>
+    </row>
+    <row r="155" spans="2:10" ht="14.25">
+      <c r="B155" s="48" t="s">
+        <v>535</v>
+      </c>
+      <c r="D155" s="45" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" ht="14.25">
+      <c r="B156" s="48" t="s">
+        <v>537</v>
+      </c>
+      <c r="D156" s="45" t="s">
+        <v>538</v>
+      </c>
+      <c r="F156" s="40"/>
+      <c r="G156" s="40"/>
+      <c r="H156" s="40"/>
+      <c r="I156" s="40"/>
+      <c r="J156" s="46"/>
+    </row>
+    <row r="157" spans="2:10" ht="14.25">
+      <c r="B157" s="48" t="s">
+        <v>539</v>
+      </c>
+      <c r="D157" s="45" t="s">
+        <v>540</v>
+      </c>
+      <c r="F157" s="40"/>
+      <c r="G157" s="40"/>
+      <c r="H157" s="40"/>
+      <c r="I157" s="40"/>
+      <c r="J157" s="46"/>
+    </row>
+    <row r="158" spans="2:10" ht="14.25">
+      <c r="B158" s="48" t="s">
+        <v>541</v>
+      </c>
+      <c r="D158" s="45" t="s">
+        <v>542</v>
+      </c>
+      <c r="F158" s="40"/>
+      <c r="G158" s="40"/>
+      <c r="H158" s="40"/>
+      <c r="I158" s="40"/>
+      <c r="J158" s="46"/>
+    </row>
+    <row r="159" spans="2:10" ht="14.25">
+      <c r="B159" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="D159" s="45" t="s">
+        <v>544</v>
+      </c>
+      <c r="F159" s="40"/>
+      <c r="G159" s="40"/>
+      <c r="H159" s="40"/>
+      <c r="I159" s="40"/>
+      <c r="J159" s="46"/>
+    </row>
+    <row r="160" spans="2:10" s="55" customFormat="1"/>
+    <row r="161" spans="2:11" ht="14.25">
+      <c r="B161" s="48" t="s">
+        <v>545</v>
+      </c>
+      <c r="D161" s="45" t="s">
+        <v>546</v>
+      </c>
+      <c r="F161" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="G161" s="40"/>
+      <c r="H161" s="39" t="s">
+        <v>548</v>
+      </c>
+      <c r="I161" s="40" t="s">
+        <v>549</v>
+      </c>
+      <c r="J161" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K161" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" ht="14.25">
+      <c r="B162" s="48" t="s">
+        <v>550</v>
+      </c>
+      <c r="D162" s="45" t="s">
+        <v>551</v>
+      </c>
+      <c r="F162" s="40"/>
+      <c r="G162" s="40"/>
+      <c r="H162" s="40"/>
+      <c r="I162" s="40"/>
+      <c r="J162" s="46"/>
+    </row>
+    <row r="163" spans="2:11" ht="14.25">
+      <c r="B163" s="48" t="s">
+        <v>552</v>
+      </c>
+      <c r="D163" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="F163" s="40"/>
+      <c r="G163" s="40"/>
+      <c r="H163" s="40"/>
+      <c r="I163" s="40"/>
+      <c r="J163" s="46"/>
+    </row>
+    <row r="164" spans="2:11" ht="14.25">
+      <c r="B164" s="48" t="s">
+        <v>554</v>
+      </c>
+      <c r="D164" s="45" t="s">
+        <v>555</v>
+      </c>
+      <c r="F164" s="40"/>
+      <c r="G164" s="40"/>
+      <c r="H164" s="40"/>
+      <c r="I164" s="40"/>
+      <c r="J164" s="46"/>
+    </row>
+    <row r="165" spans="2:11" ht="14.25">
+      <c r="B165" s="48" t="s">
+        <v>556</v>
+      </c>
+      <c r="D165" s="45" t="s">
+        <v>557</v>
+      </c>
+      <c r="F165" s="40"/>
+      <c r="G165" s="40"/>
+      <c r="H165" s="40"/>
+      <c r="I165" s="40"/>
+      <c r="J165" s="46"/>
+    </row>
+    <row r="166" spans="2:11" ht="14.25">
+      <c r="B166" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="D166" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="F166" s="40"/>
+      <c r="G166" s="40"/>
+      <c r="H166" s="40"/>
+      <c r="I166" s="40"/>
+      <c r="J166" s="46"/>
+    </row>
+    <row r="167" spans="2:11" ht="14.25">
+      <c r="B167" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="D167" s="45" t="s">
+        <v>561</v>
+      </c>
+      <c r="F167" s="40"/>
+      <c r="G167" s="40"/>
+      <c r="H167" s="40"/>
+      <c r="I167" s="40"/>
+      <c r="J167" s="46"/>
+    </row>
+    <row r="168" spans="2:11" ht="14.25">
+      <c r="B168" s="48" t="s">
+        <v>562</v>
+      </c>
+      <c r="D168" s="45" t="s">
+        <v>563</v>
+      </c>
+      <c r="F168" s="40"/>
+      <c r="G168" s="40"/>
+      <c r="H168" s="40"/>
+      <c r="I168" s="40"/>
+      <c r="J168" s="46"/>
+    </row>
+    <row r="169" spans="2:11" ht="14.25">
+      <c r="B169" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="D169" s="45" t="s">
+        <v>565</v>
+      </c>
+      <c r="F169" s="40"/>
+      <c r="G169" s="40"/>
+      <c r="H169" s="40"/>
+      <c r="I169" s="40"/>
+      <c r="J169" s="46"/>
+    </row>
+    <row r="170" spans="2:11" ht="14.25">
+      <c r="B170" s="48" t="s">
+        <v>566</v>
+      </c>
+      <c r="D170" s="65" t="s">
+        <v>567</v>
+      </c>
+      <c r="F170" s="40"/>
+      <c r="G170" s="40"/>
+      <c r="H170" s="40"/>
+      <c r="I170" s="40"/>
+      <c r="J170" s="46"/>
+    </row>
+    <row r="171" spans="2:11" ht="14.25">
+      <c r="B171" s="48" t="s">
+        <v>568</v>
+      </c>
+      <c r="D171" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="F171" s="40"/>
+      <c r="G171" s="40"/>
+      <c r="H171" s="40"/>
+      <c r="I171" s="40"/>
+      <c r="J171" s="46"/>
+    </row>
+    <row r="172" spans="2:11" ht="14.25">
+      <c r="B172" s="48" t="s">
+        <v>570</v>
+      </c>
+      <c r="D172" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="F172" s="40"/>
+      <c r="G172" s="40"/>
+      <c r="H172" s="40"/>
+      <c r="I172" s="40"/>
+      <c r="J172" s="46"/>
+    </row>
+    <row r="173" spans="2:11" ht="14.25">
+      <c r="B173" s="48" t="s">
+        <v>572</v>
+      </c>
+      <c r="D173" s="45" t="s">
+        <v>573</v>
+      </c>
+      <c r="F173" s="40"/>
+      <c r="G173" s="40"/>
+      <c r="H173" s="40"/>
+      <c r="I173" s="40"/>
+      <c r="J173" s="46"/>
+    </row>
+    <row r="174" spans="2:11" ht="14.25">
+      <c r="B174" s="48" t="s">
+        <v>574</v>
+      </c>
+      <c r="D174" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="F174" s="40"/>
+      <c r="G174" s="40"/>
+      <c r="H174" s="40"/>
+      <c r="I174" s="40"/>
+      <c r="J174" s="46"/>
+    </row>
+    <row r="175" spans="2:11" ht="14.25">
+      <c r="B175" s="48" t="s">
+        <v>576</v>
+      </c>
+      <c r="D175" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="F175" s="40"/>
+      <c r="G175" s="40"/>
+      <c r="H175" s="40"/>
+      <c r="I175" s="40"/>
+      <c r="J175" s="46"/>
+    </row>
+    <row r="176" spans="2:11" ht="14.25">
+      <c r="B176" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="D176" s="45" t="s">
+        <v>579</v>
+      </c>
+      <c r="F176" s="40"/>
+      <c r="G176" s="40"/>
+      <c r="H176" s="40"/>
+      <c r="I176" s="40"/>
+      <c r="J176" s="46"/>
+    </row>
+    <row r="177" spans="2:11" ht="14.25">
+      <c r="B177" s="48" t="s">
+        <v>580</v>
+      </c>
+      <c r="D177" s="45" t="s">
+        <v>581</v>
+      </c>
+      <c r="F177" s="40"/>
+      <c r="G177" s="40"/>
+      <c r="H177" s="40"/>
+      <c r="I177" s="40"/>
+      <c r="J177" s="46"/>
+    </row>
+    <row r="178" spans="2:11" ht="14.25">
+      <c r="B178" s="48" t="s">
+        <v>582</v>
+      </c>
+      <c r="D178" s="45" t="s">
+        <v>583</v>
+      </c>
+      <c r="F178" s="40"/>
+      <c r="G178" s="40"/>
+      <c r="H178" s="40"/>
+      <c r="I178" s="40"/>
+      <c r="J178" s="46"/>
+    </row>
+    <row r="179" spans="2:11" s="55" customFormat="1"/>
+    <row r="180" spans="2:11" s="62" customFormat="1">
+      <c r="B180" s="62" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" ht="14.25">
+      <c r="B181" s="48" t="s">
+        <v>585</v>
+      </c>
+      <c r="D181" s="45" t="s">
+        <v>586</v>
+      </c>
+      <c r="F181" s="40" t="s">
+        <v>587</v>
+      </c>
+      <c r="G181" s="40"/>
+      <c r="H181" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="I181" s="40" t="s">
+        <v>589</v>
+      </c>
+      <c r="J181" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K181" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" ht="14.25">
+      <c r="B182" s="48" t="s">
+        <v>590</v>
+      </c>
+      <c r="D182" s="45" t="s">
+        <v>591</v>
+      </c>
+      <c r="F182" s="40"/>
+      <c r="G182" s="40"/>
+      <c r="H182" s="40"/>
+      <c r="I182" s="40"/>
+      <c r="J182" s="46"/>
+    </row>
+    <row r="183" spans="2:11" ht="14.25">
+      <c r="B183" s="48" t="s">
+        <v>592</v>
+      </c>
+      <c r="D183" s="45" t="s">
+        <v>593</v>
+      </c>
+      <c r="F183" s="40"/>
+      <c r="G183" s="40"/>
+      <c r="H183" s="40"/>
+      <c r="I183" s="40"/>
+      <c r="J183" s="46"/>
+    </row>
+    <row r="184" spans="2:11" ht="14.25">
+      <c r="B184" s="48" t="s">
+        <v>594</v>
+      </c>
+      <c r="D184" s="45" t="s">
+        <v>595</v>
+      </c>
+      <c r="F184" s="40"/>
+      <c r="G184" s="40"/>
+      <c r="H184" s="40"/>
+      <c r="I184" s="40"/>
+      <c r="J184" s="46"/>
+    </row>
+    <row r="185" spans="2:11" ht="14.25">
+      <c r="B185" s="48" t="s">
+        <v>596</v>
+      </c>
+      <c r="D185" s="45" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" ht="14.25">
+      <c r="B186" s="48" t="s">
+        <v>598</v>
+      </c>
+      <c r="D186" s="45" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" ht="14.25">
+      <c r="B187" s="48" t="s">
+        <v>600</v>
+      </c>
+      <c r="D187" s="45" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" ht="14.25">
+      <c r="B188" s="48" t="s">
+        <v>602</v>
+      </c>
+      <c r="D188" s="45" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" ht="14.25">
+      <c r="B189" s="48" t="s">
+        <v>604</v>
+      </c>
+      <c r="D189" s="45" t="s">
+        <v>605</v>
+      </c>
+      <c r="F189" s="40"/>
+      <c r="G189" s="40"/>
+      <c r="H189" s="40"/>
+      <c r="I189" s="40"/>
+      <c r="J189" s="46"/>
+    </row>
+    <row r="190" spans="2:11" ht="14.25">
+      <c r="B190" s="48" t="s">
+        <v>606</v>
+      </c>
+      <c r="D190" s="45" t="s">
+        <v>607</v>
+      </c>
+      <c r="F190" s="40"/>
+      <c r="G190" s="40"/>
+      <c r="H190" s="40"/>
+      <c r="I190" s="40"/>
+      <c r="J190" s="46"/>
+    </row>
+    <row r="191" spans="2:11" ht="14.25">
+      <c r="B191" s="48" t="s">
+        <v>608</v>
+      </c>
+      <c r="D191" s="45" t="s">
+        <v>609</v>
+      </c>
+      <c r="F191" s="40"/>
+      <c r="G191" s="40"/>
+      <c r="H191" s="40"/>
+      <c r="I191" s="40"/>
+      <c r="J191" s="46"/>
+    </row>
+    <row r="192" spans="2:11" ht="14.25">
+      <c r="B192" s="48" t="s">
+        <v>610</v>
+      </c>
+      <c r="D192" s="45" t="s">
+        <v>611</v>
+      </c>
+      <c r="F192" s="40"/>
+      <c r="G192" s="40"/>
+      <c r="H192" s="40"/>
+      <c r="I192" s="40"/>
+      <c r="J192" s="46"/>
+    </row>
+    <row r="193" spans="2:10" ht="14.25">
+      <c r="B193" s="48" t="s">
+        <v>612</v>
+      </c>
+      <c r="D193" s="45" t="s">
+        <v>613</v>
+      </c>
+      <c r="F193" s="40"/>
+      <c r="G193" s="40"/>
+      <c r="H193" s="40"/>
+      <c r="I193" s="40"/>
+      <c r="J193" s="46"/>
+    </row>
+    <row r="194" spans="2:10" ht="14.25">
+      <c r="B194" s="48" t="s">
+        <v>614</v>
+      </c>
+      <c r="D194" s="45" t="s">
+        <v>615</v>
+      </c>
+      <c r="F194" s="40"/>
+      <c r="G194" s="40"/>
+      <c r="H194" s="40"/>
+      <c r="I194" s="40"/>
+      <c r="J194" s="46"/>
+    </row>
+    <row r="195" spans="2:10" ht="14.25">
+      <c r="B195" s="48" t="s">
+        <v>616</v>
+      </c>
+      <c r="D195" s="45" t="s">
+        <v>617</v>
+      </c>
+      <c r="F195" s="40"/>
+      <c r="G195" s="40"/>
+      <c r="H195" s="40"/>
+      <c r="I195" s="40"/>
+      <c r="J195" s="46"/>
+    </row>
+    <row r="196" spans="2:10" ht="14.25">
+      <c r="B196" s="48" t="s">
+        <v>618</v>
+      </c>
+      <c r="D196" s="45" t="s">
+        <v>619</v>
+      </c>
+      <c r="F196" s="40"/>
+      <c r="G196" s="40"/>
+      <c r="H196" s="40"/>
+      <c r="I196" s="40"/>
+      <c r="J196" s="46"/>
+    </row>
+    <row r="197" spans="2:10" ht="14.25">
+      <c r="B197" s="48" t="s">
+        <v>620</v>
+      </c>
+      <c r="D197" s="45" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" ht="14.25">
+      <c r="B198" s="48" t="s">
+        <v>622</v>
+      </c>
+      <c r="D198" s="45" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" ht="14.25">
+      <c r="B199" s="48" t="s">
+        <v>624</v>
+      </c>
+      <c r="D199" s="45" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" ht="14.25">
+      <c r="B200" s="48" t="s">
+        <v>626</v>
+      </c>
+      <c r="D200" s="45" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" s="62" customFormat="1">
+      <c r="B201" s="62" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" ht="14.25">
+      <c r="B202" s="48" t="s">
+        <v>629</v>
+      </c>
+      <c r="D202" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="F202" s="40"/>
+      <c r="G202" s="40"/>
+      <c r="H202" s="40"/>
+      <c r="I202" s="40"/>
+      <c r="J202" s="46"/>
+    </row>
+    <row r="203" spans="2:10" ht="14.25">
+      <c r="B203" s="48" t="s">
+        <v>631</v>
+      </c>
+      <c r="D203" s="45" t="s">
+        <v>632</v>
+      </c>
+      <c r="F203" s="40"/>
+      <c r="G203" s="40"/>
+      <c r="H203" s="40"/>
+      <c r="I203" s="40"/>
+      <c r="J203" s="46"/>
+    </row>
+    <row r="204" spans="2:10" ht="14.25">
+      <c r="B204" s="48" t="s">
+        <v>633</v>
+      </c>
+      <c r="D204" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="F204" s="40"/>
+      <c r="G204" s="40"/>
+      <c r="H204" s="40"/>
+      <c r="I204" s="40"/>
+      <c r="J204" s="46"/>
+    </row>
+    <row r="205" spans="2:10" ht="14.25">
+      <c r="B205" s="48" t="s">
+        <v>635</v>
+      </c>
+      <c r="D205" s="45" t="s">
+        <v>636</v>
+      </c>
+      <c r="F205" s="40"/>
+      <c r="G205" s="40"/>
+      <c r="H205" s="40"/>
+      <c r="I205" s="40"/>
+      <c r="J205" s="46"/>
+    </row>
+    <row r="206" spans="2:10" ht="14.25">
+      <c r="B206" s="48" t="s">
+        <v>637</v>
+      </c>
+      <c r="D206" s="45" t="s">
+        <v>638</v>
+      </c>
+      <c r="F206" s="40"/>
+      <c r="G206" s="40"/>
+      <c r="H206" s="40"/>
+      <c r="I206" s="40"/>
+      <c r="J206" s="46"/>
+    </row>
+    <row r="207" spans="2:10" ht="14.25">
+      <c r="B207" s="48" t="s">
+        <v>639</v>
+      </c>
+      <c r="D207" s="45" t="s">
+        <v>640</v>
+      </c>
+      <c r="F207" s="40"/>
+      <c r="G207" s="40"/>
+      <c r="H207" s="40"/>
+      <c r="I207" s="40"/>
+      <c r="J207" s="46"/>
+    </row>
+    <row r="208" spans="2:10" ht="14.25">
+      <c r="B208" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="D208" s="45" t="s">
+        <v>642</v>
+      </c>
+      <c r="F208" s="40"/>
+      <c r="G208" s="40"/>
+      <c r="H208" s="40"/>
+      <c r="I208" s="40"/>
+      <c r="J208" s="46"/>
+    </row>
+    <row r="209" spans="2:11" ht="14.25">
+      <c r="B209" s="48" t="s">
+        <v>643</v>
+      </c>
+      <c r="D209" s="45" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11" ht="14.25">
+      <c r="B210" s="48" t="s">
+        <v>645</v>
+      </c>
+      <c r="D210" s="45" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="211" spans="2:11" ht="14.25">
+      <c r="B211" s="48" t="s">
+        <v>647</v>
+      </c>
+      <c r="D211" s="45" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="212" spans="2:11" ht="14.25">
+      <c r="B212" s="48" t="s">
+        <v>649</v>
+      </c>
+      <c r="D212" s="45" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="213" spans="2:11" ht="14.25">
+      <c r="B213" s="48" t="s">
+        <v>651</v>
+      </c>
+      <c r="D213" s="45" t="s">
+        <v>652</v>
+      </c>
+      <c r="F213" s="40"/>
+      <c r="G213" s="40"/>
+      <c r="H213" s="40"/>
+      <c r="I213" s="40"/>
+      <c r="J213" s="46"/>
+    </row>
+    <row r="214" spans="2:11" ht="14.25">
+      <c r="B214" s="48" t="s">
+        <v>653</v>
+      </c>
+      <c r="D214" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="F214" s="40"/>
+      <c r="G214" s="40"/>
+      <c r="H214" s="40"/>
+      <c r="I214" s="40"/>
+      <c r="J214" s="46"/>
+    </row>
+    <row r="215" spans="2:11" ht="14.25">
+      <c r="B215" s="48" t="s">
+        <v>655</v>
+      </c>
+      <c r="D215" s="45" t="s">
+        <v>656</v>
+      </c>
+      <c r="F215" s="40"/>
+      <c r="G215" s="40"/>
+      <c r="H215" s="40"/>
+      <c r="I215" s="40"/>
+      <c r="J215" s="46"/>
+    </row>
+    <row r="216" spans="2:11" ht="14.25">
+      <c r="B216" s="48" t="s">
+        <v>657</v>
+      </c>
+      <c r="D216" s="45" t="s">
+        <v>658</v>
+      </c>
+      <c r="F216" s="40"/>
+      <c r="G216" s="40"/>
+      <c r="H216" s="40"/>
+      <c r="I216" s="40"/>
+      <c r="J216" s="46"/>
+    </row>
+    <row r="217" spans="2:11" ht="14.25">
+      <c r="B217" s="48" t="s">
+        <v>659</v>
+      </c>
+      <c r="D217" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="F217" s="40"/>
+      <c r="G217" s="40"/>
+      <c r="H217" s="40"/>
+      <c r="I217" s="40"/>
+      <c r="J217" s="46"/>
+    </row>
+    <row r="218" spans="2:11" ht="14.25">
+      <c r="B218" s="48" t="s">
+        <v>661</v>
+      </c>
+      <c r="D218" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="F218" s="40"/>
+      <c r="G218" s="40"/>
+      <c r="H218" s="40"/>
+      <c r="I218" s="40"/>
+      <c r="J218" s="46"/>
+    </row>
+    <row r="219" spans="2:11" ht="14.25">
+      <c r="B219" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="D219" s="65" t="s">
+        <v>664</v>
+      </c>
+      <c r="F219" s="40"/>
+      <c r="G219" s="40"/>
+      <c r="H219" s="40"/>
+      <c r="I219" s="40"/>
+      <c r="J219" s="46"/>
+    </row>
+    <row r="220" spans="2:11" ht="14.25">
+      <c r="B220" s="48" t="s">
+        <v>665</v>
+      </c>
+      <c r="D220" s="45" t="s">
+        <v>666</v>
+      </c>
+      <c r="F220" s="40"/>
+      <c r="G220" s="40"/>
+      <c r="H220" s="40"/>
+      <c r="I220" s="40"/>
+      <c r="J220" s="46"/>
+    </row>
+    <row r="221" spans="2:11" s="55" customFormat="1"/>
+    <row r="222" spans="2:11" ht="14.25">
+      <c r="B222" s="48" t="s">
+        <v>667</v>
+      </c>
+      <c r="D222" s="45" t="s">
+        <v>668</v>
+      </c>
+      <c r="F222" s="40" t="s">
+        <v>669</v>
+      </c>
+      <c r="G222" s="40"/>
+      <c r="H222" s="39" t="s">
+        <v>670</v>
+      </c>
+      <c r="I222" s="40" t="s">
+        <v>671</v>
+      </c>
+      <c r="J222" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K222" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="223" spans="2:11" ht="14.25">
+      <c r="B223" s="48" t="s">
+        <v>672</v>
+      </c>
+      <c r="D223" s="45" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="224" spans="2:11" ht="14.25">
+      <c r="B224" s="48" t="s">
+        <v>674</v>
+      </c>
+      <c r="D224" s="45" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="225" spans="2:11" ht="14.25">
+      <c r="B225" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="D225" s="45" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="226" spans="2:11" s="55" customFormat="1"/>
+    <row r="227" spans="2:11" ht="14.25">
+      <c r="B227" s="48" t="s">
+        <v>678</v>
+      </c>
+      <c r="D227" s="45" t="s">
+        <v>679</v>
+      </c>
+      <c r="F227" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="G227" s="40"/>
+      <c r="H227" s="39" t="s">
+        <v>681</v>
+      </c>
+      <c r="I227" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="J227" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K227" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="228" spans="2:11" ht="14.25">
+      <c r="B228" s="48" t="s">
+        <v>683</v>
+      </c>
+      <c r="D228" s="45" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="229" spans="2:11" ht="14.25">
+      <c r="B229" s="48" t="s">
+        <v>685</v>
+      </c>
+      <c r="D229" s="45" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="230" spans="2:11" ht="14.25">
+      <c r="B230" s="48" t="s">
+        <v>687</v>
+      </c>
+      <c r="D230" s="45" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="231" spans="2:11" ht="14.25">
+      <c r="B231" s="48" t="s">
+        <v>689</v>
+      </c>
+      <c r="D231" s="45" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="232" spans="2:11" ht="14.25">
+      <c r="B232" s="48" t="s">
+        <v>691</v>
+      </c>
+      <c r="D232" s="45" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="233" spans="2:11" s="55" customFormat="1"/>
+    <row r="234" spans="2:11" ht="14.25">
+      <c r="B234" s="48" t="s">
+        <v>693</v>
+      </c>
+      <c r="D234" s="45" t="s">
+        <v>694</v>
+      </c>
+      <c r="F234" s="40" t="s">
+        <v>695</v>
+      </c>
+      <c r="G234" s="40"/>
+      <c r="H234" s="39" t="s">
+        <v>696</v>
+      </c>
+      <c r="I234" s="40" t="s">
+        <v>697</v>
+      </c>
+      <c r="J234" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K234" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="235" spans="2:11" ht="14.25">
+      <c r="B235" s="48" t="s">
+        <v>698</v>
+      </c>
+      <c r="D235" s="45" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="236" spans="2:11" ht="14.25">
+      <c r="B236" s="48" t="s">
+        <v>700</v>
+      </c>
+      <c r="D236" s="45" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="237" spans="2:11" ht="14.25">
+      <c r="B237" s="48" t="s">
+        <v>702</v>
+      </c>
+      <c r="D237" s="45" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="238" spans="2:11" ht="14.25">
+      <c r="B238" s="48" t="s">
+        <v>704</v>
+      </c>
+      <c r="D238" s="45" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="239" spans="2:11" s="55" customFormat="1"/>
+    <row r="240" spans="2:11" s="62" customFormat="1">
+      <c r="B240" s="62" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11" ht="14.25">
+      <c r="B241" s="48" t="s">
+        <v>706</v>
+      </c>
+      <c r="D241" s="45" t="s">
+        <v>707</v>
+      </c>
+      <c r="F241" s="40" t="s">
+        <v>708</v>
+      </c>
+      <c r="G241" s="40"/>
+      <c r="H241" s="39" t="s">
+        <v>709</v>
+      </c>
+      <c r="I241" s="40" t="s">
+        <v>710</v>
+      </c>
+      <c r="J241" s="46">
+        <v>40757</v>
+      </c>
+      <c r="K241" s="47">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="242" spans="2:11" ht="14.25">
+      <c r="B242" s="48" t="s">
+        <v>711</v>
+      </c>
+      <c r="D242" s="45" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="243" spans="2:11" ht="14.25">
+      <c r="B243" s="48" t="s">
+        <v>713</v>
+      </c>
+      <c r="D243" s="45" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="244" spans="2:11" ht="14.25">
+      <c r="B244" s="48" t="s">
+        <v>715</v>
+      </c>
+      <c r="D244" s="45" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="245" spans="2:11" s="62" customFormat="1">
+      <c r="B245" s="62" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="246" spans="2:11" ht="14.25">
+      <c r="B246" s="48" t="s">
+        <v>718</v>
+      </c>
+      <c r="D246" s="45" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="247" spans="2:11" s="55" customFormat="1"/>
+    <row r="248" spans="2:11" s="62" customFormat="1">
+      <c r="B248" s="62" t="s">
+        <v>720</v>
+      </c>
+      <c r="F248" s="62" t="s">
+        <v>721</v>
+      </c>
+      <c r="H248" s="62" t="s">
+        <v>722</v>
+      </c>
+      <c r="I248" s="62" t="s">
+        <v>723</v>
+      </c>
+      <c r="J248" s="62">
+        <v>40757</v>
+      </c>
+      <c r="K248" s="62">
+        <v>40940</v>
+      </c>
+    </row>
+    <row r="249" spans="2:11" ht="14.25">
+      <c r="B249" s="48" t="s">
+        <v>724</v>
+      </c>
+      <c r="D249" s="45" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="250" spans="2:11" ht="14.25">
+      <c r="B250" s="48" t="s">
+        <v>726</v>
+      </c>
+      <c r="D250" s="45" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="251" spans="2:11" ht="14.25">
+      <c r="B251" s="48" t="s">
+        <v>728</v>
+      </c>
+      <c r="D251" s="45" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="252" spans="2:11" ht="14.25">
+      <c r="B252" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="D252" s="45" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="253" spans="2:11" ht="14.25">
+      <c r="B253" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="D253" s="45" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="254" spans="2:11" ht="14.25">
+      <c r="B254" s="48" t="s">
+        <v>733</v>
+      </c>
+      <c r="D254" s="45" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="255" spans="2:11" ht="14.25">
+      <c r="B255" s="48" t="s">
+        <v>735</v>
+      </c>
+      <c r="D255" s="45" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="256" spans="2:11" ht="14.25">
+      <c r="B256" s="48" t="s">
+        <v>737</v>
+      </c>
+      <c r="D256" s="45" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="14.25">
+      <c r="B257" s="48" t="s">
+        <v>739</v>
+      </c>
+      <c r="D257" s="45" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="14.25">
+      <c r="B258" s="48" t="s">
+        <v>741</v>
+      </c>
+      <c r="D258" s="45" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="14.25">
+      <c r="B259" s="48" t="s">
+        <v>743</v>
+      </c>
+      <c r="D259" s="45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="14.25">
+      <c r="B260" s="48" t="s">
+        <v>745</v>
+      </c>
+      <c r="D260" s="45" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" s="62" customFormat="1">
+      <c r="B261" s="62" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="14.25">
+      <c r="B262" s="48" t="s">
+        <v>748</v>
+      </c>
+      <c r="D262" s="45" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="14.25">
+      <c r="A263" s="66"/>
+      <c r="B263" s="48" t="s">
+        <v>750</v>
+      </c>
+      <c r="D263" s="45" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="14.25">
+      <c r="B264" s="48" t="s">
+        <v>752</v>
+      </c>
+      <c r="D264" s="45" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="14.25">
+      <c r="B265" s="48" t="s">
+        <v>754</v>
+      </c>
+      <c r="D265" s="45" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="14.25">
+      <c r="B266" s="48" t="s">
+        <v>756</v>
+      </c>
+      <c r="D266" s="45" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="14.25">
+      <c r="B267" s="48" t="s">
+        <v>758</v>
+      </c>
+      <c r="D267" s="66" t="s">
+        <v>759</v>
+      </c>
+      <c r="E267" s="66"/>
+    </row>
+    <row r="268" spans="1:5" ht="14.25">
+      <c r="B268" s="48" t="s">
+        <v>760</v>
+      </c>
+      <c r="D268" s="45" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="14.25">
+      <c r="B269" s="48" t="s">
+        <v>762</v>
+      </c>
+      <c r="D269" s="45" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="14.25">
+      <c r="B270" s="48" t="s">
+        <v>764</v>
+      </c>
+      <c r="D270" s="45" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="14.25">
+      <c r="B271" s="48" t="s">
+        <v>766</v>
+      </c>
+      <c r="D271" s="45" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="14.25">
+      <c r="B272" s="48" t="s">
+        <v>768</v>
+      </c>
+      <c r="D272" s="45" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" ht="14.25">
+      <c r="B273" s="48" t="s">
+        <v>770</v>
+      </c>
+      <c r="D273" s="45" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" ht="14.25">
+      <c r="B274" s="48" t="s">
+        <v>772</v>
+      </c>
+      <c r="D274" s="45" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" ht="14.25">
+      <c r="B275" s="48" t="s">
+        <v>774</v>
+      </c>
+      <c r="D275" s="45" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" ht="14.25">
+      <c r="B276" s="48" t="s">
+        <v>776</v>
+      </c>
+      <c r="D276" s="45" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" ht="14.25">
+      <c r="B277" s="48" t="s">
+        <v>778</v>
+      </c>
+      <c r="D277" s="45" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" ht="14.25">
+      <c r="B278" s="48" t="s">
+        <v>780</v>
+      </c>
+      <c r="D278" s="45" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" ht="14.25">
+      <c r="B279" s="48" t="s">
+        <v>782</v>
+      </c>
+      <c r="D279" s="45" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" ht="14.25">
+      <c r="B280" s="48" t="s">
+        <v>783</v>
+      </c>
+      <c r="D280" s="45" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" ht="14.25">
+      <c r="B281" s="48" t="s">
+        <v>785</v>
+      </c>
+      <c r="D281" s="45" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" ht="14.25">
+      <c r="B282" s="48" t="s">
+        <v>787</v>
+      </c>
+      <c r="D282" s="45" t="s">
+        <v>788</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B11" location="CV02.01.101!A1" display="CV02.01.101"/>
+    <hyperlink ref="B4:B8" location="标识编码规则!A1" display="城乡居民健康档案编号"/>
+    <hyperlink ref="B12" location="CV02.01.102!A1" display="CV02.01.102"/>
+    <hyperlink ref="B13" location="CV02.01.103!A1" display="CV02.01.103"/>
+    <hyperlink ref="B14" location="CV02.01.104!A1" display="CV02.01.104"/>
+    <hyperlink ref="B16" location="CV02.01.201!A1" display="CV02.01.201"/>
+    <hyperlink ref="B17" location="CV02.01.202!A1" display="CV02.01.202"/>
+    <hyperlink ref="B18" location="CV02.01.203!A1" display="CV02.01.203"/>
+    <hyperlink ref="B21" location="CV02.10.001!A1" display="CV02.10.001"/>
+    <hyperlink ref="B22" location="CV02.10.002!A1" display="CV02.10.002"/>
+    <hyperlink ref="B23" location="CV02.10.003!A1" display="CV02.10.003"/>
+    <hyperlink ref="B24" location="CV02.10.004!A1" display="CV02.10.004"/>
+    <hyperlink ref="B25" location="CV02.10.005!A1" display="CV02.10.005"/>
+    <hyperlink ref="B28" location="CV03.00.101!A1" display="CV03.00.101"/>
+    <hyperlink ref="B29" location="CV03.00.102!A1" display="CV03.00.102"/>
+    <hyperlink ref="B30" location="CV03.00.103!A1" display="CV03.00.103"/>
+    <hyperlink ref="B31" location="CV03.00.104!A1" display="CV03.00.104"/>
+    <hyperlink ref="B32" location="CV03.00.105!A1" display="CV03.00.105"/>
+    <hyperlink ref="B33" location="CV03.00.106!A1" display="CV03.00.106"/>
+    <hyperlink ref="B34" location="CV03.00.107!A1" display="CV03.00.107"/>
+    <hyperlink ref="B35" location="CV03.00.108!A1" display="CV03.00.108"/>
+    <hyperlink ref="B36" location="CV03.00.109!A1" display="CV03.00.109"/>
+    <hyperlink ref="B37" location="CV03.00.110!A1" display="CV03.00.110"/>
+    <hyperlink ref="B38" location="CV03.00.111!A1" display="CV03.00.111"/>
+    <hyperlink ref="B39" location="CV03.00.112!A1" display="CV03.00.112"/>
+    <hyperlink ref="B40" location="CV03.00.113!A1" display="CV03.00.113"/>
+    <hyperlink ref="B41" location="CV03.00.114!A1" display="CV03.00.114"/>
+    <hyperlink ref="B42" location="CV03.00.115!A1" display="CV03.00.115"/>
+    <hyperlink ref="B43" location="CV03.00.116!A1" display="CV03.00.116"/>
+    <hyperlink ref="B45" location="CV03.00.201!A1" display="CV03.00.201"/>
+    <hyperlink ref="B46" location="CV03.00.202!A1" display="CV03.00.202"/>
+    <hyperlink ref="B47" location="CV03.00.203!A1" display="CV03.00.203"/>
+    <hyperlink ref="B48" location="CV03.00.204!A1" display="CV03.00.204"/>
+    <hyperlink ref="B50" location="CV03.00.301!A1" display="CV03.00.301"/>
+    <hyperlink ref="B51" location="CV03.00.302!A1" display="CV03.00.302"/>
+    <hyperlink ref="B52" location="CV03.00.303!A1" display="CV03.00.303"/>
+    <hyperlink ref="B53" location="CV03.00.304!A1" display="CV03.00.304"/>
+    <hyperlink ref="B54" location="CV03.00.401!A1" display="CV03.00.401"/>
+    <hyperlink ref="B55" location="CV03.00.402!A1" display="CV03.00.402"/>
+    <hyperlink ref="B56" location="CV03.00.403!A1" display="CV03.00.403"/>
+    <hyperlink ref="B59" location="CV04.01.001!A1" display="CV04.01.001"/>
+    <hyperlink ref="B60" location="CV04.01.002!A1" display="CV04.01.002"/>
+    <hyperlink ref="B61" location="CV04.01.003!A1" display="CV04.01.003"/>
+    <hyperlink ref="B62" location="CV04.01.004!A1" display="CV04.01.004"/>
+    <hyperlink ref="B63" location="CV04.01.005!A1" display="CV04.01.005"/>
+    <hyperlink ref="B64" location="CV04.01.006!A1" display="CV04.01.006"/>
+    <hyperlink ref="B65" location="CV04.01.007!A1" display="CV04.01.007"/>
+    <hyperlink ref="B66" location="CV04.01.008!A1" display="CV04.01.008"/>
+    <hyperlink ref="B67" location="CV04.01.009!A1" display="CV04.01.009"/>
+    <hyperlink ref="B68" location="CV04.01.010!A1" display="CV04.01.010"/>
+    <hyperlink ref="B69" location="CV04.01.011!A1" display="CV04.01.011"/>
+    <hyperlink ref="B70" location="CV04.01.012!A1" display="CV04.01.012"/>
+    <hyperlink ref="B71" location="CV04.01.013!A1" display="CV04.01.013"/>
+    <hyperlink ref="B72" location="CV04.01.014!A1" display="CV04.01.014"/>
+    <hyperlink ref="B74" location="CV04.10.001!A1" display="CV04.10.001"/>
+    <hyperlink ref="B75" location="CV04.10.002!A1" display="CV04.10.002"/>
+    <hyperlink ref="B76" location="CV04.10.003!A1" display="CV04.10.003"/>
+    <hyperlink ref="B77" location="CV04.10.004!A1" display="CV04.10.004"/>
+    <hyperlink ref="B78" location="CV04.10.005!A1" display="CV04.10.005"/>
+    <hyperlink ref="B79" location="CV04.10.006!A1" display="CV04.10.006"/>
+    <hyperlink ref="B80" location="CV04.10.007!A1" display="CV04.10.007"/>
+    <hyperlink ref="B81" location="CV04.10.008!A1" display="CV04.10.008"/>
+    <hyperlink ref="B82" location="CV04.10.009!A1" display="CV04.10.009"/>
+    <hyperlink ref="B83" location="CV04.10.010!A1" display="CV04.10.010"/>
+    <hyperlink ref="B84" location="CV04.10.011!A1" display="CV04.10.011"/>
+    <hyperlink ref="B85" location="CV04.10.012!A1" display="CV04.10.012"/>
+    <hyperlink ref="B86" location="CV04.10.013!A1" display="CV04.10.013"/>
+    <hyperlink ref="B87" location="CV04.10.014!A1" display="CV04.10.014"/>
+    <hyperlink ref="B88" location="CV04.10.015!A1" display="CV04.10.015"/>
+    <hyperlink ref="B89" location="CV04.10.016!A1" display="CV04.10.016"/>
+    <hyperlink ref="B90" location="CV04.10.017!A1" display="CV04.10.017"/>
+    <hyperlink ref="B91" location="CV04.10.018!A1" display="CV04.10.018"/>
+    <hyperlink ref="B92" location="CV04.10.019!A1" display="CV04.10.019"/>
+    <hyperlink ref="B93" location="CV04.10.020!A1" display="CV04.10.020"/>
+    <hyperlink ref="B94" location="CV04.10.021!A1" display="CV04.10.021"/>
+    <hyperlink ref="B95" location="CV04.10.022!A1" display="CV04.10.022"/>
+    <hyperlink ref="B97" location="CV04.30.001!A1" display="CV04.30.001"/>
+    <hyperlink ref="B101" location="CV04.50.001!A1" display="CV04.50.001"/>
+    <hyperlink ref="B102" location="CV04.50.002!A1" display="CV04.50.002"/>
+    <hyperlink ref="B103" location="CV04.50.003!A1" display="CV04.50.003"/>
+    <hyperlink ref="B104" location="CV04.50.004!A1" display="CV04.50.004"/>
+    <hyperlink ref="B105" location="CV04.50.005!A1" display="CV04.50.005"/>
+    <hyperlink ref="B106" location="CV04.50.006!A1" display="CV04.50.006"/>
+    <hyperlink ref="B107" location="CV04.50.007!A1" display="CV04.50.007"/>
+    <hyperlink ref="B108" location="CV04.50.008!A1" display="CV04.50.008"/>
+    <hyperlink ref="B109" location="CV04.50.009!A1" display="CV04.50.009"/>
+    <hyperlink ref="B110" location="CV04.50.010!A1" display="CV04.50.010"/>
+    <hyperlink ref="B111" location="CV04.50.011!A1" display="CV04.50.011"/>
+    <hyperlink ref="B112" location="CV04.50.012!A1" display="CV04.50.012"/>
+    <hyperlink ref="B113" location="CV04.50.013!A1" display="CV04.50.013"/>
+    <hyperlink ref="B114" location="CV04.50.014!A1" display="CV04.50.014"/>
+    <hyperlink ref="B115" location="CV04.50.015!A1" display="CV04.50.015"/>
+    <hyperlink ref="B116" location="CV04.50.016!A1" display="CV04.50.016"/>
+    <hyperlink ref="B117" location="CV04.50.017!A1" display="CV04.50.017"/>
+    <hyperlink ref="B118" location="CV04.50.018!A1" display="CV04.50.018"/>
+    <hyperlink ref="B119" location="CV04.50.019!A1" display="CV04.50.019"/>
+    <hyperlink ref="B121" location="CV05.01.001!A1" display="CV05.01.001"/>
+    <hyperlink ref="B122" location="CV05.01.002!A1" display="CV05.01.002"/>
+    <hyperlink ref="B123" location="CV05.01.003!A1" display="CV05.01.003"/>
+    <hyperlink ref="B124" location="CV05.01.004!A1" display="CV05.01.004"/>
+    <hyperlink ref="B125" location="CV05.01.005!A1" display="CV05.01.005"/>
+    <hyperlink ref="B126" location="CV05.01.006!A1" display="CV05.01.006"/>
+    <hyperlink ref="B127" location="CV05.01.007!A1" display="CV05.01.007"/>
+    <hyperlink ref="B128" location="CV05.01.008!A1" display="CV05.01.008"/>
+    <hyperlink ref="B129" location="CV05.01.009!A1" display="CV05.01.009"/>
+    <hyperlink ref="B130" location="CV05.01.010!A1" display="CV05.01.010"/>
+    <hyperlink ref="B131" location="CV05.01.011!A1" display="CV05.01.011"/>
+    <hyperlink ref="B132" location="CV05.01.012!A1" display="CV05.01.012"/>
+    <hyperlink ref="B133" location="CV05.01.013!A1" display="CV05.01.013"/>
+    <hyperlink ref="B134" location="CV05.01.014!A1" display="CV05.01.014"/>
+    <hyperlink ref="B135" location="CV05.01.015!A1" display="CV05.01.015"/>
+    <hyperlink ref="B136" location="CV05.01.016!A1" display="CV05.01.016"/>
+    <hyperlink ref="B137" location="CV05.01.017!A1" display="CV05.01.017"/>
+    <hyperlink ref="B138" location="CV05.01.018!A1" display="CV05.01.018"/>
+    <hyperlink ref="B139" location="CV05.01.019!A1" display="CV05.01.019"/>
+    <hyperlink ref="B140" location="CV05.01.020!A1" display="CV05.01.020"/>
+    <hyperlink ref="B141" location="CV05.01.021!A1" display="CV05.01.021"/>
+    <hyperlink ref="B142" location="CV05.01.022!A1" display="CV05.01.022"/>
+    <hyperlink ref="B143" location="CV05.01.023!A1" display="CV05.01.023"/>
+    <hyperlink ref="B144" location="CV05.01.024!A1" display="CV05.01.024"/>
+    <hyperlink ref="B145" location="CV05.01.025!A1" display="CV05.01.025"/>
+    <hyperlink ref="B146" location="CV05.01.026!A1" display="CV05.01.026"/>
+    <hyperlink ref="B147" location="CV05.01.027!A1" display="CV05.01.027"/>
+    <hyperlink ref="B148" location="CV05.01.028!A1" display="CV05.01.028"/>
+    <hyperlink ref="B149" location="CV05.01.029!A1" display="CV05.01.029"/>
+    <hyperlink ref="B150" location="CV05.01.030!A1" display="CV05.01.030"/>
+    <hyperlink ref="B151" location="CV05.01.031!A1" display="CV05.01.031"/>
+    <hyperlink ref="B152" location="CV05.01.032!A1" display="CV05.01.032"/>
+    <hyperlink ref="B153" location="CV05.01.033!A1" display="CV05.01.033"/>
+    <hyperlink ref="B154" location="CV05.01.034!A1" display="CV05.01.034"/>
+    <hyperlink ref="B155" location="CV05.01.035!A1" display="CV05.01.035"/>
+    <hyperlink ref="B156" location="CV05.01.036!A1" display="CV05.01.036"/>
+    <hyperlink ref="B157" location="CV05.01.037!A1" display="CV05.01.037"/>
+    <hyperlink ref="B158" location="CV05.01.038!A1" display="CV05.01.038"/>
+    <hyperlink ref="B159" location="CV05.01.039!A1" display="CV05.01.039"/>
+    <hyperlink ref="B161" location="CV05.10.001!A1" display="CV05.10.001"/>
+    <hyperlink ref="B162" location="CV05.10.002!A1" display="CV05.10.002"/>
+    <hyperlink ref="B163" location="CV05.10.003!A1" display="CV05.10.003"/>
+    <hyperlink ref="B164" location="CV05.10.004!A1" display="CV05.10.004"/>
+    <hyperlink ref="B165" location="CV05.10.005!A1" display="CV05.10.005"/>
+    <hyperlink ref="B166" location="CV05.10.006!A1" display="CV05.10.006"/>
+    <hyperlink ref="B167" location="CV05.10.007!A1" display="CV05.10.007"/>
+    <hyperlink ref="B168" location="CV05.10.008!A1" display="CV05.10.008"/>
+    <hyperlink ref="B169" location="CV05.10.009!A1" display="CV05.10.009"/>
+    <hyperlink ref="B170" location="CV05.10.010!A1" display="CV05.10.010"/>
+    <hyperlink ref="B171" location="CV05.10.011!A1" display="CV05.10.011"/>
+    <hyperlink ref="B172" location="CV05.10.012!A1" display="CV05.10.012"/>
+    <hyperlink ref="B173" location="CV05.10.013!A1" display="CV05.10.013"/>
+    <hyperlink ref="B174" location="CV05.10.014!A1" display="CV05.10.014"/>
+    <hyperlink ref="B175" location="CV05.10.015!A1" display="CV05.10.015"/>
+    <hyperlink ref="B176" location="CV05.10.016!A1" display="CV05.10.016"/>
+    <hyperlink ref="B177" location="CV05.10.017!A1" display="CV05.10.017"/>
+    <hyperlink ref="B178" location="CV05.10.018!A1" display="CV05.10.018"/>
+    <hyperlink ref="B181" location="CV06.00.101!A1" display="CV06.00.101"/>
+    <hyperlink ref="B182" location="CV06.00.102!A1" display="CV06.00.102"/>
+    <hyperlink ref="B183" location="CV06.00.103!A1" display="CV06.00.103"/>
+    <hyperlink ref="B184" location="CV06.00.104!A1" display="CV06.00.104"/>
+    <hyperlink ref="B185" location="CV06.00.105!A1" display="CV06.00.105"/>
+    <hyperlink ref="B186" location="CV06.00.106!A1" display="CV06.00.106"/>
+    <hyperlink ref="B187" location="CV06.00.107!A1" display="CV06.00.107"/>
+    <hyperlink ref="B188" location="CV06.00.108!A1" display="CV06.00.108"/>
+    <hyperlink ref="B189" location="CV06.00.109!A1" display="CV06.00.109"/>
+    <hyperlink ref="B190" location="CV06.00.110!A1" display="CV06.00.110"/>
+    <hyperlink ref="B191" location="CV06.00.111!A1" display="CV06.00.111"/>
+    <hyperlink ref="B192" location="CV06.00.112!A1" display="CV06.00.112"/>
+    <hyperlink ref="B193" location="CV06.00.113!A1" display="CV06.00.113"/>
+    <hyperlink ref="B194" location="CV06.00.114!A1" display="CV06.00.114"/>
+    <hyperlink ref="B195" location="CV06.00.115!A1" display="CV06.00.115"/>
+    <hyperlink ref="B196" location="CV06.00.116!A1" display="CV06.00.116"/>
+    <hyperlink ref="B197" location="CV06.00.117!A1" display="CV06.00.117"/>
+    <hyperlink ref="B198" location="CV06.00.118!A1" display="CV06.00.118"/>
+    <hyperlink ref="B199" location="CV06.00.119!A1" display="CV06.00.119"/>
+    <hyperlink ref="B200" location="CV06.00.120!A1" display="CV06.00.120"/>
+    <hyperlink ref="B202" location="CV06.00.201!A1" display="CV06.00.201"/>
+    <hyperlink ref="B203" location="CV06.00.202!A1" display="CV06.00.202"/>
+    <hyperlink ref="B204" location="CV06.00.203!A1" display="CV06.00.203"/>
+    <hyperlink ref="B205" location="CV06.00.204!A1" display="CV06.00.204"/>
+    <hyperlink ref="B206" location="CV06.00.205!A1" display="CV06.00.205"/>
+    <hyperlink ref="B207" location="CV06.00.206!A1" display="CV06.00.206"/>
+    <hyperlink ref="B208" location="CV06.00.207!A1" display="CV06.00.207"/>
+    <hyperlink ref="B209" location="CV06.00.208!A1" display="CV06.00.208"/>
+    <hyperlink ref="B210" location="CV06.00.209!A1" display="CV06.00.209"/>
+    <hyperlink ref="B211" location="CV06.00.210!A1" display="CV06.00.210"/>
+    <hyperlink ref="B212" location="CV06.00.211!A1" display="CV06.00.211"/>
+    <hyperlink ref="B213" location="CV06.00.211!A1" display="CV06.00.212"/>
+    <hyperlink ref="B214" location="CV06.00.213!A1" display="CV06.00.213"/>
+    <hyperlink ref="B215" location="CV06.00.214!A1" display="CV06.00.214"/>
+    <hyperlink ref="B216" location="CV06.00.215!A1" display="CV06.00.215"/>
+    <hyperlink ref="B217" location="CV06.00.216!A1" display="CV06.00.216"/>
+    <hyperlink ref="B218" location="CV06.00.217!A1" display="CV06.00.217"/>
+    <hyperlink ref="B219" location="CV06.00.218!A1" display="CV06.00.218"/>
+    <hyperlink ref="B220" location="CV06.00.219!A1" display="CV06.00.219"/>
+    <hyperlink ref="B222" location="CV07.10.001!A1" display="CV07.10.001"/>
+    <hyperlink ref="B223" location="CV07.10.002!A1" display="CV07.10.002"/>
+    <hyperlink ref="B224" location="CV07.10.003!A1" display="CV07.10.003"/>
+    <hyperlink ref="B225" location="CV07.10.004!A1" display="CV07.10.004"/>
+    <hyperlink ref="B227" location="CV08.10.001!A1" display="CV08.10.001"/>
+    <hyperlink ref="B228" location="CV08.10.002!A1" display="CV08.10.002"/>
+    <hyperlink ref="B229" location="CV08.10.003!A1" display="CV08.10.003"/>
+    <hyperlink ref="B230" location="CV08.10.004!A1" display="CV08.10.004"/>
+    <hyperlink ref="B231" location="CV08.10.005!A1" display="CV08.10.005"/>
+    <hyperlink ref="B232" location="CV08.10.006!A1" display="CV08.10.006"/>
+    <hyperlink ref="B234" location="CV08.30.001!A1" display="CV08.30.001"/>
+    <hyperlink ref="B235" location="CV08.30.002!A1" display="CV08.30.002"/>
+    <hyperlink ref="B236" location="CV08.30.003!A1" display="CV08.30.003"/>
+    <hyperlink ref="B237" location="CV08.30.004!A1" display="CV08.30.004"/>
+    <hyperlink ref="B238" location="CV08.30.005!A1" display="CV08.30.005"/>
+    <hyperlink ref="B241" location="CV08.50.001!A1" display="CV08.50.001"/>
+    <hyperlink ref="B242" location="CV08.50.002!A1" display="CV08.50.002"/>
+    <hyperlink ref="B243" location="CV08.50.003!A1" display="CV08.50.003"/>
+    <hyperlink ref="B244" location="CV08.50.004!A1" display="CV08.50.004"/>
+    <hyperlink ref="B246" location="CV08.50.102!A1" display="CV08.50.102"/>
+    <hyperlink ref="B249" location="CV09.00.101!A1" display="CV09.00.101"/>
+    <hyperlink ref="B250" location="CV09.00.102!A1" display="CV09.00.102"/>
+    <hyperlink ref="B251" location="CV09.00.103!A1" display="CV09.00.103"/>
+    <hyperlink ref="B252" location="CV09.00.104!A1" display="CV09.00.104"/>
+    <hyperlink ref="B253" location="CV09.00.105!A1" display="CV09.00.105"/>
+    <hyperlink ref="B254" location="CV09.00.106!A1" display="CV09.00.106"/>
+    <hyperlink ref="B255" location="CV09.00.107!A1" display="CV09.00.107"/>
+    <hyperlink ref="B256" location="CV09.00.108!A1" display="CV09.00.108"/>
+    <hyperlink ref="B257" location="CV09.00.109!A1" display="CV09.00.109"/>
+    <hyperlink ref="B258" location="CV09.00.110!A1" display="CV09.00.110"/>
+    <hyperlink ref="B259" location="CV09.00.111!A1" display="CV09.00.111"/>
+    <hyperlink ref="B260" location="CV09.00.112!A1" display="CV09.00.112"/>
+    <hyperlink ref="B262" location="CV09.00.201!A1" display="CV09.00.201"/>
+    <hyperlink ref="B263" location="CV09.00.202!A1" display="CV09.00.202"/>
+    <hyperlink ref="B264" location="CV09.00.203!A1" display="CV09.00.203"/>
+    <hyperlink ref="B265" location="CV09.00.204!A1" display="CV09.00.204"/>
+    <hyperlink ref="B266" location="CV09.00.205!A1" display="CV09.00.205"/>
+    <hyperlink ref="B267" location="CV09.00.206!A1" display="CV09.00.206"/>
+    <hyperlink ref="B268" location="CV09.00.207!A1" display="CV09.00.207"/>
+    <hyperlink ref="B269" location="CV09.00.208!A1" display="CV09.00.208"/>
+    <hyperlink ref="B270" location="CV09.00.209!A1" display="CV09.00.209"/>
+    <hyperlink ref="B271" location="CV09.00.210!A1" display="CV09.00.210"/>
+    <hyperlink ref="B272" location="CV09.00.211!A1" display="CV09.00.211"/>
+    <hyperlink ref="B273" location="CV09.00.212!A1" display="CV09.00.212"/>
+    <hyperlink ref="B274" location="CV09.00.213!A1" display="CV09.00.213"/>
+    <hyperlink ref="B275" location="CV09.00.214!A1" display="CV09.00.214"/>
+    <hyperlink ref="B276" location="CV09.00.215!A1" display="CV09.00.215"/>
+    <hyperlink ref="B277" location="CV09.00.216!A1" display="CV09.00.216"/>
+    <hyperlink ref="B278" location="CV09.00.217!A1" display="CV09.00.217"/>
+    <hyperlink ref="B279" location="CV09.00.218!A1" display="CV09.00.218"/>
+    <hyperlink ref="B280" location="CV09.00.301!A1" display="CV09.00.301"/>
+    <hyperlink ref="B281" location="CV09.00.401!A1" display="CV09.00.401"/>
+    <hyperlink ref="B282" location="CV09.00.402!A1" display="CV09.00.402"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/成品/R1/卫生信息数据元_校对.xlsx
+++ b/成品/R1/卫生信息数据元_校对.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="1230" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="11640" yWindow="1230" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="数据元目录校对" sheetId="1" r:id="rId1"/>
-    <sheet name="数据元目录" sheetId="2" r:id="rId2"/>
+    <sheet name="数据元值域代码校对" sheetId="5" r:id="rId2"/>
     <sheet name="数据集校对" sheetId="3" r:id="rId3"/>
-    <sheet name="数据集目录" sheetId="4" r:id="rId4"/>
-    <sheet name="数据元值域代码校对" sheetId="5" r:id="rId5"/>
+    <sheet name="数据元目录" sheetId="2" r:id="rId4"/>
+    <sheet name="数据集目录" sheetId="4" r:id="rId5"/>
     <sheet name="数据元值域目录" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">数据元目录!$C$1:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">数据元目录!$C$1:$C$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据元目录校对!$A$4:$C$4</definedName>
     <definedName name="Artifact_type">[1]Setup!$A$22:$A$30</definedName>
     <definedName name="dispositionstatus">[1]Setup!$A$20:$K$20</definedName>
@@ -4240,16 +4240,6 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4282,6 +4272,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4687,7 +4687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U243"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -4709,23 +4709,23 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" thickTop="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
@@ -9185,316 +9185,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="46.5" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="10" width="19.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5">
-        <v>90</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6">
-        <v>98</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <v>119</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8">
-        <v>241</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10">
-        <v>129</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11">
-        <v>73</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12">
-        <v>127</v>
-      </c>
-      <c r="E12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13">
-        <v>175</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18">
-        <v>102</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="D19">
-        <f>SUM(D3:D18)</f>
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="18.75">
-      <c r="E28" s="31"/>
-    </row>
-    <row r="29" spans="2:5" ht="18.75">
-      <c r="E29" s="31"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="E30" s="32"/>
-    </row>
-    <row r="31" spans="2:5" ht="18.75">
-      <c r="E31" s="33"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="E32" s="32"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9503,7 +9203,7 @@
   <dimension ref="A1:U242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9524,23 +9224,23 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" thickTop="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
@@ -13762,6 +13462,321 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>241</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>175</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="D19">
+        <f>SUM(D3:D18)</f>
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="18.75">
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="2:5" ht="18.75">
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="2:5" ht="18.75">
+      <c r="E31" s="33"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="E32" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14120,4378 +14135,4363 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I260" sqref="I260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="45"/>
-    <col min="2" max="2" width="19.25" style="45" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="40.25" style="45" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="45" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="13" style="45" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="41.375" style="45" customWidth="1"/>
-    <col min="9" max="9" width="46" style="45" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="45" customWidth="1"/>
-    <col min="11" max="13" width="9" style="47"/>
-    <col min="14" max="14" width="18.625" style="45" customWidth="1"/>
-    <col min="15" max="254" width="9" style="45"/>
-    <col min="255" max="255" width="19.25" style="45" customWidth="1"/>
-    <col min="256" max="256" width="5.125" style="45" customWidth="1"/>
-    <col min="257" max="257" width="40.25" style="45" customWidth="1"/>
-    <col min="258" max="258" width="16.5" style="45" customWidth="1"/>
-    <col min="259" max="259" width="33.125" style="45" customWidth="1"/>
-    <col min="260" max="260" width="8.5" style="45" customWidth="1"/>
-    <col min="261" max="261" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="262" max="262" width="13.125" style="45" customWidth="1"/>
-    <col min="263" max="263" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="264" max="264" width="41.375" style="45" customWidth="1"/>
-    <col min="265" max="265" width="46" style="45" customWidth="1"/>
-    <col min="266" max="266" width="12.375" style="45" customWidth="1"/>
-    <col min="267" max="269" width="9" style="45"/>
-    <col min="270" max="270" width="18.625" style="45" customWidth="1"/>
-    <col min="271" max="510" width="9" style="45"/>
-    <col min="511" max="511" width="19.25" style="45" customWidth="1"/>
-    <col min="512" max="512" width="5.125" style="45" customWidth="1"/>
-    <col min="513" max="513" width="40.25" style="45" customWidth="1"/>
-    <col min="514" max="514" width="16.5" style="45" customWidth="1"/>
-    <col min="515" max="515" width="33.125" style="45" customWidth="1"/>
-    <col min="516" max="516" width="8.5" style="45" customWidth="1"/>
-    <col min="517" max="517" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="518" max="518" width="13.125" style="45" customWidth="1"/>
-    <col min="519" max="519" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="520" max="520" width="41.375" style="45" customWidth="1"/>
-    <col min="521" max="521" width="46" style="45" customWidth="1"/>
-    <col min="522" max="522" width="12.375" style="45" customWidth="1"/>
-    <col min="523" max="525" width="9" style="45"/>
-    <col min="526" max="526" width="18.625" style="45" customWidth="1"/>
-    <col min="527" max="766" width="9" style="45"/>
-    <col min="767" max="767" width="19.25" style="45" customWidth="1"/>
-    <col min="768" max="768" width="5.125" style="45" customWidth="1"/>
-    <col min="769" max="769" width="40.25" style="45" customWidth="1"/>
-    <col min="770" max="770" width="16.5" style="45" customWidth="1"/>
-    <col min="771" max="771" width="33.125" style="45" customWidth="1"/>
-    <col min="772" max="772" width="8.5" style="45" customWidth="1"/>
-    <col min="773" max="773" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="774" max="774" width="13.125" style="45" customWidth="1"/>
-    <col min="775" max="775" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="776" max="776" width="41.375" style="45" customWidth="1"/>
-    <col min="777" max="777" width="46" style="45" customWidth="1"/>
-    <col min="778" max="778" width="12.375" style="45" customWidth="1"/>
-    <col min="779" max="781" width="9" style="45"/>
-    <col min="782" max="782" width="18.625" style="45" customWidth="1"/>
-    <col min="783" max="1022" width="9" style="45"/>
-    <col min="1023" max="1023" width="19.25" style="45" customWidth="1"/>
-    <col min="1024" max="1024" width="5.125" style="45" customWidth="1"/>
-    <col min="1025" max="1025" width="40.25" style="45" customWidth="1"/>
-    <col min="1026" max="1026" width="16.5" style="45" customWidth="1"/>
-    <col min="1027" max="1027" width="33.125" style="45" customWidth="1"/>
-    <col min="1028" max="1028" width="8.5" style="45" customWidth="1"/>
-    <col min="1029" max="1029" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="1030" max="1030" width="13.125" style="45" customWidth="1"/>
-    <col min="1031" max="1031" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="1032" max="1032" width="41.375" style="45" customWidth="1"/>
-    <col min="1033" max="1033" width="46" style="45" customWidth="1"/>
-    <col min="1034" max="1034" width="12.375" style="45" customWidth="1"/>
-    <col min="1035" max="1037" width="9" style="45"/>
-    <col min="1038" max="1038" width="18.625" style="45" customWidth="1"/>
-    <col min="1039" max="1278" width="9" style="45"/>
-    <col min="1279" max="1279" width="19.25" style="45" customWidth="1"/>
-    <col min="1280" max="1280" width="5.125" style="45" customWidth="1"/>
-    <col min="1281" max="1281" width="40.25" style="45" customWidth="1"/>
-    <col min="1282" max="1282" width="16.5" style="45" customWidth="1"/>
-    <col min="1283" max="1283" width="33.125" style="45" customWidth="1"/>
-    <col min="1284" max="1284" width="8.5" style="45" customWidth="1"/>
-    <col min="1285" max="1285" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="1286" max="1286" width="13.125" style="45" customWidth="1"/>
-    <col min="1287" max="1287" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="1288" max="1288" width="41.375" style="45" customWidth="1"/>
-    <col min="1289" max="1289" width="46" style="45" customWidth="1"/>
-    <col min="1290" max="1290" width="12.375" style="45" customWidth="1"/>
-    <col min="1291" max="1293" width="9" style="45"/>
-    <col min="1294" max="1294" width="18.625" style="45" customWidth="1"/>
-    <col min="1295" max="1534" width="9" style="45"/>
-    <col min="1535" max="1535" width="19.25" style="45" customWidth="1"/>
-    <col min="1536" max="1536" width="5.125" style="45" customWidth="1"/>
-    <col min="1537" max="1537" width="40.25" style="45" customWidth="1"/>
-    <col min="1538" max="1538" width="16.5" style="45" customWidth="1"/>
-    <col min="1539" max="1539" width="33.125" style="45" customWidth="1"/>
-    <col min="1540" max="1540" width="8.5" style="45" customWidth="1"/>
-    <col min="1541" max="1541" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="1542" max="1542" width="13.125" style="45" customWidth="1"/>
-    <col min="1543" max="1543" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="1544" max="1544" width="41.375" style="45" customWidth="1"/>
-    <col min="1545" max="1545" width="46" style="45" customWidth="1"/>
-    <col min="1546" max="1546" width="12.375" style="45" customWidth="1"/>
-    <col min="1547" max="1549" width="9" style="45"/>
-    <col min="1550" max="1550" width="18.625" style="45" customWidth="1"/>
-    <col min="1551" max="1790" width="9" style="45"/>
-    <col min="1791" max="1791" width="19.25" style="45" customWidth="1"/>
-    <col min="1792" max="1792" width="5.125" style="45" customWidth="1"/>
-    <col min="1793" max="1793" width="40.25" style="45" customWidth="1"/>
-    <col min="1794" max="1794" width="16.5" style="45" customWidth="1"/>
-    <col min="1795" max="1795" width="33.125" style="45" customWidth="1"/>
-    <col min="1796" max="1796" width="8.5" style="45" customWidth="1"/>
-    <col min="1797" max="1797" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="1798" max="1798" width="13.125" style="45" customWidth="1"/>
-    <col min="1799" max="1799" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="1800" max="1800" width="41.375" style="45" customWidth="1"/>
-    <col min="1801" max="1801" width="46" style="45" customWidth="1"/>
-    <col min="1802" max="1802" width="12.375" style="45" customWidth="1"/>
-    <col min="1803" max="1805" width="9" style="45"/>
-    <col min="1806" max="1806" width="18.625" style="45" customWidth="1"/>
-    <col min="1807" max="2046" width="9" style="45"/>
-    <col min="2047" max="2047" width="19.25" style="45" customWidth="1"/>
-    <col min="2048" max="2048" width="5.125" style="45" customWidth="1"/>
-    <col min="2049" max="2049" width="40.25" style="45" customWidth="1"/>
-    <col min="2050" max="2050" width="16.5" style="45" customWidth="1"/>
-    <col min="2051" max="2051" width="33.125" style="45" customWidth="1"/>
-    <col min="2052" max="2052" width="8.5" style="45" customWidth="1"/>
-    <col min="2053" max="2053" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="2054" max="2054" width="13.125" style="45" customWidth="1"/>
-    <col min="2055" max="2055" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="2056" max="2056" width="41.375" style="45" customWidth="1"/>
-    <col min="2057" max="2057" width="46" style="45" customWidth="1"/>
-    <col min="2058" max="2058" width="12.375" style="45" customWidth="1"/>
-    <col min="2059" max="2061" width="9" style="45"/>
-    <col min="2062" max="2062" width="18.625" style="45" customWidth="1"/>
-    <col min="2063" max="2302" width="9" style="45"/>
-    <col min="2303" max="2303" width="19.25" style="45" customWidth="1"/>
-    <col min="2304" max="2304" width="5.125" style="45" customWidth="1"/>
-    <col min="2305" max="2305" width="40.25" style="45" customWidth="1"/>
-    <col min="2306" max="2306" width="16.5" style="45" customWidth="1"/>
-    <col min="2307" max="2307" width="33.125" style="45" customWidth="1"/>
-    <col min="2308" max="2308" width="8.5" style="45" customWidth="1"/>
-    <col min="2309" max="2309" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="2310" max="2310" width="13.125" style="45" customWidth="1"/>
-    <col min="2311" max="2311" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="2312" max="2312" width="41.375" style="45" customWidth="1"/>
-    <col min="2313" max="2313" width="46" style="45" customWidth="1"/>
-    <col min="2314" max="2314" width="12.375" style="45" customWidth="1"/>
-    <col min="2315" max="2317" width="9" style="45"/>
-    <col min="2318" max="2318" width="18.625" style="45" customWidth="1"/>
-    <col min="2319" max="2558" width="9" style="45"/>
-    <col min="2559" max="2559" width="19.25" style="45" customWidth="1"/>
-    <col min="2560" max="2560" width="5.125" style="45" customWidth="1"/>
-    <col min="2561" max="2561" width="40.25" style="45" customWidth="1"/>
-    <col min="2562" max="2562" width="16.5" style="45" customWidth="1"/>
-    <col min="2563" max="2563" width="33.125" style="45" customWidth="1"/>
-    <col min="2564" max="2564" width="8.5" style="45" customWidth="1"/>
-    <col min="2565" max="2565" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="2566" max="2566" width="13.125" style="45" customWidth="1"/>
-    <col min="2567" max="2567" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="2568" max="2568" width="41.375" style="45" customWidth="1"/>
-    <col min="2569" max="2569" width="46" style="45" customWidth="1"/>
-    <col min="2570" max="2570" width="12.375" style="45" customWidth="1"/>
-    <col min="2571" max="2573" width="9" style="45"/>
-    <col min="2574" max="2574" width="18.625" style="45" customWidth="1"/>
-    <col min="2575" max="2814" width="9" style="45"/>
-    <col min="2815" max="2815" width="19.25" style="45" customWidth="1"/>
-    <col min="2816" max="2816" width="5.125" style="45" customWidth="1"/>
-    <col min="2817" max="2817" width="40.25" style="45" customWidth="1"/>
-    <col min="2818" max="2818" width="16.5" style="45" customWidth="1"/>
-    <col min="2819" max="2819" width="33.125" style="45" customWidth="1"/>
-    <col min="2820" max="2820" width="8.5" style="45" customWidth="1"/>
-    <col min="2821" max="2821" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="2822" max="2822" width="13.125" style="45" customWidth="1"/>
-    <col min="2823" max="2823" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="2824" max="2824" width="41.375" style="45" customWidth="1"/>
-    <col min="2825" max="2825" width="46" style="45" customWidth="1"/>
-    <col min="2826" max="2826" width="12.375" style="45" customWidth="1"/>
-    <col min="2827" max="2829" width="9" style="45"/>
-    <col min="2830" max="2830" width="18.625" style="45" customWidth="1"/>
-    <col min="2831" max="3070" width="9" style="45"/>
-    <col min="3071" max="3071" width="19.25" style="45" customWidth="1"/>
-    <col min="3072" max="3072" width="5.125" style="45" customWidth="1"/>
-    <col min="3073" max="3073" width="40.25" style="45" customWidth="1"/>
-    <col min="3074" max="3074" width="16.5" style="45" customWidth="1"/>
-    <col min="3075" max="3075" width="33.125" style="45" customWidth="1"/>
-    <col min="3076" max="3076" width="8.5" style="45" customWidth="1"/>
-    <col min="3077" max="3077" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="3078" max="3078" width="13.125" style="45" customWidth="1"/>
-    <col min="3079" max="3079" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="3080" max="3080" width="41.375" style="45" customWidth="1"/>
-    <col min="3081" max="3081" width="46" style="45" customWidth="1"/>
-    <col min="3082" max="3082" width="12.375" style="45" customWidth="1"/>
-    <col min="3083" max="3085" width="9" style="45"/>
-    <col min="3086" max="3086" width="18.625" style="45" customWidth="1"/>
-    <col min="3087" max="3326" width="9" style="45"/>
-    <col min="3327" max="3327" width="19.25" style="45" customWidth="1"/>
-    <col min="3328" max="3328" width="5.125" style="45" customWidth="1"/>
-    <col min="3329" max="3329" width="40.25" style="45" customWidth="1"/>
-    <col min="3330" max="3330" width="16.5" style="45" customWidth="1"/>
-    <col min="3331" max="3331" width="33.125" style="45" customWidth="1"/>
-    <col min="3332" max="3332" width="8.5" style="45" customWidth="1"/>
-    <col min="3333" max="3333" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="3334" max="3334" width="13.125" style="45" customWidth="1"/>
-    <col min="3335" max="3335" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="3336" max="3336" width="41.375" style="45" customWidth="1"/>
-    <col min="3337" max="3337" width="46" style="45" customWidth="1"/>
-    <col min="3338" max="3338" width="12.375" style="45" customWidth="1"/>
-    <col min="3339" max="3341" width="9" style="45"/>
-    <col min="3342" max="3342" width="18.625" style="45" customWidth="1"/>
-    <col min="3343" max="3582" width="9" style="45"/>
-    <col min="3583" max="3583" width="19.25" style="45" customWidth="1"/>
-    <col min="3584" max="3584" width="5.125" style="45" customWidth="1"/>
-    <col min="3585" max="3585" width="40.25" style="45" customWidth="1"/>
-    <col min="3586" max="3586" width="16.5" style="45" customWidth="1"/>
-    <col min="3587" max="3587" width="33.125" style="45" customWidth="1"/>
-    <col min="3588" max="3588" width="8.5" style="45" customWidth="1"/>
-    <col min="3589" max="3589" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="3590" max="3590" width="13.125" style="45" customWidth="1"/>
-    <col min="3591" max="3591" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="3592" max="3592" width="41.375" style="45" customWidth="1"/>
-    <col min="3593" max="3593" width="46" style="45" customWidth="1"/>
-    <col min="3594" max="3594" width="12.375" style="45" customWidth="1"/>
-    <col min="3595" max="3597" width="9" style="45"/>
-    <col min="3598" max="3598" width="18.625" style="45" customWidth="1"/>
-    <col min="3599" max="3838" width="9" style="45"/>
-    <col min="3839" max="3839" width="19.25" style="45" customWidth="1"/>
-    <col min="3840" max="3840" width="5.125" style="45" customWidth="1"/>
-    <col min="3841" max="3841" width="40.25" style="45" customWidth="1"/>
-    <col min="3842" max="3842" width="16.5" style="45" customWidth="1"/>
-    <col min="3843" max="3843" width="33.125" style="45" customWidth="1"/>
-    <col min="3844" max="3844" width="8.5" style="45" customWidth="1"/>
-    <col min="3845" max="3845" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="3846" max="3846" width="13.125" style="45" customWidth="1"/>
-    <col min="3847" max="3847" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="3848" max="3848" width="41.375" style="45" customWidth="1"/>
-    <col min="3849" max="3849" width="46" style="45" customWidth="1"/>
-    <col min="3850" max="3850" width="12.375" style="45" customWidth="1"/>
-    <col min="3851" max="3853" width="9" style="45"/>
-    <col min="3854" max="3854" width="18.625" style="45" customWidth="1"/>
-    <col min="3855" max="4094" width="9" style="45"/>
-    <col min="4095" max="4095" width="19.25" style="45" customWidth="1"/>
-    <col min="4096" max="4096" width="5.125" style="45" customWidth="1"/>
-    <col min="4097" max="4097" width="40.25" style="45" customWidth="1"/>
-    <col min="4098" max="4098" width="16.5" style="45" customWidth="1"/>
-    <col min="4099" max="4099" width="33.125" style="45" customWidth="1"/>
-    <col min="4100" max="4100" width="8.5" style="45" customWidth="1"/>
-    <col min="4101" max="4101" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="4102" max="4102" width="13.125" style="45" customWidth="1"/>
-    <col min="4103" max="4103" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="4104" max="4104" width="41.375" style="45" customWidth="1"/>
-    <col min="4105" max="4105" width="46" style="45" customWidth="1"/>
-    <col min="4106" max="4106" width="12.375" style="45" customWidth="1"/>
-    <col min="4107" max="4109" width="9" style="45"/>
-    <col min="4110" max="4110" width="18.625" style="45" customWidth="1"/>
-    <col min="4111" max="4350" width="9" style="45"/>
-    <col min="4351" max="4351" width="19.25" style="45" customWidth="1"/>
-    <col min="4352" max="4352" width="5.125" style="45" customWidth="1"/>
-    <col min="4353" max="4353" width="40.25" style="45" customWidth="1"/>
-    <col min="4354" max="4354" width="16.5" style="45" customWidth="1"/>
-    <col min="4355" max="4355" width="33.125" style="45" customWidth="1"/>
-    <col min="4356" max="4356" width="8.5" style="45" customWidth="1"/>
-    <col min="4357" max="4357" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="4358" max="4358" width="13.125" style="45" customWidth="1"/>
-    <col min="4359" max="4359" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="4360" max="4360" width="41.375" style="45" customWidth="1"/>
-    <col min="4361" max="4361" width="46" style="45" customWidth="1"/>
-    <col min="4362" max="4362" width="12.375" style="45" customWidth="1"/>
-    <col min="4363" max="4365" width="9" style="45"/>
-    <col min="4366" max="4366" width="18.625" style="45" customWidth="1"/>
-    <col min="4367" max="4606" width="9" style="45"/>
-    <col min="4607" max="4607" width="19.25" style="45" customWidth="1"/>
-    <col min="4608" max="4608" width="5.125" style="45" customWidth="1"/>
-    <col min="4609" max="4609" width="40.25" style="45" customWidth="1"/>
-    <col min="4610" max="4610" width="16.5" style="45" customWidth="1"/>
-    <col min="4611" max="4611" width="33.125" style="45" customWidth="1"/>
-    <col min="4612" max="4612" width="8.5" style="45" customWidth="1"/>
-    <col min="4613" max="4613" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="4614" max="4614" width="13.125" style="45" customWidth="1"/>
-    <col min="4615" max="4615" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="4616" max="4616" width="41.375" style="45" customWidth="1"/>
-    <col min="4617" max="4617" width="46" style="45" customWidth="1"/>
-    <col min="4618" max="4618" width="12.375" style="45" customWidth="1"/>
-    <col min="4619" max="4621" width="9" style="45"/>
-    <col min="4622" max="4622" width="18.625" style="45" customWidth="1"/>
-    <col min="4623" max="4862" width="9" style="45"/>
-    <col min="4863" max="4863" width="19.25" style="45" customWidth="1"/>
-    <col min="4864" max="4864" width="5.125" style="45" customWidth="1"/>
-    <col min="4865" max="4865" width="40.25" style="45" customWidth="1"/>
-    <col min="4866" max="4866" width="16.5" style="45" customWidth="1"/>
-    <col min="4867" max="4867" width="33.125" style="45" customWidth="1"/>
-    <col min="4868" max="4868" width="8.5" style="45" customWidth="1"/>
-    <col min="4869" max="4869" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="4870" max="4870" width="13.125" style="45" customWidth="1"/>
-    <col min="4871" max="4871" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="4872" max="4872" width="41.375" style="45" customWidth="1"/>
-    <col min="4873" max="4873" width="46" style="45" customWidth="1"/>
-    <col min="4874" max="4874" width="12.375" style="45" customWidth="1"/>
-    <col min="4875" max="4877" width="9" style="45"/>
-    <col min="4878" max="4878" width="18.625" style="45" customWidth="1"/>
-    <col min="4879" max="5118" width="9" style="45"/>
-    <col min="5119" max="5119" width="19.25" style="45" customWidth="1"/>
-    <col min="5120" max="5120" width="5.125" style="45" customWidth="1"/>
-    <col min="5121" max="5121" width="40.25" style="45" customWidth="1"/>
-    <col min="5122" max="5122" width="16.5" style="45" customWidth="1"/>
-    <col min="5123" max="5123" width="33.125" style="45" customWidth="1"/>
-    <col min="5124" max="5124" width="8.5" style="45" customWidth="1"/>
-    <col min="5125" max="5125" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="5126" max="5126" width="13.125" style="45" customWidth="1"/>
-    <col min="5127" max="5127" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="5128" max="5128" width="41.375" style="45" customWidth="1"/>
-    <col min="5129" max="5129" width="46" style="45" customWidth="1"/>
-    <col min="5130" max="5130" width="12.375" style="45" customWidth="1"/>
-    <col min="5131" max="5133" width="9" style="45"/>
-    <col min="5134" max="5134" width="18.625" style="45" customWidth="1"/>
-    <col min="5135" max="5374" width="9" style="45"/>
-    <col min="5375" max="5375" width="19.25" style="45" customWidth="1"/>
-    <col min="5376" max="5376" width="5.125" style="45" customWidth="1"/>
-    <col min="5377" max="5377" width="40.25" style="45" customWidth="1"/>
-    <col min="5378" max="5378" width="16.5" style="45" customWidth="1"/>
-    <col min="5379" max="5379" width="33.125" style="45" customWidth="1"/>
-    <col min="5380" max="5380" width="8.5" style="45" customWidth="1"/>
-    <col min="5381" max="5381" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="5382" max="5382" width="13.125" style="45" customWidth="1"/>
-    <col min="5383" max="5383" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="5384" max="5384" width="41.375" style="45" customWidth="1"/>
-    <col min="5385" max="5385" width="46" style="45" customWidth="1"/>
-    <col min="5386" max="5386" width="12.375" style="45" customWidth="1"/>
-    <col min="5387" max="5389" width="9" style="45"/>
-    <col min="5390" max="5390" width="18.625" style="45" customWidth="1"/>
-    <col min="5391" max="5630" width="9" style="45"/>
-    <col min="5631" max="5631" width="19.25" style="45" customWidth="1"/>
-    <col min="5632" max="5632" width="5.125" style="45" customWidth="1"/>
-    <col min="5633" max="5633" width="40.25" style="45" customWidth="1"/>
-    <col min="5634" max="5634" width="16.5" style="45" customWidth="1"/>
-    <col min="5635" max="5635" width="33.125" style="45" customWidth="1"/>
-    <col min="5636" max="5636" width="8.5" style="45" customWidth="1"/>
-    <col min="5637" max="5637" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="5638" max="5638" width="13.125" style="45" customWidth="1"/>
-    <col min="5639" max="5639" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="5640" max="5640" width="41.375" style="45" customWidth="1"/>
-    <col min="5641" max="5641" width="46" style="45" customWidth="1"/>
-    <col min="5642" max="5642" width="12.375" style="45" customWidth="1"/>
-    <col min="5643" max="5645" width="9" style="45"/>
-    <col min="5646" max="5646" width="18.625" style="45" customWidth="1"/>
-    <col min="5647" max="5886" width="9" style="45"/>
-    <col min="5887" max="5887" width="19.25" style="45" customWidth="1"/>
-    <col min="5888" max="5888" width="5.125" style="45" customWidth="1"/>
-    <col min="5889" max="5889" width="40.25" style="45" customWidth="1"/>
-    <col min="5890" max="5890" width="16.5" style="45" customWidth="1"/>
-    <col min="5891" max="5891" width="33.125" style="45" customWidth="1"/>
-    <col min="5892" max="5892" width="8.5" style="45" customWidth="1"/>
-    <col min="5893" max="5893" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="5894" max="5894" width="13.125" style="45" customWidth="1"/>
-    <col min="5895" max="5895" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="5896" max="5896" width="41.375" style="45" customWidth="1"/>
-    <col min="5897" max="5897" width="46" style="45" customWidth="1"/>
-    <col min="5898" max="5898" width="12.375" style="45" customWidth="1"/>
-    <col min="5899" max="5901" width="9" style="45"/>
-    <col min="5902" max="5902" width="18.625" style="45" customWidth="1"/>
-    <col min="5903" max="6142" width="9" style="45"/>
-    <col min="6143" max="6143" width="19.25" style="45" customWidth="1"/>
-    <col min="6144" max="6144" width="5.125" style="45" customWidth="1"/>
-    <col min="6145" max="6145" width="40.25" style="45" customWidth="1"/>
-    <col min="6146" max="6146" width="16.5" style="45" customWidth="1"/>
-    <col min="6147" max="6147" width="33.125" style="45" customWidth="1"/>
-    <col min="6148" max="6148" width="8.5" style="45" customWidth="1"/>
-    <col min="6149" max="6149" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="6150" max="6150" width="13.125" style="45" customWidth="1"/>
-    <col min="6151" max="6151" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="6152" max="6152" width="41.375" style="45" customWidth="1"/>
-    <col min="6153" max="6153" width="46" style="45" customWidth="1"/>
-    <col min="6154" max="6154" width="12.375" style="45" customWidth="1"/>
-    <col min="6155" max="6157" width="9" style="45"/>
-    <col min="6158" max="6158" width="18.625" style="45" customWidth="1"/>
-    <col min="6159" max="6398" width="9" style="45"/>
-    <col min="6399" max="6399" width="19.25" style="45" customWidth="1"/>
-    <col min="6400" max="6400" width="5.125" style="45" customWidth="1"/>
-    <col min="6401" max="6401" width="40.25" style="45" customWidth="1"/>
-    <col min="6402" max="6402" width="16.5" style="45" customWidth="1"/>
-    <col min="6403" max="6403" width="33.125" style="45" customWidth="1"/>
-    <col min="6404" max="6404" width="8.5" style="45" customWidth="1"/>
-    <col min="6405" max="6405" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="6406" max="6406" width="13.125" style="45" customWidth="1"/>
-    <col min="6407" max="6407" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="6408" max="6408" width="41.375" style="45" customWidth="1"/>
-    <col min="6409" max="6409" width="46" style="45" customWidth="1"/>
-    <col min="6410" max="6410" width="12.375" style="45" customWidth="1"/>
-    <col min="6411" max="6413" width="9" style="45"/>
-    <col min="6414" max="6414" width="18.625" style="45" customWidth="1"/>
-    <col min="6415" max="6654" width="9" style="45"/>
-    <col min="6655" max="6655" width="19.25" style="45" customWidth="1"/>
-    <col min="6656" max="6656" width="5.125" style="45" customWidth="1"/>
-    <col min="6657" max="6657" width="40.25" style="45" customWidth="1"/>
-    <col min="6658" max="6658" width="16.5" style="45" customWidth="1"/>
-    <col min="6659" max="6659" width="33.125" style="45" customWidth="1"/>
-    <col min="6660" max="6660" width="8.5" style="45" customWidth="1"/>
-    <col min="6661" max="6661" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="6662" max="6662" width="13.125" style="45" customWidth="1"/>
-    <col min="6663" max="6663" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="6664" max="6664" width="41.375" style="45" customWidth="1"/>
-    <col min="6665" max="6665" width="46" style="45" customWidth="1"/>
-    <col min="6666" max="6666" width="12.375" style="45" customWidth="1"/>
-    <col min="6667" max="6669" width="9" style="45"/>
-    <col min="6670" max="6670" width="18.625" style="45" customWidth="1"/>
-    <col min="6671" max="6910" width="9" style="45"/>
-    <col min="6911" max="6911" width="19.25" style="45" customWidth="1"/>
-    <col min="6912" max="6912" width="5.125" style="45" customWidth="1"/>
-    <col min="6913" max="6913" width="40.25" style="45" customWidth="1"/>
-    <col min="6914" max="6914" width="16.5" style="45" customWidth="1"/>
-    <col min="6915" max="6915" width="33.125" style="45" customWidth="1"/>
-    <col min="6916" max="6916" width="8.5" style="45" customWidth="1"/>
-    <col min="6917" max="6917" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="6918" max="6918" width="13.125" style="45" customWidth="1"/>
-    <col min="6919" max="6919" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="6920" max="6920" width="41.375" style="45" customWidth="1"/>
-    <col min="6921" max="6921" width="46" style="45" customWidth="1"/>
-    <col min="6922" max="6922" width="12.375" style="45" customWidth="1"/>
-    <col min="6923" max="6925" width="9" style="45"/>
-    <col min="6926" max="6926" width="18.625" style="45" customWidth="1"/>
-    <col min="6927" max="7166" width="9" style="45"/>
-    <col min="7167" max="7167" width="19.25" style="45" customWidth="1"/>
-    <col min="7168" max="7168" width="5.125" style="45" customWidth="1"/>
-    <col min="7169" max="7169" width="40.25" style="45" customWidth="1"/>
-    <col min="7170" max="7170" width="16.5" style="45" customWidth="1"/>
-    <col min="7171" max="7171" width="33.125" style="45" customWidth="1"/>
-    <col min="7172" max="7172" width="8.5" style="45" customWidth="1"/>
-    <col min="7173" max="7173" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="7174" max="7174" width="13.125" style="45" customWidth="1"/>
-    <col min="7175" max="7175" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="7176" max="7176" width="41.375" style="45" customWidth="1"/>
-    <col min="7177" max="7177" width="46" style="45" customWidth="1"/>
-    <col min="7178" max="7178" width="12.375" style="45" customWidth="1"/>
-    <col min="7179" max="7181" width="9" style="45"/>
-    <col min="7182" max="7182" width="18.625" style="45" customWidth="1"/>
-    <col min="7183" max="7422" width="9" style="45"/>
-    <col min="7423" max="7423" width="19.25" style="45" customWidth="1"/>
-    <col min="7424" max="7424" width="5.125" style="45" customWidth="1"/>
-    <col min="7425" max="7425" width="40.25" style="45" customWidth="1"/>
-    <col min="7426" max="7426" width="16.5" style="45" customWidth="1"/>
-    <col min="7427" max="7427" width="33.125" style="45" customWidth="1"/>
-    <col min="7428" max="7428" width="8.5" style="45" customWidth="1"/>
-    <col min="7429" max="7429" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="7430" max="7430" width="13.125" style="45" customWidth="1"/>
-    <col min="7431" max="7431" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="7432" max="7432" width="41.375" style="45" customWidth="1"/>
-    <col min="7433" max="7433" width="46" style="45" customWidth="1"/>
-    <col min="7434" max="7434" width="12.375" style="45" customWidth="1"/>
-    <col min="7435" max="7437" width="9" style="45"/>
-    <col min="7438" max="7438" width="18.625" style="45" customWidth="1"/>
-    <col min="7439" max="7678" width="9" style="45"/>
-    <col min="7679" max="7679" width="19.25" style="45" customWidth="1"/>
-    <col min="7680" max="7680" width="5.125" style="45" customWidth="1"/>
-    <col min="7681" max="7681" width="40.25" style="45" customWidth="1"/>
-    <col min="7682" max="7682" width="16.5" style="45" customWidth="1"/>
-    <col min="7683" max="7683" width="33.125" style="45" customWidth="1"/>
-    <col min="7684" max="7684" width="8.5" style="45" customWidth="1"/>
-    <col min="7685" max="7685" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="7686" max="7686" width="13.125" style="45" customWidth="1"/>
-    <col min="7687" max="7687" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="7688" max="7688" width="41.375" style="45" customWidth="1"/>
-    <col min="7689" max="7689" width="46" style="45" customWidth="1"/>
-    <col min="7690" max="7690" width="12.375" style="45" customWidth="1"/>
-    <col min="7691" max="7693" width="9" style="45"/>
-    <col min="7694" max="7694" width="18.625" style="45" customWidth="1"/>
-    <col min="7695" max="7934" width="9" style="45"/>
-    <col min="7935" max="7935" width="19.25" style="45" customWidth="1"/>
-    <col min="7936" max="7936" width="5.125" style="45" customWidth="1"/>
-    <col min="7937" max="7937" width="40.25" style="45" customWidth="1"/>
-    <col min="7938" max="7938" width="16.5" style="45" customWidth="1"/>
-    <col min="7939" max="7939" width="33.125" style="45" customWidth="1"/>
-    <col min="7940" max="7940" width="8.5" style="45" customWidth="1"/>
-    <col min="7941" max="7941" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="7942" max="7942" width="13.125" style="45" customWidth="1"/>
-    <col min="7943" max="7943" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="7944" max="7944" width="41.375" style="45" customWidth="1"/>
-    <col min="7945" max="7945" width="46" style="45" customWidth="1"/>
-    <col min="7946" max="7946" width="12.375" style="45" customWidth="1"/>
-    <col min="7947" max="7949" width="9" style="45"/>
-    <col min="7950" max="7950" width="18.625" style="45" customWidth="1"/>
-    <col min="7951" max="8190" width="9" style="45"/>
-    <col min="8191" max="8191" width="19.25" style="45" customWidth="1"/>
-    <col min="8192" max="8192" width="5.125" style="45" customWidth="1"/>
-    <col min="8193" max="8193" width="40.25" style="45" customWidth="1"/>
-    <col min="8194" max="8194" width="16.5" style="45" customWidth="1"/>
-    <col min="8195" max="8195" width="33.125" style="45" customWidth="1"/>
-    <col min="8196" max="8196" width="8.5" style="45" customWidth="1"/>
-    <col min="8197" max="8197" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="8198" max="8198" width="13.125" style="45" customWidth="1"/>
-    <col min="8199" max="8199" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="8200" max="8200" width="41.375" style="45" customWidth="1"/>
-    <col min="8201" max="8201" width="46" style="45" customWidth="1"/>
-    <col min="8202" max="8202" width="12.375" style="45" customWidth="1"/>
-    <col min="8203" max="8205" width="9" style="45"/>
-    <col min="8206" max="8206" width="18.625" style="45" customWidth="1"/>
-    <col min="8207" max="8446" width="9" style="45"/>
-    <col min="8447" max="8447" width="19.25" style="45" customWidth="1"/>
-    <col min="8448" max="8448" width="5.125" style="45" customWidth="1"/>
-    <col min="8449" max="8449" width="40.25" style="45" customWidth="1"/>
-    <col min="8450" max="8450" width="16.5" style="45" customWidth="1"/>
-    <col min="8451" max="8451" width="33.125" style="45" customWidth="1"/>
-    <col min="8452" max="8452" width="8.5" style="45" customWidth="1"/>
-    <col min="8453" max="8453" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="8454" max="8454" width="13.125" style="45" customWidth="1"/>
-    <col min="8455" max="8455" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="8456" max="8456" width="41.375" style="45" customWidth="1"/>
-    <col min="8457" max="8457" width="46" style="45" customWidth="1"/>
-    <col min="8458" max="8458" width="12.375" style="45" customWidth="1"/>
-    <col min="8459" max="8461" width="9" style="45"/>
-    <col min="8462" max="8462" width="18.625" style="45" customWidth="1"/>
-    <col min="8463" max="8702" width="9" style="45"/>
-    <col min="8703" max="8703" width="19.25" style="45" customWidth="1"/>
-    <col min="8704" max="8704" width="5.125" style="45" customWidth="1"/>
-    <col min="8705" max="8705" width="40.25" style="45" customWidth="1"/>
-    <col min="8706" max="8706" width="16.5" style="45" customWidth="1"/>
-    <col min="8707" max="8707" width="33.125" style="45" customWidth="1"/>
-    <col min="8708" max="8708" width="8.5" style="45" customWidth="1"/>
-    <col min="8709" max="8709" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="8710" max="8710" width="13.125" style="45" customWidth="1"/>
-    <col min="8711" max="8711" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="8712" max="8712" width="41.375" style="45" customWidth="1"/>
-    <col min="8713" max="8713" width="46" style="45" customWidth="1"/>
-    <col min="8714" max="8714" width="12.375" style="45" customWidth="1"/>
-    <col min="8715" max="8717" width="9" style="45"/>
-    <col min="8718" max="8718" width="18.625" style="45" customWidth="1"/>
-    <col min="8719" max="8958" width="9" style="45"/>
-    <col min="8959" max="8959" width="19.25" style="45" customWidth="1"/>
-    <col min="8960" max="8960" width="5.125" style="45" customWidth="1"/>
-    <col min="8961" max="8961" width="40.25" style="45" customWidth="1"/>
-    <col min="8962" max="8962" width="16.5" style="45" customWidth="1"/>
-    <col min="8963" max="8963" width="33.125" style="45" customWidth="1"/>
-    <col min="8964" max="8964" width="8.5" style="45" customWidth="1"/>
-    <col min="8965" max="8965" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="8966" max="8966" width="13.125" style="45" customWidth="1"/>
-    <col min="8967" max="8967" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="8968" max="8968" width="41.375" style="45" customWidth="1"/>
-    <col min="8969" max="8969" width="46" style="45" customWidth="1"/>
-    <col min="8970" max="8970" width="12.375" style="45" customWidth="1"/>
-    <col min="8971" max="8973" width="9" style="45"/>
-    <col min="8974" max="8974" width="18.625" style="45" customWidth="1"/>
-    <col min="8975" max="9214" width="9" style="45"/>
-    <col min="9215" max="9215" width="19.25" style="45" customWidth="1"/>
-    <col min="9216" max="9216" width="5.125" style="45" customWidth="1"/>
-    <col min="9217" max="9217" width="40.25" style="45" customWidth="1"/>
-    <col min="9218" max="9218" width="16.5" style="45" customWidth="1"/>
-    <col min="9219" max="9219" width="33.125" style="45" customWidth="1"/>
-    <col min="9220" max="9220" width="8.5" style="45" customWidth="1"/>
-    <col min="9221" max="9221" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="9222" max="9222" width="13.125" style="45" customWidth="1"/>
-    <col min="9223" max="9223" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="9224" max="9224" width="41.375" style="45" customWidth="1"/>
-    <col min="9225" max="9225" width="46" style="45" customWidth="1"/>
-    <col min="9226" max="9226" width="12.375" style="45" customWidth="1"/>
-    <col min="9227" max="9229" width="9" style="45"/>
-    <col min="9230" max="9230" width="18.625" style="45" customWidth="1"/>
-    <col min="9231" max="9470" width="9" style="45"/>
-    <col min="9471" max="9471" width="19.25" style="45" customWidth="1"/>
-    <col min="9472" max="9472" width="5.125" style="45" customWidth="1"/>
-    <col min="9473" max="9473" width="40.25" style="45" customWidth="1"/>
-    <col min="9474" max="9474" width="16.5" style="45" customWidth="1"/>
-    <col min="9475" max="9475" width="33.125" style="45" customWidth="1"/>
-    <col min="9476" max="9476" width="8.5" style="45" customWidth="1"/>
-    <col min="9477" max="9477" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="9478" max="9478" width="13.125" style="45" customWidth="1"/>
-    <col min="9479" max="9479" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="9480" max="9480" width="41.375" style="45" customWidth="1"/>
-    <col min="9481" max="9481" width="46" style="45" customWidth="1"/>
-    <col min="9482" max="9482" width="12.375" style="45" customWidth="1"/>
-    <col min="9483" max="9485" width="9" style="45"/>
-    <col min="9486" max="9486" width="18.625" style="45" customWidth="1"/>
-    <col min="9487" max="9726" width="9" style="45"/>
-    <col min="9727" max="9727" width="19.25" style="45" customWidth="1"/>
-    <col min="9728" max="9728" width="5.125" style="45" customWidth="1"/>
-    <col min="9729" max="9729" width="40.25" style="45" customWidth="1"/>
-    <col min="9730" max="9730" width="16.5" style="45" customWidth="1"/>
-    <col min="9731" max="9731" width="33.125" style="45" customWidth="1"/>
-    <col min="9732" max="9732" width="8.5" style="45" customWidth="1"/>
-    <col min="9733" max="9733" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="9734" max="9734" width="13.125" style="45" customWidth="1"/>
-    <col min="9735" max="9735" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="9736" max="9736" width="41.375" style="45" customWidth="1"/>
-    <col min="9737" max="9737" width="46" style="45" customWidth="1"/>
-    <col min="9738" max="9738" width="12.375" style="45" customWidth="1"/>
-    <col min="9739" max="9741" width="9" style="45"/>
-    <col min="9742" max="9742" width="18.625" style="45" customWidth="1"/>
-    <col min="9743" max="9982" width="9" style="45"/>
-    <col min="9983" max="9983" width="19.25" style="45" customWidth="1"/>
-    <col min="9984" max="9984" width="5.125" style="45" customWidth="1"/>
-    <col min="9985" max="9985" width="40.25" style="45" customWidth="1"/>
-    <col min="9986" max="9986" width="16.5" style="45" customWidth="1"/>
-    <col min="9987" max="9987" width="33.125" style="45" customWidth="1"/>
-    <col min="9988" max="9988" width="8.5" style="45" customWidth="1"/>
-    <col min="9989" max="9989" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="9990" max="9990" width="13.125" style="45" customWidth="1"/>
-    <col min="9991" max="9991" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="9992" max="9992" width="41.375" style="45" customWidth="1"/>
-    <col min="9993" max="9993" width="46" style="45" customWidth="1"/>
-    <col min="9994" max="9994" width="12.375" style="45" customWidth="1"/>
-    <col min="9995" max="9997" width="9" style="45"/>
-    <col min="9998" max="9998" width="18.625" style="45" customWidth="1"/>
-    <col min="9999" max="10238" width="9" style="45"/>
-    <col min="10239" max="10239" width="19.25" style="45" customWidth="1"/>
-    <col min="10240" max="10240" width="5.125" style="45" customWidth="1"/>
-    <col min="10241" max="10241" width="40.25" style="45" customWidth="1"/>
-    <col min="10242" max="10242" width="16.5" style="45" customWidth="1"/>
-    <col min="10243" max="10243" width="33.125" style="45" customWidth="1"/>
-    <col min="10244" max="10244" width="8.5" style="45" customWidth="1"/>
-    <col min="10245" max="10245" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="10246" max="10246" width="13.125" style="45" customWidth="1"/>
-    <col min="10247" max="10247" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="10248" max="10248" width="41.375" style="45" customWidth="1"/>
-    <col min="10249" max="10249" width="46" style="45" customWidth="1"/>
-    <col min="10250" max="10250" width="12.375" style="45" customWidth="1"/>
-    <col min="10251" max="10253" width="9" style="45"/>
-    <col min="10254" max="10254" width="18.625" style="45" customWidth="1"/>
-    <col min="10255" max="10494" width="9" style="45"/>
-    <col min="10495" max="10495" width="19.25" style="45" customWidth="1"/>
-    <col min="10496" max="10496" width="5.125" style="45" customWidth="1"/>
-    <col min="10497" max="10497" width="40.25" style="45" customWidth="1"/>
-    <col min="10498" max="10498" width="16.5" style="45" customWidth="1"/>
-    <col min="10499" max="10499" width="33.125" style="45" customWidth="1"/>
-    <col min="10500" max="10500" width="8.5" style="45" customWidth="1"/>
-    <col min="10501" max="10501" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="10502" max="10502" width="13.125" style="45" customWidth="1"/>
-    <col min="10503" max="10503" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="10504" max="10504" width="41.375" style="45" customWidth="1"/>
-    <col min="10505" max="10505" width="46" style="45" customWidth="1"/>
-    <col min="10506" max="10506" width="12.375" style="45" customWidth="1"/>
-    <col min="10507" max="10509" width="9" style="45"/>
-    <col min="10510" max="10510" width="18.625" style="45" customWidth="1"/>
-    <col min="10511" max="10750" width="9" style="45"/>
-    <col min="10751" max="10751" width="19.25" style="45" customWidth="1"/>
-    <col min="10752" max="10752" width="5.125" style="45" customWidth="1"/>
-    <col min="10753" max="10753" width="40.25" style="45" customWidth="1"/>
-    <col min="10754" max="10754" width="16.5" style="45" customWidth="1"/>
-    <col min="10755" max="10755" width="33.125" style="45" customWidth="1"/>
-    <col min="10756" max="10756" width="8.5" style="45" customWidth="1"/>
-    <col min="10757" max="10757" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="10758" max="10758" width="13.125" style="45" customWidth="1"/>
-    <col min="10759" max="10759" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="10760" max="10760" width="41.375" style="45" customWidth="1"/>
-    <col min="10761" max="10761" width="46" style="45" customWidth="1"/>
-    <col min="10762" max="10762" width="12.375" style="45" customWidth="1"/>
-    <col min="10763" max="10765" width="9" style="45"/>
-    <col min="10766" max="10766" width="18.625" style="45" customWidth="1"/>
-    <col min="10767" max="11006" width="9" style="45"/>
-    <col min="11007" max="11007" width="19.25" style="45" customWidth="1"/>
-    <col min="11008" max="11008" width="5.125" style="45" customWidth="1"/>
-    <col min="11009" max="11009" width="40.25" style="45" customWidth="1"/>
-    <col min="11010" max="11010" width="16.5" style="45" customWidth="1"/>
-    <col min="11011" max="11011" width="33.125" style="45" customWidth="1"/>
-    <col min="11012" max="11012" width="8.5" style="45" customWidth="1"/>
-    <col min="11013" max="11013" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="11014" max="11014" width="13.125" style="45" customWidth="1"/>
-    <col min="11015" max="11015" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="11016" max="11016" width="41.375" style="45" customWidth="1"/>
-    <col min="11017" max="11017" width="46" style="45" customWidth="1"/>
-    <col min="11018" max="11018" width="12.375" style="45" customWidth="1"/>
-    <col min="11019" max="11021" width="9" style="45"/>
-    <col min="11022" max="11022" width="18.625" style="45" customWidth="1"/>
-    <col min="11023" max="11262" width="9" style="45"/>
-    <col min="11263" max="11263" width="19.25" style="45" customWidth="1"/>
-    <col min="11264" max="11264" width="5.125" style="45" customWidth="1"/>
-    <col min="11265" max="11265" width="40.25" style="45" customWidth="1"/>
-    <col min="11266" max="11266" width="16.5" style="45" customWidth="1"/>
-    <col min="11267" max="11267" width="33.125" style="45" customWidth="1"/>
-    <col min="11268" max="11268" width="8.5" style="45" customWidth="1"/>
-    <col min="11269" max="11269" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="11270" max="11270" width="13.125" style="45" customWidth="1"/>
-    <col min="11271" max="11271" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="11272" max="11272" width="41.375" style="45" customWidth="1"/>
-    <col min="11273" max="11273" width="46" style="45" customWidth="1"/>
-    <col min="11274" max="11274" width="12.375" style="45" customWidth="1"/>
-    <col min="11275" max="11277" width="9" style="45"/>
-    <col min="11278" max="11278" width="18.625" style="45" customWidth="1"/>
-    <col min="11279" max="11518" width="9" style="45"/>
-    <col min="11519" max="11519" width="19.25" style="45" customWidth="1"/>
-    <col min="11520" max="11520" width="5.125" style="45" customWidth="1"/>
-    <col min="11521" max="11521" width="40.25" style="45" customWidth="1"/>
-    <col min="11522" max="11522" width="16.5" style="45" customWidth="1"/>
-    <col min="11523" max="11523" width="33.125" style="45" customWidth="1"/>
-    <col min="11524" max="11524" width="8.5" style="45" customWidth="1"/>
-    <col min="11525" max="11525" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="11526" max="11526" width="13.125" style="45" customWidth="1"/>
-    <col min="11527" max="11527" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="11528" max="11528" width="41.375" style="45" customWidth="1"/>
-    <col min="11529" max="11529" width="46" style="45" customWidth="1"/>
-    <col min="11530" max="11530" width="12.375" style="45" customWidth="1"/>
-    <col min="11531" max="11533" width="9" style="45"/>
-    <col min="11534" max="11534" width="18.625" style="45" customWidth="1"/>
-    <col min="11535" max="11774" width="9" style="45"/>
-    <col min="11775" max="11775" width="19.25" style="45" customWidth="1"/>
-    <col min="11776" max="11776" width="5.125" style="45" customWidth="1"/>
-    <col min="11777" max="11777" width="40.25" style="45" customWidth="1"/>
-    <col min="11778" max="11778" width="16.5" style="45" customWidth="1"/>
-    <col min="11779" max="11779" width="33.125" style="45" customWidth="1"/>
-    <col min="11780" max="11780" width="8.5" style="45" customWidth="1"/>
-    <col min="11781" max="11781" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="11782" max="11782" width="13.125" style="45" customWidth="1"/>
-    <col min="11783" max="11783" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="11784" max="11784" width="41.375" style="45" customWidth="1"/>
-    <col min="11785" max="11785" width="46" style="45" customWidth="1"/>
-    <col min="11786" max="11786" width="12.375" style="45" customWidth="1"/>
-    <col min="11787" max="11789" width="9" style="45"/>
-    <col min="11790" max="11790" width="18.625" style="45" customWidth="1"/>
-    <col min="11791" max="12030" width="9" style="45"/>
-    <col min="12031" max="12031" width="19.25" style="45" customWidth="1"/>
-    <col min="12032" max="12032" width="5.125" style="45" customWidth="1"/>
-    <col min="12033" max="12033" width="40.25" style="45" customWidth="1"/>
-    <col min="12034" max="12034" width="16.5" style="45" customWidth="1"/>
-    <col min="12035" max="12035" width="33.125" style="45" customWidth="1"/>
-    <col min="12036" max="12036" width="8.5" style="45" customWidth="1"/>
-    <col min="12037" max="12037" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="12038" max="12038" width="13.125" style="45" customWidth="1"/>
-    <col min="12039" max="12039" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="12040" max="12040" width="41.375" style="45" customWidth="1"/>
-    <col min="12041" max="12041" width="46" style="45" customWidth="1"/>
-    <col min="12042" max="12042" width="12.375" style="45" customWidth="1"/>
-    <col min="12043" max="12045" width="9" style="45"/>
-    <col min="12046" max="12046" width="18.625" style="45" customWidth="1"/>
-    <col min="12047" max="12286" width="9" style="45"/>
-    <col min="12287" max="12287" width="19.25" style="45" customWidth="1"/>
-    <col min="12288" max="12288" width="5.125" style="45" customWidth="1"/>
-    <col min="12289" max="12289" width="40.25" style="45" customWidth="1"/>
-    <col min="12290" max="12290" width="16.5" style="45" customWidth="1"/>
-    <col min="12291" max="12291" width="33.125" style="45" customWidth="1"/>
-    <col min="12292" max="12292" width="8.5" style="45" customWidth="1"/>
-    <col min="12293" max="12293" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="12294" max="12294" width="13.125" style="45" customWidth="1"/>
-    <col min="12295" max="12295" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="12296" max="12296" width="41.375" style="45" customWidth="1"/>
-    <col min="12297" max="12297" width="46" style="45" customWidth="1"/>
-    <col min="12298" max="12298" width="12.375" style="45" customWidth="1"/>
-    <col min="12299" max="12301" width="9" style="45"/>
-    <col min="12302" max="12302" width="18.625" style="45" customWidth="1"/>
-    <col min="12303" max="12542" width="9" style="45"/>
-    <col min="12543" max="12543" width="19.25" style="45" customWidth="1"/>
-    <col min="12544" max="12544" width="5.125" style="45" customWidth="1"/>
-    <col min="12545" max="12545" width="40.25" style="45" customWidth="1"/>
-    <col min="12546" max="12546" width="16.5" style="45" customWidth="1"/>
-    <col min="12547" max="12547" width="33.125" style="45" customWidth="1"/>
-    <col min="12548" max="12548" width="8.5" style="45" customWidth="1"/>
-    <col min="12549" max="12549" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="12550" max="12550" width="13.125" style="45" customWidth="1"/>
-    <col min="12551" max="12551" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="12552" max="12552" width="41.375" style="45" customWidth="1"/>
-    <col min="12553" max="12553" width="46" style="45" customWidth="1"/>
-    <col min="12554" max="12554" width="12.375" style="45" customWidth="1"/>
-    <col min="12555" max="12557" width="9" style="45"/>
-    <col min="12558" max="12558" width="18.625" style="45" customWidth="1"/>
-    <col min="12559" max="12798" width="9" style="45"/>
-    <col min="12799" max="12799" width="19.25" style="45" customWidth="1"/>
-    <col min="12800" max="12800" width="5.125" style="45" customWidth="1"/>
-    <col min="12801" max="12801" width="40.25" style="45" customWidth="1"/>
-    <col min="12802" max="12802" width="16.5" style="45" customWidth="1"/>
-    <col min="12803" max="12803" width="33.125" style="45" customWidth="1"/>
-    <col min="12804" max="12804" width="8.5" style="45" customWidth="1"/>
-    <col min="12805" max="12805" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="12806" max="12806" width="13.125" style="45" customWidth="1"/>
-    <col min="12807" max="12807" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="12808" max="12808" width="41.375" style="45" customWidth="1"/>
-    <col min="12809" max="12809" width="46" style="45" customWidth="1"/>
-    <col min="12810" max="12810" width="12.375" style="45" customWidth="1"/>
-    <col min="12811" max="12813" width="9" style="45"/>
-    <col min="12814" max="12814" width="18.625" style="45" customWidth="1"/>
-    <col min="12815" max="13054" width="9" style="45"/>
-    <col min="13055" max="13055" width="19.25" style="45" customWidth="1"/>
-    <col min="13056" max="13056" width="5.125" style="45" customWidth="1"/>
-    <col min="13057" max="13057" width="40.25" style="45" customWidth="1"/>
-    <col min="13058" max="13058" width="16.5" style="45" customWidth="1"/>
-    <col min="13059" max="13059" width="33.125" style="45" customWidth="1"/>
-    <col min="13060" max="13060" width="8.5" style="45" customWidth="1"/>
-    <col min="13061" max="13061" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="13062" max="13062" width="13.125" style="45" customWidth="1"/>
-    <col min="13063" max="13063" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="13064" max="13064" width="41.375" style="45" customWidth="1"/>
-    <col min="13065" max="13065" width="46" style="45" customWidth="1"/>
-    <col min="13066" max="13066" width="12.375" style="45" customWidth="1"/>
-    <col min="13067" max="13069" width="9" style="45"/>
-    <col min="13070" max="13070" width="18.625" style="45" customWidth="1"/>
-    <col min="13071" max="13310" width="9" style="45"/>
-    <col min="13311" max="13311" width="19.25" style="45" customWidth="1"/>
-    <col min="13312" max="13312" width="5.125" style="45" customWidth="1"/>
-    <col min="13313" max="13313" width="40.25" style="45" customWidth="1"/>
-    <col min="13314" max="13314" width="16.5" style="45" customWidth="1"/>
-    <col min="13315" max="13315" width="33.125" style="45" customWidth="1"/>
-    <col min="13316" max="13316" width="8.5" style="45" customWidth="1"/>
-    <col min="13317" max="13317" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="13318" max="13318" width="13.125" style="45" customWidth="1"/>
-    <col min="13319" max="13319" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="13320" max="13320" width="41.375" style="45" customWidth="1"/>
-    <col min="13321" max="13321" width="46" style="45" customWidth="1"/>
-    <col min="13322" max="13322" width="12.375" style="45" customWidth="1"/>
-    <col min="13323" max="13325" width="9" style="45"/>
-    <col min="13326" max="13326" width="18.625" style="45" customWidth="1"/>
-    <col min="13327" max="13566" width="9" style="45"/>
-    <col min="13567" max="13567" width="19.25" style="45" customWidth="1"/>
-    <col min="13568" max="13568" width="5.125" style="45" customWidth="1"/>
-    <col min="13569" max="13569" width="40.25" style="45" customWidth="1"/>
-    <col min="13570" max="13570" width="16.5" style="45" customWidth="1"/>
-    <col min="13571" max="13571" width="33.125" style="45" customWidth="1"/>
-    <col min="13572" max="13572" width="8.5" style="45" customWidth="1"/>
-    <col min="13573" max="13573" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="13574" max="13574" width="13.125" style="45" customWidth="1"/>
-    <col min="13575" max="13575" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="13576" max="13576" width="41.375" style="45" customWidth="1"/>
-    <col min="13577" max="13577" width="46" style="45" customWidth="1"/>
-    <col min="13578" max="13578" width="12.375" style="45" customWidth="1"/>
-    <col min="13579" max="13581" width="9" style="45"/>
-    <col min="13582" max="13582" width="18.625" style="45" customWidth="1"/>
-    <col min="13583" max="13822" width="9" style="45"/>
-    <col min="13823" max="13823" width="19.25" style="45" customWidth="1"/>
-    <col min="13824" max="13824" width="5.125" style="45" customWidth="1"/>
-    <col min="13825" max="13825" width="40.25" style="45" customWidth="1"/>
-    <col min="13826" max="13826" width="16.5" style="45" customWidth="1"/>
-    <col min="13827" max="13827" width="33.125" style="45" customWidth="1"/>
-    <col min="13828" max="13828" width="8.5" style="45" customWidth="1"/>
-    <col min="13829" max="13829" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="13830" max="13830" width="13.125" style="45" customWidth="1"/>
-    <col min="13831" max="13831" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="13832" max="13832" width="41.375" style="45" customWidth="1"/>
-    <col min="13833" max="13833" width="46" style="45" customWidth="1"/>
-    <col min="13834" max="13834" width="12.375" style="45" customWidth="1"/>
-    <col min="13835" max="13837" width="9" style="45"/>
-    <col min="13838" max="13838" width="18.625" style="45" customWidth="1"/>
-    <col min="13839" max="14078" width="9" style="45"/>
-    <col min="14079" max="14079" width="19.25" style="45" customWidth="1"/>
-    <col min="14080" max="14080" width="5.125" style="45" customWidth="1"/>
-    <col min="14081" max="14081" width="40.25" style="45" customWidth="1"/>
-    <col min="14082" max="14082" width="16.5" style="45" customWidth="1"/>
-    <col min="14083" max="14083" width="33.125" style="45" customWidth="1"/>
-    <col min="14084" max="14084" width="8.5" style="45" customWidth="1"/>
-    <col min="14085" max="14085" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="14086" max="14086" width="13.125" style="45" customWidth="1"/>
-    <col min="14087" max="14087" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="14088" max="14088" width="41.375" style="45" customWidth="1"/>
-    <col min="14089" max="14089" width="46" style="45" customWidth="1"/>
-    <col min="14090" max="14090" width="12.375" style="45" customWidth="1"/>
-    <col min="14091" max="14093" width="9" style="45"/>
-    <col min="14094" max="14094" width="18.625" style="45" customWidth="1"/>
-    <col min="14095" max="14334" width="9" style="45"/>
-    <col min="14335" max="14335" width="19.25" style="45" customWidth="1"/>
-    <col min="14336" max="14336" width="5.125" style="45" customWidth="1"/>
-    <col min="14337" max="14337" width="40.25" style="45" customWidth="1"/>
-    <col min="14338" max="14338" width="16.5" style="45" customWidth="1"/>
-    <col min="14339" max="14339" width="33.125" style="45" customWidth="1"/>
-    <col min="14340" max="14340" width="8.5" style="45" customWidth="1"/>
-    <col min="14341" max="14341" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="14342" max="14342" width="13.125" style="45" customWidth="1"/>
-    <col min="14343" max="14343" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="14344" max="14344" width="41.375" style="45" customWidth="1"/>
-    <col min="14345" max="14345" width="46" style="45" customWidth="1"/>
-    <col min="14346" max="14346" width="12.375" style="45" customWidth="1"/>
-    <col min="14347" max="14349" width="9" style="45"/>
-    <col min="14350" max="14350" width="18.625" style="45" customWidth="1"/>
-    <col min="14351" max="14590" width="9" style="45"/>
-    <col min="14591" max="14591" width="19.25" style="45" customWidth="1"/>
-    <col min="14592" max="14592" width="5.125" style="45" customWidth="1"/>
-    <col min="14593" max="14593" width="40.25" style="45" customWidth="1"/>
-    <col min="14594" max="14594" width="16.5" style="45" customWidth="1"/>
-    <col min="14595" max="14595" width="33.125" style="45" customWidth="1"/>
-    <col min="14596" max="14596" width="8.5" style="45" customWidth="1"/>
-    <col min="14597" max="14597" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="14598" max="14598" width="13.125" style="45" customWidth="1"/>
-    <col min="14599" max="14599" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="14600" max="14600" width="41.375" style="45" customWidth="1"/>
-    <col min="14601" max="14601" width="46" style="45" customWidth="1"/>
-    <col min="14602" max="14602" width="12.375" style="45" customWidth="1"/>
-    <col min="14603" max="14605" width="9" style="45"/>
-    <col min="14606" max="14606" width="18.625" style="45" customWidth="1"/>
-    <col min="14607" max="14846" width="9" style="45"/>
-    <col min="14847" max="14847" width="19.25" style="45" customWidth="1"/>
-    <col min="14848" max="14848" width="5.125" style="45" customWidth="1"/>
-    <col min="14849" max="14849" width="40.25" style="45" customWidth="1"/>
-    <col min="14850" max="14850" width="16.5" style="45" customWidth="1"/>
-    <col min="14851" max="14851" width="33.125" style="45" customWidth="1"/>
-    <col min="14852" max="14852" width="8.5" style="45" customWidth="1"/>
-    <col min="14853" max="14853" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="14854" max="14854" width="13.125" style="45" customWidth="1"/>
-    <col min="14855" max="14855" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="14856" max="14856" width="41.375" style="45" customWidth="1"/>
-    <col min="14857" max="14857" width="46" style="45" customWidth="1"/>
-    <col min="14858" max="14858" width="12.375" style="45" customWidth="1"/>
-    <col min="14859" max="14861" width="9" style="45"/>
-    <col min="14862" max="14862" width="18.625" style="45" customWidth="1"/>
-    <col min="14863" max="15102" width="9" style="45"/>
-    <col min="15103" max="15103" width="19.25" style="45" customWidth="1"/>
-    <col min="15104" max="15104" width="5.125" style="45" customWidth="1"/>
-    <col min="15105" max="15105" width="40.25" style="45" customWidth="1"/>
-    <col min="15106" max="15106" width="16.5" style="45" customWidth="1"/>
-    <col min="15107" max="15107" width="33.125" style="45" customWidth="1"/>
-    <col min="15108" max="15108" width="8.5" style="45" customWidth="1"/>
-    <col min="15109" max="15109" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="15110" max="15110" width="13.125" style="45" customWidth="1"/>
-    <col min="15111" max="15111" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="15112" max="15112" width="41.375" style="45" customWidth="1"/>
-    <col min="15113" max="15113" width="46" style="45" customWidth="1"/>
-    <col min="15114" max="15114" width="12.375" style="45" customWidth="1"/>
-    <col min="15115" max="15117" width="9" style="45"/>
-    <col min="15118" max="15118" width="18.625" style="45" customWidth="1"/>
-    <col min="15119" max="15358" width="9" style="45"/>
-    <col min="15359" max="15359" width="19.25" style="45" customWidth="1"/>
-    <col min="15360" max="15360" width="5.125" style="45" customWidth="1"/>
-    <col min="15361" max="15361" width="40.25" style="45" customWidth="1"/>
-    <col min="15362" max="15362" width="16.5" style="45" customWidth="1"/>
-    <col min="15363" max="15363" width="33.125" style="45" customWidth="1"/>
-    <col min="15364" max="15364" width="8.5" style="45" customWidth="1"/>
-    <col min="15365" max="15365" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="15366" max="15366" width="13.125" style="45" customWidth="1"/>
-    <col min="15367" max="15367" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="15368" max="15368" width="41.375" style="45" customWidth="1"/>
-    <col min="15369" max="15369" width="46" style="45" customWidth="1"/>
-    <col min="15370" max="15370" width="12.375" style="45" customWidth="1"/>
-    <col min="15371" max="15373" width="9" style="45"/>
-    <col min="15374" max="15374" width="18.625" style="45" customWidth="1"/>
-    <col min="15375" max="15614" width="9" style="45"/>
-    <col min="15615" max="15615" width="19.25" style="45" customWidth="1"/>
-    <col min="15616" max="15616" width="5.125" style="45" customWidth="1"/>
-    <col min="15617" max="15617" width="40.25" style="45" customWidth="1"/>
-    <col min="15618" max="15618" width="16.5" style="45" customWidth="1"/>
-    <col min="15619" max="15619" width="33.125" style="45" customWidth="1"/>
-    <col min="15620" max="15620" width="8.5" style="45" customWidth="1"/>
-    <col min="15621" max="15621" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="15622" max="15622" width="13.125" style="45" customWidth="1"/>
-    <col min="15623" max="15623" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="15624" max="15624" width="41.375" style="45" customWidth="1"/>
-    <col min="15625" max="15625" width="46" style="45" customWidth="1"/>
-    <col min="15626" max="15626" width="12.375" style="45" customWidth="1"/>
-    <col min="15627" max="15629" width="9" style="45"/>
-    <col min="15630" max="15630" width="18.625" style="45" customWidth="1"/>
-    <col min="15631" max="15870" width="9" style="45"/>
-    <col min="15871" max="15871" width="19.25" style="45" customWidth="1"/>
-    <col min="15872" max="15872" width="5.125" style="45" customWidth="1"/>
-    <col min="15873" max="15873" width="40.25" style="45" customWidth="1"/>
-    <col min="15874" max="15874" width="16.5" style="45" customWidth="1"/>
-    <col min="15875" max="15875" width="33.125" style="45" customWidth="1"/>
-    <col min="15876" max="15876" width="8.5" style="45" customWidth="1"/>
-    <col min="15877" max="15877" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="15878" max="15878" width="13.125" style="45" customWidth="1"/>
-    <col min="15879" max="15879" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="15880" max="15880" width="41.375" style="45" customWidth="1"/>
-    <col min="15881" max="15881" width="46" style="45" customWidth="1"/>
-    <col min="15882" max="15882" width="12.375" style="45" customWidth="1"/>
-    <col min="15883" max="15885" width="9" style="45"/>
-    <col min="15886" max="15886" width="18.625" style="45" customWidth="1"/>
-    <col min="15887" max="16126" width="9" style="45"/>
-    <col min="16127" max="16127" width="19.25" style="45" customWidth="1"/>
-    <col min="16128" max="16128" width="5.125" style="45" customWidth="1"/>
-    <col min="16129" max="16129" width="40.25" style="45" customWidth="1"/>
-    <col min="16130" max="16130" width="16.5" style="45" customWidth="1"/>
-    <col min="16131" max="16131" width="33.125" style="45" customWidth="1"/>
-    <col min="16132" max="16132" width="8.5" style="45" customWidth="1"/>
-    <col min="16133" max="16133" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="16134" max="16134" width="13.125" style="45" customWidth="1"/>
-    <col min="16135" max="16135" width="0" style="45" hidden="1" customWidth="1"/>
-    <col min="16136" max="16136" width="41.375" style="45" customWidth="1"/>
-    <col min="16137" max="16137" width="46" style="45" customWidth="1"/>
-    <col min="16138" max="16138" width="12.375" style="45" customWidth="1"/>
-    <col min="16139" max="16141" width="9" style="45"/>
-    <col min="16142" max="16142" width="18.625" style="45" customWidth="1"/>
-    <col min="16143" max="16384" width="9" style="45"/>
+    <col min="1" max="1" width="9" style="41"/>
+    <col min="2" max="2" width="19.25" style="41" customWidth="1"/>
+    <col min="3" max="3" width="5.125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="40.25" style="41" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="41" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="41" customWidth="1"/>
+    <col min="7" max="7" width="13" style="41" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="41.375" style="41" customWidth="1"/>
+    <col min="9" max="9" width="46" style="41" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="41" customWidth="1"/>
+    <col min="11" max="13" width="9" style="43"/>
+    <col min="14" max="14" width="18.625" style="41" customWidth="1"/>
+    <col min="15" max="254" width="9" style="41"/>
+    <col min="255" max="255" width="19.25" style="41" customWidth="1"/>
+    <col min="256" max="256" width="5.125" style="41" customWidth="1"/>
+    <col min="257" max="257" width="40.25" style="41" customWidth="1"/>
+    <col min="258" max="258" width="16.5" style="41" customWidth="1"/>
+    <col min="259" max="259" width="33.125" style="41" customWidth="1"/>
+    <col min="260" max="260" width="8.5" style="41" customWidth="1"/>
+    <col min="261" max="261" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="262" max="262" width="13.125" style="41" customWidth="1"/>
+    <col min="263" max="263" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="264" max="264" width="41.375" style="41" customWidth="1"/>
+    <col min="265" max="265" width="46" style="41" customWidth="1"/>
+    <col min="266" max="266" width="12.375" style="41" customWidth="1"/>
+    <col min="267" max="269" width="9" style="41"/>
+    <col min="270" max="270" width="18.625" style="41" customWidth="1"/>
+    <col min="271" max="510" width="9" style="41"/>
+    <col min="511" max="511" width="19.25" style="41" customWidth="1"/>
+    <col min="512" max="512" width="5.125" style="41" customWidth="1"/>
+    <col min="513" max="513" width="40.25" style="41" customWidth="1"/>
+    <col min="514" max="514" width="16.5" style="41" customWidth="1"/>
+    <col min="515" max="515" width="33.125" style="41" customWidth="1"/>
+    <col min="516" max="516" width="8.5" style="41" customWidth="1"/>
+    <col min="517" max="517" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="518" max="518" width="13.125" style="41" customWidth="1"/>
+    <col min="519" max="519" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="520" max="520" width="41.375" style="41" customWidth="1"/>
+    <col min="521" max="521" width="46" style="41" customWidth="1"/>
+    <col min="522" max="522" width="12.375" style="41" customWidth="1"/>
+    <col min="523" max="525" width="9" style="41"/>
+    <col min="526" max="526" width="18.625" style="41" customWidth="1"/>
+    <col min="527" max="766" width="9" style="41"/>
+    <col min="767" max="767" width="19.25" style="41" customWidth="1"/>
+    <col min="768" max="768" width="5.125" style="41" customWidth="1"/>
+    <col min="769" max="769" width="40.25" style="41" customWidth="1"/>
+    <col min="770" max="770" width="16.5" style="41" customWidth="1"/>
+    <col min="771" max="771" width="33.125" style="41" customWidth="1"/>
+    <col min="772" max="772" width="8.5" style="41" customWidth="1"/>
+    <col min="773" max="773" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="774" max="774" width="13.125" style="41" customWidth="1"/>
+    <col min="775" max="775" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="776" max="776" width="41.375" style="41" customWidth="1"/>
+    <col min="777" max="777" width="46" style="41" customWidth="1"/>
+    <col min="778" max="778" width="12.375" style="41" customWidth="1"/>
+    <col min="779" max="781" width="9" style="41"/>
+    <col min="782" max="782" width="18.625" style="41" customWidth="1"/>
+    <col min="783" max="1022" width="9" style="41"/>
+    <col min="1023" max="1023" width="19.25" style="41" customWidth="1"/>
+    <col min="1024" max="1024" width="5.125" style="41" customWidth="1"/>
+    <col min="1025" max="1025" width="40.25" style="41" customWidth="1"/>
+    <col min="1026" max="1026" width="16.5" style="41" customWidth="1"/>
+    <col min="1027" max="1027" width="33.125" style="41" customWidth="1"/>
+    <col min="1028" max="1028" width="8.5" style="41" customWidth="1"/>
+    <col min="1029" max="1029" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="1030" max="1030" width="13.125" style="41" customWidth="1"/>
+    <col min="1031" max="1031" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="1032" max="1032" width="41.375" style="41" customWidth="1"/>
+    <col min="1033" max="1033" width="46" style="41" customWidth="1"/>
+    <col min="1034" max="1034" width="12.375" style="41" customWidth="1"/>
+    <col min="1035" max="1037" width="9" style="41"/>
+    <col min="1038" max="1038" width="18.625" style="41" customWidth="1"/>
+    <col min="1039" max="1278" width="9" style="41"/>
+    <col min="1279" max="1279" width="19.25" style="41" customWidth="1"/>
+    <col min="1280" max="1280" width="5.125" style="41" customWidth="1"/>
+    <col min="1281" max="1281" width="40.25" style="41" customWidth="1"/>
+    <col min="1282" max="1282" width="16.5" style="41" customWidth="1"/>
+    <col min="1283" max="1283" width="33.125" style="41" customWidth="1"/>
+    <col min="1284" max="1284" width="8.5" style="41" customWidth="1"/>
+    <col min="1285" max="1285" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="1286" max="1286" width="13.125" style="41" customWidth="1"/>
+    <col min="1287" max="1287" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="1288" max="1288" width="41.375" style="41" customWidth="1"/>
+    <col min="1289" max="1289" width="46" style="41" customWidth="1"/>
+    <col min="1290" max="1290" width="12.375" style="41" customWidth="1"/>
+    <col min="1291" max="1293" width="9" style="41"/>
+    <col min="1294" max="1294" width="18.625" style="41" customWidth="1"/>
+    <col min="1295" max="1534" width="9" style="41"/>
+    <col min="1535" max="1535" width="19.25" style="41" customWidth="1"/>
+    <col min="1536" max="1536" width="5.125" style="41" customWidth="1"/>
+    <col min="1537" max="1537" width="40.25" style="41" customWidth="1"/>
+    <col min="1538" max="1538" width="16.5" style="41" customWidth="1"/>
+    <col min="1539" max="1539" width="33.125" style="41" customWidth="1"/>
+    <col min="1540" max="1540" width="8.5" style="41" customWidth="1"/>
+    <col min="1541" max="1541" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="1542" max="1542" width="13.125" style="41" customWidth="1"/>
+    <col min="1543" max="1543" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="1544" max="1544" width="41.375" style="41" customWidth="1"/>
+    <col min="1545" max="1545" width="46" style="41" customWidth="1"/>
+    <col min="1546" max="1546" width="12.375" style="41" customWidth="1"/>
+    <col min="1547" max="1549" width="9" style="41"/>
+    <col min="1550" max="1550" width="18.625" style="41" customWidth="1"/>
+    <col min="1551" max="1790" width="9" style="41"/>
+    <col min="1791" max="1791" width="19.25" style="41" customWidth="1"/>
+    <col min="1792" max="1792" width="5.125" style="41" customWidth="1"/>
+    <col min="1793" max="1793" width="40.25" style="41" customWidth="1"/>
+    <col min="1794" max="1794" width="16.5" style="41" customWidth="1"/>
+    <col min="1795" max="1795" width="33.125" style="41" customWidth="1"/>
+    <col min="1796" max="1796" width="8.5" style="41" customWidth="1"/>
+    <col min="1797" max="1797" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="1798" max="1798" width="13.125" style="41" customWidth="1"/>
+    <col min="1799" max="1799" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="1800" max="1800" width="41.375" style="41" customWidth="1"/>
+    <col min="1801" max="1801" width="46" style="41" customWidth="1"/>
+    <col min="1802" max="1802" width="12.375" style="41" customWidth="1"/>
+    <col min="1803" max="1805" width="9" style="41"/>
+    <col min="1806" max="1806" width="18.625" style="41" customWidth="1"/>
+    <col min="1807" max="2046" width="9" style="41"/>
+    <col min="2047" max="2047" width="19.25" style="41" customWidth="1"/>
+    <col min="2048" max="2048" width="5.125" style="41" customWidth="1"/>
+    <col min="2049" max="2049" width="40.25" style="41" customWidth="1"/>
+    <col min="2050" max="2050" width="16.5" style="41" customWidth="1"/>
+    <col min="2051" max="2051" width="33.125" style="41" customWidth="1"/>
+    <col min="2052" max="2052" width="8.5" style="41" customWidth="1"/>
+    <col min="2053" max="2053" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="2054" max="2054" width="13.125" style="41" customWidth="1"/>
+    <col min="2055" max="2055" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="2056" max="2056" width="41.375" style="41" customWidth="1"/>
+    <col min="2057" max="2057" width="46" style="41" customWidth="1"/>
+    <col min="2058" max="2058" width="12.375" style="41" customWidth="1"/>
+    <col min="2059" max="2061" width="9" style="41"/>
+    <col min="2062" max="2062" width="18.625" style="41" customWidth="1"/>
+    <col min="2063" max="2302" width="9" style="41"/>
+    <col min="2303" max="2303" width="19.25" style="41" customWidth="1"/>
+    <col min="2304" max="2304" width="5.125" style="41" customWidth="1"/>
+    <col min="2305" max="2305" width="40.25" style="41" customWidth="1"/>
+    <col min="2306" max="2306" width="16.5" style="41" customWidth="1"/>
+    <col min="2307" max="2307" width="33.125" style="41" customWidth="1"/>
+    <col min="2308" max="2308" width="8.5" style="41" customWidth="1"/>
+    <col min="2309" max="2309" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="2310" max="2310" width="13.125" style="41" customWidth="1"/>
+    <col min="2311" max="2311" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="2312" max="2312" width="41.375" style="41" customWidth="1"/>
+    <col min="2313" max="2313" width="46" style="41" customWidth="1"/>
+    <col min="2314" max="2314" width="12.375" style="41" customWidth="1"/>
+    <col min="2315" max="2317" width="9" style="41"/>
+    <col min="2318" max="2318" width="18.625" style="41" customWidth="1"/>
+    <col min="2319" max="2558" width="9" style="41"/>
+    <col min="2559" max="2559" width="19.25" style="41" customWidth="1"/>
+    <col min="2560" max="2560" width="5.125" style="41" customWidth="1"/>
+    <col min="2561" max="2561" width="40.25" style="41" customWidth="1"/>
+    <col min="2562" max="2562" width="16.5" style="41" customWidth="1"/>
+    <col min="2563" max="2563" width="33.125" style="41" customWidth="1"/>
+    <col min="2564" max="2564" width="8.5" style="41" customWidth="1"/>
+    <col min="2565" max="2565" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="2566" max="2566" width="13.125" style="41" customWidth="1"/>
+    <col min="2567" max="2567" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="2568" max="2568" width="41.375" style="41" customWidth="1"/>
+    <col min="2569" max="2569" width="46" style="41" customWidth="1"/>
+    <col min="2570" max="2570" width="12.375" style="41" customWidth="1"/>
+    <col min="2571" max="2573" width="9" style="41"/>
+    <col min="2574" max="2574" width="18.625" style="41" customWidth="1"/>
+    <col min="2575" max="2814" width="9" style="41"/>
+    <col min="2815" max="2815" width="19.25" style="41" customWidth="1"/>
+    <col min="2816" max="2816" width="5.125" style="41" customWidth="1"/>
+    <col min="2817" max="2817" width="40.25" style="41" customWidth="1"/>
+    <col min="2818" max="2818" width="16.5" style="41" customWidth="1"/>
+    <col min="2819" max="2819" width="33.125" style="41" customWidth="1"/>
+    <col min="2820" max="2820" width="8.5" style="41" customWidth="1"/>
+    <col min="2821" max="2821" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="2822" max="2822" width="13.125" style="41" customWidth="1"/>
+    <col min="2823" max="2823" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="2824" max="2824" width="41.375" style="41" customWidth="1"/>
+    <col min="2825" max="2825" width="46" style="41" customWidth="1"/>
+    <col min="2826" max="2826" width="12.375" style="41" customWidth="1"/>
+    <col min="2827" max="2829" width="9" style="41"/>
+    <col min="2830" max="2830" width="18.625" style="41" customWidth="1"/>
+    <col min="2831" max="3070" width="9" style="41"/>
+    <col min="3071" max="3071" width="19.25" style="41" customWidth="1"/>
+    <col min="3072" max="3072" width="5.125" style="41" customWidth="1"/>
+    <col min="3073" max="3073" width="40.25" style="41" customWidth="1"/>
+    <col min="3074" max="3074" width="16.5" style="41" customWidth="1"/>
+    <col min="3075" max="3075" width="33.125" style="41" customWidth="1"/>
+    <col min="3076" max="3076" width="8.5" style="41" customWidth="1"/>
+    <col min="3077" max="3077" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="3078" max="3078" width="13.125" style="41" customWidth="1"/>
+    <col min="3079" max="3079" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="3080" max="3080" width="41.375" style="41" customWidth="1"/>
+    <col min="3081" max="3081" width="46" style="41" customWidth="1"/>
+    <col min="3082" max="3082" width="12.375" style="41" customWidth="1"/>
+    <col min="3083" max="3085" width="9" style="41"/>
+    <col min="3086" max="3086" width="18.625" style="41" customWidth="1"/>
+    <col min="3087" max="3326" width="9" style="41"/>
+    <col min="3327" max="3327" width="19.25" style="41" customWidth="1"/>
+    <col min="3328" max="3328" width="5.125" style="41" customWidth="1"/>
+    <col min="3329" max="3329" width="40.25" style="41" customWidth="1"/>
+    <col min="3330" max="3330" width="16.5" style="41" customWidth="1"/>
+    <col min="3331" max="3331" width="33.125" style="41" customWidth="1"/>
+    <col min="3332" max="3332" width="8.5" style="41" customWidth="1"/>
+    <col min="3333" max="3333" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="3334" max="3334" width="13.125" style="41" customWidth="1"/>
+    <col min="3335" max="3335" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="3336" max="3336" width="41.375" style="41" customWidth="1"/>
+    <col min="3337" max="3337" width="46" style="41" customWidth="1"/>
+    <col min="3338" max="3338" width="12.375" style="41" customWidth="1"/>
+    <col min="3339" max="3341" width="9" style="41"/>
+    <col min="3342" max="3342" width="18.625" style="41" customWidth="1"/>
+    <col min="3343" max="3582" width="9" style="41"/>
+    <col min="3583" max="3583" width="19.25" style="41" customWidth="1"/>
+    <col min="3584" max="3584" width="5.125" style="41" customWidth="1"/>
+    <col min="3585" max="3585" width="40.25" style="41" customWidth="1"/>
+    <col min="3586" max="3586" width="16.5" style="41" customWidth="1"/>
+    <col min="3587" max="3587" width="33.125" style="41" customWidth="1"/>
+    <col min="3588" max="3588" width="8.5" style="41" customWidth="1"/>
+    <col min="3589" max="3589" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="3590" max="3590" width="13.125" style="41" customWidth="1"/>
+    <col min="3591" max="3591" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="3592" max="3592" width="41.375" style="41" customWidth="1"/>
+    <col min="3593" max="3593" width="46" style="41" customWidth="1"/>
+    <col min="3594" max="3594" width="12.375" style="41" customWidth="1"/>
+    <col min="3595" max="3597" width="9" style="41"/>
+    <col min="3598" max="3598" width="18.625" style="41" customWidth="1"/>
+    <col min="3599" max="3838" width="9" style="41"/>
+    <col min="3839" max="3839" width="19.25" style="41" customWidth="1"/>
+    <col min="3840" max="3840" width="5.125" style="41" customWidth="1"/>
+    <col min="3841" max="3841" width="40.25" style="41" customWidth="1"/>
+    <col min="3842" max="3842" width="16.5" style="41" customWidth="1"/>
+    <col min="3843" max="3843" width="33.125" style="41" customWidth="1"/>
+    <col min="3844" max="3844" width="8.5" style="41" customWidth="1"/>
+    <col min="3845" max="3845" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="3846" max="3846" width="13.125" style="41" customWidth="1"/>
+    <col min="3847" max="3847" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="3848" max="3848" width="41.375" style="41" customWidth="1"/>
+    <col min="3849" max="3849" width="46" style="41" customWidth="1"/>
+    <col min="3850" max="3850" width="12.375" style="41" customWidth="1"/>
+    <col min="3851" max="3853" width="9" style="41"/>
+    <col min="3854" max="3854" width="18.625" style="41" customWidth="1"/>
+    <col min="3855" max="4094" width="9" style="41"/>
+    <col min="4095" max="4095" width="19.25" style="41" customWidth="1"/>
+    <col min="4096" max="4096" width="5.125" style="41" customWidth="1"/>
+    <col min="4097" max="4097" width="40.25" style="41" customWidth="1"/>
+    <col min="4098" max="4098" width="16.5" style="41" customWidth="1"/>
+    <col min="4099" max="4099" width="33.125" style="41" customWidth="1"/>
+    <col min="4100" max="4100" width="8.5" style="41" customWidth="1"/>
+    <col min="4101" max="4101" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="4102" max="4102" width="13.125" style="41" customWidth="1"/>
+    <col min="4103" max="4103" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="4104" max="4104" width="41.375" style="41" customWidth="1"/>
+    <col min="4105" max="4105" width="46" style="41" customWidth="1"/>
+    <col min="4106" max="4106" width="12.375" style="41" customWidth="1"/>
+    <col min="4107" max="4109" width="9" style="41"/>
+    <col min="4110" max="4110" width="18.625" style="41" customWidth="1"/>
+    <col min="4111" max="4350" width="9" style="41"/>
+    <col min="4351" max="4351" width="19.25" style="41" customWidth="1"/>
+    <col min="4352" max="4352" width="5.125" style="41" customWidth="1"/>
+    <col min="4353" max="4353" width="40.25" style="41" customWidth="1"/>
+    <col min="4354" max="4354" width="16.5" style="41" customWidth="1"/>
+    <col min="4355" max="4355" width="33.125" style="41" customWidth="1"/>
+    <col min="4356" max="4356" width="8.5" style="41" customWidth="1"/>
+    <col min="4357" max="4357" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="4358" max="4358" width="13.125" style="41" customWidth="1"/>
+    <col min="4359" max="4359" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="4360" max="4360" width="41.375" style="41" customWidth="1"/>
+    <col min="4361" max="4361" width="46" style="41" customWidth="1"/>
+    <col min="4362" max="4362" width="12.375" style="41" customWidth="1"/>
+    <col min="4363" max="4365" width="9" style="41"/>
+    <col min="4366" max="4366" width="18.625" style="41" customWidth="1"/>
+    <col min="4367" max="4606" width="9" style="41"/>
+    <col min="4607" max="4607" width="19.25" style="41" customWidth="1"/>
+    <col min="4608" max="4608" width="5.125" style="41" customWidth="1"/>
+    <col min="4609" max="4609" width="40.25" style="41" customWidth="1"/>
+    <col min="4610" max="4610" width="16.5" style="41" customWidth="1"/>
+    <col min="4611" max="4611" width="33.125" style="41" customWidth="1"/>
+    <col min="4612" max="4612" width="8.5" style="41" customWidth="1"/>
+    <col min="4613" max="4613" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="4614" max="4614" width="13.125" style="41" customWidth="1"/>
+    <col min="4615" max="4615" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="4616" max="4616" width="41.375" style="41" customWidth="1"/>
+    <col min="4617" max="4617" width="46" style="41" customWidth="1"/>
+    <col min="4618" max="4618" width="12.375" style="41" customWidth="1"/>
+    <col min="4619" max="4621" width="9" style="41"/>
+    <col min="4622" max="4622" width="18.625" style="41" customWidth="1"/>
+    <col min="4623" max="4862" width="9" style="41"/>
+    <col min="4863" max="4863" width="19.25" style="41" customWidth="1"/>
+    <col min="4864" max="4864" width="5.125" style="41" customWidth="1"/>
+    <col min="4865" max="4865" width="40.25" style="41" customWidth="1"/>
+    <col min="4866" max="4866" width="16.5" style="41" customWidth="1"/>
+    <col min="4867" max="4867" width="33.125" style="41" customWidth="1"/>
+    <col min="4868" max="4868" width="8.5" style="41" customWidth="1"/>
+    <col min="4869" max="4869" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="4870" max="4870" width="13.125" style="41" customWidth="1"/>
+    <col min="4871" max="4871" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="4872" max="4872" width="41.375" style="41" customWidth="1"/>
+    <col min="4873" max="4873" width="46" style="41" customWidth="1"/>
+    <col min="4874" max="4874" width="12.375" style="41" customWidth="1"/>
+    <col min="4875" max="4877" width="9" style="41"/>
+    <col min="4878" max="4878" width="18.625" style="41" customWidth="1"/>
+    <col min="4879" max="5118" width="9" style="41"/>
+    <col min="5119" max="5119" width="19.25" style="41" customWidth="1"/>
+    <col min="5120" max="5120" width="5.125" style="41" customWidth="1"/>
+    <col min="5121" max="5121" width="40.25" style="41" customWidth="1"/>
+    <col min="5122" max="5122" width="16.5" style="41" customWidth="1"/>
+    <col min="5123" max="5123" width="33.125" style="41" customWidth="1"/>
+    <col min="5124" max="5124" width="8.5" style="41" customWidth="1"/>
+    <col min="5125" max="5125" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="5126" max="5126" width="13.125" style="41" customWidth="1"/>
+    <col min="5127" max="5127" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="5128" max="5128" width="41.375" style="41" customWidth="1"/>
+    <col min="5129" max="5129" width="46" style="41" customWidth="1"/>
+    <col min="5130" max="5130" width="12.375" style="41" customWidth="1"/>
+    <col min="5131" max="5133" width="9" style="41"/>
+    <col min="5134" max="5134" width="18.625" style="41" customWidth="1"/>
+    <col min="5135" max="5374" width="9" style="41"/>
+    <col min="5375" max="5375" width="19.25" style="41" customWidth="1"/>
+    <col min="5376" max="5376" width="5.125" style="41" customWidth="1"/>
+    <col min="5377" max="5377" width="40.25" style="41" customWidth="1"/>
+    <col min="5378" max="5378" width="16.5" style="41" customWidth="1"/>
+    <col min="5379" max="5379" width="33.125" style="41" customWidth="1"/>
+    <col min="5380" max="5380" width="8.5" style="41" customWidth="1"/>
+    <col min="5381" max="5381" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="5382" max="5382" width="13.125" style="41" customWidth="1"/>
+    <col min="5383" max="5383" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="5384" max="5384" width="41.375" style="41" customWidth="1"/>
+    <col min="5385" max="5385" width="46" style="41" customWidth="1"/>
+    <col min="5386" max="5386" width="12.375" style="41" customWidth="1"/>
+    <col min="5387" max="5389" width="9" style="41"/>
+    <col min="5390" max="5390" width="18.625" style="41" customWidth="1"/>
+    <col min="5391" max="5630" width="9" style="41"/>
+    <col min="5631" max="5631" width="19.25" style="41" customWidth="1"/>
+    <col min="5632" max="5632" width="5.125" style="41" customWidth="1"/>
+    <col min="5633" max="5633" width="40.25" style="41" customWidth="1"/>
+    <col min="5634" max="5634" width="16.5" style="41" customWidth="1"/>
+    <col min="5635" max="5635" width="33.125" style="41" customWidth="1"/>
+    <col min="5636" max="5636" width="8.5" style="41" customWidth="1"/>
+    <col min="5637" max="5637" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="5638" max="5638" width="13.125" style="41" customWidth="1"/>
+    <col min="5639" max="5639" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="5640" max="5640" width="41.375" style="41" customWidth="1"/>
+    <col min="5641" max="5641" width="46" style="41" customWidth="1"/>
+    <col min="5642" max="5642" width="12.375" style="41" customWidth="1"/>
+    <col min="5643" max="5645" width="9" style="41"/>
+    <col min="5646" max="5646" width="18.625" style="41" customWidth="1"/>
+    <col min="5647" max="5886" width="9" style="41"/>
+    <col min="5887" max="5887" width="19.25" style="41" customWidth="1"/>
+    <col min="5888" max="5888" width="5.125" style="41" customWidth="1"/>
+    <col min="5889" max="5889" width="40.25" style="41" customWidth="1"/>
+    <col min="5890" max="5890" width="16.5" style="41" customWidth="1"/>
+    <col min="5891" max="5891" width="33.125" style="41" customWidth="1"/>
+    <col min="5892" max="5892" width="8.5" style="41" customWidth="1"/>
+    <col min="5893" max="5893" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="5894" max="5894" width="13.125" style="41" customWidth="1"/>
+    <col min="5895" max="5895" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="5896" max="5896" width="41.375" style="41" customWidth="1"/>
+    <col min="5897" max="5897" width="46" style="41" customWidth="1"/>
+    <col min="5898" max="5898" width="12.375" style="41" customWidth="1"/>
+    <col min="5899" max="5901" width="9" style="41"/>
+    <col min="5902" max="5902" width="18.625" style="41" customWidth="1"/>
+    <col min="5903" max="6142" width="9" style="41"/>
+    <col min="6143" max="6143" width="19.25" style="41" customWidth="1"/>
+    <col min="6144" max="6144" width="5.125" style="41" customWidth="1"/>
+    <col min="6145" max="6145" width="40.25" style="41" customWidth="1"/>
+    <col min="6146" max="6146" width="16.5" style="41" customWidth="1"/>
+    <col min="6147" max="6147" width="33.125" style="41" customWidth="1"/>
+    <col min="6148" max="6148" width="8.5" style="41" customWidth="1"/>
+    <col min="6149" max="6149" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="6150" max="6150" width="13.125" style="41" customWidth="1"/>
+    <col min="6151" max="6151" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="6152" max="6152" width="41.375" style="41" customWidth="1"/>
+    <col min="6153" max="6153" width="46" style="41" customWidth="1"/>
+    <col min="6154" max="6154" width="12.375" style="41" customWidth="1"/>
+    <col min="6155" max="6157" width="9" style="41"/>
+    <col min="6158" max="6158" width="18.625" style="41" customWidth="1"/>
+    <col min="6159" max="6398" width="9" style="41"/>
+    <col min="6399" max="6399" width="19.25" style="41" customWidth="1"/>
+    <col min="6400" max="6400" width="5.125" style="41" customWidth="1"/>
+    <col min="6401" max="6401" width="40.25" style="41" customWidth="1"/>
+    <col min="6402" max="6402" width="16.5" style="41" customWidth="1"/>
+    <col min="6403" max="6403" width="33.125" style="41" customWidth="1"/>
+    <col min="6404" max="6404" width="8.5" style="41" customWidth="1"/>
+    <col min="6405" max="6405" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="6406" max="6406" width="13.125" style="41" customWidth="1"/>
+    <col min="6407" max="6407" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="6408" max="6408" width="41.375" style="41" customWidth="1"/>
+    <col min="6409" max="6409" width="46" style="41" customWidth="1"/>
+    <col min="6410" max="6410" width="12.375" style="41" customWidth="1"/>
+    <col min="6411" max="6413" width="9" style="41"/>
+    <col min="6414" max="6414" width="18.625" style="41" customWidth="1"/>
+    <col min="6415" max="6654" width="9" style="41"/>
+    <col min="6655" max="6655" width="19.25" style="41" customWidth="1"/>
+    <col min="6656" max="6656" width="5.125" style="41" customWidth="1"/>
+    <col min="6657" max="6657" width="40.25" style="41" customWidth="1"/>
+    <col min="6658" max="6658" width="16.5" style="41" customWidth="1"/>
+    <col min="6659" max="6659" width="33.125" style="41" customWidth="1"/>
+    <col min="6660" max="6660" width="8.5" style="41" customWidth="1"/>
+    <col min="6661" max="6661" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="6662" max="6662" width="13.125" style="41" customWidth="1"/>
+    <col min="6663" max="6663" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="6664" max="6664" width="41.375" style="41" customWidth="1"/>
+    <col min="6665" max="6665" width="46" style="41" customWidth="1"/>
+    <col min="6666" max="6666" width="12.375" style="41" customWidth="1"/>
+    <col min="6667" max="6669" width="9" style="41"/>
+    <col min="6670" max="6670" width="18.625" style="41" customWidth="1"/>
+    <col min="6671" max="6910" width="9" style="41"/>
+    <col min="6911" max="6911" width="19.25" style="41" customWidth="1"/>
+    <col min="6912" max="6912" width="5.125" style="41" customWidth="1"/>
+    <col min="6913" max="6913" width="40.25" style="41" customWidth="1"/>
+    <col min="6914" max="6914" width="16.5" style="41" customWidth="1"/>
+    <col min="6915" max="6915" width="33.125" style="41" customWidth="1"/>
+    <col min="6916" max="6916" width="8.5" style="41" customWidth="1"/>
+    <col min="6917" max="6917" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="6918" max="6918" width="13.125" style="41" customWidth="1"/>
+    <col min="6919" max="6919" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="6920" max="6920" width="41.375" style="41" customWidth="1"/>
+    <col min="6921" max="6921" width="46" style="41" customWidth="1"/>
+    <col min="6922" max="6922" width="12.375" style="41" customWidth="1"/>
+    <col min="6923" max="6925" width="9" style="41"/>
+    <col min="6926" max="6926" width="18.625" style="41" customWidth="1"/>
+    <col min="6927" max="7166" width="9" style="41"/>
+    <col min="7167" max="7167" width="19.25" style="41" customWidth="1"/>
+    <col min="7168" max="7168" width="5.125" style="41" customWidth="1"/>
+    <col min="7169" max="7169" width="40.25" style="41" customWidth="1"/>
+    <col min="7170" max="7170" width="16.5" style="41" customWidth="1"/>
+    <col min="7171" max="7171" width="33.125" style="41" customWidth="1"/>
+    <col min="7172" max="7172" width="8.5" style="41" customWidth="1"/>
+    <col min="7173" max="7173" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="7174" max="7174" width="13.125" style="41" customWidth="1"/>
+    <col min="7175" max="7175" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="7176" max="7176" width="41.375" style="41" customWidth="1"/>
+    <col min="7177" max="7177" width="46" style="41" customWidth="1"/>
+    <col min="7178" max="7178" width="12.375" style="41" customWidth="1"/>
+    <col min="7179" max="7181" width="9" style="41"/>
+    <col min="7182" max="7182" width="18.625" style="41" customWidth="1"/>
+    <col min="7183" max="7422" width="9" style="41"/>
+    <col min="7423" max="7423" width="19.25" style="41" customWidth="1"/>
+    <col min="7424" max="7424" width="5.125" style="41" customWidth="1"/>
+    <col min="7425" max="7425" width="40.25" style="41" customWidth="1"/>
+    <col min="7426" max="7426" width="16.5" style="41" customWidth="1"/>
+    <col min="7427" max="7427" width="33.125" style="41" customWidth="1"/>
+    <col min="7428" max="7428" width="8.5" style="41" customWidth="1"/>
+    <col min="7429" max="7429" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="7430" max="7430" width="13.125" style="41" customWidth="1"/>
+    <col min="7431" max="7431" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="7432" max="7432" width="41.375" style="41" customWidth="1"/>
+    <col min="7433" max="7433" width="46" style="41" customWidth="1"/>
+    <col min="7434" max="7434" width="12.375" style="41" customWidth="1"/>
+    <col min="7435" max="7437" width="9" style="41"/>
+    <col min="7438" max="7438" width="18.625" style="41" customWidth="1"/>
+    <col min="7439" max="7678" width="9" style="41"/>
+    <col min="7679" max="7679" width="19.25" style="41" customWidth="1"/>
+    <col min="7680" max="7680" width="5.125" style="41" customWidth="1"/>
+    <col min="7681" max="7681" width="40.25" style="41" customWidth="1"/>
+    <col min="7682" max="7682" width="16.5" style="41" customWidth="1"/>
+    <col min="7683" max="7683" width="33.125" style="41" customWidth="1"/>
+    <col min="7684" max="7684" width="8.5" style="41" customWidth="1"/>
+    <col min="7685" max="7685" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="7686" max="7686" width="13.125" style="41" customWidth="1"/>
+    <col min="7687" max="7687" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="7688" max="7688" width="41.375" style="41" customWidth="1"/>
+    <col min="7689" max="7689" width="46" style="41" customWidth="1"/>
+    <col min="7690" max="7690" width="12.375" style="41" customWidth="1"/>
+    <col min="7691" max="7693" width="9" style="41"/>
+    <col min="7694" max="7694" width="18.625" style="41" customWidth="1"/>
+    <col min="7695" max="7934" width="9" style="41"/>
+    <col min="7935" max="7935" width="19.25" style="41" customWidth="1"/>
+    <col min="7936" max="7936" width="5.125" style="41" customWidth="1"/>
+    <col min="7937" max="7937" width="40.25" style="41" customWidth="1"/>
+    <col min="7938" max="7938" width="16.5" style="41" customWidth="1"/>
+    <col min="7939" max="7939" width="33.125" style="41" customWidth="1"/>
+    <col min="7940" max="7940" width="8.5" style="41" customWidth="1"/>
+    <col min="7941" max="7941" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="7942" max="7942" width="13.125" style="41" customWidth="1"/>
+    <col min="7943" max="7943" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="7944" max="7944" width="41.375" style="41" customWidth="1"/>
+    <col min="7945" max="7945" width="46" style="41" customWidth="1"/>
+    <col min="7946" max="7946" width="12.375" style="41" customWidth="1"/>
+    <col min="7947" max="7949" width="9" style="41"/>
+    <col min="7950" max="7950" width="18.625" style="41" customWidth="1"/>
+    <col min="7951" max="8190" width="9" style="41"/>
+    <col min="8191" max="8191" width="19.25" style="41" customWidth="1"/>
+    <col min="8192" max="8192" width="5.125" style="41" customWidth="1"/>
+    <col min="8193" max="8193" width="40.25" style="41" customWidth="1"/>
+    <col min="8194" max="8194" width="16.5" style="41" customWidth="1"/>
+    <col min="8195" max="8195" width="33.125" style="41" customWidth="1"/>
+    <col min="8196" max="8196" width="8.5" style="41" customWidth="1"/>
+    <col min="8197" max="8197" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="8198" max="8198" width="13.125" style="41" customWidth="1"/>
+    <col min="8199" max="8199" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="8200" max="8200" width="41.375" style="41" customWidth="1"/>
+    <col min="8201" max="8201" width="46" style="41" customWidth="1"/>
+    <col min="8202" max="8202" width="12.375" style="41" customWidth="1"/>
+    <col min="8203" max="8205" width="9" style="41"/>
+    <col min="8206" max="8206" width="18.625" style="41" customWidth="1"/>
+    <col min="8207" max="8446" width="9" style="41"/>
+    <col min="8447" max="8447" width="19.25" style="41" customWidth="1"/>
+    <col min="8448" max="8448" width="5.125" style="41" customWidth="1"/>
+    <col min="8449" max="8449" width="40.25" style="41" customWidth="1"/>
+    <col min="8450" max="8450" width="16.5" style="41" customWidth="1"/>
+    <col min="8451" max="8451" width="33.125" style="41" customWidth="1"/>
+    <col min="8452" max="8452" width="8.5" style="41" customWidth="1"/>
+    <col min="8453" max="8453" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="8454" max="8454" width="13.125" style="41" customWidth="1"/>
+    <col min="8455" max="8455" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="8456" max="8456" width="41.375" style="41" customWidth="1"/>
+    <col min="8457" max="8457" width="46" style="41" customWidth="1"/>
+    <col min="8458" max="8458" width="12.375" style="41" customWidth="1"/>
+    <col min="8459" max="8461" width="9" style="41"/>
+    <col min="8462" max="8462" width="18.625" style="41" customWidth="1"/>
+    <col min="8463" max="8702" width="9" style="41"/>
+    <col min="8703" max="8703" width="19.25" style="41" customWidth="1"/>
+    <col min="8704" max="8704" width="5.125" style="41" customWidth="1"/>
+    <col min="8705" max="8705" width="40.25" style="41" customWidth="1"/>
+    <col min="8706" max="8706" width="16.5" style="41" customWidth="1"/>
+    <col min="8707" max="8707" width="33.125" style="41" customWidth="1"/>
+    <col min="8708" max="8708" width="8.5" style="41" customWidth="1"/>
+    <col min="8709" max="8709" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="8710" max="8710" width="13.125" style="41" customWidth="1"/>
+    <col min="8711" max="8711" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="8712" max="8712" width="41.375" style="41" customWidth="1"/>
+    <col min="8713" max="8713" width="46" style="41" customWidth="1"/>
+    <col min="8714" max="8714" width="12.375" style="41" customWidth="1"/>
+    <col min="8715" max="8717" width="9" style="41"/>
+    <col min="8718" max="8718" width="18.625" style="41" customWidth="1"/>
+    <col min="8719" max="8958" width="9" style="41"/>
+    <col min="8959" max="8959" width="19.25" style="41" customWidth="1"/>
+    <col min="8960" max="8960" width="5.125" style="41" customWidth="1"/>
+    <col min="8961" max="8961" width="40.25" style="41" customWidth="1"/>
+    <col min="8962" max="8962" width="16.5" style="41" customWidth="1"/>
+    <col min="8963" max="8963" width="33.125" style="41" customWidth="1"/>
+    <col min="8964" max="8964" width="8.5" style="41" customWidth="1"/>
+    <col min="8965" max="8965" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="8966" max="8966" width="13.125" style="41" customWidth="1"/>
+    <col min="8967" max="8967" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="8968" max="8968" width="41.375" style="41" customWidth="1"/>
+    <col min="8969" max="8969" width="46" style="41" customWidth="1"/>
+    <col min="8970" max="8970" width="12.375" style="41" customWidth="1"/>
+    <col min="8971" max="8973" width="9" style="41"/>
+    <col min="8974" max="8974" width="18.625" style="41" customWidth="1"/>
+    <col min="8975" max="9214" width="9" style="41"/>
+    <col min="9215" max="9215" width="19.25" style="41" customWidth="1"/>
+    <col min="9216" max="9216" width="5.125" style="41" customWidth="1"/>
+    <col min="9217" max="9217" width="40.25" style="41" customWidth="1"/>
+    <col min="9218" max="9218" width="16.5" style="41" customWidth="1"/>
+    <col min="9219" max="9219" width="33.125" style="41" customWidth="1"/>
+    <col min="9220" max="9220" width="8.5" style="41" customWidth="1"/>
+    <col min="9221" max="9221" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="9222" max="9222" width="13.125" style="41" customWidth="1"/>
+    <col min="9223" max="9223" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="9224" max="9224" width="41.375" style="41" customWidth="1"/>
+    <col min="9225" max="9225" width="46" style="41" customWidth="1"/>
+    <col min="9226" max="9226" width="12.375" style="41" customWidth="1"/>
+    <col min="9227" max="9229" width="9" style="41"/>
+    <col min="9230" max="9230" width="18.625" style="41" customWidth="1"/>
+    <col min="9231" max="9470" width="9" style="41"/>
+    <col min="9471" max="9471" width="19.25" style="41" customWidth="1"/>
+    <col min="9472" max="9472" width="5.125" style="41" customWidth="1"/>
+    <col min="9473" max="9473" width="40.25" style="41" customWidth="1"/>
+    <col min="9474" max="9474" width="16.5" style="41" customWidth="1"/>
+    <col min="9475" max="9475" width="33.125" style="41" customWidth="1"/>
+    <col min="9476" max="9476" width="8.5" style="41" customWidth="1"/>
+    <col min="9477" max="9477" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="9478" max="9478" width="13.125" style="41" customWidth="1"/>
+    <col min="9479" max="9479" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="9480" max="9480" width="41.375" style="41" customWidth="1"/>
+    <col min="9481" max="9481" width="46" style="41" customWidth="1"/>
+    <col min="9482" max="9482" width="12.375" style="41" customWidth="1"/>
+    <col min="9483" max="9485" width="9" style="41"/>
+    <col min="9486" max="9486" width="18.625" style="41" customWidth="1"/>
+    <col min="9487" max="9726" width="9" style="41"/>
+    <col min="9727" max="9727" width="19.25" style="41" customWidth="1"/>
+    <col min="9728" max="9728" width="5.125" style="41" customWidth="1"/>
+    <col min="9729" max="9729" width="40.25" style="41" customWidth="1"/>
+    <col min="9730" max="9730" width="16.5" style="41" customWidth="1"/>
+    <col min="9731" max="9731" width="33.125" style="41" customWidth="1"/>
+    <col min="9732" max="9732" width="8.5" style="41" customWidth="1"/>
+    <col min="9733" max="9733" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="9734" max="9734" width="13.125" style="41" customWidth="1"/>
+    <col min="9735" max="9735" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="9736" max="9736" width="41.375" style="41" customWidth="1"/>
+    <col min="9737" max="9737" width="46" style="41" customWidth="1"/>
+    <col min="9738" max="9738" width="12.375" style="41" customWidth="1"/>
+    <col min="9739" max="9741" width="9" style="41"/>
+    <col min="9742" max="9742" width="18.625" style="41" customWidth="1"/>
+    <col min="9743" max="9982" width="9" style="41"/>
+    <col min="9983" max="9983" width="19.25" style="41" customWidth="1"/>
+    <col min="9984" max="9984" width="5.125" style="41" customWidth="1"/>
+    <col min="9985" max="9985" width="40.25" style="41" customWidth="1"/>
+    <col min="9986" max="9986" width="16.5" style="41" customWidth="1"/>
+    <col min="9987" max="9987" width="33.125" style="41" customWidth="1"/>
+    <col min="9988" max="9988" width="8.5" style="41" customWidth="1"/>
+    <col min="9989" max="9989" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="9990" max="9990" width="13.125" style="41" customWidth="1"/>
+    <col min="9991" max="9991" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="9992" max="9992" width="41.375" style="41" customWidth="1"/>
+    <col min="9993" max="9993" width="46" style="41" customWidth="1"/>
+    <col min="9994" max="9994" width="12.375" style="41" customWidth="1"/>
+    <col min="9995" max="9997" width="9" style="41"/>
+    <col min="9998" max="9998" width="18.625" style="41" customWidth="1"/>
+    <col min="9999" max="10238" width="9" style="41"/>
+    <col min="10239" max="10239" width="19.25" style="41" customWidth="1"/>
+    <col min="10240" max="10240" width="5.125" style="41" customWidth="1"/>
+    <col min="10241" max="10241" width="40.25" style="41" customWidth="1"/>
+    <col min="10242" max="10242" width="16.5" style="41" customWidth="1"/>
+    <col min="10243" max="10243" width="33.125" style="41" customWidth="1"/>
+    <col min="10244" max="10244" width="8.5" style="41" customWidth="1"/>
+    <col min="10245" max="10245" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="10246" max="10246" width="13.125" style="41" customWidth="1"/>
+    <col min="10247" max="10247" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="10248" max="10248" width="41.375" style="41" customWidth="1"/>
+    <col min="10249" max="10249" width="46" style="41" customWidth="1"/>
+    <col min="10250" max="10250" width="12.375" style="41" customWidth="1"/>
+    <col min="10251" max="10253" width="9" style="41"/>
+    <col min="10254" max="10254" width="18.625" style="41" customWidth="1"/>
+    <col min="10255" max="10494" width="9" style="41"/>
+    <col min="10495" max="10495" width="19.25" style="41" customWidth="1"/>
+    <col min="10496" max="10496" width="5.125" style="41" customWidth="1"/>
+    <col min="10497" max="10497" width="40.25" style="41" customWidth="1"/>
+    <col min="10498" max="10498" width="16.5" style="41" customWidth="1"/>
+    <col min="10499" max="10499" width="33.125" style="41" customWidth="1"/>
+    <col min="10500" max="10500" width="8.5" style="41" customWidth="1"/>
+    <col min="10501" max="10501" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="10502" max="10502" width="13.125" style="41" customWidth="1"/>
+    <col min="10503" max="10503" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="10504" max="10504" width="41.375" style="41" customWidth="1"/>
+    <col min="10505" max="10505" width="46" style="41" customWidth="1"/>
+    <col min="10506" max="10506" width="12.375" style="41" customWidth="1"/>
+    <col min="10507" max="10509" width="9" style="41"/>
+    <col min="10510" max="10510" width="18.625" style="41" customWidth="1"/>
+    <col min="10511" max="10750" width="9" style="41"/>
+    <col min="10751" max="10751" width="19.25" style="41" customWidth="1"/>
+    <col min="10752" max="10752" width="5.125" style="41" customWidth="1"/>
+    <col min="10753" max="10753" width="40.25" style="41" customWidth="1"/>
+    <col min="10754" max="10754" width="16.5" style="41" customWidth="1"/>
+    <col min="10755" max="10755" width="33.125" style="41" customWidth="1"/>
+    <col min="10756" max="10756" width="8.5" style="41" customWidth="1"/>
+    <col min="10757" max="10757" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="10758" max="10758" width="13.125" style="41" customWidth="1"/>
+    <col min="10759" max="10759" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="10760" max="10760" width="41.375" style="41" customWidth="1"/>
+    <col min="10761" max="10761" width="46" style="41" customWidth="1"/>
+    <col min="10762" max="10762" width="12.375" style="41" customWidth="1"/>
+    <col min="10763" max="10765" width="9" style="41"/>
+    <col min="10766" max="10766" width="18.625" style="41" customWidth="1"/>
+    <col min="10767" max="11006" width="9" style="41"/>
+    <col min="11007" max="11007" width="19.25" style="41" customWidth="1"/>
+    <col min="11008" max="11008" width="5.125" style="41" customWidth="1"/>
+    <col min="11009" max="11009" width="40.25" style="41" customWidth="1"/>
+    <col min="11010" max="11010" width="16.5" style="41" customWidth="1"/>
+    <col min="11011" max="11011" width="33.125" style="41" customWidth="1"/>
+    <col min="11012" max="11012" width="8.5" style="41" customWidth="1"/>
+    <col min="11013" max="11013" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="11014" max="11014" width="13.125" style="41" customWidth="1"/>
+    <col min="11015" max="11015" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="11016" max="11016" width="41.375" style="41" customWidth="1"/>
+    <col min="11017" max="11017" width="46" style="41" customWidth="1"/>
+    <col min="11018" max="11018" width="12.375" style="41" customWidth="1"/>
+    <col min="11019" max="11021" width="9" style="41"/>
+    <col min="11022" max="11022" width="18.625" style="41" customWidth="1"/>
+    <col min="11023" max="11262" width="9" style="41"/>
+    <col min="11263" max="11263" width="19.25" style="41" customWidth="1"/>
+    <col min="11264" max="11264" width="5.125" style="41" customWidth="1"/>
+    <col min="11265" max="11265" width="40.25" style="41" customWidth="1"/>
+    <col min="11266" max="11266" width="16.5" style="41" customWidth="1"/>
+    <col min="11267" max="11267" width="33.125" style="41" customWidth="1"/>
+    <col min="11268" max="11268" width="8.5" style="41" customWidth="1"/>
+    <col min="11269" max="11269" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="11270" max="11270" width="13.125" style="41" customWidth="1"/>
+    <col min="11271" max="11271" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="11272" max="11272" width="41.375" style="41" customWidth="1"/>
+    <col min="11273" max="11273" width="46" style="41" customWidth="1"/>
+    <col min="11274" max="11274" width="12.375" style="41" customWidth="1"/>
+    <col min="11275" max="11277" width="9" style="41"/>
+    <col min="11278" max="11278" width="18.625" style="41" customWidth="1"/>
+    <col min="11279" max="11518" width="9" style="41"/>
+    <col min="11519" max="11519" width="19.25" style="41" customWidth="1"/>
+    <col min="11520" max="11520" width="5.125" style="41" customWidth="1"/>
+    <col min="11521" max="11521" width="40.25" style="41" customWidth="1"/>
+    <col min="11522" max="11522" width="16.5" style="41" customWidth="1"/>
+    <col min="11523" max="11523" width="33.125" style="41" customWidth="1"/>
+    <col min="11524" max="11524" width="8.5" style="41" customWidth="1"/>
+    <col min="11525" max="11525" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="11526" max="11526" width="13.125" style="41" customWidth="1"/>
+    <col min="11527" max="11527" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="11528" max="11528" width="41.375" style="41" customWidth="1"/>
+    <col min="11529" max="11529" width="46" style="41" customWidth="1"/>
+    <col min="11530" max="11530" width="12.375" style="41" customWidth="1"/>
+    <col min="11531" max="11533" width="9" style="41"/>
+    <col min="11534" max="11534" width="18.625" style="41" customWidth="1"/>
+    <col min="11535" max="11774" width="9" style="41"/>
+    <col min="11775" max="11775" width="19.25" style="41" customWidth="1"/>
+    <col min="11776" max="11776" width="5.125" style="41" customWidth="1"/>
+    <col min="11777" max="11777" width="40.25" style="41" customWidth="1"/>
+    <col min="11778" max="11778" width="16.5" style="41" customWidth="1"/>
+    <col min="11779" max="11779" width="33.125" style="41" customWidth="1"/>
+    <col min="11780" max="11780" width="8.5" style="41" customWidth="1"/>
+    <col min="11781" max="11781" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="11782" max="11782" width="13.125" style="41" customWidth="1"/>
+    <col min="11783" max="11783" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="11784" max="11784" width="41.375" style="41" customWidth="1"/>
+    <col min="11785" max="11785" width="46" style="41" customWidth="1"/>
+    <col min="11786" max="11786" width="12.375" style="41" customWidth="1"/>
+    <col min="11787" max="11789" width="9" style="41"/>
+    <col min="11790" max="11790" width="18.625" style="41" customWidth="1"/>
+    <col min="11791" max="12030" width="9" style="41"/>
+    <col min="12031" max="12031" width="19.25" style="41" customWidth="1"/>
+    <col min="12032" max="12032" width="5.125" style="41" customWidth="1"/>
+    <col min="12033" max="12033" width="40.25" style="41" customWidth="1"/>
+    <col min="12034" max="12034" width="16.5" style="41" customWidth="1"/>
+    <col min="12035" max="12035" width="33.125" style="41" customWidth="1"/>
+    <col min="12036" max="12036" width="8.5" style="41" customWidth="1"/>
+    <col min="12037" max="12037" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="12038" max="12038" width="13.125" style="41" customWidth="1"/>
+    <col min="12039" max="12039" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="12040" max="12040" width="41.375" style="41" customWidth="1"/>
+    <col min="12041" max="12041" width="46" style="41" customWidth="1"/>
+    <col min="12042" max="12042" width="12.375" style="41" customWidth="1"/>
+    <col min="12043" max="12045" width="9" style="41"/>
+    <col min="12046" max="12046" width="18.625" style="41" customWidth="1"/>
+    <col min="12047" max="12286" width="9" style="41"/>
+    <col min="12287" max="12287" width="19.25" style="41" customWidth="1"/>
+    <col min="12288" max="12288" width="5.125" style="41" customWidth="1"/>
+    <col min="12289" max="12289" width="40.25" style="41" customWidth="1"/>
+    <col min="12290" max="12290" width="16.5" style="41" customWidth="1"/>
+    <col min="12291" max="12291" width="33.125" style="41" customWidth="1"/>
+    <col min="12292" max="12292" width="8.5" style="41" customWidth="1"/>
+    <col min="12293" max="12293" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="12294" max="12294" width="13.125" style="41" customWidth="1"/>
+    <col min="12295" max="12295" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="12296" max="12296" width="41.375" style="41" customWidth="1"/>
+    <col min="12297" max="12297" width="46" style="41" customWidth="1"/>
+    <col min="12298" max="12298" width="12.375" style="41" customWidth="1"/>
+    <col min="12299" max="12301" width="9" style="41"/>
+    <col min="12302" max="12302" width="18.625" style="41" customWidth="1"/>
+    <col min="12303" max="12542" width="9" style="41"/>
+    <col min="12543" max="12543" width="19.25" style="41" customWidth="1"/>
+    <col min="12544" max="12544" width="5.125" style="41" customWidth="1"/>
+    <col min="12545" max="12545" width="40.25" style="41" customWidth="1"/>
+    <col min="12546" max="12546" width="16.5" style="41" customWidth="1"/>
+    <col min="12547" max="12547" width="33.125" style="41" customWidth="1"/>
+    <col min="12548" max="12548" width="8.5" style="41" customWidth="1"/>
+    <col min="12549" max="12549" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="12550" max="12550" width="13.125" style="41" customWidth="1"/>
+    <col min="12551" max="12551" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="12552" max="12552" width="41.375" style="41" customWidth="1"/>
+    <col min="12553" max="12553" width="46" style="41" customWidth="1"/>
+    <col min="12554" max="12554" width="12.375" style="41" customWidth="1"/>
+    <col min="12555" max="12557" width="9" style="41"/>
+    <col min="12558" max="12558" width="18.625" style="41" customWidth="1"/>
+    <col min="12559" max="12798" width="9" style="41"/>
+    <col min="12799" max="12799" width="19.25" style="41" customWidth="1"/>
+    <col min="12800" max="12800" width="5.125" style="41" customWidth="1"/>
+    <col min="12801" max="12801" width="40.25" style="41" customWidth="1"/>
+    <col min="12802" max="12802" width="16.5" style="41" customWidth="1"/>
+    <col min="12803" max="12803" width="33.125" style="41" customWidth="1"/>
+    <col min="12804" max="12804" width="8.5" style="41" customWidth="1"/>
+    <col min="12805" max="12805" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="12806" max="12806" width="13.125" style="41" customWidth="1"/>
+    <col min="12807" max="12807" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="12808" max="12808" width="41.375" style="41" customWidth="1"/>
+    <col min="12809" max="12809" width="46" style="41" customWidth="1"/>
+    <col min="12810" max="12810" width="12.375" style="41" customWidth="1"/>
+    <col min="12811" max="12813" width="9" style="41"/>
+    <col min="12814" max="12814" width="18.625" style="41" customWidth="1"/>
+    <col min="12815" max="13054" width="9" style="41"/>
+    <col min="13055" max="13055" width="19.25" style="41" customWidth="1"/>
+    <col min="13056" max="13056" width="5.125" style="41" customWidth="1"/>
+    <col min="13057" max="13057" width="40.25" style="41" customWidth="1"/>
+    <col min="13058" max="13058" width="16.5" style="41" customWidth="1"/>
+    <col min="13059" max="13059" width="33.125" style="41" customWidth="1"/>
+    <col min="13060" max="13060" width="8.5" style="41" customWidth="1"/>
+    <col min="13061" max="13061" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="13062" max="13062" width="13.125" style="41" customWidth="1"/>
+    <col min="13063" max="13063" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="13064" max="13064" width="41.375" style="41" customWidth="1"/>
+    <col min="13065" max="13065" width="46" style="41" customWidth="1"/>
+    <col min="13066" max="13066" width="12.375" style="41" customWidth="1"/>
+    <col min="13067" max="13069" width="9" style="41"/>
+    <col min="13070" max="13070" width="18.625" style="41" customWidth="1"/>
+    <col min="13071" max="13310" width="9" style="41"/>
+    <col min="13311" max="13311" width="19.25" style="41" customWidth="1"/>
+    <col min="13312" max="13312" width="5.125" style="41" customWidth="1"/>
+    <col min="13313" max="13313" width="40.25" style="41" customWidth="1"/>
+    <col min="13314" max="13314" width="16.5" style="41" customWidth="1"/>
+    <col min="13315" max="13315" width="33.125" style="41" customWidth="1"/>
+    <col min="13316" max="13316" width="8.5" style="41" customWidth="1"/>
+    <col min="13317" max="13317" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="13318" max="13318" width="13.125" style="41" customWidth="1"/>
+    <col min="13319" max="13319" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="13320" max="13320" width="41.375" style="41" customWidth="1"/>
+    <col min="13321" max="13321" width="46" style="41" customWidth="1"/>
+    <col min="13322" max="13322" width="12.375" style="41" customWidth="1"/>
+    <col min="13323" max="13325" width="9" style="41"/>
+    <col min="13326" max="13326" width="18.625" style="41" customWidth="1"/>
+    <col min="13327" max="13566" width="9" style="41"/>
+    <col min="13567" max="13567" width="19.25" style="41" customWidth="1"/>
+    <col min="13568" max="13568" width="5.125" style="41" customWidth="1"/>
+    <col min="13569" max="13569" width="40.25" style="41" customWidth="1"/>
+    <col min="13570" max="13570" width="16.5" style="41" customWidth="1"/>
+    <col min="13571" max="13571" width="33.125" style="41" customWidth="1"/>
+    <col min="13572" max="13572" width="8.5" style="41" customWidth="1"/>
+    <col min="13573" max="13573" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="13574" max="13574" width="13.125" style="41" customWidth="1"/>
+    <col min="13575" max="13575" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="13576" max="13576" width="41.375" style="41" customWidth="1"/>
+    <col min="13577" max="13577" width="46" style="41" customWidth="1"/>
+    <col min="13578" max="13578" width="12.375" style="41" customWidth="1"/>
+    <col min="13579" max="13581" width="9" style="41"/>
+    <col min="13582" max="13582" width="18.625" style="41" customWidth="1"/>
+    <col min="13583" max="13822" width="9" style="41"/>
+    <col min="13823" max="13823" width="19.25" style="41" customWidth="1"/>
+    <col min="13824" max="13824" width="5.125" style="41" customWidth="1"/>
+    <col min="13825" max="13825" width="40.25" style="41" customWidth="1"/>
+    <col min="13826" max="13826" width="16.5" style="41" customWidth="1"/>
+    <col min="13827" max="13827" width="33.125" style="41" customWidth="1"/>
+    <col min="13828" max="13828" width="8.5" style="41" customWidth="1"/>
+    <col min="13829" max="13829" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="13830" max="13830" width="13.125" style="41" customWidth="1"/>
+    <col min="13831" max="13831" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="13832" max="13832" width="41.375" style="41" customWidth="1"/>
+    <col min="13833" max="13833" width="46" style="41" customWidth="1"/>
+    <col min="13834" max="13834" width="12.375" style="41" customWidth="1"/>
+    <col min="13835" max="13837" width="9" style="41"/>
+    <col min="13838" max="13838" width="18.625" style="41" customWidth="1"/>
+    <col min="13839" max="14078" width="9" style="41"/>
+    <col min="14079" max="14079" width="19.25" style="41" customWidth="1"/>
+    <col min="14080" max="14080" width="5.125" style="41" customWidth="1"/>
+    <col min="14081" max="14081" width="40.25" style="41" customWidth="1"/>
+    <col min="14082" max="14082" width="16.5" style="41" customWidth="1"/>
+    <col min="14083" max="14083" width="33.125" style="41" customWidth="1"/>
+    <col min="14084" max="14084" width="8.5" style="41" customWidth="1"/>
+    <col min="14085" max="14085" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="14086" max="14086" width="13.125" style="41" customWidth="1"/>
+    <col min="14087" max="14087" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="14088" max="14088" width="41.375" style="41" customWidth="1"/>
+    <col min="14089" max="14089" width="46" style="41" customWidth="1"/>
+    <col min="14090" max="14090" width="12.375" style="41" customWidth="1"/>
+    <col min="14091" max="14093" width="9" style="41"/>
+    <col min="14094" max="14094" width="18.625" style="41" customWidth="1"/>
+    <col min="14095" max="14334" width="9" style="41"/>
+    <col min="14335" max="14335" width="19.25" style="41" customWidth="1"/>
+    <col min="14336" max="14336" width="5.125" style="41" customWidth="1"/>
+    <col min="14337" max="14337" width="40.25" style="41" customWidth="1"/>
+    <col min="14338" max="14338" width="16.5" style="41" customWidth="1"/>
+    <col min="14339" max="14339" width="33.125" style="41" customWidth="1"/>
+    <col min="14340" max="14340" width="8.5" style="41" customWidth="1"/>
+    <col min="14341" max="14341" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="14342" max="14342" width="13.125" style="41" customWidth="1"/>
+    <col min="14343" max="14343" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="14344" max="14344" width="41.375" style="41" customWidth="1"/>
+    <col min="14345" max="14345" width="46" style="41" customWidth="1"/>
+    <col min="14346" max="14346" width="12.375" style="41" customWidth="1"/>
+    <col min="14347" max="14349" width="9" style="41"/>
+    <col min="14350" max="14350" width="18.625" style="41" customWidth="1"/>
+    <col min="14351" max="14590" width="9" style="41"/>
+    <col min="14591" max="14591" width="19.25" style="41" customWidth="1"/>
+    <col min="14592" max="14592" width="5.125" style="41" customWidth="1"/>
+    <col min="14593" max="14593" width="40.25" style="41" customWidth="1"/>
+    <col min="14594" max="14594" width="16.5" style="41" customWidth="1"/>
+    <col min="14595" max="14595" width="33.125" style="41" customWidth="1"/>
+    <col min="14596" max="14596" width="8.5" style="41" customWidth="1"/>
+    <col min="14597" max="14597" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="14598" max="14598" width="13.125" style="41" customWidth="1"/>
+    <col min="14599" max="14599" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="14600" max="14600" width="41.375" style="41" customWidth="1"/>
+    <col min="14601" max="14601" width="46" style="41" customWidth="1"/>
+    <col min="14602" max="14602" width="12.375" style="41" customWidth="1"/>
+    <col min="14603" max="14605" width="9" style="41"/>
+    <col min="14606" max="14606" width="18.625" style="41" customWidth="1"/>
+    <col min="14607" max="14846" width="9" style="41"/>
+    <col min="14847" max="14847" width="19.25" style="41" customWidth="1"/>
+    <col min="14848" max="14848" width="5.125" style="41" customWidth="1"/>
+    <col min="14849" max="14849" width="40.25" style="41" customWidth="1"/>
+    <col min="14850" max="14850" width="16.5" style="41" customWidth="1"/>
+    <col min="14851" max="14851" width="33.125" style="41" customWidth="1"/>
+    <col min="14852" max="14852" width="8.5" style="41" customWidth="1"/>
+    <col min="14853" max="14853" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="14854" max="14854" width="13.125" style="41" customWidth="1"/>
+    <col min="14855" max="14855" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="14856" max="14856" width="41.375" style="41" customWidth="1"/>
+    <col min="14857" max="14857" width="46" style="41" customWidth="1"/>
+    <col min="14858" max="14858" width="12.375" style="41" customWidth="1"/>
+    <col min="14859" max="14861" width="9" style="41"/>
+    <col min="14862" max="14862" width="18.625" style="41" customWidth="1"/>
+    <col min="14863" max="15102" width="9" style="41"/>
+    <col min="15103" max="15103" width="19.25" style="41" customWidth="1"/>
+    <col min="15104" max="15104" width="5.125" style="41" customWidth="1"/>
+    <col min="15105" max="15105" width="40.25" style="41" customWidth="1"/>
+    <col min="15106" max="15106" width="16.5" style="41" customWidth="1"/>
+    <col min="15107" max="15107" width="33.125" style="41" customWidth="1"/>
+    <col min="15108" max="15108" width="8.5" style="41" customWidth="1"/>
+    <col min="15109" max="15109" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="15110" max="15110" width="13.125" style="41" customWidth="1"/>
+    <col min="15111" max="15111" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="15112" max="15112" width="41.375" style="41" customWidth="1"/>
+    <col min="15113" max="15113" width="46" style="41" customWidth="1"/>
+    <col min="15114" max="15114" width="12.375" style="41" customWidth="1"/>
+    <col min="15115" max="15117" width="9" style="41"/>
+    <col min="15118" max="15118" width="18.625" style="41" customWidth="1"/>
+    <col min="15119" max="15358" width="9" style="41"/>
+    <col min="15359" max="15359" width="19.25" style="41" customWidth="1"/>
+    <col min="15360" max="15360" width="5.125" style="41" customWidth="1"/>
+    <col min="15361" max="15361" width="40.25" style="41" customWidth="1"/>
+    <col min="15362" max="15362" width="16.5" style="41" customWidth="1"/>
+    <col min="15363" max="15363" width="33.125" style="41" customWidth="1"/>
+    <col min="15364" max="15364" width="8.5" style="41" customWidth="1"/>
+    <col min="15365" max="15365" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="15366" max="15366" width="13.125" style="41" customWidth="1"/>
+    <col min="15367" max="15367" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="15368" max="15368" width="41.375" style="41" customWidth="1"/>
+    <col min="15369" max="15369" width="46" style="41" customWidth="1"/>
+    <col min="15370" max="15370" width="12.375" style="41" customWidth="1"/>
+    <col min="15371" max="15373" width="9" style="41"/>
+    <col min="15374" max="15374" width="18.625" style="41" customWidth="1"/>
+    <col min="15375" max="15614" width="9" style="41"/>
+    <col min="15615" max="15615" width="19.25" style="41" customWidth="1"/>
+    <col min="15616" max="15616" width="5.125" style="41" customWidth="1"/>
+    <col min="15617" max="15617" width="40.25" style="41" customWidth="1"/>
+    <col min="15618" max="15618" width="16.5" style="41" customWidth="1"/>
+    <col min="15619" max="15619" width="33.125" style="41" customWidth="1"/>
+    <col min="15620" max="15620" width="8.5" style="41" customWidth="1"/>
+    <col min="15621" max="15621" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="15622" max="15622" width="13.125" style="41" customWidth="1"/>
+    <col min="15623" max="15623" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="15624" max="15624" width="41.375" style="41" customWidth="1"/>
+    <col min="15625" max="15625" width="46" style="41" customWidth="1"/>
+    <col min="15626" max="15626" width="12.375" style="41" customWidth="1"/>
+    <col min="15627" max="15629" width="9" style="41"/>
+    <col min="15630" max="15630" width="18.625" style="41" customWidth="1"/>
+    <col min="15631" max="15870" width="9" style="41"/>
+    <col min="15871" max="15871" width="19.25" style="41" customWidth="1"/>
+    <col min="15872" max="15872" width="5.125" style="41" customWidth="1"/>
+    <col min="15873" max="15873" width="40.25" style="41" customWidth="1"/>
+    <col min="15874" max="15874" width="16.5" style="41" customWidth="1"/>
+    <col min="15875" max="15875" width="33.125" style="41" customWidth="1"/>
+    <col min="15876" max="15876" width="8.5" style="41" customWidth="1"/>
+    <col min="15877" max="15877" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="15878" max="15878" width="13.125" style="41" customWidth="1"/>
+    <col min="15879" max="15879" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="15880" max="15880" width="41.375" style="41" customWidth="1"/>
+    <col min="15881" max="15881" width="46" style="41" customWidth="1"/>
+    <col min="15882" max="15882" width="12.375" style="41" customWidth="1"/>
+    <col min="15883" max="15885" width="9" style="41"/>
+    <col min="15886" max="15886" width="18.625" style="41" customWidth="1"/>
+    <col min="15887" max="16126" width="9" style="41"/>
+    <col min="16127" max="16127" width="19.25" style="41" customWidth="1"/>
+    <col min="16128" max="16128" width="5.125" style="41" customWidth="1"/>
+    <col min="16129" max="16129" width="40.25" style="41" customWidth="1"/>
+    <col min="16130" max="16130" width="16.5" style="41" customWidth="1"/>
+    <col min="16131" max="16131" width="33.125" style="41" customWidth="1"/>
+    <col min="16132" max="16132" width="8.5" style="41" customWidth="1"/>
+    <col min="16133" max="16133" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="16134" max="16134" width="13.125" style="41" customWidth="1"/>
+    <col min="16135" max="16135" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="16136" max="16136" width="41.375" style="41" customWidth="1"/>
+    <col min="16137" max="16137" width="46" style="41" customWidth="1"/>
+    <col min="16138" max="16138" width="12.375" style="41" customWidth="1"/>
+    <col min="16139" max="16141" width="9" style="41"/>
+    <col min="16142" max="16142" width="18.625" style="41" customWidth="1"/>
+    <col min="16143" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="35" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="40" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="J2" s="46">
+      <c r="J2" s="42">
         <v>40757</v>
       </c>
-      <c r="K2" s="47">
+      <c r="K2" s="43">
         <v>40940</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="41" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="40" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="42">
         <v>40757</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="43">
         <v>40940</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="35" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="14.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="48" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="46"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="42"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
     </row>
     <row r="5" spans="1:16" ht="14.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="46"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="42"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" ht="14.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="46"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="42"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:16" ht="14.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="48" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="46"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="42"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="14.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="48" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="49" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="46"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="1:16" s="55" customFormat="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-    </row>
-    <row r="10" spans="1:16" s="62" customFormat="1">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="42"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+    </row>
+    <row r="9" spans="1:16" s="51" customFormat="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+    </row>
+    <row r="10" spans="1:16" s="58" customFormat="1">
+      <c r="A10" s="52"/>
+      <c r="B10" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="58" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58" t="s">
+      <c r="G10" s="54"/>
+      <c r="H10" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="56">
         <v>40757</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="57">
         <v>40940</v>
       </c>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
     </row>
     <row r="11" spans="1:16" ht="14.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="48" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="45" t="s">
+      <c r="E11" s="35"/>
+      <c r="F11" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="42">
         <v>40757</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="14.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="49" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="45" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="42">
         <v>40757</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="14.25">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="42">
         <v>40757</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K13" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="14.25">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="42">
         <v>40757</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="43">
         <v>40940</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="62" customFormat="1">
-      <c r="B15" s="63" t="s">
+    <row r="15" spans="1:16" s="58" customFormat="1">
+      <c r="B15" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="F15" s="62" t="s">
+      <c r="D15" s="52"/>
+      <c r="F15" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="56">
         <v>40757</v>
       </c>
-      <c r="K15" s="61">
+      <c r="K15" s="57">
         <v>40940</v>
       </c>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
     </row>
     <row r="16" spans="1:16" ht="14.25">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="42">
         <v>40757</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="14.25">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="42">
         <v>40757</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="14.25">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="42">
         <v>40757</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="14.25">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="J19" s="46"/>
-    </row>
-    <row r="20" spans="2:13" s="55" customFormat="1">
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
+      <c r="J19" s="42"/>
+    </row>
+    <row r="20" spans="2:13" s="51" customFormat="1">
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
     </row>
     <row r="21" spans="2:13" ht="14.25">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39" t="s">
+      <c r="G21" s="36"/>
+      <c r="H21" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="42">
         <v>40757</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="14.25">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="39" t="s">
+      <c r="G22" s="36"/>
+      <c r="H22" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="42">
         <v>40757</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="14.25">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="39" t="s">
+      <c r="G23" s="36"/>
+      <c r="H23" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="42">
         <v>40757</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="14.25">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="39" t="s">
+      <c r="G24" s="36"/>
+      <c r="H24" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24" s="42">
         <v>40757</v>
       </c>
-      <c r="K24" s="47">
+      <c r="K24" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="14.25">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="39" t="s">
+      <c r="G25" s="36"/>
+      <c r="H25" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="42">
         <v>40757</v>
       </c>
-      <c r="K25" s="47">
+      <c r="K25" s="43">
         <v>40940</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="55" customFormat="1"/>
-    <row r="27" spans="2:13" s="62" customFormat="1">
-      <c r="B27" s="62" t="s">
+    <row r="26" spans="2:13" s="51" customFormat="1"/>
+    <row r="27" spans="2:13" s="58" customFormat="1">
+      <c r="B27" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="F27" s="62" t="s">
+      <c r="F27" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="H27" s="62" t="s">
+      <c r="H27" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="I27" s="62" t="s">
+      <c r="I27" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="J27" s="62">
+      <c r="J27" s="58">
         <v>40757</v>
       </c>
-      <c r="K27" s="62">
+      <c r="K27" s="58">
         <v>40940</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="14.25">
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="45" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="14.25">
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="45" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="14.25">
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="45" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="14.25">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="49" t="s">
+      <c r="C31" s="35"/>
+      <c r="D31" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="E31" s="39"/>
+      <c r="E31" s="35"/>
     </row>
     <row r="32" spans="2:13" ht="14.25">
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="45" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="14.25">
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="45" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="14.25">
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="45" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="14.25">
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="E35" s="39"/>
+      <c r="E35" s="35"/>
     </row>
     <row r="36" spans="2:5" ht="14.25">
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="45" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="14.25">
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="45" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="14.25">
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="45" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="14.25">
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="E39" s="39"/>
+      <c r="E39" s="35"/>
     </row>
     <row r="40" spans="2:5" ht="14.25">
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="45" t="s">
         <v>308</v>
       </c>
-      <c r="E40" s="39"/>
+      <c r="E40" s="35"/>
     </row>
     <row r="41" spans="2:5" ht="14.25">
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="E41" s="39"/>
+      <c r="E41" s="35"/>
     </row>
     <row r="42" spans="2:5" ht="14.25">
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="E42" s="39"/>
+      <c r="E42" s="35"/>
     </row>
     <row r="43" spans="2:5" ht="14.25">
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="E43" s="39"/>
-    </row>
-    <row r="44" spans="2:5" s="62" customFormat="1">
-      <c r="B44" s="62" t="s">
+      <c r="E43" s="35"/>
+    </row>
+    <row r="44" spans="2:5" s="58" customFormat="1">
+      <c r="B44" s="58" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="14.25">
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="E45" s="39"/>
+      <c r="E45" s="35"/>
     </row>
     <row r="46" spans="2:5" ht="14.25">
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="D46" s="49" t="s">
+      <c r="D46" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="E46" s="39"/>
+      <c r="E46" s="35"/>
     </row>
     <row r="47" spans="2:5" ht="14.25">
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="44" t="s">
         <v>320</v>
       </c>
-      <c r="D47" s="49" t="s">
+      <c r="D47" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="E47" s="39"/>
+      <c r="E47" s="35"/>
     </row>
     <row r="48" spans="2:5" ht="14.25">
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="E48" s="39"/>
-    </row>
-    <row r="49" spans="2:11" s="62" customFormat="1">
-      <c r="B49" s="62" t="s">
+      <c r="E48" s="35"/>
+    </row>
+    <row r="49" spans="2:11" s="58" customFormat="1">
+      <c r="B49" s="58" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="14.25">
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="E50" s="39"/>
+      <c r="E50" s="35"/>
     </row>
     <row r="51" spans="2:11" ht="14.25">
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="44" t="s">
         <v>327</v>
       </c>
-      <c r="D51" s="49" t="s">
+      <c r="D51" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="E51" s="39"/>
+      <c r="E51" s="35"/>
     </row>
     <row r="52" spans="2:11" ht="14.25">
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="E52" s="39"/>
+      <c r="E52" s="35"/>
     </row>
     <row r="53" spans="2:11" ht="14.25">
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="45" t="s">
         <v>332</v>
       </c>
-      <c r="E53" s="39"/>
+      <c r="E53" s="35"/>
     </row>
     <row r="54" spans="2:11" ht="14.25">
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="E54" s="39"/>
+      <c r="E54" s="35"/>
     </row>
     <row r="55" spans="2:11" ht="14.25">
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="E55" s="39"/>
+      <c r="E55" s="35"/>
     </row>
     <row r="56" spans="2:11" ht="14.25">
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="E56" s="39"/>
-    </row>
-    <row r="57" spans="2:11" s="55" customFormat="1"/>
+      <c r="E56" s="35"/>
+    </row>
+    <row r="57" spans="2:11" s="51" customFormat="1"/>
     <row r="58" spans="2:11">
-      <c r="F58" s="40" t="s">
+      <c r="F58" s="36" t="s">
         <v>339</v>
       </c>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40" t="s">
+      <c r="G58" s="36"/>
+      <c r="H58" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="I58" s="40" t="s">
+      <c r="I58" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="J58" s="46">
+      <c r="J58" s="42">
         <v>40757</v>
       </c>
-      <c r="K58" s="47">
+      <c r="K58" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="14.25">
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="D59" s="45" t="s">
+      <c r="D59" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="46"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="42"/>
     </row>
     <row r="60" spans="2:11" ht="14.25">
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="44" t="s">
         <v>344</v>
       </c>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="46"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="42"/>
     </row>
     <row r="61" spans="2:11" ht="14.25">
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="D61" s="45" t="s">
+      <c r="D61" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="46"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="42"/>
     </row>
     <row r="62" spans="2:11" ht="14.25">
-      <c r="B62" s="48" t="s">
+      <c r="B62" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="46"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="42"/>
     </row>
     <row r="63" spans="2:11" ht="14.25">
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="44" t="s">
         <v>350</v>
       </c>
-      <c r="D63" s="45" t="s">
+      <c r="D63" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="46"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="42"/>
     </row>
     <row r="64" spans="2:11" ht="14.25">
-      <c r="B64" s="48" t="s">
+      <c r="B64" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="46"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="42"/>
     </row>
     <row r="65" spans="2:11" ht="14.25">
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="D65" s="45" t="s">
+      <c r="D65" s="41" t="s">
         <v>355</v>
       </c>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="46"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="42"/>
     </row>
     <row r="66" spans="2:11" ht="14.25">
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="44" t="s">
         <v>356</v>
       </c>
-      <c r="D66" s="45" t="s">
+      <c r="D66" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="46"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="42"/>
     </row>
     <row r="67" spans="2:11" ht="14.25">
-      <c r="B67" s="48" t="s">
+      <c r="B67" s="44" t="s">
         <v>358</v>
       </c>
-      <c r="D67" s="45" t="s">
+      <c r="D67" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="46"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="42"/>
     </row>
     <row r="68" spans="2:11" ht="14.25">
-      <c r="B68" s="48" t="s">
+      <c r="B68" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="D68" s="45" t="s">
+      <c r="D68" s="41" t="s">
         <v>361</v>
       </c>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="46"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="42"/>
     </row>
     <row r="69" spans="2:11" ht="14.25">
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="44" t="s">
         <v>362</v>
       </c>
-      <c r="D69" s="45" t="s">
+      <c r="D69" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="46"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="42"/>
     </row>
     <row r="70" spans="2:11" ht="14.25">
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="D70" s="45" t="s">
+      <c r="D70" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="46"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="42"/>
     </row>
     <row r="71" spans="2:11" ht="14.25">
-      <c r="B71" s="48" t="s">
+      <c r="B71" s="44" t="s">
         <v>366</v>
       </c>
-      <c r="D71" s="45" t="s">
+      <c r="D71" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="46"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="42"/>
     </row>
     <row r="72" spans="2:11" ht="14.25">
-      <c r="B72" s="48" t="s">
+      <c r="B72" s="44" t="s">
         <v>368</v>
       </c>
-      <c r="D72" s="45" t="s">
+      <c r="D72" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="46"/>
-    </row>
-    <row r="73" spans="2:11" s="55" customFormat="1"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="42"/>
+    </row>
+    <row r="73" spans="2:11" s="51" customFormat="1"/>
     <row r="74" spans="2:11" ht="14.25">
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="D74" s="45" t="s">
+      <c r="D74" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="F74" s="40" t="s">
+      <c r="F74" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40" t="s">
+      <c r="G74" s="36"/>
+      <c r="H74" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="I74" s="40" t="s">
+      <c r="I74" s="36" t="s">
         <v>374</v>
       </c>
-      <c r="J74" s="46">
+      <c r="J74" s="42">
         <v>40757</v>
       </c>
-      <c r="K74" s="47">
+      <c r="K74" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="75" spans="2:11" ht="14.25">
-      <c r="B75" s="48" t="s">
+      <c r="B75" s="44" t="s">
         <v>375</v>
       </c>
-      <c r="D75" s="45" t="s">
+      <c r="D75" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="46"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="42"/>
     </row>
     <row r="76" spans="2:11" ht="14.25">
-      <c r="B76" s="48" t="s">
+      <c r="B76" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="46"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="42"/>
     </row>
     <row r="77" spans="2:11" ht="14.25">
-      <c r="B77" s="48" t="s">
+      <c r="B77" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="D77" s="45" t="s">
+      <c r="D77" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="46"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="42"/>
     </row>
     <row r="78" spans="2:11" ht="14.25">
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="D78" s="45" t="s">
+      <c r="D78" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="46"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="42"/>
     </row>
     <row r="79" spans="2:11" ht="14.25">
-      <c r="B79" s="48" t="s">
+      <c r="B79" s="44" t="s">
         <v>383</v>
       </c>
-      <c r="D79" s="45" t="s">
+      <c r="D79" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="F79" s="40"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="46"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="42"/>
     </row>
     <row r="80" spans="2:11" ht="14.25">
-      <c r="B80" s="48" t="s">
+      <c r="B80" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="D80" s="45" t="s">
+      <c r="D80" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="46"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="42"/>
     </row>
     <row r="81" spans="2:10" ht="14.25">
-      <c r="B81" s="48" t="s">
+      <c r="B81" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="D81" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="F81" s="40"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="46"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="42"/>
     </row>
     <row r="82" spans="2:10" ht="14.25">
-      <c r="B82" s="48" t="s">
+      <c r="B82" s="44" t="s">
         <v>389</v>
       </c>
-      <c r="D82" s="45" t="s">
+      <c r="D82" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="F82" s="40"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="46"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="42"/>
     </row>
     <row r="83" spans="2:10" ht="14.25">
-      <c r="B83" s="48" t="s">
+      <c r="B83" s="44" t="s">
         <v>391</v>
       </c>
-      <c r="D83" s="45" t="s">
+      <c r="D83" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="46"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="42"/>
     </row>
     <row r="84" spans="2:10" ht="14.25">
-      <c r="B84" s="48" t="s">
+      <c r="B84" s="44" t="s">
         <v>393</v>
       </c>
-      <c r="D84" s="45" t="s">
+      <c r="D84" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="46"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="42"/>
     </row>
     <row r="85" spans="2:10" ht="14.25">
-      <c r="B85" s="48" t="s">
+      <c r="B85" s="44" t="s">
         <v>394</v>
       </c>
-      <c r="D85" s="65" t="s">
+      <c r="D85" s="61" t="s">
         <v>395</v>
       </c>
-      <c r="F85" s="40"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="40"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="46"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="42"/>
     </row>
     <row r="86" spans="2:10" ht="14.25">
-      <c r="B86" s="48" t="s">
+      <c r="B86" s="44" t="s">
         <v>396</v>
       </c>
-      <c r="D86" s="45" t="s">
+      <c r="D86" s="41" t="s">
         <v>397</v>
       </c>
-      <c r="F86" s="40"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="46"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="42"/>
     </row>
     <row r="87" spans="2:10" ht="14.25">
-      <c r="B87" s="48" t="s">
+      <c r="B87" s="44" t="s">
         <v>398</v>
       </c>
-      <c r="D87" s="45" t="s">
+      <c r="D87" s="41" t="s">
         <v>399</v>
       </c>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="46"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="42"/>
     </row>
     <row r="88" spans="2:10" ht="14.25">
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="44" t="s">
         <v>400</v>
       </c>
-      <c r="D88" s="45" t="s">
+      <c r="D88" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="F88" s="40"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="46"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="42"/>
     </row>
     <row r="89" spans="2:10" ht="14.25">
-      <c r="B89" s="48" t="s">
+      <c r="B89" s="44" t="s">
         <v>402</v>
       </c>
-      <c r="D89" s="45" t="s">
+      <c r="D89" s="41" t="s">
         <v>403</v>
       </c>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="46"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="42"/>
     </row>
     <row r="90" spans="2:10" ht="14.25">
-      <c r="B90" s="48" t="s">
+      <c r="B90" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="D90" s="45" t="s">
+      <c r="D90" s="41" t="s">
         <v>405</v>
       </c>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="46"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="42"/>
     </row>
     <row r="91" spans="2:10" ht="14.25">
-      <c r="B91" s="48" t="s">
+      <c r="B91" s="44" t="s">
         <v>406</v>
       </c>
-      <c r="D91" s="45" t="s">
+      <c r="D91" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="F91" s="40"/>
-      <c r="G91" s="40"/>
-      <c r="H91" s="40"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="46"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="42"/>
     </row>
     <row r="92" spans="2:10" ht="14.25">
-      <c r="B92" s="48" t="s">
+      <c r="B92" s="44" t="s">
         <v>408</v>
       </c>
-      <c r="D92" s="45" t="s">
+      <c r="D92" s="41" t="s">
         <v>409</v>
       </c>
-      <c r="F92" s="40"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="46"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="42"/>
     </row>
     <row r="93" spans="2:10" ht="14.25">
-      <c r="B93" s="48" t="s">
+      <c r="B93" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="D93" s="45" t="s">
+      <c r="D93" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="F93" s="40"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="46"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="42"/>
     </row>
     <row r="94" spans="2:10" ht="14.25">
-      <c r="B94" s="48" t="s">
+      <c r="B94" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="D94" s="45" t="s">
+      <c r="D94" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="46"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="42"/>
     </row>
     <row r="95" spans="2:10" ht="14.25">
-      <c r="B95" s="48" t="s">
+      <c r="B95" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="D95" s="45" t="s">
+      <c r="D95" s="41" t="s">
         <v>415</v>
       </c>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="46"/>
-    </row>
-    <row r="96" spans="2:10" s="55" customFormat="1"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="42"/>
+    </row>
+    <row r="96" spans="2:10" s="51" customFormat="1"/>
     <row r="97" spans="2:11" ht="14.25">
-      <c r="B97" s="48" t="s">
+      <c r="B97" s="44" t="s">
         <v>416</v>
       </c>
-      <c r="D97" s="45" t="s">
+      <c r="D97" s="41" t="s">
         <v>417</v>
       </c>
-      <c r="F97" s="40" t="s">
+      <c r="F97" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40" t="s">
+      <c r="G97" s="36"/>
+      <c r="H97" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="I97" s="40" t="s">
+      <c r="I97" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="J97" s="46">
+      <c r="J97" s="42">
         <v>40757</v>
       </c>
-      <c r="K97" s="47">
+      <c r="K97" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="98" spans="2:11">
-      <c r="D98" s="39" t="s">
+      <c r="D98" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="F98" s="40"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="46"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="42"/>
     </row>
     <row r="99" spans="2:11">
-      <c r="D99" s="39" t="s">
+      <c r="D99" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="F99" s="40"/>
-      <c r="G99" s="40"/>
-      <c r="H99" s="40"/>
-      <c r="I99" s="40"/>
-      <c r="J99" s="46"/>
-    </row>
-    <row r="100" spans="2:11" s="55" customFormat="1"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="42"/>
+    </row>
+    <row r="100" spans="2:11" s="51" customFormat="1"/>
     <row r="101" spans="2:11" ht="14.25">
-      <c r="B101" s="48" t="s">
+      <c r="B101" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="D101" s="45" t="s">
+      <c r="D101" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="F101" s="40" t="s">
+      <c r="F101" s="36" t="s">
         <v>425</v>
       </c>
-      <c r="G101" s="40"/>
-      <c r="H101" s="39" t="s">
+      <c r="G101" s="36"/>
+      <c r="H101" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="I101" s="40" t="s">
+      <c r="I101" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="J101" s="46">
+      <c r="J101" s="42">
         <v>40757</v>
       </c>
-      <c r="K101" s="47">
+      <c r="K101" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="102" spans="2:11" ht="14.25">
-      <c r="B102" s="48" t="s">
+      <c r="B102" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="D102" s="45" t="s">
+      <c r="D102" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="F102" s="40"/>
-      <c r="G102" s="40"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="46"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="42"/>
     </row>
     <row r="103" spans="2:11" ht="14.25">
-      <c r="B103" s="48" t="s">
+      <c r="B103" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="D103" s="45" t="s">
+      <c r="D103" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F103" s="40"/>
-      <c r="G103" s="40"/>
-      <c r="H103" s="40"/>
-      <c r="I103" s="40"/>
-      <c r="J103" s="46"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="42"/>
     </row>
     <row r="104" spans="2:11" ht="14.25">
-      <c r="B104" s="48" t="s">
+      <c r="B104" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="D104" s="45" t="s">
+      <c r="D104" s="41" t="s">
         <v>433</v>
       </c>
-      <c r="F104" s="40"/>
-      <c r="G104" s="40"/>
-      <c r="H104" s="40"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="46"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="42"/>
     </row>
     <row r="105" spans="2:11" ht="14.25">
-      <c r="B105" s="48" t="s">
+      <c r="B105" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="D105" s="45" t="s">
+      <c r="D105" s="41" t="s">
         <v>435</v>
       </c>
-      <c r="F105" s="40"/>
-      <c r="G105" s="40"/>
-      <c r="H105" s="40"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="46"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="42"/>
     </row>
     <row r="106" spans="2:11" ht="14.25">
-      <c r="B106" s="48" t="s">
+      <c r="B106" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="D106" s="45" t="s">
+      <c r="D106" s="41" t="s">
         <v>437</v>
       </c>
-      <c r="F106" s="40"/>
-      <c r="G106" s="40"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="40"/>
-      <c r="J106" s="46"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="42"/>
     </row>
     <row r="107" spans="2:11" ht="14.25">
-      <c r="B107" s="48" t="s">
+      <c r="B107" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="D107" s="45" t="s">
+      <c r="D107" s="41" t="s">
         <v>439</v>
       </c>
-      <c r="F107" s="40"/>
-      <c r="G107" s="40"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="46"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="42"/>
     </row>
     <row r="108" spans="2:11" ht="14.25">
-      <c r="B108" s="48" t="s">
+      <c r="B108" s="44" t="s">
         <v>440</v>
       </c>
-      <c r="D108" s="45" t="s">
+      <c r="D108" s="41" t="s">
         <v>441</v>
       </c>
-      <c r="F108" s="40"/>
-      <c r="G108" s="40"/>
-      <c r="H108" s="40"/>
-      <c r="I108" s="40"/>
-      <c r="J108" s="46"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="42"/>
     </row>
     <row r="109" spans="2:11" ht="14.25">
-      <c r="B109" s="48" t="s">
+      <c r="B109" s="44" t="s">
         <v>442</v>
       </c>
-      <c r="D109" s="45" t="s">
+      <c r="D109" s="41" t="s">
         <v>443</v>
       </c>
-      <c r="F109" s="40"/>
-      <c r="G109" s="40"/>
-      <c r="H109" s="40"/>
-      <c r="I109" s="40"/>
-      <c r="J109" s="46"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="42"/>
     </row>
     <row r="110" spans="2:11" ht="14.25">
-      <c r="B110" s="48" t="s">
+      <c r="B110" s="44" t="s">
         <v>444</v>
       </c>
-      <c r="D110" s="45" t="s">
+      <c r="D110" s="41" t="s">
         <v>445</v>
       </c>
-      <c r="F110" s="40"/>
-      <c r="G110" s="40"/>
-      <c r="H110" s="40"/>
-      <c r="I110" s="40"/>
-      <c r="J110" s="46"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="36"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="42"/>
     </row>
     <row r="111" spans="2:11" ht="14.25">
-      <c r="B111" s="48" t="s">
+      <c r="B111" s="44" t="s">
         <v>446</v>
       </c>
-      <c r="D111" s="45" t="s">
+      <c r="D111" s="41" t="s">
         <v>447</v>
       </c>
-      <c r="F111" s="40"/>
-      <c r="G111" s="40"/>
-      <c r="H111" s="40"/>
-      <c r="I111" s="40"/>
-      <c r="J111" s="46"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="42"/>
     </row>
     <row r="112" spans="2:11" ht="14.25">
-      <c r="B112" s="48" t="s">
+      <c r="B112" s="44" t="s">
         <v>448</v>
       </c>
-      <c r="D112" s="45" t="s">
+      <c r="D112" s="41" t="s">
         <v>449</v>
       </c>
-      <c r="F112" s="40"/>
-      <c r="G112" s="40"/>
-      <c r="H112" s="40"/>
-      <c r="I112" s="40"/>
-      <c r="J112" s="46"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="42"/>
     </row>
     <row r="113" spans="2:11" ht="14.25">
-      <c r="B113" s="48" t="s">
+      <c r="B113" s="44" t="s">
         <v>450</v>
       </c>
-      <c r="D113" s="45" t="s">
+      <c r="D113" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="F113" s="40"/>
-      <c r="G113" s="40"/>
-      <c r="H113" s="40"/>
-      <c r="I113" s="40"/>
-      <c r="J113" s="46"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="42"/>
     </row>
     <row r="114" spans="2:11" ht="14.25">
-      <c r="B114" s="48" t="s">
+      <c r="B114" s="44" t="s">
         <v>452</v>
       </c>
-      <c r="D114" s="45" t="s">
+      <c r="D114" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="F114" s="40"/>
-      <c r="G114" s="40"/>
-      <c r="H114" s="40"/>
-      <c r="I114" s="40"/>
-      <c r="J114" s="46"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="42"/>
     </row>
     <row r="115" spans="2:11" ht="14.25">
-      <c r="B115" s="48" t="s">
+      <c r="B115" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="D115" s="45" t="s">
+      <c r="D115" s="41" t="s">
         <v>455</v>
       </c>
-      <c r="F115" s="40"/>
-      <c r="G115" s="40"/>
-      <c r="H115" s="40"/>
-      <c r="I115" s="40"/>
-      <c r="J115" s="46"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="42"/>
     </row>
     <row r="116" spans="2:11" ht="14.25">
-      <c r="B116" s="48" t="s">
+      <c r="B116" s="44" t="s">
         <v>456</v>
       </c>
-      <c r="D116" s="45" t="s">
+      <c r="D116" s="41" t="s">
         <v>457</v>
       </c>
-      <c r="F116" s="40"/>
-      <c r="G116" s="40"/>
-      <c r="H116" s="40"/>
-      <c r="I116" s="40"/>
-      <c r="J116" s="46"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="42"/>
     </row>
     <row r="117" spans="2:11" ht="14.25">
-      <c r="B117" s="48" t="s">
+      <c r="B117" s="44" t="s">
         <v>458</v>
       </c>
-      <c r="D117" s="45" t="s">
+      <c r="D117" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="F117" s="40"/>
-      <c r="G117" s="40"/>
-      <c r="H117" s="40"/>
-      <c r="I117" s="40"/>
-      <c r="J117" s="46"/>
+      <c r="F117" s="36"/>
+      <c r="G117" s="36"/>
+      <c r="H117" s="36"/>
+      <c r="I117" s="36"/>
+      <c r="J117" s="42"/>
     </row>
     <row r="118" spans="2:11" ht="14.25">
-      <c r="B118" s="48" t="s">
+      <c r="B118" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="D118" s="45" t="s">
+      <c r="D118" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="F118" s="40"/>
-      <c r="G118" s="40"/>
-      <c r="H118" s="40"/>
-      <c r="I118" s="40"/>
-      <c r="J118" s="46"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="42"/>
     </row>
     <row r="119" spans="2:11" ht="14.25">
-      <c r="B119" s="48" t="s">
+      <c r="B119" s="44" t="s">
         <v>462</v>
       </c>
-      <c r="D119" s="45" t="s">
+      <c r="D119" s="41" t="s">
         <v>463</v>
       </c>
-      <c r="F119" s="40"/>
-      <c r="G119" s="40"/>
-      <c r="H119" s="40"/>
-      <c r="I119" s="40"/>
-      <c r="J119" s="46"/>
-    </row>
-    <row r="120" spans="2:11" s="55" customFormat="1"/>
+      <c r="F119" s="36"/>
+      <c r="G119" s="36"/>
+      <c r="H119" s="36"/>
+      <c r="I119" s="36"/>
+      <c r="J119" s="42"/>
+    </row>
+    <row r="120" spans="2:11" s="51" customFormat="1"/>
     <row r="121" spans="2:11" ht="14.25">
-      <c r="B121" s="48" t="s">
+      <c r="B121" s="44" t="s">
         <v>464</v>
       </c>
-      <c r="D121" s="45" t="s">
+      <c r="D121" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="F121" s="40" t="s">
+      <c r="F121" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="G121" s="40"/>
-      <c r="H121" s="39" t="s">
+      <c r="G121" s="36"/>
+      <c r="H121" s="35" t="s">
         <v>467</v>
       </c>
-      <c r="I121" s="40" t="s">
+      <c r="I121" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="J121" s="46">
+      <c r="J121" s="42">
         <v>40757</v>
       </c>
-      <c r="K121" s="47">
+      <c r="K121" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="122" spans="2:11" ht="14.25">
-      <c r="B122" s="48" t="s">
+      <c r="B122" s="44" t="s">
         <v>469</v>
       </c>
-      <c r="D122" s="45" t="s">
+      <c r="D122" s="41" t="s">
         <v>470</v>
       </c>
-      <c r="F122" s="40"/>
-      <c r="G122" s="40"/>
-      <c r="H122" s="40"/>
-      <c r="I122" s="40"/>
-      <c r="J122" s="46"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="42"/>
     </row>
     <row r="123" spans="2:11" ht="14.25">
-      <c r="B123" s="48" t="s">
+      <c r="B123" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="D123" s="45" t="s">
+      <c r="D123" s="41" t="s">
         <v>472</v>
       </c>
-      <c r="F123" s="40"/>
-      <c r="G123" s="40"/>
-      <c r="H123" s="40"/>
-      <c r="I123" s="40"/>
-      <c r="J123" s="46"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="36"/>
+      <c r="J123" s="42"/>
     </row>
     <row r="124" spans="2:11" ht="14.25">
-      <c r="B124" s="48" t="s">
+      <c r="B124" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="D124" s="45" t="s">
+      <c r="D124" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="F124" s="40"/>
-      <c r="G124" s="40"/>
-      <c r="H124" s="40"/>
-      <c r="I124" s="40"/>
-      <c r="J124" s="46"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="36"/>
+      <c r="I124" s="36"/>
+      <c r="J124" s="42"/>
     </row>
     <row r="125" spans="2:11" ht="14.25">
-      <c r="B125" s="48" t="s">
+      <c r="B125" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D125" s="45" t="s">
+      <c r="D125" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="F125" s="40"/>
-      <c r="G125" s="40"/>
-      <c r="H125" s="40"/>
-      <c r="I125" s="40"/>
-      <c r="J125" s="46"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="36"/>
+      <c r="J125" s="42"/>
     </row>
     <row r="126" spans="2:11" ht="14.25">
-      <c r="B126" s="48" t="s">
+      <c r="B126" s="44" t="s">
         <v>477</v>
       </c>
-      <c r="D126" s="45" t="s">
+      <c r="D126" s="41" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="127" spans="2:11" ht="14.25">
-      <c r="B127" s="48" t="s">
+      <c r="B127" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="D127" s="45" t="s">
+      <c r="D127" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="F127" s="40"/>
-      <c r="G127" s="40"/>
-      <c r="H127" s="40"/>
-      <c r="I127" s="40"/>
-      <c r="J127" s="46"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="42"/>
     </row>
     <row r="128" spans="2:11" ht="14.25">
-      <c r="B128" s="48" t="s">
+      <c r="B128" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D128" s="45" t="s">
+      <c r="D128" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="F128" s="40"/>
-      <c r="G128" s="40"/>
-      <c r="H128" s="40"/>
-      <c r="I128" s="40"/>
-      <c r="J128" s="46"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="36"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="36"/>
+      <c r="J128" s="42"/>
     </row>
     <row r="129" spans="2:10" ht="14.25">
-      <c r="B129" s="48" t="s">
+      <c r="B129" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="D129" s="45" t="s">
+      <c r="D129" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="F129" s="40"/>
-      <c r="G129" s="40"/>
-      <c r="H129" s="40"/>
-      <c r="I129" s="40"/>
-      <c r="J129" s="46"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="36"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="36"/>
+      <c r="J129" s="42"/>
     </row>
     <row r="130" spans="2:10" ht="14.25">
-      <c r="B130" s="48" t="s">
+      <c r="B130" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="D130" s="45" t="s">
+      <c r="D130" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="F130" s="40"/>
-      <c r="G130" s="40"/>
-      <c r="H130" s="40"/>
-      <c r="I130" s="40"/>
-      <c r="J130" s="46"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="36"/>
+      <c r="J130" s="42"/>
     </row>
     <row r="131" spans="2:10" ht="14.25">
-      <c r="B131" s="48" t="s">
+      <c r="B131" s="44" t="s">
         <v>487</v>
       </c>
-      <c r="D131" s="45" t="s">
+      <c r="D131" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="F131" s="40"/>
-      <c r="G131" s="40"/>
-      <c r="H131" s="40"/>
-      <c r="I131" s="40"/>
-      <c r="J131" s="46"/>
+      <c r="F131" s="36"/>
+      <c r="G131" s="36"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="36"/>
+      <c r="J131" s="42"/>
     </row>
     <row r="132" spans="2:10" ht="14.25">
-      <c r="B132" s="48" t="s">
+      <c r="B132" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="D132" s="45" t="s">
+      <c r="D132" s="41" t="s">
         <v>490</v>
       </c>
-      <c r="F132" s="40"/>
-      <c r="G132" s="40"/>
-      <c r="H132" s="40"/>
-      <c r="I132" s="40"/>
-      <c r="J132" s="46"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="42"/>
     </row>
     <row r="133" spans="2:10" ht="14.25">
-      <c r="B133" s="48" t="s">
+      <c r="B133" s="44" t="s">
         <v>491</v>
       </c>
-      <c r="D133" s="45" t="s">
+      <c r="D133" s="41" t="s">
         <v>492</v>
       </c>
-      <c r="F133" s="40"/>
-      <c r="G133" s="40"/>
-      <c r="H133" s="40"/>
-      <c r="I133" s="40"/>
-      <c r="J133" s="46"/>
+      <c r="F133" s="36"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="42"/>
     </row>
     <row r="134" spans="2:10" ht="14.25">
-      <c r="B134" s="48" t="s">
+      <c r="B134" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="D134" s="45" t="s">
+      <c r="D134" s="41" t="s">
         <v>494</v>
       </c>
-      <c r="F134" s="40"/>
-      <c r="G134" s="40"/>
-      <c r="H134" s="40"/>
-      <c r="I134" s="40"/>
-      <c r="J134" s="46"/>
+      <c r="F134" s="36"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="42"/>
     </row>
     <row r="135" spans="2:10" ht="14.25">
-      <c r="B135" s="48" t="s">
+      <c r="B135" s="44" t="s">
         <v>495</v>
       </c>
-      <c r="D135" s="45" t="s">
+      <c r="D135" s="41" t="s">
         <v>496</v>
       </c>
-      <c r="F135" s="40"/>
-      <c r="G135" s="40"/>
-      <c r="H135" s="40"/>
-      <c r="I135" s="40"/>
-      <c r="J135" s="46"/>
+      <c r="F135" s="36"/>
+      <c r="G135" s="36"/>
+      <c r="H135" s="36"/>
+      <c r="I135" s="36"/>
+      <c r="J135" s="42"/>
     </row>
     <row r="136" spans="2:10" ht="14.25">
-      <c r="B136" s="48" t="s">
+      <c r="B136" s="44" t="s">
         <v>497</v>
       </c>
-      <c r="D136" s="45" t="s">
+      <c r="D136" s="41" t="s">
         <v>498</v>
       </c>
-      <c r="F136" s="40"/>
-      <c r="G136" s="40"/>
-      <c r="H136" s="40"/>
-      <c r="I136" s="40"/>
-      <c r="J136" s="46"/>
+      <c r="F136" s="36"/>
+      <c r="G136" s="36"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="36"/>
+      <c r="J136" s="42"/>
     </row>
     <row r="137" spans="2:10" ht="14.25">
-      <c r="B137" s="48" t="s">
+      <c r="B137" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="D137" s="45" t="s">
+      <c r="D137" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="F137" s="40"/>
-      <c r="G137" s="40"/>
-      <c r="H137" s="40"/>
-      <c r="I137" s="40"/>
-      <c r="J137" s="46"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="36"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="42"/>
     </row>
     <row r="138" spans="2:10" ht="14.25">
-      <c r="B138" s="48" t="s">
+      <c r="B138" s="44" t="s">
         <v>501</v>
       </c>
-      <c r="D138" s="45" t="s">
+      <c r="D138" s="41" t="s">
         <v>502</v>
       </c>
-      <c r="F138" s="40"/>
-      <c r="G138" s="40"/>
-      <c r="H138" s="40"/>
-      <c r="I138" s="40"/>
-      <c r="J138" s="46"/>
+      <c r="F138" s="36"/>
+      <c r="G138" s="36"/>
+      <c r="H138" s="36"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="42"/>
     </row>
     <row r="139" spans="2:10" ht="14.25">
-      <c r="B139" s="48" t="s">
+      <c r="B139" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="D139" s="45" t="s">
+      <c r="D139" s="41" t="s">
         <v>504</v>
       </c>
-      <c r="F139" s="40"/>
-      <c r="G139" s="40"/>
-      <c r="H139" s="40"/>
-      <c r="I139" s="40"/>
-      <c r="J139" s="46"/>
+      <c r="F139" s="36"/>
+      <c r="G139" s="36"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="36"/>
+      <c r="J139" s="42"/>
     </row>
     <row r="140" spans="2:10" ht="14.25">
-      <c r="B140" s="48" t="s">
+      <c r="B140" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="D140" s="45" t="s">
+      <c r="D140" s="41" t="s">
         <v>506</v>
       </c>
-      <c r="F140" s="40"/>
-      <c r="G140" s="40"/>
-      <c r="H140" s="40"/>
-      <c r="I140" s="40"/>
-      <c r="J140" s="46"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="42"/>
     </row>
     <row r="141" spans="2:10" ht="14.25">
-      <c r="B141" s="48" t="s">
+      <c r="B141" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="D141" s="45" t="s">
+      <c r="D141" s="41" t="s">
         <v>508</v>
       </c>
-      <c r="F141" s="40"/>
-      <c r="G141" s="40"/>
-      <c r="H141" s="40"/>
-      <c r="I141" s="40"/>
-      <c r="J141" s="46"/>
+      <c r="F141" s="36"/>
+      <c r="G141" s="36"/>
+      <c r="H141" s="36"/>
+      <c r="I141" s="36"/>
+      <c r="J141" s="42"/>
     </row>
     <row r="142" spans="2:10" ht="14.25">
-      <c r="B142" s="48" t="s">
+      <c r="B142" s="44" t="s">
         <v>509</v>
       </c>
-      <c r="D142" s="45" t="s">
+      <c r="D142" s="41" t="s">
         <v>510</v>
       </c>
-      <c r="F142" s="40"/>
-      <c r="G142" s="40"/>
-      <c r="H142" s="40"/>
-      <c r="I142" s="40"/>
-      <c r="J142" s="46"/>
+      <c r="F142" s="36"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="36"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="42"/>
     </row>
     <row r="143" spans="2:10" ht="14.25">
-      <c r="B143" s="48" t="s">
+      <c r="B143" s="44" t="s">
         <v>511</v>
       </c>
-      <c r="D143" s="45" t="s">
+      <c r="D143" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="F143" s="40"/>
-      <c r="G143" s="40"/>
-      <c r="H143" s="40"/>
-      <c r="I143" s="40"/>
-      <c r="J143" s="46"/>
+      <c r="F143" s="36"/>
+      <c r="G143" s="36"/>
+      <c r="H143" s="36"/>
+      <c r="I143" s="36"/>
+      <c r="J143" s="42"/>
     </row>
     <row r="144" spans="2:10" ht="14.25">
-      <c r="B144" s="48" t="s">
+      <c r="B144" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="D144" s="45" t="s">
+      <c r="D144" s="41" t="s">
         <v>514</v>
       </c>
-      <c r="F144" s="40"/>
-      <c r="G144" s="40"/>
-      <c r="H144" s="40"/>
-      <c r="I144" s="40"/>
-      <c r="J144" s="46"/>
+      <c r="F144" s="36"/>
+      <c r="G144" s="36"/>
+      <c r="H144" s="36"/>
+      <c r="I144" s="36"/>
+      <c r="J144" s="42"/>
     </row>
     <row r="145" spans="2:10" ht="14.25">
-      <c r="B145" s="48" t="s">
+      <c r="B145" s="44" t="s">
         <v>515</v>
       </c>
-      <c r="D145" s="45" t="s">
+      <c r="D145" s="41" t="s">
         <v>516</v>
       </c>
-      <c r="F145" s="40"/>
-      <c r="G145" s="40"/>
-      <c r="H145" s="40"/>
-      <c r="I145" s="40"/>
-      <c r="J145" s="46"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="36"/>
+      <c r="I145" s="36"/>
+      <c r="J145" s="42"/>
     </row>
     <row r="146" spans="2:10" ht="14.25">
-      <c r="B146" s="48" t="s">
+      <c r="B146" s="44" t="s">
         <v>517</v>
       </c>
-      <c r="D146" s="45" t="s">
+      <c r="D146" s="41" t="s">
         <v>518</v>
       </c>
-      <c r="F146" s="40"/>
-      <c r="G146" s="40"/>
-      <c r="H146" s="40"/>
-      <c r="I146" s="40"/>
-      <c r="J146" s="46"/>
+      <c r="F146" s="36"/>
+      <c r="G146" s="36"/>
+      <c r="H146" s="36"/>
+      <c r="I146" s="36"/>
+      <c r="J146" s="42"/>
     </row>
     <row r="147" spans="2:10" ht="14.25">
-      <c r="B147" s="48" t="s">
+      <c r="B147" s="44" t="s">
         <v>519</v>
       </c>
-      <c r="D147" s="45" t="s">
+      <c r="D147" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="F147" s="40"/>
-      <c r="G147" s="40"/>
-      <c r="H147" s="40"/>
-      <c r="I147" s="40"/>
-      <c r="J147" s="46"/>
+      <c r="F147" s="36"/>
+      <c r="G147" s="36"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="36"/>
+      <c r="J147" s="42"/>
     </row>
     <row r="148" spans="2:10" ht="14.25">
-      <c r="B148" s="48" t="s">
+      <c r="B148" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="D148" s="45" t="s">
+      <c r="D148" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="F148" s="40"/>
-      <c r="G148" s="40"/>
-      <c r="H148" s="40"/>
-      <c r="I148" s="40"/>
-      <c r="J148" s="46"/>
+      <c r="F148" s="36"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="36"/>
+      <c r="J148" s="42"/>
     </row>
     <row r="149" spans="2:10" ht="14.25">
-      <c r="B149" s="48" t="s">
+      <c r="B149" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="D149" s="45" t="s">
+      <c r="D149" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="F149" s="40"/>
-      <c r="G149" s="40"/>
-      <c r="H149" s="40"/>
-      <c r="I149" s="40"/>
-      <c r="J149" s="46"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="36"/>
+      <c r="I149" s="36"/>
+      <c r="J149" s="42"/>
     </row>
     <row r="150" spans="2:10" ht="14.25">
-      <c r="B150" s="48" t="s">
+      <c r="B150" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="D150" s="45" t="s">
+      <c r="D150" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="F150" s="40"/>
-      <c r="G150" s="40"/>
-      <c r="H150" s="40"/>
-      <c r="I150" s="40"/>
-      <c r="J150" s="46"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="42"/>
     </row>
     <row r="151" spans="2:10" ht="14.25">
-      <c r="B151" s="48" t="s">
+      <c r="B151" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="D151" s="45" t="s">
+      <c r="D151" s="41" t="s">
         <v>528</v>
       </c>
-      <c r="F151" s="40"/>
-      <c r="G151" s="40"/>
-      <c r="H151" s="40"/>
-      <c r="I151" s="40"/>
-      <c r="J151" s="46"/>
+      <c r="F151" s="36"/>
+      <c r="G151" s="36"/>
+      <c r="H151" s="36"/>
+      <c r="I151" s="36"/>
+      <c r="J151" s="42"/>
     </row>
     <row r="152" spans="2:10" ht="14.25">
-      <c r="B152" s="48" t="s">
+      <c r="B152" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="D152" s="45" t="s">
+      <c r="D152" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="F152" s="40"/>
-      <c r="G152" s="40"/>
-      <c r="H152" s="40"/>
-      <c r="I152" s="40"/>
-      <c r="J152" s="46"/>
+      <c r="F152" s="36"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="36"/>
+      <c r="I152" s="36"/>
+      <c r="J152" s="42"/>
     </row>
     <row r="153" spans="2:10" ht="14.25">
-      <c r="B153" s="48" t="s">
+      <c r="B153" s="44" t="s">
         <v>531</v>
       </c>
-      <c r="D153" s="45" t="s">
+      <c r="D153" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="F153" s="40"/>
-      <c r="G153" s="40"/>
-      <c r="H153" s="40"/>
-      <c r="I153" s="40"/>
-      <c r="J153" s="46"/>
+      <c r="F153" s="36"/>
+      <c r="G153" s="36"/>
+      <c r="H153" s="36"/>
+      <c r="I153" s="36"/>
+      <c r="J153" s="42"/>
     </row>
     <row r="154" spans="2:10" ht="14.25">
-      <c r="B154" s="48" t="s">
+      <c r="B154" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="D154" s="45" t="s">
+      <c r="D154" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="F154" s="40"/>
-      <c r="G154" s="40"/>
-      <c r="H154" s="40"/>
-      <c r="I154" s="40"/>
-      <c r="J154" s="46"/>
+      <c r="F154" s="36"/>
+      <c r="G154" s="36"/>
+      <c r="H154" s="36"/>
+      <c r="I154" s="36"/>
+      <c r="J154" s="42"/>
     </row>
     <row r="155" spans="2:10" ht="14.25">
-      <c r="B155" s="48" t="s">
+      <c r="B155" s="44" t="s">
         <v>535</v>
       </c>
-      <c r="D155" s="45" t="s">
+      <c r="D155" s="41" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="156" spans="2:10" ht="14.25">
-      <c r="B156" s="48" t="s">
+      <c r="B156" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="D156" s="45" t="s">
+      <c r="D156" s="41" t="s">
         <v>538</v>
       </c>
-      <c r="F156" s="40"/>
-      <c r="G156" s="40"/>
-      <c r="H156" s="40"/>
-      <c r="I156" s="40"/>
-      <c r="J156" s="46"/>
+      <c r="F156" s="36"/>
+      <c r="G156" s="36"/>
+      <c r="H156" s="36"/>
+      <c r="I156" s="36"/>
+      <c r="J156" s="42"/>
     </row>
     <row r="157" spans="2:10" ht="14.25">
-      <c r="B157" s="48" t="s">
+      <c r="B157" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="D157" s="45" t="s">
+      <c r="D157" s="41" t="s">
         <v>540</v>
       </c>
-      <c r="F157" s="40"/>
-      <c r="G157" s="40"/>
-      <c r="H157" s="40"/>
-      <c r="I157" s="40"/>
-      <c r="J157" s="46"/>
+      <c r="F157" s="36"/>
+      <c r="G157" s="36"/>
+      <c r="H157" s="36"/>
+      <c r="I157" s="36"/>
+      <c r="J157" s="42"/>
     </row>
     <row r="158" spans="2:10" ht="14.25">
-      <c r="B158" s="48" t="s">
+      <c r="B158" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="D158" s="45" t="s">
+      <c r="D158" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="F158" s="40"/>
-      <c r="G158" s="40"/>
-      <c r="H158" s="40"/>
-      <c r="I158" s="40"/>
-      <c r="J158" s="46"/>
+      <c r="F158" s="36"/>
+      <c r="G158" s="36"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="36"/>
+      <c r="J158" s="42"/>
     </row>
     <row r="159" spans="2:10" ht="14.25">
-      <c r="B159" s="48" t="s">
+      <c r="B159" s="44" t="s">
         <v>543</v>
       </c>
-      <c r="D159" s="45" t="s">
+      <c r="D159" s="41" t="s">
         <v>544</v>
       </c>
-      <c r="F159" s="40"/>
-      <c r="G159" s="40"/>
-      <c r="H159" s="40"/>
-      <c r="I159" s="40"/>
-      <c r="J159" s="46"/>
-    </row>
-    <row r="160" spans="2:10" s="55" customFormat="1"/>
+      <c r="F159" s="36"/>
+      <c r="G159" s="36"/>
+      <c r="H159" s="36"/>
+      <c r="I159" s="36"/>
+      <c r="J159" s="42"/>
+    </row>
+    <row r="160" spans="2:10" s="51" customFormat="1"/>
     <row r="161" spans="2:11" ht="14.25">
-      <c r="B161" s="48" t="s">
+      <c r="B161" s="44" t="s">
         <v>545</v>
       </c>
-      <c r="D161" s="45" t="s">
+      <c r="D161" s="41" t="s">
         <v>546</v>
       </c>
-      <c r="F161" s="40" t="s">
+      <c r="F161" s="36" t="s">
         <v>547</v>
       </c>
-      <c r="G161" s="40"/>
-      <c r="H161" s="39" t="s">
+      <c r="G161" s="36"/>
+      <c r="H161" s="35" t="s">
         <v>548</v>
       </c>
-      <c r="I161" s="40" t="s">
+      <c r="I161" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="J161" s="46">
+      <c r="J161" s="42">
         <v>40757</v>
       </c>
-      <c r="K161" s="47">
+      <c r="K161" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="162" spans="2:11" ht="14.25">
-      <c r="B162" s="48" t="s">
+      <c r="B162" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="D162" s="45" t="s">
+      <c r="D162" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="F162" s="40"/>
-      <c r="G162" s="40"/>
-      <c r="H162" s="40"/>
-      <c r="I162" s="40"/>
-      <c r="J162" s="46"/>
+      <c r="F162" s="36"/>
+      <c r="G162" s="36"/>
+      <c r="H162" s="36"/>
+      <c r="I162" s="36"/>
+      <c r="J162" s="42"/>
     </row>
     <row r="163" spans="2:11" ht="14.25">
-      <c r="B163" s="48" t="s">
+      <c r="B163" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="D163" s="45" t="s">
+      <c r="D163" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="F163" s="40"/>
-      <c r="G163" s="40"/>
-      <c r="H163" s="40"/>
-      <c r="I163" s="40"/>
-      <c r="J163" s="46"/>
+      <c r="F163" s="36"/>
+      <c r="G163" s="36"/>
+      <c r="H163" s="36"/>
+      <c r="I163" s="36"/>
+      <c r="J163" s="42"/>
     </row>
     <row r="164" spans="2:11" ht="14.25">
-      <c r="B164" s="48" t="s">
+      <c r="B164" s="44" t="s">
         <v>554</v>
       </c>
-      <c r="D164" s="45" t="s">
+      <c r="D164" s="41" t="s">
         <v>555</v>
       </c>
-      <c r="F164" s="40"/>
-      <c r="G164" s="40"/>
-      <c r="H164" s="40"/>
-      <c r="I164" s="40"/>
-      <c r="J164" s="46"/>
+      <c r="F164" s="36"/>
+      <c r="G164" s="36"/>
+      <c r="H164" s="36"/>
+      <c r="I164" s="36"/>
+      <c r="J164" s="42"/>
     </row>
     <row r="165" spans="2:11" ht="14.25">
-      <c r="B165" s="48" t="s">
+      <c r="B165" s="44" t="s">
         <v>556</v>
       </c>
-      <c r="D165" s="45" t="s">
+      <c r="D165" s="41" t="s">
         <v>557</v>
       </c>
-      <c r="F165" s="40"/>
-      <c r="G165" s="40"/>
-      <c r="H165" s="40"/>
-      <c r="I165" s="40"/>
-      <c r="J165" s="46"/>
+      <c r="F165" s="36"/>
+      <c r="G165" s="36"/>
+      <c r="H165" s="36"/>
+      <c r="I165" s="36"/>
+      <c r="J165" s="42"/>
     </row>
     <row r="166" spans="2:11" ht="14.25">
-      <c r="B166" s="48" t="s">
+      <c r="B166" s="44" t="s">
         <v>558</v>
       </c>
-      <c r="D166" s="45" t="s">
+      <c r="D166" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="F166" s="40"/>
-      <c r="G166" s="40"/>
-      <c r="H166" s="40"/>
-      <c r="I166" s="40"/>
-      <c r="J166" s="46"/>
+      <c r="F166" s="36"/>
+      <c r="G166" s="36"/>
+      <c r="H166" s="36"/>
+      <c r="I166" s="36"/>
+      <c r="J166" s="42"/>
     </row>
     <row r="167" spans="2:11" ht="14.25">
-      <c r="B167" s="48" t="s">
+      <c r="B167" s="44" t="s">
         <v>560</v>
       </c>
-      <c r="D167" s="45" t="s">
+      <c r="D167" s="41" t="s">
         <v>561</v>
       </c>
-      <c r="F167" s="40"/>
-      <c r="G167" s="40"/>
-      <c r="H167" s="40"/>
-      <c r="I167" s="40"/>
-      <c r="J167" s="46"/>
+      <c r="F167" s="36"/>
+      <c r="G167" s="36"/>
+      <c r="H167" s="36"/>
+      <c r="I167" s="36"/>
+      <c r="J167" s="42"/>
     </row>
     <row r="168" spans="2:11" ht="14.25">
-      <c r="B168" s="48" t="s">
+      <c r="B168" s="44" t="s">
         <v>562</v>
       </c>
-      <c r="D168" s="45" t="s">
+      <c r="D168" s="41" t="s">
         <v>563</v>
       </c>
-      <c r="F168" s="40"/>
-      <c r="G168" s="40"/>
-      <c r="H168" s="40"/>
-      <c r="I168" s="40"/>
-      <c r="J168" s="46"/>
+      <c r="F168" s="36"/>
+      <c r="G168" s="36"/>
+      <c r="H168" s="36"/>
+      <c r="I168" s="36"/>
+      <c r="J168" s="42"/>
     </row>
     <row r="169" spans="2:11" ht="14.25">
-      <c r="B169" s="48" t="s">
+      <c r="B169" s="44" t="s">
         <v>564</v>
       </c>
-      <c r="D169" s="45" t="s">
+      <c r="D169" s="41" t="s">
         <v>565</v>
       </c>
-      <c r="F169" s="40"/>
-      <c r="G169" s="40"/>
-      <c r="H169" s="40"/>
-      <c r="I169" s="40"/>
-      <c r="J169" s="46"/>
+      <c r="F169" s="36"/>
+      <c r="G169" s="36"/>
+      <c r="H169" s="36"/>
+      <c r="I169" s="36"/>
+      <c r="J169" s="42"/>
     </row>
     <row r="170" spans="2:11" ht="14.25">
-      <c r="B170" s="48" t="s">
+      <c r="B170" s="44" t="s">
         <v>566</v>
       </c>
-      <c r="D170" s="65" t="s">
+      <c r="D170" s="61" t="s">
         <v>567</v>
       </c>
-      <c r="F170" s="40"/>
-      <c r="G170" s="40"/>
-      <c r="H170" s="40"/>
-      <c r="I170" s="40"/>
-      <c r="J170" s="46"/>
+      <c r="F170" s="36"/>
+      <c r="G170" s="36"/>
+      <c r="H170" s="36"/>
+      <c r="I170" s="36"/>
+      <c r="J170" s="42"/>
     </row>
     <row r="171" spans="2:11" ht="14.25">
-      <c r="B171" s="48" t="s">
+      <c r="B171" s="44" t="s">
         <v>568</v>
       </c>
-      <c r="D171" s="45" t="s">
+      <c r="D171" s="41" t="s">
         <v>569</v>
       </c>
-      <c r="F171" s="40"/>
-      <c r="G171" s="40"/>
-      <c r="H171" s="40"/>
-      <c r="I171" s="40"/>
-      <c r="J171" s="46"/>
+      <c r="F171" s="36"/>
+      <c r="G171" s="36"/>
+      <c r="H171" s="36"/>
+      <c r="I171" s="36"/>
+      <c r="J171" s="42"/>
     </row>
     <row r="172" spans="2:11" ht="14.25">
-      <c r="B172" s="48" t="s">
+      <c r="B172" s="44" t="s">
         <v>570</v>
       </c>
-      <c r="D172" s="39" t="s">
+      <c r="D172" s="35" t="s">
         <v>571</v>
       </c>
-      <c r="F172" s="40"/>
-      <c r="G172" s="40"/>
-      <c r="H172" s="40"/>
-      <c r="I172" s="40"/>
-      <c r="J172" s="46"/>
+      <c r="F172" s="36"/>
+      <c r="G172" s="36"/>
+      <c r="H172" s="36"/>
+      <c r="I172" s="36"/>
+      <c r="J172" s="42"/>
     </row>
     <row r="173" spans="2:11" ht="14.25">
-      <c r="B173" s="48" t="s">
+      <c r="B173" s="44" t="s">
         <v>572</v>
       </c>
-      <c r="D173" s="45" t="s">
+      <c r="D173" s="41" t="s">
         <v>573</v>
       </c>
-      <c r="F173" s="40"/>
-      <c r="G173" s="40"/>
-      <c r="H173" s="40"/>
-      <c r="I173" s="40"/>
-      <c r="J173" s="46"/>
+      <c r="F173" s="36"/>
+      <c r="G173" s="36"/>
+      <c r="H173" s="36"/>
+      <c r="I173" s="36"/>
+      <c r="J173" s="42"/>
     </row>
     <row r="174" spans="2:11" ht="14.25">
-      <c r="B174" s="48" t="s">
+      <c r="B174" s="44" t="s">
         <v>574</v>
       </c>
-      <c r="D174" s="45" t="s">
+      <c r="D174" s="41" t="s">
         <v>575</v>
       </c>
-      <c r="F174" s="40"/>
-      <c r="G174" s="40"/>
-      <c r="H174" s="40"/>
-      <c r="I174" s="40"/>
-      <c r="J174" s="46"/>
+      <c r="F174" s="36"/>
+      <c r="G174" s="36"/>
+      <c r="H174" s="36"/>
+      <c r="I174" s="36"/>
+      <c r="J174" s="42"/>
     </row>
     <row r="175" spans="2:11" ht="14.25">
-      <c r="B175" s="48" t="s">
+      <c r="B175" s="44" t="s">
         <v>576</v>
       </c>
-      <c r="D175" s="45" t="s">
+      <c r="D175" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="F175" s="40"/>
-      <c r="G175" s="40"/>
-      <c r="H175" s="40"/>
-      <c r="I175" s="40"/>
-      <c r="J175" s="46"/>
+      <c r="F175" s="36"/>
+      <c r="G175" s="36"/>
+      <c r="H175" s="36"/>
+      <c r="I175" s="36"/>
+      <c r="J175" s="42"/>
     </row>
     <row r="176" spans="2:11" ht="14.25">
-      <c r="B176" s="48" t="s">
+      <c r="B176" s="44" t="s">
         <v>578</v>
       </c>
-      <c r="D176" s="45" t="s">
+      <c r="D176" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="F176" s="40"/>
-      <c r="G176" s="40"/>
-      <c r="H176" s="40"/>
-      <c r="I176" s="40"/>
-      <c r="J176" s="46"/>
+      <c r="F176" s="36"/>
+      <c r="G176" s="36"/>
+      <c r="H176" s="36"/>
+      <c r="I176" s="36"/>
+      <c r="J176" s="42"/>
     </row>
     <row r="177" spans="2:11" ht="14.25">
-      <c r="B177" s="48" t="s">
+      <c r="B177" s="44" t="s">
         <v>580</v>
       </c>
-      <c r="D177" s="45" t="s">
+      <c r="D177" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="F177" s="40"/>
-      <c r="G177" s="40"/>
-      <c r="H177" s="40"/>
-      <c r="I177" s="40"/>
-      <c r="J177" s="46"/>
+      <c r="F177" s="36"/>
+      <c r="G177" s="36"/>
+      <c r="H177" s="36"/>
+      <c r="I177" s="36"/>
+      <c r="J177" s="42"/>
     </row>
     <row r="178" spans="2:11" ht="14.25">
-      <c r="B178" s="48" t="s">
+      <c r="B178" s="44" t="s">
         <v>582</v>
       </c>
-      <c r="D178" s="45" t="s">
+      <c r="D178" s="41" t="s">
         <v>583</v>
       </c>
-      <c r="F178" s="40"/>
-      <c r="G178" s="40"/>
-      <c r="H178" s="40"/>
-      <c r="I178" s="40"/>
-      <c r="J178" s="46"/>
-    </row>
-    <row r="179" spans="2:11" s="55" customFormat="1"/>
-    <row r="180" spans="2:11" s="62" customFormat="1">
-      <c r="B180" s="62" t="s">
+      <c r="F178" s="36"/>
+      <c r="G178" s="36"/>
+      <c r="H178" s="36"/>
+      <c r="I178" s="36"/>
+      <c r="J178" s="42"/>
+    </row>
+    <row r="179" spans="2:11" s="51" customFormat="1"/>
+    <row r="180" spans="2:11" s="58" customFormat="1">
+      <c r="B180" s="58" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="181" spans="2:11" ht="14.25">
-      <c r="B181" s="48" t="s">
+      <c r="B181" s="44" t="s">
         <v>585</v>
       </c>
-      <c r="D181" s="45" t="s">
+      <c r="D181" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="F181" s="40" t="s">
+      <c r="F181" s="36" t="s">
         <v>587</v>
       </c>
-      <c r="G181" s="40"/>
-      <c r="H181" s="39" t="s">
+      <c r="G181" s="36"/>
+      <c r="H181" s="35" t="s">
         <v>588</v>
       </c>
-      <c r="I181" s="40" t="s">
+      <c r="I181" s="36" t="s">
         <v>589</v>
       </c>
-      <c r="J181" s="46">
+      <c r="J181" s="42">
         <v>40757</v>
       </c>
-      <c r="K181" s="47">
+      <c r="K181" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="182" spans="2:11" ht="14.25">
-      <c r="B182" s="48" t="s">
+      <c r="B182" s="44" t="s">
         <v>590</v>
       </c>
-      <c r="D182" s="45" t="s">
+      <c r="D182" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="F182" s="40"/>
-      <c r="G182" s="40"/>
-      <c r="H182" s="40"/>
-      <c r="I182" s="40"/>
-      <c r="J182" s="46"/>
+      <c r="F182" s="36"/>
+      <c r="G182" s="36"/>
+      <c r="H182" s="36"/>
+      <c r="I182" s="36"/>
+      <c r="J182" s="42"/>
     </row>
     <row r="183" spans="2:11" ht="14.25">
-      <c r="B183" s="48" t="s">
+      <c r="B183" s="44" t="s">
         <v>592</v>
       </c>
-      <c r="D183" s="45" t="s">
+      <c r="D183" s="41" t="s">
         <v>593</v>
       </c>
-      <c r="F183" s="40"/>
-      <c r="G183" s="40"/>
-      <c r="H183" s="40"/>
-      <c r="I183" s="40"/>
-      <c r="J183" s="46"/>
+      <c r="F183" s="36"/>
+      <c r="G183" s="36"/>
+      <c r="H183" s="36"/>
+      <c r="I183" s="36"/>
+      <c r="J183" s="42"/>
     </row>
     <row r="184" spans="2:11" ht="14.25">
-      <c r="B184" s="48" t="s">
+      <c r="B184" s="44" t="s">
         <v>594</v>
       </c>
-      <c r="D184" s="45" t="s">
+      <c r="D184" s="41" t="s">
         <v>595</v>
       </c>
-      <c r="F184" s="40"/>
-      <c r="G184" s="40"/>
-      <c r="H184" s="40"/>
-      <c r="I184" s="40"/>
-      <c r="J184" s="46"/>
+      <c r="F184" s="36"/>
+      <c r="G184" s="36"/>
+      <c r="H184" s="36"/>
+      <c r="I184" s="36"/>
+      <c r="J184" s="42"/>
     </row>
     <row r="185" spans="2:11" ht="14.25">
-      <c r="B185" s="48" t="s">
+      <c r="B185" s="44" t="s">
         <v>596</v>
       </c>
-      <c r="D185" s="45" t="s">
+      <c r="D185" s="41" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="186" spans="2:11" ht="14.25">
-      <c r="B186" s="48" t="s">
+      <c r="B186" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="D186" s="45" t="s">
+      <c r="D186" s="41" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="187" spans="2:11" ht="14.25">
-      <c r="B187" s="48" t="s">
+      <c r="B187" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="D187" s="45" t="s">
+      <c r="D187" s="41" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="188" spans="2:11" ht="14.25">
-      <c r="B188" s="48" t="s">
+      <c r="B188" s="44" t="s">
         <v>602</v>
       </c>
-      <c r="D188" s="45" t="s">
+      <c r="D188" s="41" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="189" spans="2:11" ht="14.25">
-      <c r="B189" s="48" t="s">
+      <c r="B189" s="44" t="s">
         <v>604</v>
       </c>
-      <c r="D189" s="45" t="s">
+      <c r="D189" s="41" t="s">
         <v>605</v>
       </c>
-      <c r="F189" s="40"/>
-      <c r="G189" s="40"/>
-      <c r="H189" s="40"/>
-      <c r="I189" s="40"/>
-      <c r="J189" s="46"/>
+      <c r="F189" s="36"/>
+      <c r="G189" s="36"/>
+      <c r="H189" s="36"/>
+      <c r="I189" s="36"/>
+      <c r="J189" s="42"/>
     </row>
     <row r="190" spans="2:11" ht="14.25">
-      <c r="B190" s="48" t="s">
+      <c r="B190" s="44" t="s">
         <v>606</v>
       </c>
-      <c r="D190" s="45" t="s">
+      <c r="D190" s="41" t="s">
         <v>607</v>
       </c>
-      <c r="F190" s="40"/>
-      <c r="G190" s="40"/>
-      <c r="H190" s="40"/>
-      <c r="I190" s="40"/>
-      <c r="J190" s="46"/>
+      <c r="F190" s="36"/>
+      <c r="G190" s="36"/>
+      <c r="H190" s="36"/>
+      <c r="I190" s="36"/>
+      <c r="J190" s="42"/>
     </row>
     <row r="191" spans="2:11" ht="14.25">
-      <c r="B191" s="48" t="s">
+      <c r="B191" s="44" t="s">
         <v>608</v>
       </c>
-      <c r="D191" s="45" t="s">
+      <c r="D191" s="41" t="s">
         <v>609</v>
       </c>
-      <c r="F191" s="40"/>
-      <c r="G191" s="40"/>
-      <c r="H191" s="40"/>
-      <c r="I191" s="40"/>
-      <c r="J191" s="46"/>
+      <c r="F191" s="36"/>
+      <c r="G191" s="36"/>
+      <c r="H191" s="36"/>
+      <c r="I191" s="36"/>
+      <c r="J191" s="42"/>
     </row>
     <row r="192" spans="2:11" ht="14.25">
-      <c r="B192" s="48" t="s">
+      <c r="B192" s="44" t="s">
         <v>610</v>
       </c>
-      <c r="D192" s="45" t="s">
+      <c r="D192" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="F192" s="40"/>
-      <c r="G192" s="40"/>
-      <c r="H192" s="40"/>
-      <c r="I192" s="40"/>
-      <c r="J192" s="46"/>
+      <c r="F192" s="36"/>
+      <c r="G192" s="36"/>
+      <c r="H192" s="36"/>
+      <c r="I192" s="36"/>
+      <c r="J192" s="42"/>
     </row>
     <row r="193" spans="2:10" ht="14.25">
-      <c r="B193" s="48" t="s">
+      <c r="B193" s="44" t="s">
         <v>612</v>
       </c>
-      <c r="D193" s="45" t="s">
+      <c r="D193" s="41" t="s">
         <v>613</v>
       </c>
-      <c r="F193" s="40"/>
-      <c r="G193" s="40"/>
-      <c r="H193" s="40"/>
-      <c r="I193" s="40"/>
-      <c r="J193" s="46"/>
+      <c r="F193" s="36"/>
+      <c r="G193" s="36"/>
+      <c r="H193" s="36"/>
+      <c r="I193" s="36"/>
+      <c r="J193" s="42"/>
     </row>
     <row r="194" spans="2:10" ht="14.25">
-      <c r="B194" s="48" t="s">
+      <c r="B194" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="D194" s="45" t="s">
+      <c r="D194" s="41" t="s">
         <v>615</v>
       </c>
-      <c r="F194" s="40"/>
-      <c r="G194" s="40"/>
-      <c r="H194" s="40"/>
-      <c r="I194" s="40"/>
-      <c r="J194" s="46"/>
+      <c r="F194" s="36"/>
+      <c r="G194" s="36"/>
+      <c r="H194" s="36"/>
+      <c r="I194" s="36"/>
+      <c r="J194" s="42"/>
     </row>
     <row r="195" spans="2:10" ht="14.25">
-      <c r="B195" s="48" t="s">
+      <c r="B195" s="44" t="s">
         <v>616</v>
       </c>
-      <c r="D195" s="45" t="s">
+      <c r="D195" s="41" t="s">
         <v>617</v>
       </c>
-      <c r="F195" s="40"/>
-      <c r="G195" s="40"/>
-      <c r="H195" s="40"/>
-      <c r="I195" s="40"/>
-      <c r="J195" s="46"/>
+      <c r="F195" s="36"/>
+      <c r="G195" s="36"/>
+      <c r="H195" s="36"/>
+      <c r="I195" s="36"/>
+      <c r="J195" s="42"/>
     </row>
     <row r="196" spans="2:10" ht="14.25">
-      <c r="B196" s="48" t="s">
+      <c r="B196" s="44" t="s">
         <v>618</v>
       </c>
-      <c r="D196" s="45" t="s">
+      <c r="D196" s="41" t="s">
         <v>619</v>
       </c>
-      <c r="F196" s="40"/>
-      <c r="G196" s="40"/>
-      <c r="H196" s="40"/>
-      <c r="I196" s="40"/>
-      <c r="J196" s="46"/>
+      <c r="F196" s="36"/>
+      <c r="G196" s="36"/>
+      <c r="H196" s="36"/>
+      <c r="I196" s="36"/>
+      <c r="J196" s="42"/>
     </row>
     <row r="197" spans="2:10" ht="14.25">
-      <c r="B197" s="48" t="s">
+      <c r="B197" s="44" t="s">
         <v>620</v>
       </c>
-      <c r="D197" s="45" t="s">
+      <c r="D197" s="41" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="198" spans="2:10" ht="14.25">
-      <c r="B198" s="48" t="s">
+      <c r="B198" s="44" t="s">
         <v>622</v>
       </c>
-      <c r="D198" s="45" t="s">
+      <c r="D198" s="41" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="199" spans="2:10" ht="14.25">
-      <c r="B199" s="48" t="s">
+      <c r="B199" s="44" t="s">
         <v>624</v>
       </c>
-      <c r="D199" s="45" t="s">
+      <c r="D199" s="41" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="200" spans="2:10" ht="14.25">
-      <c r="B200" s="48" t="s">
+      <c r="B200" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="D200" s="45" t="s">
+      <c r="D200" s="41" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="201" spans="2:10" s="62" customFormat="1">
-      <c r="B201" s="62" t="s">
+    <row r="201" spans="2:10" s="58" customFormat="1">
+      <c r="B201" s="58" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="202" spans="2:10" ht="14.25">
-      <c r="B202" s="48" t="s">
+      <c r="B202" s="44" t="s">
         <v>629</v>
       </c>
-      <c r="D202" s="45" t="s">
+      <c r="D202" s="41" t="s">
         <v>630</v>
       </c>
-      <c r="F202" s="40"/>
-      <c r="G202" s="40"/>
-      <c r="H202" s="40"/>
-      <c r="I202" s="40"/>
-      <c r="J202" s="46"/>
+      <c r="F202" s="36"/>
+      <c r="G202" s="36"/>
+      <c r="H202" s="36"/>
+      <c r="I202" s="36"/>
+      <c r="J202" s="42"/>
     </row>
     <row r="203" spans="2:10" ht="14.25">
-      <c r="B203" s="48" t="s">
+      <c r="B203" s="44" t="s">
         <v>631</v>
       </c>
-      <c r="D203" s="45" t="s">
+      <c r="D203" s="41" t="s">
         <v>632</v>
       </c>
-      <c r="F203" s="40"/>
-      <c r="G203" s="40"/>
-      <c r="H203" s="40"/>
-      <c r="I203" s="40"/>
-      <c r="J203" s="46"/>
+      <c r="F203" s="36"/>
+      <c r="G203" s="36"/>
+      <c r="H203" s="36"/>
+      <c r="I203" s="36"/>
+      <c r="J203" s="42"/>
     </row>
     <row r="204" spans="2:10" ht="14.25">
-      <c r="B204" s="48" t="s">
+      <c r="B204" s="44" t="s">
         <v>633</v>
       </c>
-      <c r="D204" s="45" t="s">
+      <c r="D204" s="41" t="s">
         <v>634</v>
       </c>
-      <c r="F204" s="40"/>
-      <c r="G204" s="40"/>
-      <c r="H204" s="40"/>
-      <c r="I204" s="40"/>
-      <c r="J204" s="46"/>
+      <c r="F204" s="36"/>
+      <c r="G204" s="36"/>
+      <c r="H204" s="36"/>
+      <c r="I204" s="36"/>
+      <c r="J204" s="42"/>
     </row>
     <row r="205" spans="2:10" ht="14.25">
-      <c r="B205" s="48" t="s">
+      <c r="B205" s="44" t="s">
         <v>635</v>
       </c>
-      <c r="D205" s="45" t="s">
+      <c r="D205" s="41" t="s">
         <v>636</v>
       </c>
-      <c r="F205" s="40"/>
-      <c r="G205" s="40"/>
-      <c r="H205" s="40"/>
-      <c r="I205" s="40"/>
-      <c r="J205" s="46"/>
+      <c r="F205" s="36"/>
+      <c r="G205" s="36"/>
+      <c r="H205" s="36"/>
+      <c r="I205" s="36"/>
+      <c r="J205" s="42"/>
     </row>
     <row r="206" spans="2:10" ht="14.25">
-      <c r="B206" s="48" t="s">
+      <c r="B206" s="44" t="s">
         <v>637</v>
       </c>
-      <c r="D206" s="45" t="s">
+      <c r="D206" s="41" t="s">
         <v>638</v>
       </c>
-      <c r="F206" s="40"/>
-      <c r="G206" s="40"/>
-      <c r="H206" s="40"/>
-      <c r="I206" s="40"/>
-      <c r="J206" s="46"/>
+      <c r="F206" s="36"/>
+      <c r="G206" s="36"/>
+      <c r="H206" s="36"/>
+      <c r="I206" s="36"/>
+      <c r="J206" s="42"/>
     </row>
     <row r="207" spans="2:10" ht="14.25">
-      <c r="B207" s="48" t="s">
+      <c r="B207" s="44" t="s">
         <v>639</v>
       </c>
-      <c r="D207" s="45" t="s">
+      <c r="D207" s="41" t="s">
         <v>640</v>
       </c>
-      <c r="F207" s="40"/>
-      <c r="G207" s="40"/>
-      <c r="H207" s="40"/>
-      <c r="I207" s="40"/>
-      <c r="J207" s="46"/>
+      <c r="F207" s="36"/>
+      <c r="G207" s="36"/>
+      <c r="H207" s="36"/>
+      <c r="I207" s="36"/>
+      <c r="J207" s="42"/>
     </row>
     <row r="208" spans="2:10" ht="14.25">
-      <c r="B208" s="48" t="s">
+      <c r="B208" s="44" t="s">
         <v>641</v>
       </c>
-      <c r="D208" s="45" t="s">
+      <c r="D208" s="41" t="s">
         <v>642</v>
       </c>
-      <c r="F208" s="40"/>
-      <c r="G208" s="40"/>
-      <c r="H208" s="40"/>
-      <c r="I208" s="40"/>
-      <c r="J208" s="46"/>
+      <c r="F208" s="36"/>
+      <c r="G208" s="36"/>
+      <c r="H208" s="36"/>
+      <c r="I208" s="36"/>
+      <c r="J208" s="42"/>
     </row>
     <row r="209" spans="2:11" ht="14.25">
-      <c r="B209" s="48" t="s">
+      <c r="B209" s="44" t="s">
         <v>643</v>
       </c>
-      <c r="D209" s="45" t="s">
+      <c r="D209" s="41" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="210" spans="2:11" ht="14.25">
-      <c r="B210" s="48" t="s">
+      <c r="B210" s="44" t="s">
         <v>645</v>
       </c>
-      <c r="D210" s="45" t="s">
+      <c r="D210" s="41" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="211" spans="2:11" ht="14.25">
-      <c r="B211" s="48" t="s">
+      <c r="B211" s="44" t="s">
         <v>647</v>
       </c>
-      <c r="D211" s="45" t="s">
+      <c r="D211" s="41" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="212" spans="2:11" ht="14.25">
-      <c r="B212" s="48" t="s">
+      <c r="B212" s="44" t="s">
         <v>649</v>
       </c>
-      <c r="D212" s="45" t="s">
+      <c r="D212" s="41" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="213" spans="2:11" ht="14.25">
-      <c r="B213" s="48" t="s">
+      <c r="B213" s="44" t="s">
         <v>651</v>
       </c>
-      <c r="D213" s="45" t="s">
+      <c r="D213" s="41" t="s">
         <v>652</v>
       </c>
-      <c r="F213" s="40"/>
-      <c r="G213" s="40"/>
-      <c r="H213" s="40"/>
-      <c r="I213" s="40"/>
-      <c r="J213" s="46"/>
+      <c r="F213" s="36"/>
+      <c r="G213" s="36"/>
+      <c r="H213" s="36"/>
+      <c r="I213" s="36"/>
+      <c r="J213" s="42"/>
     </row>
     <row r="214" spans="2:11" ht="14.25">
-      <c r="B214" s="48" t="s">
+      <c r="B214" s="44" t="s">
         <v>653</v>
       </c>
-      <c r="D214" s="45" t="s">
+      <c r="D214" s="41" t="s">
         <v>654</v>
       </c>
-      <c r="F214" s="40"/>
-      <c r="G214" s="40"/>
-      <c r="H214" s="40"/>
-      <c r="I214" s="40"/>
-      <c r="J214" s="46"/>
+      <c r="F214" s="36"/>
+      <c r="G214" s="36"/>
+      <c r="H214" s="36"/>
+      <c r="I214" s="36"/>
+      <c r="J214" s="42"/>
     </row>
     <row r="215" spans="2:11" ht="14.25">
-      <c r="B215" s="48" t="s">
+      <c r="B215" s="44" t="s">
         <v>655</v>
       </c>
-      <c r="D215" s="45" t="s">
+      <c r="D215" s="41" t="s">
         <v>656</v>
       </c>
-      <c r="F215" s="40"/>
-      <c r="G215" s="40"/>
-      <c r="H215" s="40"/>
-      <c r="I215" s="40"/>
-      <c r="J215" s="46"/>
+      <c r="F215" s="36"/>
+      <c r="G215" s="36"/>
+      <c r="H215" s="36"/>
+      <c r="I215" s="36"/>
+      <c r="J215" s="42"/>
     </row>
     <row r="216" spans="2:11" ht="14.25">
-      <c r="B216" s="48" t="s">
+      <c r="B216" s="44" t="s">
         <v>657</v>
       </c>
-      <c r="D216" s="45" t="s">
+      <c r="D216" s="41" t="s">
         <v>658</v>
       </c>
-      <c r="F216" s="40"/>
-      <c r="G216" s="40"/>
-      <c r="H216" s="40"/>
-      <c r="I216" s="40"/>
-      <c r="J216" s="46"/>
+      <c r="F216" s="36"/>
+      <c r="G216" s="36"/>
+      <c r="H216" s="36"/>
+      <c r="I216" s="36"/>
+      <c r="J216" s="42"/>
     </row>
     <row r="217" spans="2:11" ht="14.25">
-      <c r="B217" s="48" t="s">
+      <c r="B217" s="44" t="s">
         <v>659</v>
       </c>
-      <c r="D217" s="45" t="s">
+      <c r="D217" s="41" t="s">
         <v>660</v>
       </c>
-      <c r="F217" s="40"/>
-      <c r="G217" s="40"/>
-      <c r="H217" s="40"/>
-      <c r="I217" s="40"/>
-      <c r="J217" s="46"/>
+      <c r="F217" s="36"/>
+      <c r="G217" s="36"/>
+      <c r="H217" s="36"/>
+      <c r="I217" s="36"/>
+      <c r="J217" s="42"/>
     </row>
     <row r="218" spans="2:11" ht="14.25">
-      <c r="B218" s="48" t="s">
+      <c r="B218" s="44" t="s">
         <v>661</v>
       </c>
-      <c r="D218" s="45" t="s">
+      <c r="D218" s="41" t="s">
         <v>662</v>
       </c>
-      <c r="F218" s="40"/>
-      <c r="G218" s="40"/>
-      <c r="H218" s="40"/>
-      <c r="I218" s="40"/>
-      <c r="J218" s="46"/>
+      <c r="F218" s="36"/>
+      <c r="G218" s="36"/>
+      <c r="H218" s="36"/>
+      <c r="I218" s="36"/>
+      <c r="J218" s="42"/>
     </row>
     <row r="219" spans="2:11" ht="14.25">
-      <c r="B219" s="48" t="s">
+      <c r="B219" s="44" t="s">
         <v>663</v>
       </c>
-      <c r="D219" s="65" t="s">
+      <c r="D219" s="61" t="s">
         <v>664</v>
       </c>
-      <c r="F219" s="40"/>
-      <c r="G219" s="40"/>
-      <c r="H219" s="40"/>
-      <c r="I219" s="40"/>
-      <c r="J219" s="46"/>
+      <c r="F219" s="36"/>
+      <c r="G219" s="36"/>
+      <c r="H219" s="36"/>
+      <c r="I219" s="36"/>
+      <c r="J219" s="42"/>
     </row>
     <row r="220" spans="2:11" ht="14.25">
-      <c r="B220" s="48" t="s">
+      <c r="B220" s="44" t="s">
         <v>665</v>
       </c>
-      <c r="D220" s="45" t="s">
+      <c r="D220" s="41" t="s">
         <v>666</v>
       </c>
-      <c r="F220" s="40"/>
-      <c r="G220" s="40"/>
-      <c r="H220" s="40"/>
-      <c r="I220" s="40"/>
-      <c r="J220" s="46"/>
-    </row>
-    <row r="221" spans="2:11" s="55" customFormat="1"/>
+      <c r="F220" s="36"/>
+      <c r="G220" s="36"/>
+      <c r="H220" s="36"/>
+      <c r="I220" s="36"/>
+      <c r="J220" s="42"/>
+    </row>
+    <row r="221" spans="2:11" s="51" customFormat="1"/>
     <row r="222" spans="2:11" ht="14.25">
-      <c r="B222" s="48" t="s">
+      <c r="B222" s="44" t="s">
         <v>667</v>
       </c>
-      <c r="D222" s="45" t="s">
+      <c r="D222" s="41" t="s">
         <v>668</v>
       </c>
-      <c r="F222" s="40" t="s">
+      <c r="F222" s="36" t="s">
         <v>669</v>
       </c>
-      <c r="G222" s="40"/>
-      <c r="H222" s="39" t="s">
+      <c r="G222" s="36"/>
+      <c r="H222" s="35" t="s">
         <v>670</v>
       </c>
-      <c r="I222" s="40" t="s">
+      <c r="I222" s="36" t="s">
         <v>671</v>
       </c>
-      <c r="J222" s="46">
+      <c r="J222" s="42">
         <v>40757</v>
       </c>
-      <c r="K222" s="47">
+      <c r="K222" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="223" spans="2:11" ht="14.25">
-      <c r="B223" s="48" t="s">
+      <c r="B223" s="44" t="s">
         <v>672</v>
       </c>
-      <c r="D223" s="45" t="s">
+      <c r="D223" s="41" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="224" spans="2:11" ht="14.25">
-      <c r="B224" s="48" t="s">
+      <c r="B224" s="44" t="s">
         <v>674</v>
       </c>
-      <c r="D224" s="45" t="s">
+      <c r="D224" s="41" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="225" spans="2:11" ht="14.25">
-      <c r="B225" s="48" t="s">
+      <c r="B225" s="44" t="s">
         <v>676</v>
       </c>
-      <c r="D225" s="45" t="s">
+      <c r="D225" s="41" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="226" spans="2:11" s="55" customFormat="1"/>
+    <row r="226" spans="2:11" s="51" customFormat="1"/>
     <row r="227" spans="2:11" ht="14.25">
-      <c r="B227" s="48" t="s">
+      <c r="B227" s="44" t="s">
         <v>678</v>
       </c>
-      <c r="D227" s="45" t="s">
+      <c r="D227" s="41" t="s">
         <v>679</v>
       </c>
-      <c r="F227" s="40" t="s">
+      <c r="F227" s="36" t="s">
         <v>680</v>
       </c>
-      <c r="G227" s="40"/>
-      <c r="H227" s="39" t="s">
+      <c r="G227" s="36"/>
+      <c r="H227" s="35" t="s">
         <v>681</v>
       </c>
-      <c r="I227" s="40" t="s">
+      <c r="I227" s="36" t="s">
         <v>682</v>
       </c>
-      <c r="J227" s="46">
+      <c r="J227" s="42">
         <v>40757</v>
       </c>
-      <c r="K227" s="47">
+      <c r="K227" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="228" spans="2:11" ht="14.25">
-      <c r="B228" s="48" t="s">
+      <c r="B228" s="44" t="s">
         <v>683</v>
       </c>
-      <c r="D228" s="45" t="s">
+      <c r="D228" s="41" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="229" spans="2:11" ht="14.25">
-      <c r="B229" s="48" t="s">
+      <c r="B229" s="44" t="s">
         <v>685</v>
       </c>
-      <c r="D229" s="45" t="s">
+      <c r="D229" s="41" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="230" spans="2:11" ht="14.25">
-      <c r="B230" s="48" t="s">
+      <c r="B230" s="44" t="s">
         <v>687</v>
       </c>
-      <c r="D230" s="45" t="s">
+      <c r="D230" s="41" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="231" spans="2:11" ht="14.25">
-      <c r="B231" s="48" t="s">
+      <c r="B231" s="44" t="s">
         <v>689</v>
       </c>
-      <c r="D231" s="45" t="s">
+      <c r="D231" s="41" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="232" spans="2:11" ht="14.25">
-      <c r="B232" s="48" t="s">
+      <c r="B232" s="44" t="s">
         <v>691</v>
       </c>
-      <c r="D232" s="45" t="s">
+      <c r="D232" s="41" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="233" spans="2:11" s="55" customFormat="1"/>
+    <row r="233" spans="2:11" s="51" customFormat="1"/>
     <row r="234" spans="2:11" ht="14.25">
-      <c r="B234" s="48" t="s">
+      <c r="B234" s="44" t="s">
         <v>693</v>
       </c>
-      <c r="D234" s="45" t="s">
+      <c r="D234" s="41" t="s">
         <v>694</v>
       </c>
-      <c r="F234" s="40" t="s">
+      <c r="F234" s="36" t="s">
         <v>695</v>
       </c>
-      <c r="G234" s="40"/>
-      <c r="H234" s="39" t="s">
+      <c r="G234" s="36"/>
+      <c r="H234" s="35" t="s">
         <v>696</v>
       </c>
-      <c r="I234" s="40" t="s">
+      <c r="I234" s="36" t="s">
         <v>697</v>
       </c>
-      <c r="J234" s="46">
+      <c r="J234" s="42">
         <v>40757</v>
       </c>
-      <c r="K234" s="47">
+      <c r="K234" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="235" spans="2:11" ht="14.25">
-      <c r="B235" s="48" t="s">
+      <c r="B235" s="44" t="s">
         <v>698</v>
       </c>
-      <c r="D235" s="45" t="s">
+      <c r="D235" s="41" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="236" spans="2:11" ht="14.25">
-      <c r="B236" s="48" t="s">
+      <c r="B236" s="44" t="s">
         <v>700</v>
       </c>
-      <c r="D236" s="45" t="s">
+      <c r="D236" s="41" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="237" spans="2:11" ht="14.25">
-      <c r="B237" s="48" t="s">
+      <c r="B237" s="44" t="s">
         <v>702</v>
       </c>
-      <c r="D237" s="45" t="s">
+      <c r="D237" s="41" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="238" spans="2:11" ht="14.25">
-      <c r="B238" s="48" t="s">
+      <c r="B238" s="44" t="s">
         <v>704</v>
       </c>
-      <c r="D238" s="45" t="s">
+      <c r="D238" s="41" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="239" spans="2:11" s="55" customFormat="1"/>
-    <row r="240" spans="2:11" s="62" customFormat="1">
-      <c r="B240" s="62" t="s">
+    <row r="239" spans="2:11" s="51" customFormat="1"/>
+    <row r="240" spans="2:11" s="58" customFormat="1">
+      <c r="B240" s="58" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="241" spans="2:11" ht="14.25">
-      <c r="B241" s="48" t="s">
+      <c r="B241" s="44" t="s">
         <v>706</v>
       </c>
-      <c r="D241" s="45" t="s">
+      <c r="D241" s="41" t="s">
         <v>707</v>
       </c>
-      <c r="F241" s="40" t="s">
+      <c r="F241" s="36" t="s">
         <v>708</v>
       </c>
-      <c r="G241" s="40"/>
-      <c r="H241" s="39" t="s">
+      <c r="G241" s="36"/>
+      <c r="H241" s="35" t="s">
         <v>709</v>
       </c>
-      <c r="I241" s="40" t="s">
+      <c r="I241" s="36" t="s">
         <v>710</v>
       </c>
-      <c r="J241" s="46">
+      <c r="J241" s="42">
         <v>40757</v>
       </c>
-      <c r="K241" s="47">
+      <c r="K241" s="43">
         <v>40940</v>
       </c>
     </row>
     <row r="242" spans="2:11" ht="14.25">
-      <c r="B242" s="48" t="s">
+      <c r="B242" s="44" t="s">
         <v>711</v>
       </c>
-      <c r="D242" s="45" t="s">
+      <c r="D242" s="41" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="243" spans="2:11" ht="14.25">
-      <c r="B243" s="48" t="s">
+      <c r="B243" s="44" t="s">
         <v>713</v>
       </c>
-      <c r="D243" s="45" t="s">
+      <c r="D243" s="41" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="244" spans="2:11" ht="14.25">
-      <c r="B244" s="48" t="s">
+      <c r="B244" s="44" t="s">
         <v>715</v>
       </c>
-      <c r="D244" s="45" t="s">
+      <c r="D244" s="41" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="245" spans="2:11" s="62" customFormat="1">
-      <c r="B245" s="62" t="s">
+    <row r="245" spans="2:11" s="58" customFormat="1">
+      <c r="B245" s="58" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="246" spans="2:11" ht="14.25">
-      <c r="B246" s="48" t="s">
+      <c r="B246" s="44" t="s">
         <v>718</v>
       </c>
-      <c r="D246" s="45" t="s">
+      <c r="D246" s="41" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="247" spans="2:11" s="55" customFormat="1"/>
-    <row r="248" spans="2:11" s="62" customFormat="1">
-      <c r="B248" s="62" t="s">
+    <row r="247" spans="2:11" s="51" customFormat="1"/>
+    <row r="248" spans="2:11" s="58" customFormat="1">
+      <c r="B248" s="58" t="s">
         <v>720</v>
       </c>
-      <c r="F248" s="62" t="s">
+      <c r="F248" s="58" t="s">
         <v>721</v>
       </c>
-      <c r="H248" s="62" t="s">
+      <c r="H248" s="58" t="s">
         <v>722</v>
       </c>
-      <c r="I248" s="62" t="s">
+      <c r="I248" s="58" t="s">
         <v>723</v>
       </c>
-      <c r="J248" s="62">
+      <c r="J248" s="58">
         <v>40757</v>
       </c>
-      <c r="K248" s="62">
+      <c r="K248" s="58">
         <v>40940</v>
       </c>
     </row>
     <row r="249" spans="2:11" ht="14.25">
-      <c r="B249" s="48" t="s">
+      <c r="B249" s="44" t="s">
         <v>724</v>
       </c>
-      <c r="D249" s="45" t="s">
+      <c r="D249" s="41" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="250" spans="2:11" ht="14.25">
-      <c r="B250" s="48" t="s">
+      <c r="B250" s="44" t="s">
         <v>726</v>
       </c>
-      <c r="D250" s="45" t="s">
+      <c r="D250" s="41" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="251" spans="2:11" ht="14.25">
-      <c r="B251" s="48" t="s">
+      <c r="B251" s="44" t="s">
         <v>728</v>
       </c>
-      <c r="D251" s="45" t="s">
+      <c r="D251" s="41" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="252" spans="2:11" ht="14.25">
-      <c r="B252" s="48" t="s">
+      <c r="B252" s="44" t="s">
         <v>730</v>
       </c>
-      <c r="D252" s="45" t="s">
+      <c r="D252" s="41" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="253" spans="2:11" ht="14.25">
-      <c r="B253" s="48" t="s">
+      <c r="B253" s="44" t="s">
         <v>732</v>
       </c>
-      <c r="D253" s="45" t="s">
+      <c r="D253" s="41" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="254" spans="2:11" ht="14.25">
-      <c r="B254" s="48" t="s">
+      <c r="B254" s="44" t="s">
         <v>733</v>
       </c>
-      <c r="D254" s="45" t="s">
+      <c r="D254" s="41" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="255" spans="2:11" ht="14.25">
-      <c r="B255" s="48" t="s">
+      <c r="B255" s="44" t="s">
         <v>735</v>
       </c>
-      <c r="D255" s="45" t="s">
+      <c r="D255" s="41" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="256" spans="2:11" ht="14.25">
-      <c r="B256" s="48" t="s">
+      <c r="B256" s="44" t="s">
         <v>737</v>
       </c>
-      <c r="D256" s="45" t="s">
+      <c r="D256" s="41" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="14.25">
-      <c r="B257" s="48" t="s">
+      <c r="B257" s="44" t="s">
         <v>739</v>
       </c>
-      <c r="D257" s="45" t="s">
+      <c r="D257" s="41" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="14.25">
-      <c r="B258" s="48" t="s">
+      <c r="B258" s="44" t="s">
         <v>741</v>
       </c>
-      <c r="D258" s="45" t="s">
+      <c r="D258" s="41" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="14.25">
-      <c r="B259" s="48" t="s">
+      <c r="B259" s="44" t="s">
         <v>743</v>
       </c>
-      <c r="D259" s="45" t="s">
+      <c r="D259" s="41" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="14.25">
-      <c r="B260" s="48" t="s">
+      <c r="B260" s="44" t="s">
         <v>745</v>
       </c>
-      <c r="D260" s="45" t="s">
+      <c r="D260" s="41" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="261" spans="1:5" s="62" customFormat="1">
-      <c r="B261" s="62" t="s">
+    <row r="261" spans="1:5" s="58" customFormat="1">
+      <c r="B261" s="58" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="14.25">
-      <c r="B262" s="48" t="s">
+      <c r="B262" s="44" t="s">
         <v>748</v>
       </c>
-      <c r="D262" s="45" t="s">
+      <c r="D262" s="41" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="14.25">
-      <c r="A263" s="66"/>
-      <c r="B263" s="48" t="s">
+      <c r="A263" s="62"/>
+      <c r="B263" s="44" t="s">
         <v>750</v>
       </c>
-      <c r="D263" s="45" t="s">
+      <c r="D263" s="41" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="14.25">
-      <c r="B264" s="48" t="s">
+      <c r="B264" s="44" t="s">
         <v>752</v>
       </c>
-      <c r="D264" s="45" t="s">
+      <c r="D264" s="41" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="14.25">
-      <c r="B265" s="48" t="s">
+      <c r="B265" s="44" t="s">
         <v>754</v>
       </c>
-      <c r="D265" s="45" t="s">
+      <c r="D265" s="41" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="14.25">
-      <c r="B266" s="48" t="s">
+      <c r="B266" s="44" t="s">
         <v>756</v>
       </c>
-      <c r="D266" s="45" t="s">
+      <c r="D266" s="41" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="14.25">
-      <c r="B267" s="48" t="s">
+      <c r="B267" s="44" t="s">
         <v>758</v>
       </c>
-      <c r="D267" s="66" t="s">
+      <c r="D267" s="62" t="s">
         <v>759</v>
       </c>
-      <c r="E267" s="66"/>
+      <c r="E267" s="62"/>
     </row>
     <row r="268" spans="1:5" ht="14.25">
-      <c r="B268" s="48" t="s">
+      <c r="B268" s="44" t="s">
         <v>760</v>
       </c>
-      <c r="D268" s="45" t="s">
+      <c r="D268" s="41" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="14.25">
-      <c r="B269" s="48" t="s">
+      <c r="B269" s="44" t="s">
         <v>762</v>
       </c>
-      <c r="D269" s="45" t="s">
+      <c r="D269" s="41" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="14.25">
-      <c r="B270" s="48" t="s">
+      <c r="B270" s="44" t="s">
         <v>764</v>
       </c>
-      <c r="D270" s="45" t="s">
+      <c r="D270" s="41" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="14.25">
-      <c r="B271" s="48" t="s">
+      <c r="B271" s="44" t="s">
         <v>766</v>
       </c>
-      <c r="D271" s="45" t="s">
+      <c r="D271" s="41" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="14.25">
-      <c r="B272" s="48" t="s">
+      <c r="B272" s="44" t="s">
         <v>768</v>
       </c>
-      <c r="D272" s="45" t="s">
+      <c r="D272" s="41" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="273" spans="2:4" ht="14.25">
-      <c r="B273" s="48" t="s">
+      <c r="B273" s="44" t="s">
         <v>770</v>
       </c>
-      <c r="D273" s="45" t="s">
+      <c r="D273" s="41" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="274" spans="2:4" ht="14.25">
-      <c r="B274" s="48" t="s">
+      <c r="B274" s="44" t="s">
         <v>772</v>
       </c>
-      <c r="D274" s="45" t="s">
+      <c r="D274" s="41" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="275" spans="2:4" ht="14.25">
-      <c r="B275" s="48" t="s">
+      <c r="B275" s="44" t="s">
         <v>774</v>
       </c>
-      <c r="D275" s="45" t="s">
+      <c r="D275" s="41" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="276" spans="2:4" ht="14.25">
-      <c r="B276" s="48" t="s">
+      <c r="B276" s="44" t="s">
         <v>776</v>
       </c>
-      <c r="D276" s="45" t="s">
+      <c r="D276" s="41" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="277" spans="2:4" ht="14.25">
-      <c r="B277" s="48" t="s">
+      <c r="B277" s="44" t="s">
         <v>778</v>
       </c>
-      <c r="D277" s="45" t="s">
+      <c r="D277" s="41" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="278" spans="2:4" ht="14.25">
-      <c r="B278" s="48" t="s">
+      <c r="B278" s="44" t="s">
         <v>780</v>
       </c>
-      <c r="D278" s="45" t="s">
+      <c r="D278" s="41" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="279" spans="2:4" ht="14.25">
-      <c r="B279" s="48" t="s">
+      <c r="B279" s="44" t="s">
         <v>782</v>
       </c>
-      <c r="D279" s="45" t="s">
+      <c r="D279" s="41" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="280" spans="2:4" ht="14.25">
-      <c r="B280" s="48" t="s">
+      <c r="B280" s="44" t="s">
         <v>783</v>
       </c>
-      <c r="D280" s="45" t="s">
+      <c r="D280" s="41" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="281" spans="2:4" ht="14.25">
-      <c r="B281" s="48" t="s">
+      <c r="B281" s="44" t="s">
         <v>785</v>
       </c>
-      <c r="D281" s="45" t="s">
+      <c r="D281" s="41" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="282" spans="2:4" ht="14.25">
-      <c r="B282" s="48" t="s">
+      <c r="B282" s="44" t="s">
         <v>787</v>
       </c>
-      <c r="D282" s="45" t="s">
+      <c r="D282" s="41" t="s">
         <v>788</v>
       </c>
     </row>

--- a/成品/R1/卫生信息数据元_校对.xlsx
+++ b/成品/R1/卫生信息数据元_校对.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="1230" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="11640" yWindow="1230" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数据元目录校对" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="806">
   <si>
     <t>Ballot Comment Submission</t>
   </si>
@@ -3720,6 +3720,74 @@
   </si>
   <si>
     <t>资产与负债代码表</t>
+  </si>
+  <si>
+    <t>标识符范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE01.00.001.00-DE01.00.015.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE02.01.001.00-DE02.01.058.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE02.10.001.00-DE02.10.096.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE03.00.001.00-DE03.00.099.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE04.01.001.00-DE04.01.120.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE04.10.001.00-DE04.10.243.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE04.30.001.00-DE04.30.051.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE04.50.001.00-DE04.50.129.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE05.01.001.00-DE05.01.073.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE05.10.001.00-DE05.10.128.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE06.00.001.00-DE06.00.177.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE07.00.001.00-DE07.00.010.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE08.10.001.00-DE08.10.053.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE08.30.001.00-DE08.30.031.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE08.50.001.00-DE08.50.025.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE09.00.001.00-DE09.00.102.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4687,7 +4755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -13462,25 +13530,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="46.5" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="3" max="4" width="46.5" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="19.875" customWidth="1"/>
+    <col min="11" max="11" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -13491,282 +13559,333 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E1" t="s">
         <v>209</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="36" t="s">
+        <v>790</v>
+      </c>
+      <c r="E3">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="36" t="s">
+        <v>791</v>
+      </c>
+      <c r="E4">
         <v>62</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="36" t="s">
+        <v>792</v>
+      </c>
+      <c r="E5">
         <v>90</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="36" t="s">
+        <v>793</v>
+      </c>
+      <c r="E6">
         <v>98</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="36" t="s">
+        <v>794</v>
+      </c>
+      <c r="E7">
         <v>119</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
         <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="36" t="s">
+        <v>795</v>
+      </c>
+      <c r="E8">
         <v>241</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="36" t="s">
+        <v>796</v>
+      </c>
+      <c r="E9">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="B10" t="s">
         <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="36" t="s">
+        <v>797</v>
+      </c>
+      <c r="E10">
         <v>129</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="B11" t="s">
         <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="36" t="s">
+        <v>798</v>
+      </c>
+      <c r="E11">
         <v>73</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="B12" t="s">
         <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="E12">
         <v>127</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="B13" t="s">
         <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="36" t="s">
+        <v>800</v>
+      </c>
+      <c r="E13">
         <v>175</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="B14" t="s">
         <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="36" t="s">
+        <v>801</v>
+      </c>
+      <c r="E14">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="36" t="s">
+        <v>802</v>
+      </c>
+      <c r="E15">
         <v>53</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
         <v>68</v>
       </c>
       <c r="C16" t="s">
         <v>69</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="36" t="s">
+        <v>803</v>
+      </c>
+      <c r="E16">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="36" t="s">
+        <v>804</v>
+      </c>
+      <c r="E17">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>74</v>
       </c>
       <c r="C18" t="s">
         <v>75</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="36" t="s">
+        <v>805</v>
+      </c>
+      <c r="E18">
         <v>102</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="D19">
-        <f>SUM(D3:D18)</f>
+    <row r="19" spans="2:6">
+      <c r="E19">
+        <f>SUM(E3:E18)</f>
         <v>1399</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="18.75">
-      <c r="E28" s="31"/>
-    </row>
-    <row r="29" spans="2:5" ht="18.75">
-      <c r="E29" s="31"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="E30" s="32"/>
-    </row>
-    <row r="31" spans="2:5" ht="18.75">
-      <c r="E31" s="33"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="E32" s="32"/>
+    <row r="28" spans="2:6" ht="18.75">
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" spans="2:6" ht="18.75">
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="F30" s="32"/>
+    </row>
+    <row r="31" spans="2:6" ht="18.75">
+      <c r="F31" s="33"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="F32" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/成品/R1/卫生信息数据元_校对.xlsx
+++ b/成品/R1/卫生信息数据元_校对.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="1230" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="11640" yWindow="1230" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="数据元目录校对" sheetId="1" r:id="rId1"/>
@@ -4755,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U243"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13532,7 +13532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>

--- a/成品/R1/卫生信息数据元_校对.xlsx
+++ b/成品/R1/卫生信息数据元_校对.xlsx
@@ -19,16 +19,17 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">数据元目录!$C$1:$C$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据元目录校对!$A$4:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据元目录校对!$A$165:$C$165</definedName>
     <definedName name="Artifact_type">[1]Setup!$A$22:$A$30</definedName>
     <definedName name="dispositionstatus">[1]Setup!$A$20:$K$20</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="966">
   <si>
     <t>Ballot Comment Submission</t>
   </si>
@@ -3788,6 +3789,2244 @@
   <si>
     <t>DE09.00.001.00-DE09.00.102.00</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.102 出生（分娩）地点类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.102 出生（分娩）地点类别代码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DE02.01.013.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分娩地点类别代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据元允许值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"WS 363.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人口学及社会经济学特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV02.01.102 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出生（分娩）地点类别代码表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DE02.01.004.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出生地类别代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中数据元允许值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"WS 363.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人口学及社会经济学特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV02.01.102 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出生（分娩）地点类别代码表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DE02.01.006.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传染病患者归属代码中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据元允许值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"WS 363.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人口学及社会经济学特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV02.01.104 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传染病患者归属代码表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.104 传染病患者归属代码表</t>
+  </si>
+  <si>
+    <r>
+      <t>DE02.01.007.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传染病患者职业代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据元允许值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"WS 363.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人口学及社会经济学特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV02.01.202 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传染病患者职业代码表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.202 传染病患者职业代码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DE02.01.019.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家庭年人均收入类别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据元允许值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"WS 363.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人口学及社会经济学特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV02.01.203 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家庭年人均收入代码表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.203 家庭年人均收入代码表</t>
+  </si>
+  <si>
+    <r>
+      <t>DE02.01.025.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>民族</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据元允许值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"GB 3304'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB/T 3304</t>
+  </si>
+  <si>
+    <r>
+      <t>DE02.01.031.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证件类别代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据元允许值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"WS 363.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人口学及社会经济学特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV02.01.101 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证件类别代码表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.101 身份证件类别代码表</t>
+  </si>
+  <si>
+    <r>
+      <t>DE02.01.034.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>死亡地点类别代码数据元允许值“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">WS 363.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人口学及社会经济学特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV02.01.103 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>死亡地点类别代码表”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.103 死亡地点类别代码表</t>
+  </si>
+  <si>
+    <r>
+      <t>DE02.01.043.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血缘关系代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据元允许值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"WS 363.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人口学及社会经济学特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV02.01.201 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血缘关系代码表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.201 血缘关系代码表</t>
+  </si>
+  <si>
+    <r>
+      <t>DE02.01.044.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医疗保险类别代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据元允许值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"WS 363.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人口学及社会经济学特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV02.01.204 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医疗保险类别代码表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.204 医疗保险类别代码表</t>
+  </si>
+  <si>
+    <t>数据元允许值错误</t>
+  </si>
+  <si>
+    <t>处理者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生信息数据元目录第15部分:卫生人员</t>
+  </si>
+  <si>
+    <t>WS363.15-2011</t>
+  </si>
+  <si>
+    <r>
+      <t>DE08.30.022.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行政</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务管理职务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据元允许值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"GB 12403"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB/T 12403</t>
+  </si>
+  <si>
+    <r>
+      <t>DE08.30.026.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>职工类别代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据元允许值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">"WS 363.15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生人员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV08.30.002 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生监督机构职工类别代码表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS 364.15 卫生信息数据元值域代码 第15部分:卫生人员 CV08.30.002 卫生监督机构职工类别代码表</t>
+  </si>
+  <si>
+    <t>DE08.30.027.00</t>
+  </si>
+  <si>
+    <t>DE08.30.031.00</t>
+  </si>
+  <si>
+    <t>将数据元允许值中的  WS363 全部替换为 WS364</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE07.00.006.00</t>
+  </si>
+  <si>
+    <t>DE07.00.007.00</t>
+  </si>
+  <si>
+    <t>DE07.00.002.00</t>
+  </si>
+  <si>
+    <t>DE05.10.006.00</t>
+  </si>
+  <si>
+    <t>DE05.10.020.00</t>
+  </si>
+  <si>
+    <t>DE05.10.021.00</t>
+  </si>
+  <si>
+    <t>DE05.10.028.00</t>
+  </si>
+  <si>
+    <t>DE05.10.043.00</t>
+  </si>
+  <si>
+    <t>DE05.10.046.00</t>
+  </si>
+  <si>
+    <t>DE05.10.047.00</t>
+  </si>
+  <si>
+    <t>DE05.10.048.00</t>
+  </si>
+  <si>
+    <t>DE05.10.055.00</t>
+  </si>
+  <si>
+    <t>DE05.10.056.00</t>
+  </si>
+  <si>
+    <t>DE05.10.058.00</t>
+  </si>
+  <si>
+    <t>DE05.10.066.00</t>
+  </si>
+  <si>
+    <t>DE05.10.071.00</t>
+  </si>
+  <si>
+    <t>DE05.10.074.00</t>
+  </si>
+  <si>
+    <t>DE05.10.077.00</t>
+  </si>
+  <si>
+    <t>DE05.10.084.00</t>
+  </si>
+  <si>
+    <t>DE05.10.091.00</t>
+  </si>
+  <si>
+    <t>DE05.10.092.00</t>
+  </si>
+  <si>
+    <t>DE05.10.093.00</t>
+  </si>
+  <si>
+    <t>DE05.10.094.00</t>
+  </si>
+  <si>
+    <t>DE05.10.095.00</t>
+  </si>
+  <si>
+    <t>DE05.10.105.00</t>
+  </si>
+  <si>
+    <t>DE05.10.110.00</t>
+  </si>
+  <si>
+    <t>DE05.10.112.00</t>
+  </si>
+  <si>
+    <t>DE05.10.121.00</t>
+  </si>
+  <si>
+    <t>DE05.10.124.00</t>
+  </si>
+  <si>
+    <t>DE05.10.128.00</t>
+  </si>
+  <si>
+    <t>将数据元允许值中的  WS363 全部替换为 WS364</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将此数据集中数据元允许值中的  WS363 全部替换为 WS364</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE04.10.016.00</t>
+  </si>
+  <si>
+    <t>DE04.10.026.00</t>
+  </si>
+  <si>
+    <t>DE04.10.033.00</t>
+  </si>
+  <si>
+    <t>DE04.10.038.00</t>
+  </si>
+  <si>
+    <t>DE04.10.039.00</t>
+  </si>
+  <si>
+    <t>DE04.10.040.00</t>
+  </si>
+  <si>
+    <t>DE04.10.064.00</t>
+  </si>
+  <si>
+    <t>DE04.10.075.00</t>
+  </si>
+  <si>
+    <t>DE04.10.086.00</t>
+  </si>
+  <si>
+    <t>DE04.10.105.00</t>
+  </si>
+  <si>
+    <t>DE04.10.106.00</t>
+  </si>
+  <si>
+    <t>DE04.10.113.00</t>
+  </si>
+  <si>
+    <t>DE04.10.119.00</t>
+  </si>
+  <si>
+    <t>DE04.10.129.00</t>
+  </si>
+  <si>
+    <t>DE04.10.154.00</t>
+  </si>
+  <si>
+    <t>DE04.10.159.00</t>
+  </si>
+  <si>
+    <t>DE04.10.165.00</t>
+  </si>
+  <si>
+    <t>DE04.10.201.00</t>
+  </si>
+  <si>
+    <t>DE04.10.232.00</t>
+  </si>
+  <si>
+    <t>DE04.10.238.00</t>
+  </si>
+  <si>
+    <t>DE04.10.241.00</t>
+  </si>
+  <si>
+    <t>DE04.10.198.00</t>
+  </si>
+  <si>
+    <t>位置错误</t>
+  </si>
+  <si>
+    <t>卫生信息数据元目录第16部分:药品、设备与材料</t>
+  </si>
+  <si>
+    <t>WS363.16-2011</t>
+  </si>
+  <si>
+    <r>
+      <t>DE02.01.044.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医疗保险类别代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">WS 363.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人口学及社会经济学特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV02.01.204 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医疗保险类别代码表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS 363.16 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药品、设备与材料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV08.50.101 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宫内节育器种类代码表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS 363.16 卫生信息数据元值域代码 第16部分:药品、设备与材料 CV08.50.001 疫苗名称代码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS 363.16 卫生信息数据元值域代码 第16部分:药品、设备与材料 CV08.50.102 交通工具代码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS 363.16 卫生信息数据元值域代码 第16部分:药品、设备与材料 CV08.50.003 药敏试验药物代码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS 363.16 卫生信息数据元值域代码 第16部分:药品、设备与材料 CV08.50.002 药物剂型代码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在对应的值域列表中找不到"CV02.01.204 医疗保险类别代码表"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1发生遗漏 建议添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"WS 363.16 卫生信息数据元值域代码 "填写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该改为“WS 364.16 卫生信息数据元值域代码 ”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ychenzju</t>
+  </si>
+  <si>
+    <t>1374450838@qq.com</t>
+  </si>
+  <si>
+    <t>yaosh1</t>
+  </si>
+  <si>
+    <t>463021296@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE04.50.005.00</t>
+  </si>
+  <si>
+    <t>DE04.50.006.00</t>
+  </si>
+  <si>
+    <t>DE04.50.007.00</t>
+  </si>
+  <si>
+    <t>DE04.50.008.00</t>
+  </si>
+  <si>
+    <t>DE04.50.017.00</t>
+  </si>
+  <si>
+    <t>DE04.50.018.00</t>
+  </si>
+  <si>
+    <t>DE04.50.050.00</t>
+  </si>
+  <si>
+    <t>DE04.50.057.00</t>
+  </si>
+  <si>
+    <t>DE04.50.062.00</t>
+  </si>
+  <si>
+    <t>DE04.50.063.00</t>
+  </si>
+  <si>
+    <t>DE04.50.074.00</t>
+  </si>
+  <si>
+    <t>DE04.50.080.00</t>
+  </si>
+  <si>
+    <t>DE04.50.086.00</t>
+  </si>
+  <si>
+    <t>DE04.50.087.00</t>
+  </si>
+  <si>
+    <t>DE04.50.090.00</t>
+  </si>
+  <si>
+    <t>DE04.50.103.00</t>
+  </si>
+  <si>
+    <t>DE04.50.104.00</t>
+  </si>
+  <si>
+    <t>DE04.50.105.00</t>
+  </si>
+  <si>
+    <t>DE04.50.111.00</t>
+  </si>
+  <si>
+    <t>DE04.50.118.00</t>
+  </si>
+  <si>
+    <t>DE04.50.120.00</t>
+  </si>
+  <si>
+    <t>DE04.50.129.00</t>
+  </si>
+  <si>
+    <t>"WS 363.9 卫生信息数据元值域代码 "填写错误</t>
+  </si>
+  <si>
+    <t>应该改为“WS 364.9卫生信息数据元值域代码 ”</t>
+  </si>
+  <si>
+    <t>杨喜敏</t>
+  </si>
+  <si>
+    <t>29099939@qq.com</t>
+  </si>
+  <si>
+    <t>卫生信息数据元目录第14部分:卫生机构</t>
+  </si>
+  <si>
+    <t>WS363.14-2011</t>
+  </si>
+  <si>
+    <t>DE08.10.020.00</t>
+  </si>
+  <si>
+    <t>DE08.10.034.00</t>
+  </si>
+  <si>
+    <t>DE08.10.035.00</t>
+  </si>
+  <si>
+    <t>DE08.10.036.00</t>
+  </si>
+  <si>
+    <t>DE08.10.040.00</t>
+  </si>
+  <si>
+    <t>DE08.10.048.00</t>
+  </si>
+  <si>
+    <t>DE08.10.049.00</t>
+  </si>
+  <si>
+    <t>DE08.10.053.00</t>
+  </si>
+  <si>
+    <t>DE04.30.036.00</t>
+  </si>
+  <si>
+    <t>DE04.30.047.00</t>
+  </si>
+  <si>
+    <t>DE08.10.033.00</t>
+  </si>
+  <si>
+    <t>"WS 363.14 卫生信息数据元值域代码 "填写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应该改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“WS 364.14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"WS 363.8 卫生信息数据元值域代码 "填写错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应该改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“WS 364.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93441421@qq.com</t>
+  </si>
+  <si>
+    <t>-Juliet</t>
+  </si>
+  <si>
+    <r>
+      <t>DE06.00.019.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据元定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产妇分娩过程中，从宫口开全到胎儿娩出的时长计量单位为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>min"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产妇分娩过程中，从宫口开全到胎儿娩出的时长，计量单位为min</t>
+  </si>
+  <si>
+    <t>内容少逗号</t>
+  </si>
+  <si>
+    <t>服务对象用药的时点，以24h计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24小时应该是24h</t>
+  </si>
+  <si>
+    <r>
+      <t>DE06.00.029.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给（服）药时间数据元定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务对象用药的时点，以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时计。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量单位为a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年应该换成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DE06.00.084.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>皮下埋植剂埋植年限数据元定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个体皮下埋植剂埋植的时长，计量单位为年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DE06.00.031.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宫内节育器放置年限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据元定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>妇女宫内节育器放置的时长，计量单位为年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小虎</t>
+  </si>
+  <si>
+    <t>264904245@qq.com</t>
   </si>
 </sst>
 </file>
@@ -4206,7 +6445,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4340,6 +6579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4350,6 +6590,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4753,16 +6996,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U243"/>
+  <dimension ref="A1:V304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
     <col min="5" max="5" width="40.25" customWidth="1"/>
     <col min="6" max="6" width="31.125" customWidth="1"/>
     <col min="7" max="7" width="34.375" customWidth="1"/>
@@ -4773,36 +7016,41 @@
     <col min="12" max="12" width="14.5" customWidth="1"/>
     <col min="13" max="13" width="16.875" customWidth="1"/>
     <col min="14" max="14" width="19.75" customWidth="1"/>
+    <col min="15" max="16" width="18.125" customWidth="1"/>
+    <col min="17" max="17" width="12.75" customWidth="1"/>
+    <col min="18" max="18" width="14.5" customWidth="1"/>
+    <col min="19" max="19" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickTop="1" thickBot="1">
+    <row r="1" spans="1:22" ht="17.25" thickTop="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="29"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="63"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="S1" s="29"/>
       <c r="T1" s="29"/>
-      <c r="U1" s="30"/>
-    </row>
-    <row r="2" spans="1:21" ht="14.25" thickTop="1">
+      <c r="U1" s="29"/>
+      <c r="V1" s="30"/>
+    </row>
+    <row r="2" spans="1:22" ht="14.25" thickTop="1">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -4845,15 +7093,26 @@
       <c r="N2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="O2" s="26" t="s">
+        <v>828</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>827</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-    </row>
-    <row r="3" spans="1:21" s="12" customFormat="1" ht="14.25">
+      <c r="V2" s="4"/>
+    </row>
+    <row r="3" spans="1:22" s="12" customFormat="1" ht="14.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -4868,63 +7127,58 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:21" s="22" customFormat="1" ht="52.9" customHeight="1">
-      <c r="A4" s="13">
-        <v>1</v>
-      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:22" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>90</v>
+        <v>808</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>91</v>
+        <v>837</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>826</v>
       </c>
       <c r="H4" s="16"/>
-      <c r="I4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>81</v>
-      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
       <c r="N4" s="21"/>
-      <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:21" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+    </row>
+    <row r="5" spans="1:22" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="15" t="s">
-        <v>149</v>
+        <v>808</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>151</v>
+        <v>807</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>826</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="17"/>
@@ -4933,27 +7187,25 @@
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
       <c r="N5" s="21"/>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:21" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+    </row>
+    <row r="6" spans="1:22" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="15" t="s">
-        <v>89</v>
+        <v>809</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>91</v>
+        <v>806</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>826</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="17"/>
@@ -4962,27 +7214,25 @@
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="21"/>
-      <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="1:21" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+    </row>
+    <row r="7" spans="1:22" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="15" t="s">
-        <v>85</v>
+        <v>810</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>208</v>
+        <v>811</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>826</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
@@ -4991,27 +7241,25 @@
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="21"/>
-      <c r="R7" s="12"/>
-    </row>
-    <row r="8" spans="1:21" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+    </row>
+    <row r="8" spans="1:22" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A8" s="13"/>
-      <c r="B8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="15" t="s">
-        <v>87</v>
+        <v>812</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>91</v>
+        <v>813</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>826</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
@@ -5020,27 +7268,25 @@
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="21"/>
-      <c r="R8" s="12"/>
-    </row>
-    <row r="9" spans="1:21" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+    </row>
+    <row r="9" spans="1:22" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="15" t="s">
-        <v>94</v>
+        <v>814</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>95</v>
+        <v>815</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>96</v>
+        <v>826</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="17"/>
@@ -5049,25 +7295,25 @@
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="21"/>
-      <c r="R9" s="12"/>
-    </row>
-    <row r="10" spans="1:21" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" spans="1:22" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="15" t="s">
-        <v>97</v>
+        <v>818</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>91</v>
+        <v>819</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>826</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="17"/>
@@ -5076,25 +7322,25 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="21"/>
-      <c r="R10" s="12"/>
-    </row>
-    <row r="11" spans="1:21" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+    </row>
+    <row r="11" spans="1:22" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="15" t="s">
-        <v>98</v>
+        <v>820</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>91</v>
+        <v>821</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>826</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
@@ -5103,21 +7349,25 @@
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="21"/>
-      <c r="R11" s="12"/>
-    </row>
-    <row r="12" spans="1:21" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+    </row>
+    <row r="12" spans="1:22" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15" t="s">
-        <v>99</v>
+        <v>822</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>91</v>
+        <v>823</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>826</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="17"/>
@@ -5126,21 +7376,25 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="21"/>
-      <c r="R12" s="12"/>
-    </row>
-    <row r="13" spans="1:21" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+    </row>
+    <row r="13" spans="1:22" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15" t="s">
-        <v>101</v>
+        <v>824</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>91</v>
+        <v>825</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>826</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="17"/>
@@ -5149,21 +7403,25 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="21"/>
-      <c r="R13" s="12"/>
-    </row>
-    <row r="14" spans="1:21" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+    </row>
+    <row r="14" spans="1:22" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15" t="s">
-        <v>102</v>
+        <v>816</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>91</v>
+        <v>817</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>826</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="17"/>
@@ -5172,22 +7430,30 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="21"/>
-      <c r="R14" s="12"/>
-    </row>
-    <row r="15" spans="1:21" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+    </row>
+    <row r="15" spans="1:22" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>830</v>
+      </c>
       <c r="E15" s="15" t="s">
-        <v>103</v>
+        <v>831</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>91</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="G15" s="15"/>
       <c r="H15" s="16"/>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
@@ -5195,22 +7461,24 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
       <c r="N15" s="21"/>
-      <c r="R15" s="12"/>
-    </row>
-    <row r="16" spans="1:21" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+    </row>
+    <row r="16" spans="1:22" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15" t="s">
-        <v>104</v>
+        <v>833</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>91</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="16"/>
       <c r="I16" s="17"/>
       <c r="J16" s="18"/>
@@ -5218,26 +7486,24 @@
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
       <c r="N16" s="21"/>
-      <c r="R16" s="12"/>
-    </row>
-    <row r="17" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+    </row>
+    <row r="17" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="15" t="s">
-        <v>107</v>
+        <v>835</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>109</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="G17" s="15"/>
       <c r="H17" s="16"/>
       <c r="I17" s="17"/>
       <c r="J17" s="18"/>
@@ -5245,19 +7511,21 @@
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="21"/>
-      <c r="R17" s="12"/>
-    </row>
-    <row r="18" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+    </row>
+    <row r="18" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>88</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="F18" s="34"/>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="17"/>
@@ -5266,22 +7534,28 @@
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
       <c r="N18" s="21"/>
-      <c r="R18" s="12"/>
-    </row>
-    <row r="19" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+    </row>
+    <row r="19" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="C19" s="14" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>113</v>
+        <v>840</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>88</v>
+        <v>868</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
@@ -5291,22 +7565,22 @@
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
       <c r="N19" s="21"/>
-      <c r="R19" s="12"/>
-    </row>
-    <row r="20" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+    </row>
+    <row r="20" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>116</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="16"/>
       <c r="I20" s="17"/>
       <c r="J20" s="18"/>
@@ -5314,23 +7588,21 @@
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="21"/>
-      <c r="R20" s="12"/>
-    </row>
-    <row r="21" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+    </row>
+    <row r="21" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>118</v>
-      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>88</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="F21" s="34"/>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
       <c r="I21" s="17"/>
@@ -5339,25 +7611,31 @@
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
       <c r="N21" s="21"/>
-      <c r="R21" s="12"/>
-    </row>
-    <row r="22" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+    </row>
+    <row r="22" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" s="14" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>121</v>
+        <v>841</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>123</v>
+        <v>869</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>826</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="17"/>
@@ -5366,18 +7644,20 @@
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
       <c r="N22" s="21"/>
-      <c r="R22" s="12"/>
-    </row>
-    <row r="23" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+    </row>
+    <row r="23" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="15"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15" t="s">
+        <v>841</v>
+      </c>
       <c r="F23" s="34"/>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
@@ -5387,26 +7667,22 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
       <c r="N23" s="21"/>
-      <c r="R23" s="12"/>
-    </row>
-    <row r="24" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+    </row>
+    <row r="24" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>127</v>
-      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>130</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="16"/>
       <c r="I24" s="17"/>
       <c r="J24" s="18"/>
@@ -5414,22 +7690,22 @@
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
       <c r="N24" s="21"/>
-      <c r="R24" s="12"/>
-    </row>
-    <row r="25" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+    </row>
+    <row r="25" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>133</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="16"/>
       <c r="I25" s="17"/>
       <c r="J25" s="18"/>
@@ -5437,23 +7713,21 @@
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
       <c r="N25" s="21"/>
-      <c r="R25" s="12"/>
-    </row>
-    <row r="26" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+    </row>
+    <row r="26" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>135</v>
-      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>88</v>
-      </c>
+        <v>844</v>
+      </c>
+      <c r="F26" s="34"/>
       <c r="G26" s="15"/>
       <c r="H26" s="16"/>
       <c r="I26" s="17"/>
@@ -5462,19 +7736,21 @@
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
       <c r="N26" s="21"/>
-      <c r="R26" s="12"/>
-    </row>
-    <row r="27" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+    </row>
+    <row r="27" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>138</v>
-      </c>
+        <v>845</v>
+      </c>
+      <c r="F27" s="34"/>
       <c r="G27" s="15"/>
       <c r="H27" s="16"/>
       <c r="I27" s="17"/>
@@ -5483,19 +7759,21 @@
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
       <c r="N27" s="21"/>
-      <c r="R27" s="12"/>
-    </row>
-    <row r="28" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+    </row>
+    <row r="28" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>138</v>
-      </c>
+        <v>846</v>
+      </c>
+      <c r="F28" s="34"/>
       <c r="G28" s="15"/>
       <c r="H28" s="16"/>
       <c r="I28" s="17"/>
@@ -5504,22 +7782,22 @@
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
       <c r="N28" s="21"/>
-      <c r="R28" s="12"/>
-    </row>
-    <row r="29" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+    </row>
+    <row r="29" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>142</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="16"/>
       <c r="I29" s="17"/>
       <c r="J29" s="18"/>
@@ -5527,23 +7805,21 @@
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
       <c r="N29" s="21"/>
-      <c r="R29" s="12"/>
-    </row>
-    <row r="30" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+    </row>
+    <row r="30" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>144</v>
-      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>88</v>
-      </c>
+        <v>848</v>
+      </c>
+      <c r="F30" s="34"/>
       <c r="G30" s="15"/>
       <c r="H30" s="16"/>
       <c r="I30" s="17"/>
@@ -5552,19 +7828,21 @@
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
       <c r="N30" s="21"/>
-      <c r="R30" s="12"/>
-    </row>
-    <row r="31" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+    </row>
+    <row r="31" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>88</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="F31" s="34"/>
       <c r="G31" s="15"/>
       <c r="H31" s="16"/>
       <c r="I31" s="17"/>
@@ -5573,18 +7851,20 @@
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
       <c r="N31" s="21"/>
-      <c r="R31" s="12"/>
-    </row>
-    <row r="32" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+    </row>
+    <row r="32" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15" t="s">
+        <v>850</v>
+      </c>
       <c r="F32" s="34"/>
       <c r="G32" s="15"/>
       <c r="H32" s="16"/>
@@ -5594,14 +7874,20 @@
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
       <c r="N32" s="21"/>
-      <c r="R32" s="12"/>
-    </row>
-    <row r="33" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+    </row>
+    <row r="33" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="15" t="s">
+        <v>851</v>
+      </c>
       <c r="F33" s="34"/>
       <c r="G33" s="15"/>
       <c r="H33" s="16"/>
@@ -5611,14 +7897,20 @@
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
       <c r="N33" s="21"/>
-      <c r="R33" s="12"/>
-    </row>
-    <row r="34" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+    </row>
+    <row r="34" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="15" t="s">
+        <v>852</v>
+      </c>
       <c r="F34" s="34"/>
       <c r="G34" s="15"/>
       <c r="H34" s="16"/>
@@ -5628,14 +7920,20 @@
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
       <c r="N34" s="21"/>
-      <c r="R34" s="12"/>
-    </row>
-    <row r="35" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+    </row>
+    <row r="35" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="15" t="s">
+        <v>853</v>
+      </c>
       <c r="F35" s="34"/>
       <c r="G35" s="15"/>
       <c r="H35" s="16"/>
@@ -5645,14 +7943,20 @@
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
       <c r="N35" s="21"/>
-      <c r="R35" s="12"/>
-    </row>
-    <row r="36" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+    </row>
+    <row r="36" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="15" t="s">
+        <v>854</v>
+      </c>
       <c r="F36" s="34"/>
       <c r="G36" s="15"/>
       <c r="H36" s="16"/>
@@ -5662,14 +7966,20 @@
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="N36" s="21"/>
-      <c r="R36" s="12"/>
-    </row>
-    <row r="37" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+    </row>
+    <row r="37" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="15" t="s">
+        <v>855</v>
+      </c>
       <c r="F37" s="34"/>
       <c r="G37" s="15"/>
       <c r="H37" s="16"/>
@@ -5679,14 +7989,20 @@
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
       <c r="N37" s="21"/>
-      <c r="R37" s="12"/>
-    </row>
-    <row r="38" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+    </row>
+    <row r="38" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="15" t="s">
+        <v>856</v>
+      </c>
       <c r="F38" s="34"/>
       <c r="G38" s="15"/>
       <c r="H38" s="16"/>
@@ -5696,14 +8012,20 @@
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
       <c r="N38" s="21"/>
-      <c r="R38" s="12"/>
-    </row>
-    <row r="39" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+    </row>
+    <row r="39" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="15" t="s">
+        <v>857</v>
+      </c>
       <c r="F39" s="34"/>
       <c r="G39" s="15"/>
       <c r="H39" s="16"/>
@@ -5713,14 +8035,20 @@
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
       <c r="N39" s="21"/>
-      <c r="R39" s="12"/>
-    </row>
-    <row r="40" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+    </row>
+    <row r="40" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="15" t="s">
+        <v>858</v>
+      </c>
       <c r="F40" s="34"/>
       <c r="G40" s="15"/>
       <c r="H40" s="16"/>
@@ -5730,14 +8058,20 @@
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
       <c r="N40" s="21"/>
-      <c r="R40" s="12"/>
-    </row>
-    <row r="41" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+    </row>
+    <row r="41" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="15" t="s">
+        <v>859</v>
+      </c>
       <c r="F41" s="34"/>
       <c r="G41" s="15"/>
       <c r="H41" s="16"/>
@@ -5747,14 +8081,20 @@
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
       <c r="N41" s="21"/>
-      <c r="R41" s="12"/>
-    </row>
-    <row r="42" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+    </row>
+    <row r="42" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="15"/>
+      <c r="E42" s="15" t="s">
+        <v>860</v>
+      </c>
       <c r="F42" s="34"/>
       <c r="G42" s="15"/>
       <c r="H42" s="16"/>
@@ -5764,14 +8104,20 @@
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
       <c r="N42" s="21"/>
-      <c r="R42" s="12"/>
-    </row>
-    <row r="43" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+    </row>
+    <row r="43" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
+      <c r="E43" s="15" t="s">
+        <v>861</v>
+      </c>
       <c r="F43" s="34"/>
       <c r="G43" s="15"/>
       <c r="H43" s="16"/>
@@ -5781,14 +8127,20 @@
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
       <c r="N43" s="21"/>
-      <c r="R43" s="12"/>
-    </row>
-    <row r="44" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+    </row>
+    <row r="44" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
+      <c r="E44" s="15" t="s">
+        <v>862</v>
+      </c>
       <c r="F44" s="34"/>
       <c r="G44" s="15"/>
       <c r="H44" s="16"/>
@@ -5798,14 +8150,20 @@
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
       <c r="N44" s="21"/>
-      <c r="R44" s="12"/>
-    </row>
-    <row r="45" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+    </row>
+    <row r="45" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="15"/>
+      <c r="E45" s="15" t="s">
+        <v>863</v>
+      </c>
       <c r="F45" s="34"/>
       <c r="G45" s="15"/>
       <c r="H45" s="16"/>
@@ -5815,14 +8173,20 @@
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
       <c r="N45" s="21"/>
-      <c r="R45" s="12"/>
-    </row>
-    <row r="46" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+    </row>
+    <row r="46" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="15"/>
+      <c r="E46" s="15" t="s">
+        <v>139</v>
+      </c>
       <c r="F46" s="34"/>
       <c r="G46" s="15"/>
       <c r="H46" s="16"/>
@@ -5832,14 +8196,20 @@
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
       <c r="N46" s="21"/>
-      <c r="R46" s="12"/>
-    </row>
-    <row r="47" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+    </row>
+    <row r="47" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="15"/>
+      <c r="E47" s="15" t="s">
+        <v>864</v>
+      </c>
       <c r="F47" s="34"/>
       <c r="G47" s="15"/>
       <c r="H47" s="16"/>
@@ -5849,14 +8219,20 @@
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
       <c r="N47" s="21"/>
-      <c r="R47" s="12"/>
-    </row>
-    <row r="48" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+    </row>
+    <row r="48" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="15"/>
+      <c r="E48" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="F48" s="34"/>
       <c r="G48" s="15"/>
       <c r="H48" s="16"/>
@@ -5866,14 +8242,20 @@
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
       <c r="N48" s="21"/>
-      <c r="R48" s="12"/>
-    </row>
-    <row r="49" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+    </row>
+    <row r="49" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="15"/>
+      <c r="E49" s="15" t="s">
+        <v>865</v>
+      </c>
       <c r="F49" s="34"/>
       <c r="G49" s="15"/>
       <c r="H49" s="16"/>
@@ -5883,14 +8265,20 @@
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
       <c r="N49" s="21"/>
-      <c r="R49" s="12"/>
-    </row>
-    <row r="50" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+    </row>
+    <row r="50" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="15"/>
+      <c r="E50" s="15" t="s">
+        <v>866</v>
+      </c>
       <c r="F50" s="34"/>
       <c r="G50" s="15"/>
       <c r="H50" s="16"/>
@@ -5900,33 +8288,57 @@
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
       <c r="N50" s="21"/>
-      <c r="R50" s="12"/>
-    </row>
-    <row r="51" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+    </row>
+    <row r="51" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="15"/>
+      <c r="E51" s="15" t="s">
+        <v>867</v>
+      </c>
       <c r="F51" s="34"/>
       <c r="G51" s="15"/>
       <c r="H51" s="16"/>
       <c r="I51" s="17"/>
-      <c r="J51" s="18"/>
+      <c r="J51" s="18">
+        <v>389268826</v>
+      </c>
       <c r="K51" s="19"/>
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
       <c r="N51" s="21"/>
-      <c r="R51" s="12"/>
-    </row>
-    <row r="52" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+    </row>
+    <row r="52" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="15"/>
+      <c r="B52" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>870</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>869</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>826</v>
+      </c>
       <c r="H52" s="16"/>
       <c r="I52" s="17"/>
       <c r="J52" s="18"/>
@@ -5934,14 +8346,20 @@
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
       <c r="N52" s="21"/>
-      <c r="R52" s="12"/>
-    </row>
-    <row r="53" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+    </row>
+    <row r="53" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A53" s="13"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="15"/>
+      <c r="E53" s="15" t="s">
+        <v>871</v>
+      </c>
       <c r="F53" s="34"/>
       <c r="G53" s="15"/>
       <c r="H53" s="16"/>
@@ -5951,14 +8369,20 @@
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
       <c r="N53" s="21"/>
-      <c r="R53" s="12"/>
-    </row>
-    <row r="54" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+    </row>
+    <row r="54" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A54" s="13"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="15"/>
+      <c r="E54" s="15" t="s">
+        <v>872</v>
+      </c>
       <c r="F54" s="34"/>
       <c r="G54" s="15"/>
       <c r="H54" s="16"/>
@@ -5968,14 +8392,20 @@
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
       <c r="N54" s="21"/>
-      <c r="R54" s="12"/>
-    </row>
-    <row r="55" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+    </row>
+    <row r="55" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="15"/>
+      <c r="E55" s="15" t="s">
+        <v>873</v>
+      </c>
       <c r="F55" s="34"/>
       <c r="G55" s="15"/>
       <c r="H55" s="16"/>
@@ -5985,14 +8415,20 @@
       <c r="L55" s="20"/>
       <c r="M55" s="20"/>
       <c r="N55" s="21"/>
-      <c r="R55" s="12"/>
-    </row>
-    <row r="56" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+    </row>
+    <row r="56" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A56" s="13"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
-      <c r="E56" s="15"/>
+      <c r="E56" s="15" t="s">
+        <v>874</v>
+      </c>
       <c r="F56" s="34"/>
       <c r="G56" s="15"/>
       <c r="H56" s="16"/>
@@ -6002,14 +8438,20 @@
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
       <c r="N56" s="21"/>
-      <c r="R56" s="12"/>
-    </row>
-    <row r="57" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+    </row>
+    <row r="57" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
-      <c r="E57" s="15"/>
+      <c r="E57" s="15" t="s">
+        <v>875</v>
+      </c>
       <c r="F57" s="34"/>
       <c r="G57" s="15"/>
       <c r="H57" s="16"/>
@@ -6019,14 +8461,20 @@
       <c r="L57" s="20"/>
       <c r="M57" s="20"/>
       <c r="N57" s="21"/>
-      <c r="R57" s="12"/>
-    </row>
-    <row r="58" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+    </row>
+    <row r="58" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
-      <c r="E58" s="15"/>
+      <c r="E58" s="15" t="s">
+        <v>876</v>
+      </c>
       <c r="F58" s="34"/>
       <c r="G58" s="15"/>
       <c r="H58" s="16"/>
@@ -6036,14 +8484,20 @@
       <c r="L58" s="20"/>
       <c r="M58" s="20"/>
       <c r="N58" s="21"/>
-      <c r="R58" s="12"/>
-    </row>
-    <row r="59" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+    </row>
+    <row r="59" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
-      <c r="E59" s="15"/>
+      <c r="E59" s="15" t="s">
+        <v>877</v>
+      </c>
       <c r="F59" s="34"/>
       <c r="G59" s="15"/>
       <c r="H59" s="16"/>
@@ -6053,14 +8507,20 @@
       <c r="L59" s="20"/>
       <c r="M59" s="20"/>
       <c r="N59" s="21"/>
-      <c r="R59" s="12"/>
-    </row>
-    <row r="60" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+    </row>
+    <row r="60" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
-      <c r="E60" s="15"/>
+      <c r="E60" s="15" t="s">
+        <v>878</v>
+      </c>
       <c r="F60" s="34"/>
       <c r="G60" s="15"/>
       <c r="H60" s="16"/>
@@ -6070,14 +8530,20 @@
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
       <c r="N60" s="21"/>
-      <c r="R60" s="12"/>
-    </row>
-    <row r="61" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+    </row>
+    <row r="61" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
+      <c r="E61" s="15" t="s">
+        <v>879</v>
+      </c>
       <c r="F61" s="34"/>
       <c r="G61" s="15"/>
       <c r="H61" s="16"/>
@@ -6087,14 +8553,20 @@
       <c r="L61" s="20"/>
       <c r="M61" s="20"/>
       <c r="N61" s="21"/>
-      <c r="R61" s="12"/>
-    </row>
-    <row r="62" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+    </row>
+    <row r="62" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
-      <c r="E62" s="15"/>
+      <c r="E62" s="15" t="s">
+        <v>880</v>
+      </c>
       <c r="F62" s="34"/>
       <c r="G62" s="15"/>
       <c r="H62" s="16"/>
@@ -6104,14 +8576,20 @@
       <c r="L62" s="20"/>
       <c r="M62" s="20"/>
       <c r="N62" s="21"/>
-      <c r="R62" s="12"/>
-    </row>
-    <row r="63" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+    </row>
+    <row r="63" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
-      <c r="E63" s="15"/>
+      <c r="E63" s="15" t="s">
+        <v>881</v>
+      </c>
       <c r="F63" s="34"/>
       <c r="G63" s="15"/>
       <c r="H63" s="16"/>
@@ -6121,14 +8599,20 @@
       <c r="L63" s="20"/>
       <c r="M63" s="20"/>
       <c r="N63" s="21"/>
-      <c r="R63" s="12"/>
-    </row>
-    <row r="64" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+    </row>
+    <row r="64" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
+      <c r="E64" s="15" t="s">
+        <v>882</v>
+      </c>
       <c r="F64" s="34"/>
       <c r="G64" s="15"/>
       <c r="H64" s="16"/>
@@ -6138,14 +8622,20 @@
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
       <c r="N64" s="21"/>
-      <c r="R64" s="12"/>
-    </row>
-    <row r="65" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+    </row>
+    <row r="65" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A65" s="13"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
-      <c r="E65" s="15"/>
+      <c r="E65" s="15" t="s">
+        <v>883</v>
+      </c>
       <c r="F65" s="34"/>
       <c r="G65" s="15"/>
       <c r="H65" s="16"/>
@@ -6155,14 +8645,20 @@
       <c r="L65" s="20"/>
       <c r="M65" s="20"/>
       <c r="N65" s="21"/>
-      <c r="R65" s="12"/>
-    </row>
-    <row r="66" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+    </row>
+    <row r="66" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
-      <c r="E66" s="15"/>
+      <c r="E66" s="15" t="s">
+        <v>884</v>
+      </c>
       <c r="F66" s="34"/>
       <c r="G66" s="15"/>
       <c r="H66" s="16"/>
@@ -6172,14 +8668,20 @@
       <c r="L66" s="20"/>
       <c r="M66" s="20"/>
       <c r="N66" s="21"/>
-      <c r="R66" s="12"/>
-    </row>
-    <row r="67" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+    </row>
+    <row r="67" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A67" s="13"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
-      <c r="E67" s="15"/>
+      <c r="E67" s="15" t="s">
+        <v>885</v>
+      </c>
       <c r="F67" s="34"/>
       <c r="G67" s="15"/>
       <c r="H67" s="16"/>
@@ -6189,14 +8691,20 @@
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
       <c r="N67" s="21"/>
-      <c r="R67" s="12"/>
-    </row>
-    <row r="68" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+    </row>
+    <row r="68" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="15"/>
+      <c r="E68" s="15" t="s">
+        <v>886</v>
+      </c>
       <c r="F68" s="34"/>
       <c r="G68" s="15"/>
       <c r="H68" s="16"/>
@@ -6206,14 +8714,20 @@
       <c r="L68" s="20"/>
       <c r="M68" s="20"/>
       <c r="N68" s="21"/>
-      <c r="R68" s="12"/>
-    </row>
-    <row r="69" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+    </row>
+    <row r="69" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A69" s="13"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
-      <c r="E69" s="15"/>
+      <c r="E69" s="15" t="s">
+        <v>887</v>
+      </c>
       <c r="F69" s="34"/>
       <c r="G69" s="15"/>
       <c r="H69" s="16"/>
@@ -6223,14 +8737,20 @@
       <c r="L69" s="20"/>
       <c r="M69" s="20"/>
       <c r="N69" s="21"/>
-      <c r="R69" s="12"/>
-    </row>
-    <row r="70" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+    </row>
+    <row r="70" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A70" s="13"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
-      <c r="E70" s="15"/>
+      <c r="E70" s="15" t="s">
+        <v>888</v>
+      </c>
       <c r="F70" s="34"/>
       <c r="G70" s="15"/>
       <c r="H70" s="16"/>
@@ -6240,14 +8760,20 @@
       <c r="L70" s="20"/>
       <c r="M70" s="20"/>
       <c r="N70" s="21"/>
-      <c r="R70" s="12"/>
-    </row>
-    <row r="71" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+    </row>
+    <row r="71" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A71" s="13"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
-      <c r="E71" s="15"/>
+      <c r="E71" s="15" t="s">
+        <v>889</v>
+      </c>
       <c r="F71" s="34"/>
       <c r="G71" s="15"/>
       <c r="H71" s="16"/>
@@ -6257,14 +8783,20 @@
       <c r="L71" s="20"/>
       <c r="M71" s="20"/>
       <c r="N71" s="21"/>
-      <c r="R71" s="12"/>
-    </row>
-    <row r="72" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+    </row>
+    <row r="72" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A72" s="13"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
-      <c r="E72" s="15"/>
+      <c r="E72" s="15" t="s">
+        <v>890</v>
+      </c>
       <c r="F72" s="34"/>
       <c r="G72" s="15"/>
       <c r="H72" s="16"/>
@@ -6274,33 +8806,61 @@
       <c r="L72" s="20"/>
       <c r="M72" s="20"/>
       <c r="N72" s="21"/>
-      <c r="R72" s="12"/>
-    </row>
-    <row r="73" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+    </row>
+    <row r="73" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A73" s="13"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
-      <c r="E73" s="15"/>
+      <c r="E73" s="15" t="s">
+        <v>891</v>
+      </c>
       <c r="F73" s="34"/>
-      <c r="G73" s="15"/>
+      <c r="G73" s="15" t="s">
+        <v>892</v>
+      </c>
       <c r="H73" s="16"/>
       <c r="I73" s="17"/>
-      <c r="J73" s="18"/>
+      <c r="J73" s="18" t="s">
+        <v>905</v>
+      </c>
       <c r="K73" s="19"/>
       <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
+      <c r="M73" s="20" t="s">
+        <v>906</v>
+      </c>
       <c r="N73" s="21"/>
-      <c r="R73" s="12"/>
-    </row>
-    <row r="74" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+    </row>
+    <row r="74" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A74" s="13"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="15"/>
+      <c r="B74" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>954</v>
+      </c>
+      <c r="F74" s="34" t="s">
+        <v>955</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>956</v>
+      </c>
       <c r="H74" s="16"/>
       <c r="I74" s="17"/>
       <c r="J74" s="18"/>
@@ -6308,16 +8868,26 @@
       <c r="L74" s="20"/>
       <c r="M74" s="20"/>
       <c r="N74" s="21"/>
-      <c r="R74" s="12"/>
-    </row>
-    <row r="75" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+    </row>
+    <row r="75" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A75" s="13"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="15"/>
+      <c r="E75" s="15" t="s">
+        <v>959</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>957</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>958</v>
+      </c>
       <c r="H75" s="16"/>
       <c r="I75" s="17"/>
       <c r="J75" s="18"/>
@@ -6325,16 +8895,26 @@
       <c r="L75" s="20"/>
       <c r="M75" s="20"/>
       <c r="N75" s="21"/>
-      <c r="R75" s="12"/>
-    </row>
-    <row r="76" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+    </row>
+    <row r="76" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A76" s="13"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="15"/>
+      <c r="E76" s="15" t="s">
+        <v>963</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>960</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>961</v>
+      </c>
       <c r="H76" s="16"/>
       <c r="I76" s="17"/>
       <c r="J76" s="18"/>
@@ -6342,26 +8922,44 @@
       <c r="L76" s="20"/>
       <c r="M76" s="20"/>
       <c r="N76" s="21"/>
-      <c r="R76" s="12"/>
-    </row>
-    <row r="77" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="20"/>
+    </row>
+    <row r="77" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A77" s="13"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="15"/>
+      <c r="E77" s="15" t="s">
+        <v>962</v>
+      </c>
+      <c r="F77" s="34" t="s">
+        <v>960</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>961</v>
+      </c>
       <c r="H77" s="16"/>
       <c r="I77" s="17"/>
-      <c r="J77" s="18"/>
+      <c r="J77" s="18" t="s">
+        <v>964</v>
+      </c>
       <c r="K77" s="19"/>
       <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
+      <c r="M77" s="20" t="s">
+        <v>965</v>
+      </c>
       <c r="N77" s="21"/>
-      <c r="R77" s="12"/>
-    </row>
-    <row r="78" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+    </row>
+    <row r="78" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A78" s="13"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -6376,9 +8974,13 @@
       <c r="L78" s="20"/>
       <c r="M78" s="20"/>
       <c r="N78" s="21"/>
-      <c r="R78" s="12"/>
-    </row>
-    <row r="79" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="20"/>
+    </row>
+    <row r="79" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A79" s="13"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -6393,16 +8995,32 @@
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>
       <c r="N79" s="21"/>
-      <c r="R79" s="12"/>
-    </row>
-    <row r="80" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="20"/>
+    </row>
+    <row r="80" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A80" s="13"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="15"/>
+      <c r="B80" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="F80" s="34" t="s">
+        <v>901</v>
+      </c>
+      <c r="G80" s="34" t="s">
+        <v>902</v>
+      </c>
       <c r="H80" s="16"/>
       <c r="I80" s="17"/>
       <c r="J80" s="18"/>
@@ -6410,16 +9028,26 @@
       <c r="L80" s="20"/>
       <c r="M80" s="20"/>
       <c r="N80" s="21"/>
-      <c r="R80" s="12"/>
-    </row>
-    <row r="81" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="20"/>
+      <c r="S80" s="20"/>
+    </row>
+    <row r="81" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A81" s="13"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="15"/>
+      <c r="E81" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>903</v>
+      </c>
+      <c r="G81" s="34" t="s">
+        <v>904</v>
+      </c>
       <c r="H81" s="16"/>
       <c r="I81" s="17"/>
       <c r="J81" s="18"/>
@@ -6427,16 +9055,26 @@
       <c r="L81" s="20"/>
       <c r="M81" s="20"/>
       <c r="N81" s="21"/>
-      <c r="R81" s="12"/>
-    </row>
-    <row r="82" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="19"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+    </row>
+    <row r="82" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A82" s="13"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="15"/>
+      <c r="E82" s="15" t="s">
+        <v>897</v>
+      </c>
+      <c r="F82" s="34" t="s">
+        <v>903</v>
+      </c>
+      <c r="G82" s="34" t="s">
+        <v>904</v>
+      </c>
       <c r="H82" s="16"/>
       <c r="I82" s="17"/>
       <c r="J82" s="18"/>
@@ -6444,16 +9082,26 @@
       <c r="L82" s="20"/>
       <c r="M82" s="20"/>
       <c r="N82" s="21"/>
-      <c r="R82" s="12"/>
-    </row>
-    <row r="83" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+    </row>
+    <row r="83" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A83" s="13"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="15"/>
+      <c r="E83" s="15" t="s">
+        <v>898</v>
+      </c>
+      <c r="F83" s="34" t="s">
+        <v>903</v>
+      </c>
+      <c r="G83" s="34" t="s">
+        <v>904</v>
+      </c>
       <c r="H83" s="16"/>
       <c r="I83" s="17"/>
       <c r="J83" s="18"/>
@@ -6461,16 +9109,26 @@
       <c r="L83" s="20"/>
       <c r="M83" s="20"/>
       <c r="N83" s="21"/>
-      <c r="R83" s="12"/>
-    </row>
-    <row r="84" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+    </row>
+    <row r="84" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A84" s="13"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="15"/>
+      <c r="E84" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="F84" s="34" t="s">
+        <v>903</v>
+      </c>
+      <c r="G84" s="34" t="s">
+        <v>904</v>
+      </c>
       <c r="H84" s="16"/>
       <c r="I84" s="17"/>
       <c r="J84" s="18"/>
@@ -6478,33 +9136,63 @@
       <c r="L84" s="20"/>
       <c r="M84" s="20"/>
       <c r="N84" s="21"/>
-      <c r="R84" s="12"/>
-    </row>
-    <row r="85" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+    </row>
+    <row r="85" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A85" s="13"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="15"/>
+      <c r="E85" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="F85" s="34" t="s">
+        <v>903</v>
+      </c>
+      <c r="G85" s="34" t="s">
+        <v>904</v>
+      </c>
       <c r="H85" s="16"/>
       <c r="I85" s="17"/>
-      <c r="J85" s="18"/>
+      <c r="J85" s="18" t="s">
+        <v>907</v>
+      </c>
       <c r="K85" s="19"/>
       <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
+      <c r="M85" s="68" t="s">
+        <v>908</v>
+      </c>
       <c r="N85" s="21"/>
-      <c r="R85" s="12"/>
-    </row>
-    <row r="86" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
+    </row>
+    <row r="86" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A86" s="13"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="15"/>
+      <c r="B86" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="F86" s="34" t="s">
+        <v>931</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>932</v>
+      </c>
       <c r="H86" s="16"/>
       <c r="I86" s="17"/>
       <c r="J86" s="18"/>
@@ -6512,16 +9200,26 @@
       <c r="L86" s="20"/>
       <c r="M86" s="20"/>
       <c r="N86" s="21"/>
-      <c r="R86" s="12"/>
-    </row>
-    <row r="87" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+    </row>
+    <row r="87" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A87" s="13"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="15"/>
+      <c r="E87" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="F87" s="34" t="s">
+        <v>931</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>932</v>
+      </c>
       <c r="H87" s="16"/>
       <c r="I87" s="17"/>
       <c r="J87" s="18"/>
@@ -6529,16 +9227,26 @@
       <c r="L87" s="20"/>
       <c r="M87" s="20"/>
       <c r="N87" s="21"/>
-      <c r="R87" s="12"/>
-    </row>
-    <row r="88" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="20"/>
+    </row>
+    <row r="88" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A88" s="13"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="15"/>
+      <c r="E88" s="15" t="s">
+        <v>911</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>931</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>932</v>
+      </c>
       <c r="H88" s="16"/>
       <c r="I88" s="17"/>
       <c r="J88" s="18"/>
@@ -6546,14 +9254,20 @@
       <c r="L88" s="20"/>
       <c r="M88" s="20"/>
       <c r="N88" s="21"/>
-      <c r="R88" s="12"/>
-    </row>
-    <row r="89" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="20"/>
+      <c r="S88" s="20"/>
+    </row>
+    <row r="89" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
+      <c r="E89" s="15" t="s">
+        <v>912</v>
+      </c>
       <c r="F89" s="34"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16"/>
@@ -6563,14 +9277,20 @@
       <c r="L89" s="20"/>
       <c r="M89" s="20"/>
       <c r="N89" s="21"/>
-      <c r="R89" s="12"/>
-    </row>
-    <row r="90" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="20"/>
+    </row>
+    <row r="90" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A90" s="13"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
-      <c r="E90" s="15"/>
+      <c r="E90" s="15" t="s">
+        <v>913</v>
+      </c>
       <c r="F90" s="34"/>
       <c r="G90" s="15"/>
       <c r="H90" s="16"/>
@@ -6580,14 +9300,20 @@
       <c r="L90" s="20"/>
       <c r="M90" s="20"/>
       <c r="N90" s="21"/>
-      <c r="R90" s="12"/>
-    </row>
-    <row r="91" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="20"/>
+      <c r="S90" s="20"/>
+    </row>
+    <row r="91" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A91" s="13"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
-      <c r="E91" s="15"/>
+      <c r="E91" s="15" t="s">
+        <v>914</v>
+      </c>
       <c r="F91" s="34"/>
       <c r="G91" s="15"/>
       <c r="H91" s="16"/>
@@ -6597,14 +9323,20 @@
       <c r="L91" s="20"/>
       <c r="M91" s="20"/>
       <c r="N91" s="21"/>
-      <c r="R91" s="12"/>
-    </row>
-    <row r="92" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="20"/>
+      <c r="S91" s="20"/>
+    </row>
+    <row r="92" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A92" s="13"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
-      <c r="E92" s="15"/>
+      <c r="E92" s="15" t="s">
+        <v>915</v>
+      </c>
       <c r="F92" s="34"/>
       <c r="G92" s="15"/>
       <c r="H92" s="16"/>
@@ -6614,14 +9346,20 @@
       <c r="L92" s="20"/>
       <c r="M92" s="20"/>
       <c r="N92" s="21"/>
-      <c r="R92" s="12"/>
-    </row>
-    <row r="93" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="20"/>
+      <c r="S92" s="20"/>
+    </row>
+    <row r="93" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A93" s="13"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
-      <c r="E93" s="15"/>
+      <c r="E93" s="15" t="s">
+        <v>916</v>
+      </c>
       <c r="F93" s="34"/>
       <c r="G93" s="15"/>
       <c r="H93" s="16"/>
@@ -6631,14 +9369,20 @@
       <c r="L93" s="20"/>
       <c r="M93" s="20"/>
       <c r="N93" s="21"/>
-      <c r="R93" s="12"/>
-    </row>
-    <row r="94" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="20"/>
+      <c r="S93" s="20"/>
+    </row>
+    <row r="94" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A94" s="13"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
+      <c r="E94" s="15" t="s">
+        <v>917</v>
+      </c>
       <c r="F94" s="34"/>
       <c r="G94" s="15"/>
       <c r="H94" s="16"/>
@@ -6648,14 +9392,20 @@
       <c r="L94" s="20"/>
       <c r="M94" s="20"/>
       <c r="N94" s="21"/>
-      <c r="R94" s="12"/>
-    </row>
-    <row r="95" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O94" s="18"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="20"/>
+      <c r="S94" s="20"/>
+    </row>
+    <row r="95" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A95" s="13"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
-      <c r="E95" s="15"/>
+      <c r="E95" s="15" t="s">
+        <v>918</v>
+      </c>
       <c r="F95" s="34"/>
       <c r="G95" s="15"/>
       <c r="H95" s="16"/>
@@ -6665,14 +9415,20 @@
       <c r="L95" s="20"/>
       <c r="M95" s="20"/>
       <c r="N95" s="21"/>
-      <c r="R95" s="12"/>
-    </row>
-    <row r="96" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="20"/>
+      <c r="S95" s="20"/>
+    </row>
+    <row r="96" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A96" s="13"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
-      <c r="E96" s="15"/>
+      <c r="E96" s="15" t="s">
+        <v>919</v>
+      </c>
       <c r="F96" s="34"/>
       <c r="G96" s="15"/>
       <c r="H96" s="16"/>
@@ -6682,14 +9438,20 @@
       <c r="L96" s="20"/>
       <c r="M96" s="20"/>
       <c r="N96" s="21"/>
-      <c r="R96" s="12"/>
-    </row>
-    <row r="97" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="20"/>
+      <c r="S96" s="20"/>
+    </row>
+    <row r="97" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A97" s="13"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
       <c r="D97" s="14"/>
-      <c r="E97" s="15"/>
+      <c r="E97" s="15" t="s">
+        <v>920</v>
+      </c>
       <c r="F97" s="34"/>
       <c r="G97" s="15"/>
       <c r="H97" s="16"/>
@@ -6699,14 +9461,20 @@
       <c r="L97" s="20"/>
       <c r="M97" s="20"/>
       <c r="N97" s="21"/>
-      <c r="R97" s="12"/>
-    </row>
-    <row r="98" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O97" s="18"/>
+      <c r="P97" s="18"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="20"/>
+      <c r="S97" s="20"/>
+    </row>
+    <row r="98" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A98" s="13"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
-      <c r="E98" s="15"/>
+      <c r="E98" s="15" t="s">
+        <v>921</v>
+      </c>
       <c r="F98" s="34"/>
       <c r="G98" s="15"/>
       <c r="H98" s="16"/>
@@ -6716,14 +9484,20 @@
       <c r="L98" s="20"/>
       <c r="M98" s="20"/>
       <c r="N98" s="21"/>
-      <c r="R98" s="12"/>
-    </row>
-    <row r="99" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="20"/>
+      <c r="S98" s="20"/>
+    </row>
+    <row r="99" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A99" s="13"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
-      <c r="E99" s="15"/>
+      <c r="E99" s="15" t="s">
+        <v>922</v>
+      </c>
       <c r="F99" s="34"/>
       <c r="G99" s="15"/>
       <c r="H99" s="16"/>
@@ -6733,14 +9507,20 @@
       <c r="L99" s="20"/>
       <c r="M99" s="20"/>
       <c r="N99" s="21"/>
-      <c r="R99" s="12"/>
-    </row>
-    <row r="100" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="20"/>
+      <c r="S99" s="20"/>
+    </row>
+    <row r="100" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A100" s="13"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
-      <c r="E100" s="15"/>
+      <c r="E100" s="15" t="s">
+        <v>923</v>
+      </c>
       <c r="F100" s="34"/>
       <c r="G100" s="15"/>
       <c r="H100" s="16"/>
@@ -6750,14 +9530,20 @@
       <c r="L100" s="20"/>
       <c r="M100" s="20"/>
       <c r="N100" s="21"/>
-      <c r="R100" s="12"/>
-    </row>
-    <row r="101" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O100" s="18"/>
+      <c r="P100" s="18"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="20"/>
+      <c r="S100" s="20"/>
+    </row>
+    <row r="101" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
-      <c r="E101" s="15"/>
+      <c r="E101" s="15" t="s">
+        <v>924</v>
+      </c>
       <c r="F101" s="34"/>
       <c r="G101" s="15"/>
       <c r="H101" s="16"/>
@@ -6767,14 +9553,20 @@
       <c r="L101" s="20"/>
       <c r="M101" s="20"/>
       <c r="N101" s="21"/>
-      <c r="R101" s="12"/>
-    </row>
-    <row r="102" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O101" s="18"/>
+      <c r="P101" s="18"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="20"/>
+      <c r="S101" s="20"/>
+    </row>
+    <row r="102" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A102" s="13"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
-      <c r="E102" s="15"/>
+      <c r="E102" s="15" t="s">
+        <v>925</v>
+      </c>
       <c r="F102" s="34"/>
       <c r="G102" s="15"/>
       <c r="H102" s="16"/>
@@ -6784,14 +9576,20 @@
       <c r="L102" s="20"/>
       <c r="M102" s="20"/>
       <c r="N102" s="21"/>
-      <c r="R102" s="12"/>
-    </row>
-    <row r="103" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="20"/>
+      <c r="S102" s="20"/>
+    </row>
+    <row r="103" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A103" s="13"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
-      <c r="E103" s="15"/>
+      <c r="E103" s="15" t="s">
+        <v>926</v>
+      </c>
       <c r="F103" s="34"/>
       <c r="G103" s="15"/>
       <c r="H103" s="16"/>
@@ -6801,14 +9599,20 @@
       <c r="L103" s="20"/>
       <c r="M103" s="20"/>
       <c r="N103" s="21"/>
-      <c r="R103" s="12"/>
-    </row>
-    <row r="104" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O103" s="18"/>
+      <c r="P103" s="18"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="20"/>
+      <c r="S103" s="20"/>
+    </row>
+    <row r="104" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A104" s="13"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
-      <c r="E104" s="15"/>
+      <c r="E104" s="15" t="s">
+        <v>927</v>
+      </c>
       <c r="F104" s="34"/>
       <c r="G104" s="15"/>
       <c r="H104" s="16"/>
@@ -6818,14 +9622,20 @@
       <c r="L104" s="20"/>
       <c r="M104" s="20"/>
       <c r="N104" s="21"/>
-      <c r="R104" s="12"/>
-    </row>
-    <row r="105" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O104" s="18"/>
+      <c r="P104" s="18"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="20"/>
+      <c r="S104" s="20"/>
+    </row>
+    <row r="105" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
       <c r="D105" s="14"/>
-      <c r="E105" s="15"/>
+      <c r="E105" s="15" t="s">
+        <v>928</v>
+      </c>
       <c r="F105" s="34"/>
       <c r="G105" s="15"/>
       <c r="H105" s="16"/>
@@ -6835,14 +9645,20 @@
       <c r="L105" s="20"/>
       <c r="M105" s="20"/>
       <c r="N105" s="21"/>
-      <c r="R105" s="12"/>
-    </row>
-    <row r="106" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O105" s="18"/>
+      <c r="P105" s="18"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="20"/>
+      <c r="S105" s="20"/>
+    </row>
+    <row r="106" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
-      <c r="E106" s="15"/>
+      <c r="E106" s="15" t="s">
+        <v>929</v>
+      </c>
       <c r="F106" s="34"/>
       <c r="G106" s="15"/>
       <c r="H106" s="16"/>
@@ -6852,33 +9668,59 @@
       <c r="L106" s="20"/>
       <c r="M106" s="20"/>
       <c r="N106" s="21"/>
-      <c r="R106" s="12"/>
-    </row>
-    <row r="107" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O106" s="18"/>
+      <c r="P106" s="18"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="20"/>
+      <c r="S106" s="20"/>
+    </row>
+    <row r="107" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A107" s="13"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
       <c r="D107" s="14"/>
-      <c r="E107" s="15"/>
+      <c r="E107" s="15" t="s">
+        <v>930</v>
+      </c>
       <c r="F107" s="34"/>
       <c r="G107" s="15"/>
       <c r="H107" s="16"/>
       <c r="I107" s="17"/>
-      <c r="J107" s="18"/>
+      <c r="J107" s="18" t="s">
+        <v>933</v>
+      </c>
       <c r="K107" s="19"/>
       <c r="L107" s="20"/>
-      <c r="M107" s="20"/>
+      <c r="M107" s="20" t="s">
+        <v>934</v>
+      </c>
       <c r="N107" s="21"/>
-      <c r="R107" s="12"/>
-    </row>
-    <row r="108" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O107" s="18"/>
+      <c r="P107" s="18"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="20"/>
+      <c r="S107" s="20"/>
+    </row>
+    <row r="108" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A108" s="13"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="34"/>
-      <c r="G108" s="15"/>
+      <c r="B108" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>936</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="F108" s="34" t="s">
+        <v>948</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>949</v>
+      </c>
       <c r="H108" s="16"/>
       <c r="I108" s="17"/>
       <c r="J108" s="18"/>
@@ -6886,14 +9728,20 @@
       <c r="L108" s="20"/>
       <c r="M108" s="20"/>
       <c r="N108" s="21"/>
-      <c r="R108" s="12"/>
-    </row>
-    <row r="109" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="20"/>
+      <c r="S108" s="20"/>
+    </row>
+    <row r="109" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A109" s="13"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
       <c r="D109" s="14"/>
-      <c r="E109" s="15"/>
+      <c r="E109" s="15" t="s">
+        <v>947</v>
+      </c>
       <c r="F109" s="34"/>
       <c r="G109" s="15"/>
       <c r="H109" s="16"/>
@@ -6903,14 +9751,20 @@
       <c r="L109" s="20"/>
       <c r="M109" s="20"/>
       <c r="N109" s="21"/>
-      <c r="R109" s="12"/>
-    </row>
-    <row r="110" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O109" s="18"/>
+      <c r="P109" s="18"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="20"/>
+      <c r="S109" s="20"/>
+    </row>
+    <row r="110" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A110" s="13"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
-      <c r="E110" s="15"/>
+      <c r="E110" s="15" t="s">
+        <v>938</v>
+      </c>
       <c r="F110" s="34"/>
       <c r="G110" s="15"/>
       <c r="H110" s="16"/>
@@ -6920,14 +9774,20 @@
       <c r="L110" s="20"/>
       <c r="M110" s="20"/>
       <c r="N110" s="21"/>
-      <c r="R110" s="12"/>
-    </row>
-    <row r="111" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O110" s="18"/>
+      <c r="P110" s="18"/>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="20"/>
+      <c r="S110" s="20"/>
+    </row>
+    <row r="111" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A111" s="13"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
       <c r="D111" s="14"/>
-      <c r="E111" s="15"/>
+      <c r="E111" s="15" t="s">
+        <v>939</v>
+      </c>
       <c r="F111" s="34"/>
       <c r="G111" s="15"/>
       <c r="H111" s="16"/>
@@ -6937,14 +9797,20 @@
       <c r="L111" s="20"/>
       <c r="M111" s="20"/>
       <c r="N111" s="21"/>
-      <c r="R111" s="12"/>
-    </row>
-    <row r="112" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O111" s="18"/>
+      <c r="P111" s="18"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="20"/>
+      <c r="S111" s="20"/>
+    </row>
+    <row r="112" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A112" s="13"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
       <c r="D112" s="14"/>
-      <c r="E112" s="15"/>
+      <c r="E112" s="15" t="s">
+        <v>940</v>
+      </c>
       <c r="F112" s="34"/>
       <c r="G112" s="15"/>
       <c r="H112" s="16"/>
@@ -6954,14 +9820,20 @@
       <c r="L112" s="20"/>
       <c r="M112" s="20"/>
       <c r="N112" s="21"/>
-      <c r="R112" s="12"/>
-    </row>
-    <row r="113" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O112" s="18"/>
+      <c r="P112" s="18"/>
+      <c r="Q112" s="19"/>
+      <c r="R112" s="20"/>
+      <c r="S112" s="20"/>
+    </row>
+    <row r="113" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A113" s="13"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
       <c r="D113" s="14"/>
-      <c r="E113" s="15"/>
+      <c r="E113" s="15" t="s">
+        <v>941</v>
+      </c>
       <c r="F113" s="34"/>
       <c r="G113" s="15"/>
       <c r="H113" s="16"/>
@@ -6971,14 +9843,20 @@
       <c r="L113" s="20"/>
       <c r="M113" s="20"/>
       <c r="N113" s="21"/>
-      <c r="R113" s="12"/>
-    </row>
-    <row r="114" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O113" s="18"/>
+      <c r="P113" s="18"/>
+      <c r="Q113" s="19"/>
+      <c r="R113" s="20"/>
+      <c r="S113" s="20"/>
+    </row>
+    <row r="114" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A114" s="13"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
-      <c r="E114" s="15"/>
+      <c r="E114" s="15" t="s">
+        <v>942</v>
+      </c>
       <c r="F114" s="34"/>
       <c r="G114" s="15"/>
       <c r="H114" s="16"/>
@@ -6988,14 +9866,20 @@
       <c r="L114" s="20"/>
       <c r="M114" s="20"/>
       <c r="N114" s="21"/>
-      <c r="R114" s="12"/>
-    </row>
-    <row r="115" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O114" s="18"/>
+      <c r="P114" s="18"/>
+      <c r="Q114" s="19"/>
+      <c r="R114" s="20"/>
+      <c r="S114" s="20"/>
+    </row>
+    <row r="115" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A115" s="13"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
-      <c r="E115" s="15"/>
+      <c r="E115" s="15" t="s">
+        <v>943</v>
+      </c>
       <c r="F115" s="34"/>
       <c r="G115" s="15"/>
       <c r="H115" s="16"/>
@@ -7005,14 +9889,20 @@
       <c r="L115" s="20"/>
       <c r="M115" s="20"/>
       <c r="N115" s="21"/>
-      <c r="R115" s="12"/>
-    </row>
-    <row r="116" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O115" s="18"/>
+      <c r="P115" s="18"/>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="20"/>
+      <c r="S115" s="20"/>
+    </row>
+    <row r="116" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A116" s="13"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
-      <c r="E116" s="15"/>
+      <c r="E116" s="15" t="s">
+        <v>944</v>
+      </c>
       <c r="F116" s="34"/>
       <c r="G116" s="15"/>
       <c r="H116" s="16"/>
@@ -7022,16 +9912,32 @@
       <c r="L116" s="20"/>
       <c r="M116" s="20"/>
       <c r="N116" s="21"/>
-      <c r="R116" s="12"/>
-    </row>
-    <row r="117" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O116" s="18"/>
+      <c r="P116" s="18"/>
+      <c r="Q116" s="19"/>
+      <c r="R116" s="20"/>
+      <c r="S116" s="20"/>
+    </row>
+    <row r="117" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A117" s="13"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="15"/>
+      <c r="B117" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="F117" s="34" t="s">
+        <v>950</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>951</v>
+      </c>
       <c r="H117" s="16"/>
       <c r="I117" s="17"/>
       <c r="J117" s="18"/>
@@ -7039,26 +9945,40 @@
       <c r="L117" s="20"/>
       <c r="M117" s="20"/>
       <c r="N117" s="21"/>
-      <c r="R117" s="12"/>
-    </row>
-    <row r="118" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O117" s="18"/>
+      <c r="P117" s="18"/>
+      <c r="Q117" s="19"/>
+      <c r="R117" s="20"/>
+      <c r="S117" s="20"/>
+    </row>
+    <row r="118" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
       <c r="D118" s="14"/>
-      <c r="E118" s="15"/>
+      <c r="E118" s="15" t="s">
+        <v>946</v>
+      </c>
       <c r="F118" s="34"/>
       <c r="G118" s="15"/>
       <c r="H118" s="16"/>
       <c r="I118" s="17"/>
-      <c r="J118" s="18"/>
+      <c r="J118" s="18" t="s">
+        <v>953</v>
+      </c>
       <c r="K118" s="19"/>
       <c r="L118" s="20"/>
-      <c r="M118" s="20"/>
+      <c r="M118" s="20" t="s">
+        <v>952</v>
+      </c>
       <c r="N118" s="21"/>
-      <c r="R118" s="12"/>
-    </row>
-    <row r="119" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O118" s="18"/>
+      <c r="P118" s="18"/>
+      <c r="Q118" s="19"/>
+      <c r="R118" s="20"/>
+      <c r="S118" s="20"/>
+    </row>
+    <row r="119" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -7073,9 +9993,13 @@
       <c r="L119" s="20"/>
       <c r="M119" s="20"/>
       <c r="N119" s="21"/>
-      <c r="R119" s="12"/>
-    </row>
-    <row r="120" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O119" s="18"/>
+      <c r="P119" s="18"/>
+      <c r="Q119" s="19"/>
+      <c r="R119" s="20"/>
+      <c r="S119" s="20"/>
+    </row>
+    <row r="120" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A120" s="13"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -7090,9 +10014,13 @@
       <c r="L120" s="20"/>
       <c r="M120" s="20"/>
       <c r="N120" s="21"/>
-      <c r="R120" s="12"/>
-    </row>
-    <row r="121" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O120" s="18"/>
+      <c r="P120" s="18"/>
+      <c r="Q120" s="19"/>
+      <c r="R120" s="20"/>
+      <c r="S120" s="20"/>
+    </row>
+    <row r="121" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A121" s="13"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -7107,9 +10035,13 @@
       <c r="L121" s="20"/>
       <c r="M121" s="20"/>
       <c r="N121" s="21"/>
-      <c r="R121" s="12"/>
-    </row>
-    <row r="122" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O121" s="18"/>
+      <c r="P121" s="18"/>
+      <c r="Q121" s="19"/>
+      <c r="R121" s="20"/>
+      <c r="S121" s="20"/>
+    </row>
+    <row r="122" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A122" s="13"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -7124,9 +10056,13 @@
       <c r="L122" s="20"/>
       <c r="M122" s="20"/>
       <c r="N122" s="21"/>
-      <c r="R122" s="12"/>
-    </row>
-    <row r="123" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O122" s="18"/>
+      <c r="P122" s="18"/>
+      <c r="Q122" s="19"/>
+      <c r="R122" s="20"/>
+      <c r="S122" s="20"/>
+    </row>
+    <row r="123" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -7141,9 +10077,13 @@
       <c r="L123" s="20"/>
       <c r="M123" s="20"/>
       <c r="N123" s="21"/>
-      <c r="R123" s="12"/>
-    </row>
-    <row r="124" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
+      <c r="Q123" s="19"/>
+      <c r="R123" s="20"/>
+      <c r="S123" s="20"/>
+    </row>
+    <row r="124" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A124" s="13"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -7158,9 +10098,13 @@
       <c r="L124" s="20"/>
       <c r="M124" s="20"/>
       <c r="N124" s="21"/>
-      <c r="R124" s="12"/>
-    </row>
-    <row r="125" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O124" s="18"/>
+      <c r="P124" s="18"/>
+      <c r="Q124" s="19"/>
+      <c r="R124" s="20"/>
+      <c r="S124" s="20"/>
+    </row>
+    <row r="125" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A125" s="13"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -7175,9 +10119,13 @@
       <c r="L125" s="20"/>
       <c r="M125" s="20"/>
       <c r="N125" s="21"/>
-      <c r="R125" s="12"/>
-    </row>
-    <row r="126" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O125" s="18"/>
+      <c r="P125" s="18"/>
+      <c r="Q125" s="19"/>
+      <c r="R125" s="20"/>
+      <c r="S125" s="20"/>
+    </row>
+    <row r="126" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A126" s="13"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -7192,9 +10140,13 @@
       <c r="L126" s="20"/>
       <c r="M126" s="20"/>
       <c r="N126" s="21"/>
-      <c r="R126" s="12"/>
-    </row>
-    <row r="127" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O126" s="18"/>
+      <c r="P126" s="18"/>
+      <c r="Q126" s="19"/>
+      <c r="R126" s="20"/>
+      <c r="S126" s="20"/>
+    </row>
+    <row r="127" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -7209,9 +10161,13 @@
       <c r="L127" s="20"/>
       <c r="M127" s="20"/>
       <c r="N127" s="21"/>
-      <c r="R127" s="12"/>
-    </row>
-    <row r="128" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O127" s="18"/>
+      <c r="P127" s="18"/>
+      <c r="Q127" s="19"/>
+      <c r="R127" s="20"/>
+      <c r="S127" s="20"/>
+    </row>
+    <row r="128" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A128" s="13"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -7226,9 +10182,13 @@
       <c r="L128" s="20"/>
       <c r="M128" s="20"/>
       <c r="N128" s="21"/>
-      <c r="R128" s="12"/>
-    </row>
-    <row r="129" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O128" s="18"/>
+      <c r="P128" s="18"/>
+      <c r="Q128" s="19"/>
+      <c r="R128" s="20"/>
+      <c r="S128" s="20"/>
+    </row>
+    <row r="129" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A129" s="13"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -7243,9 +10203,13 @@
       <c r="L129" s="20"/>
       <c r="M129" s="20"/>
       <c r="N129" s="21"/>
-      <c r="R129" s="12"/>
-    </row>
-    <row r="130" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O129" s="18"/>
+      <c r="P129" s="18"/>
+      <c r="Q129" s="19"/>
+      <c r="R129" s="20"/>
+      <c r="S129" s="20"/>
+    </row>
+    <row r="130" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A130" s="13"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -7260,9 +10224,13 @@
       <c r="L130" s="20"/>
       <c r="M130" s="20"/>
       <c r="N130" s="21"/>
-      <c r="R130" s="12"/>
-    </row>
-    <row r="131" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O130" s="18"/>
+      <c r="P130" s="18"/>
+      <c r="Q130" s="19"/>
+      <c r="R130" s="20"/>
+      <c r="S130" s="20"/>
+    </row>
+    <row r="131" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A131" s="13"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -7277,9 +10245,13 @@
       <c r="L131" s="20"/>
       <c r="M131" s="20"/>
       <c r="N131" s="21"/>
-      <c r="R131" s="12"/>
-    </row>
-    <row r="132" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O131" s="18"/>
+      <c r="P131" s="18"/>
+      <c r="Q131" s="19"/>
+      <c r="R131" s="20"/>
+      <c r="S131" s="20"/>
+    </row>
+    <row r="132" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A132" s="13"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -7294,9 +10266,13 @@
       <c r="L132" s="20"/>
       <c r="M132" s="20"/>
       <c r="N132" s="21"/>
-      <c r="R132" s="12"/>
-    </row>
-    <row r="133" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O132" s="18"/>
+      <c r="P132" s="18"/>
+      <c r="Q132" s="19"/>
+      <c r="R132" s="20"/>
+      <c r="S132" s="20"/>
+    </row>
+    <row r="133" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A133" s="13"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -7311,9 +10287,13 @@
       <c r="L133" s="20"/>
       <c r="M133" s="20"/>
       <c r="N133" s="21"/>
-      <c r="R133" s="12"/>
-    </row>
-    <row r="134" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O133" s="18"/>
+      <c r="P133" s="18"/>
+      <c r="Q133" s="19"/>
+      <c r="R133" s="20"/>
+      <c r="S133" s="20"/>
+    </row>
+    <row r="134" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A134" s="13"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -7328,9 +10308,13 @@
       <c r="L134" s="20"/>
       <c r="M134" s="20"/>
       <c r="N134" s="21"/>
-      <c r="R134" s="12"/>
-    </row>
-    <row r="135" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O134" s="18"/>
+      <c r="P134" s="18"/>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="20"/>
+      <c r="S134" s="20"/>
+    </row>
+    <row r="135" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A135" s="13"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -7345,9 +10329,13 @@
       <c r="L135" s="20"/>
       <c r="M135" s="20"/>
       <c r="N135" s="21"/>
-      <c r="R135" s="12"/>
-    </row>
-    <row r="136" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O135" s="18"/>
+      <c r="P135" s="18"/>
+      <c r="Q135" s="19"/>
+      <c r="R135" s="20"/>
+      <c r="S135" s="20"/>
+    </row>
+    <row r="136" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A136" s="13"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -7362,9 +10350,13 @@
       <c r="L136" s="20"/>
       <c r="M136" s="20"/>
       <c r="N136" s="21"/>
-      <c r="R136" s="12"/>
-    </row>
-    <row r="137" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O136" s="18"/>
+      <c r="P136" s="18"/>
+      <c r="Q136" s="19"/>
+      <c r="R136" s="20"/>
+      <c r="S136" s="20"/>
+    </row>
+    <row r="137" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A137" s="13"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -7379,9 +10371,13 @@
       <c r="L137" s="20"/>
       <c r="M137" s="20"/>
       <c r="N137" s="21"/>
-      <c r="R137" s="12"/>
-    </row>
-    <row r="138" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O137" s="18"/>
+      <c r="P137" s="18"/>
+      <c r="Q137" s="19"/>
+      <c r="R137" s="20"/>
+      <c r="S137" s="20"/>
+    </row>
+    <row r="138" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A138" s="13"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -7396,9 +10392,13 @@
       <c r="L138" s="20"/>
       <c r="M138" s="20"/>
       <c r="N138" s="21"/>
-      <c r="R138" s="12"/>
-    </row>
-    <row r="139" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O138" s="18"/>
+      <c r="P138" s="18"/>
+      <c r="Q138" s="19"/>
+      <c r="R138" s="20"/>
+      <c r="S138" s="20"/>
+    </row>
+    <row r="139" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A139" s="13"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -7413,9 +10413,13 @@
       <c r="L139" s="20"/>
       <c r="M139" s="20"/>
       <c r="N139" s="21"/>
-      <c r="R139" s="12"/>
-    </row>
-    <row r="140" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O139" s="18"/>
+      <c r="P139" s="18"/>
+      <c r="Q139" s="19"/>
+      <c r="R139" s="20"/>
+      <c r="S139" s="20"/>
+    </row>
+    <row r="140" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A140" s="13"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -7430,9 +10434,13 @@
       <c r="L140" s="20"/>
       <c r="M140" s="20"/>
       <c r="N140" s="21"/>
-      <c r="R140" s="12"/>
-    </row>
-    <row r="141" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O140" s="18"/>
+      <c r="P140" s="18"/>
+      <c r="Q140" s="19"/>
+      <c r="R140" s="20"/>
+      <c r="S140" s="20"/>
+    </row>
+    <row r="141" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A141" s="13"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -7447,9 +10455,13 @@
       <c r="L141" s="20"/>
       <c r="M141" s="20"/>
       <c r="N141" s="21"/>
-      <c r="R141" s="12"/>
-    </row>
-    <row r="142" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O141" s="18"/>
+      <c r="P141" s="18"/>
+      <c r="Q141" s="19"/>
+      <c r="R141" s="20"/>
+      <c r="S141" s="20"/>
+    </row>
+    <row r="142" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A142" s="13"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
@@ -7464,9 +10476,13 @@
       <c r="L142" s="20"/>
       <c r="M142" s="20"/>
       <c r="N142" s="21"/>
-      <c r="R142" s="12"/>
-    </row>
-    <row r="143" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O142" s="18"/>
+      <c r="P142" s="18"/>
+      <c r="Q142" s="19"/>
+      <c r="R142" s="20"/>
+      <c r="S142" s="20"/>
+    </row>
+    <row r="143" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A143" s="13"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -7481,9 +10497,13 @@
       <c r="L143" s="20"/>
       <c r="M143" s="20"/>
       <c r="N143" s="21"/>
-      <c r="R143" s="12"/>
-    </row>
-    <row r="144" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O143" s="18"/>
+      <c r="P143" s="18"/>
+      <c r="Q143" s="19"/>
+      <c r="R143" s="20"/>
+      <c r="S143" s="20"/>
+    </row>
+    <row r="144" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A144" s="13"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
@@ -7498,9 +10518,13 @@
       <c r="L144" s="20"/>
       <c r="M144" s="20"/>
       <c r="N144" s="21"/>
-      <c r="R144" s="12"/>
-    </row>
-    <row r="145" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O144" s="18"/>
+      <c r="P144" s="18"/>
+      <c r="Q144" s="19"/>
+      <c r="R144" s="20"/>
+      <c r="S144" s="20"/>
+    </row>
+    <row r="145" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A145" s="13"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -7515,9 +10539,13 @@
       <c r="L145" s="20"/>
       <c r="M145" s="20"/>
       <c r="N145" s="21"/>
-      <c r="R145" s="12"/>
-    </row>
-    <row r="146" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O145" s="18"/>
+      <c r="P145" s="18"/>
+      <c r="Q145" s="19"/>
+      <c r="R145" s="20"/>
+      <c r="S145" s="20"/>
+    </row>
+    <row r="146" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A146" s="13"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -7532,9 +10560,13 @@
       <c r="L146" s="20"/>
       <c r="M146" s="20"/>
       <c r="N146" s="21"/>
-      <c r="R146" s="12"/>
-    </row>
-    <row r="147" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O146" s="18"/>
+      <c r="P146" s="18"/>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="20"/>
+      <c r="S146" s="20"/>
+    </row>
+    <row r="147" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -7549,9 +10581,13 @@
       <c r="L147" s="20"/>
       <c r="M147" s="20"/>
       <c r="N147" s="21"/>
-      <c r="R147" s="12"/>
-    </row>
-    <row r="148" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O147" s="18"/>
+      <c r="P147" s="18"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="20"/>
+      <c r="S147" s="20"/>
+    </row>
+    <row r="148" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A148" s="13"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -7566,9 +10602,13 @@
       <c r="L148" s="20"/>
       <c r="M148" s="20"/>
       <c r="N148" s="21"/>
-      <c r="R148" s="12"/>
-    </row>
-    <row r="149" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O148" s="18"/>
+      <c r="P148" s="18"/>
+      <c r="Q148" s="19"/>
+      <c r="R148" s="20"/>
+      <c r="S148" s="20"/>
+    </row>
+    <row r="149" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A149" s="13"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -7583,9 +10623,13 @@
       <c r="L149" s="20"/>
       <c r="M149" s="20"/>
       <c r="N149" s="21"/>
-      <c r="R149" s="12"/>
-    </row>
-    <row r="150" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O149" s="18"/>
+      <c r="P149" s="18"/>
+      <c r="Q149" s="19"/>
+      <c r="R149" s="20"/>
+      <c r="S149" s="20"/>
+    </row>
+    <row r="150" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A150" s="13"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -7600,9 +10644,13 @@
       <c r="L150" s="20"/>
       <c r="M150" s="20"/>
       <c r="N150" s="21"/>
-      <c r="R150" s="12"/>
-    </row>
-    <row r="151" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O150" s="18"/>
+      <c r="P150" s="18"/>
+      <c r="Q150" s="19"/>
+      <c r="R150" s="20"/>
+      <c r="S150" s="20"/>
+    </row>
+    <row r="151" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A151" s="13"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -7617,9 +10665,13 @@
       <c r="L151" s="20"/>
       <c r="M151" s="20"/>
       <c r="N151" s="21"/>
-      <c r="R151" s="12"/>
-    </row>
-    <row r="152" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O151" s="18"/>
+      <c r="P151" s="18"/>
+      <c r="Q151" s="19"/>
+      <c r="R151" s="20"/>
+      <c r="S151" s="20"/>
+    </row>
+    <row r="152" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A152" s="13"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -7634,9 +10686,13 @@
       <c r="L152" s="20"/>
       <c r="M152" s="20"/>
       <c r="N152" s="21"/>
-      <c r="R152" s="12"/>
-    </row>
-    <row r="153" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O152" s="18"/>
+      <c r="P152" s="18"/>
+      <c r="Q152" s="19"/>
+      <c r="R152" s="20"/>
+      <c r="S152" s="20"/>
+    </row>
+    <row r="153" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A153" s="13"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -7651,9 +10707,13 @@
       <c r="L153" s="20"/>
       <c r="M153" s="20"/>
       <c r="N153" s="21"/>
-      <c r="R153" s="12"/>
-    </row>
-    <row r="154" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O153" s="18"/>
+      <c r="P153" s="18"/>
+      <c r="Q153" s="19"/>
+      <c r="R153" s="20"/>
+      <c r="S153" s="20"/>
+    </row>
+    <row r="154" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A154" s="13"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
@@ -7668,9 +10728,13 @@
       <c r="L154" s="20"/>
       <c r="M154" s="20"/>
       <c r="N154" s="21"/>
-      <c r="R154" s="12"/>
-    </row>
-    <row r="155" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O154" s="18"/>
+      <c r="P154" s="18"/>
+      <c r="Q154" s="19"/>
+      <c r="R154" s="20"/>
+      <c r="S154" s="20"/>
+    </row>
+    <row r="155" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A155" s="13"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -7685,9 +10749,13 @@
       <c r="L155" s="20"/>
       <c r="M155" s="20"/>
       <c r="N155" s="21"/>
-      <c r="R155" s="12"/>
-    </row>
-    <row r="156" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O155" s="18"/>
+      <c r="P155" s="18"/>
+      <c r="Q155" s="19"/>
+      <c r="R155" s="20"/>
+      <c r="S155" s="20"/>
+    </row>
+    <row r="156" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A156" s="13"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -7702,9 +10770,13 @@
       <c r="L156" s="20"/>
       <c r="M156" s="20"/>
       <c r="N156" s="21"/>
-      <c r="R156" s="12"/>
-    </row>
-    <row r="157" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O156" s="18"/>
+      <c r="P156" s="18"/>
+      <c r="Q156" s="19"/>
+      <c r="R156" s="20"/>
+      <c r="S156" s="20"/>
+    </row>
+    <row r="157" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A157" s="13"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
@@ -7719,9 +10791,13 @@
       <c r="L157" s="20"/>
       <c r="M157" s="20"/>
       <c r="N157" s="21"/>
-      <c r="R157" s="12"/>
-    </row>
-    <row r="158" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O157" s="18"/>
+      <c r="P157" s="18"/>
+      <c r="Q157" s="19"/>
+      <c r="R157" s="20"/>
+      <c r="S157" s="20"/>
+    </row>
+    <row r="158" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A158" s="13"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
@@ -7736,9 +10812,13 @@
       <c r="L158" s="20"/>
       <c r="M158" s="20"/>
       <c r="N158" s="21"/>
-      <c r="R158" s="12"/>
-    </row>
-    <row r="159" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O158" s="18"/>
+      <c r="P158" s="18"/>
+      <c r="Q158" s="19"/>
+      <c r="R158" s="20"/>
+      <c r="S158" s="20"/>
+    </row>
+    <row r="159" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A159" s="13"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -7753,9 +10833,13 @@
       <c r="L159" s="20"/>
       <c r="M159" s="20"/>
       <c r="N159" s="21"/>
-      <c r="R159" s="12"/>
-    </row>
-    <row r="160" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O159" s="18"/>
+      <c r="P159" s="18"/>
+      <c r="Q159" s="19"/>
+      <c r="R159" s="20"/>
+      <c r="S159" s="20"/>
+    </row>
+    <row r="160" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A160" s="13"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
@@ -7770,9 +10854,13 @@
       <c r="L160" s="20"/>
       <c r="M160" s="20"/>
       <c r="N160" s="21"/>
-      <c r="R160" s="12"/>
-    </row>
-    <row r="161" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O160" s="18"/>
+      <c r="P160" s="18"/>
+      <c r="Q160" s="19"/>
+      <c r="R160" s="20"/>
+      <c r="S160" s="20"/>
+    </row>
+    <row r="161" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A161" s="13"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -7787,9 +10875,13 @@
       <c r="L161" s="20"/>
       <c r="M161" s="20"/>
       <c r="N161" s="21"/>
-      <c r="R161" s="12"/>
-    </row>
-    <row r="162" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O161" s="18"/>
+      <c r="P161" s="18"/>
+      <c r="Q161" s="19"/>
+      <c r="R161" s="20"/>
+      <c r="S161" s="20"/>
+    </row>
+    <row r="162" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A162" s="13"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
@@ -7804,9 +10896,13 @@
       <c r="L162" s="20"/>
       <c r="M162" s="20"/>
       <c r="N162" s="21"/>
-      <c r="R162" s="12"/>
-    </row>
-    <row r="163" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O162" s="18"/>
+      <c r="P162" s="18"/>
+      <c r="Q162" s="19"/>
+      <c r="R162" s="20"/>
+      <c r="S162" s="20"/>
+    </row>
+    <row r="163" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A163" s="13"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -7821,9 +10917,13 @@
       <c r="L163" s="20"/>
       <c r="M163" s="20"/>
       <c r="N163" s="21"/>
-      <c r="R163" s="12"/>
-    </row>
-    <row r="164" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O163" s="18"/>
+      <c r="P163" s="18"/>
+      <c r="Q163" s="19"/>
+      <c r="R163" s="20"/>
+      <c r="S163" s="20"/>
+    </row>
+    <row r="164" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A164" s="13"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -7838,33 +10938,79 @@
       <c r="L164" s="20"/>
       <c r="M164" s="20"/>
       <c r="N164" s="21"/>
-      <c r="R164" s="12"/>
-    </row>
-    <row r="165" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
-      <c r="A165" s="13"/>
-      <c r="B165" s="14"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="34"/>
-      <c r="G165" s="15"/>
+      <c r="O164" s="18"/>
+      <c r="P164" s="18"/>
+      <c r="Q164" s="19"/>
+      <c r="R164" s="20"/>
+      <c r="S164" s="20"/>
+    </row>
+    <row r="165" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A165" s="13">
+        <v>1</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E165" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F165" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G165" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H165" s="16"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="18"/>
-      <c r="K165" s="19"/>
+      <c r="I165" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J165" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K165" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="L165" s="20"/>
       <c r="M165" s="20"/>
       <c r="N165" s="21"/>
-      <c r="R165" s="12"/>
-    </row>
-    <row r="166" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O165" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P165" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q165" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="R165" s="20"/>
+      <c r="S165" s="20"/>
+    </row>
+    <row r="166" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A166" s="13"/>
-      <c r="B166" s="14"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="15"/>
-      <c r="F166" s="34"/>
-      <c r="G166" s="15"/>
+      <c r="B166" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E166" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F166" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G166" s="34" t="s">
+        <v>151</v>
+      </c>
       <c r="H166" s="16"/>
       <c r="I166" s="17"/>
       <c r="J166" s="18"/>
@@ -7872,16 +11018,32 @@
       <c r="L166" s="20"/>
       <c r="M166" s="20"/>
       <c r="N166" s="21"/>
-      <c r="R166" s="12"/>
-    </row>
-    <row r="167" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O166" s="18"/>
+      <c r="P166" s="18"/>
+      <c r="Q166" s="19"/>
+      <c r="R166" s="20"/>
+      <c r="S166" s="20"/>
+    </row>
+    <row r="167" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A167" s="13"/>
-      <c r="B167" s="14"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="15"/>
-      <c r="F167" s="34"/>
-      <c r="G167" s="15"/>
+      <c r="B167" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E167" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F167" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G167" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H167" s="16"/>
       <c r="I167" s="17"/>
       <c r="J167" s="18"/>
@@ -7889,16 +11051,32 @@
       <c r="L167" s="20"/>
       <c r="M167" s="20"/>
       <c r="N167" s="21"/>
-      <c r="R167" s="12"/>
-    </row>
-    <row r="168" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O167" s="18"/>
+      <c r="P167" s="18"/>
+      <c r="Q167" s="19"/>
+      <c r="R167" s="20"/>
+      <c r="S167" s="20"/>
+    </row>
+    <row r="168" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A168" s="13"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="15"/>
-      <c r="F168" s="34"/>
-      <c r="G168" s="15"/>
+      <c r="B168" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D168" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E168" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F168" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G168" s="34" t="s">
+        <v>208</v>
+      </c>
       <c r="H168" s="16"/>
       <c r="I168" s="17"/>
       <c r="J168" s="18"/>
@@ -7906,16 +11084,32 @@
       <c r="L168" s="20"/>
       <c r="M168" s="20"/>
       <c r="N168" s="21"/>
-      <c r="R168" s="12"/>
-    </row>
-    <row r="169" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O168" s="18"/>
+      <c r="P168" s="18"/>
+      <c r="Q168" s="19"/>
+      <c r="R168" s="20"/>
+      <c r="S168" s="20"/>
+    </row>
+    <row r="169" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A169" s="13"/>
-      <c r="B169" s="14"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="15"/>
-      <c r="F169" s="34"/>
-      <c r="G169" s="15"/>
+      <c r="B169" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D169" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E169" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F169" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G169" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H169" s="16"/>
       <c r="I169" s="17"/>
       <c r="J169" s="18"/>
@@ -7923,16 +11117,32 @@
       <c r="L169" s="20"/>
       <c r="M169" s="20"/>
       <c r="N169" s="21"/>
-      <c r="R169" s="12"/>
-    </row>
-    <row r="170" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O169" s="18"/>
+      <c r="P169" s="18"/>
+      <c r="Q169" s="19"/>
+      <c r="R169" s="20"/>
+      <c r="S169" s="20"/>
+    </row>
+    <row r="170" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A170" s="13"/>
-      <c r="B170" s="14"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="15"/>
-      <c r="F170" s="34"/>
-      <c r="G170" s="15"/>
+      <c r="B170" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F170" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G170" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="H170" s="16"/>
       <c r="I170" s="17"/>
       <c r="J170" s="18"/>
@@ -7940,16 +11150,30 @@
       <c r="L170" s="20"/>
       <c r="M170" s="20"/>
       <c r="N170" s="21"/>
-      <c r="R170" s="12"/>
-    </row>
-    <row r="171" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O170" s="18"/>
+      <c r="P170" s="18"/>
+      <c r="Q170" s="19"/>
+      <c r="R170" s="20"/>
+      <c r="S170" s="20"/>
+    </row>
+    <row r="171" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A171" s="13"/>
       <c r="B171" s="14"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="15"/>
-      <c r="F171" s="34"/>
-      <c r="G171" s="15"/>
+      <c r="C171" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D171" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E171" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F171" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G171" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H171" s="16"/>
       <c r="I171" s="17"/>
       <c r="J171" s="18"/>
@@ -7957,16 +11181,30 @@
       <c r="L171" s="20"/>
       <c r="M171" s="20"/>
       <c r="N171" s="21"/>
-      <c r="R171" s="12"/>
-    </row>
-    <row r="172" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O171" s="18"/>
+      <c r="P171" s="18"/>
+      <c r="Q171" s="19"/>
+      <c r="R171" s="20"/>
+      <c r="S171" s="20"/>
+    </row>
+    <row r="172" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A172" s="13"/>
       <c r="B172" s="14"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="34"/>
-      <c r="G172" s="15"/>
+      <c r="C172" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D172" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E172" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F172" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G172" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H172" s="16"/>
       <c r="I172" s="17"/>
       <c r="J172" s="18"/>
@@ -7974,16 +11212,26 @@
       <c r="L172" s="20"/>
       <c r="M172" s="20"/>
       <c r="N172" s="21"/>
-      <c r="R172" s="12"/>
-    </row>
-    <row r="173" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O172" s="18"/>
+      <c r="P172" s="18"/>
+      <c r="Q172" s="19"/>
+      <c r="R172" s="20"/>
+      <c r="S172" s="20"/>
+    </row>
+    <row r="173" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A173" s="13"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
       <c r="D173" s="14"/>
-      <c r="E173" s="15"/>
-      <c r="F173" s="34"/>
-      <c r="G173" s="15"/>
+      <c r="E173" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F173" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G173" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H173" s="16"/>
       <c r="I173" s="17"/>
       <c r="J173" s="18"/>
@@ -7991,16 +11239,26 @@
       <c r="L173" s="20"/>
       <c r="M173" s="20"/>
       <c r="N173" s="21"/>
-      <c r="R173" s="12"/>
-    </row>
-    <row r="174" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O173" s="18"/>
+      <c r="P173" s="18"/>
+      <c r="Q173" s="19"/>
+      <c r="R173" s="20"/>
+      <c r="S173" s="20"/>
+    </row>
+    <row r="174" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A174" s="13"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
-      <c r="E174" s="15"/>
-      <c r="F174" s="34"/>
-      <c r="G174" s="15"/>
+      <c r="E174" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F174" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G174" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H174" s="16"/>
       <c r="I174" s="17"/>
       <c r="J174" s="18"/>
@@ -8008,16 +11266,26 @@
       <c r="L174" s="20"/>
       <c r="M174" s="20"/>
       <c r="N174" s="21"/>
-      <c r="R174" s="12"/>
-    </row>
-    <row r="175" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O174" s="18"/>
+      <c r="P174" s="18"/>
+      <c r="Q174" s="19"/>
+      <c r="R174" s="20"/>
+      <c r="S174" s="20"/>
+    </row>
+    <row r="175" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A175" s="13"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
-      <c r="E175" s="15"/>
-      <c r="F175" s="34"/>
-      <c r="G175" s="15"/>
+      <c r="E175" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F175" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G175" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H175" s="16"/>
       <c r="I175" s="17"/>
       <c r="J175" s="18"/>
@@ -8025,16 +11293,26 @@
       <c r="L175" s="20"/>
       <c r="M175" s="20"/>
       <c r="N175" s="21"/>
-      <c r="R175" s="12"/>
-    </row>
-    <row r="176" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O175" s="18"/>
+      <c r="P175" s="18"/>
+      <c r="Q175" s="19"/>
+      <c r="R175" s="20"/>
+      <c r="S175" s="20"/>
+    </row>
+    <row r="176" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A176" s="13"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
       <c r="D176" s="14"/>
-      <c r="E176" s="15"/>
-      <c r="F176" s="34"/>
-      <c r="G176" s="15"/>
+      <c r="E176" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F176" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G176" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H176" s="16"/>
       <c r="I176" s="17"/>
       <c r="J176" s="18"/>
@@ -8042,16 +11320,26 @@
       <c r="L176" s="20"/>
       <c r="M176" s="20"/>
       <c r="N176" s="21"/>
-      <c r="R176" s="12"/>
-    </row>
-    <row r="177" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O176" s="18"/>
+      <c r="P176" s="18"/>
+      <c r="Q176" s="19"/>
+      <c r="R176" s="20"/>
+      <c r="S176" s="20"/>
+    </row>
+    <row r="177" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A177" s="13"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
       <c r="D177" s="14"/>
-      <c r="E177" s="15"/>
-      <c r="F177" s="34"/>
-      <c r="G177" s="15"/>
+      <c r="E177" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F177" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G177" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H177" s="16"/>
       <c r="I177" s="17"/>
       <c r="J177" s="18"/>
@@ -8059,16 +11347,30 @@
       <c r="L177" s="20"/>
       <c r="M177" s="20"/>
       <c r="N177" s="21"/>
-      <c r="R177" s="12"/>
-    </row>
-    <row r="178" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O177" s="18"/>
+      <c r="P177" s="18"/>
+      <c r="Q177" s="19"/>
+      <c r="R177" s="20"/>
+      <c r="S177" s="20"/>
+    </row>
+    <row r="178" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A178" s="13"/>
       <c r="B178" s="14"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="15"/>
-      <c r="F178" s="34"/>
-      <c r="G178" s="15"/>
+      <c r="C178" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D178" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E178" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F178" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G178" s="34" t="s">
+        <v>109</v>
+      </c>
       <c r="H178" s="16"/>
       <c r="I178" s="17"/>
       <c r="J178" s="18"/>
@@ -8076,15 +11378,23 @@
       <c r="L178" s="20"/>
       <c r="M178" s="20"/>
       <c r="N178" s="21"/>
-      <c r="R178" s="12"/>
-    </row>
-    <row r="179" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O178" s="18"/>
+      <c r="P178" s="18"/>
+      <c r="Q178" s="19"/>
+      <c r="R178" s="20"/>
+      <c r="S178" s="20"/>
+    </row>
+    <row r="179" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A179" s="13"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
       <c r="D179" s="14"/>
-      <c r="E179" s="15"/>
-      <c r="F179" s="34"/>
+      <c r="E179" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F179" s="34" t="s">
+        <v>88</v>
+      </c>
       <c r="G179" s="15"/>
       <c r="H179" s="16"/>
       <c r="I179" s="17"/>
@@ -8093,15 +11403,27 @@
       <c r="L179" s="20"/>
       <c r="M179" s="20"/>
       <c r="N179" s="21"/>
-      <c r="R179" s="12"/>
-    </row>
-    <row r="180" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O179" s="18"/>
+      <c r="P179" s="18"/>
+      <c r="Q179" s="19"/>
+      <c r="R179" s="20"/>
+      <c r="S179" s="20"/>
+    </row>
+    <row r="180" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A180" s="13"/>
       <c r="B180" s="14"/>
-      <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="15"/>
-      <c r="F180" s="34"/>
+      <c r="C180" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E180" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F180" s="34" t="s">
+        <v>88</v>
+      </c>
       <c r="G180" s="15"/>
       <c r="H180" s="16"/>
       <c r="I180" s="17"/>
@@ -8110,16 +11432,26 @@
       <c r="L180" s="20"/>
       <c r="M180" s="20"/>
       <c r="N180" s="21"/>
-      <c r="R180" s="12"/>
-    </row>
-    <row r="181" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O180" s="18"/>
+      <c r="P180" s="18"/>
+      <c r="Q180" s="19"/>
+      <c r="R180" s="20"/>
+      <c r="S180" s="20"/>
+    </row>
+    <row r="181" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A181" s="13"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
       <c r="D181" s="14"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="34"/>
-      <c r="G181" s="15"/>
+      <c r="E181" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F181" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G181" s="34" t="s">
+        <v>116</v>
+      </c>
       <c r="H181" s="16"/>
       <c r="I181" s="17"/>
       <c r="J181" s="18"/>
@@ -8127,15 +11459,27 @@
       <c r="L181" s="20"/>
       <c r="M181" s="20"/>
       <c r="N181" s="21"/>
-      <c r="R181" s="12"/>
-    </row>
-    <row r="182" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O181" s="18"/>
+      <c r="P181" s="18"/>
+      <c r="Q181" s="19"/>
+      <c r="R181" s="20"/>
+      <c r="S181" s="20"/>
+    </row>
+    <row r="182" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A182" s="13"/>
       <c r="B182" s="14"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="15"/>
-      <c r="F182" s="34"/>
+      <c r="C182" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D182" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E182" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F182" s="34" t="s">
+        <v>88</v>
+      </c>
       <c r="G182" s="15"/>
       <c r="H182" s="16"/>
       <c r="I182" s="17"/>
@@ -8144,16 +11488,30 @@
       <c r="L182" s="20"/>
       <c r="M182" s="20"/>
       <c r="N182" s="21"/>
-      <c r="R182" s="12"/>
-    </row>
-    <row r="183" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O182" s="18"/>
+      <c r="P182" s="18"/>
+      <c r="Q182" s="19"/>
+      <c r="R182" s="20"/>
+      <c r="S182" s="20"/>
+    </row>
+    <row r="183" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A183" s="13"/>
       <c r="B183" s="14"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="15"/>
-      <c r="F183" s="34"/>
-      <c r="G183" s="15"/>
+      <c r="C183" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E183" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F183" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G183" s="34" t="s">
+        <v>123</v>
+      </c>
       <c r="H183" s="16"/>
       <c r="I183" s="17"/>
       <c r="J183" s="18"/>
@@ -8161,13 +11519,21 @@
       <c r="L183" s="20"/>
       <c r="M183" s="20"/>
       <c r="N183" s="21"/>
-      <c r="R183" s="12"/>
-    </row>
-    <row r="184" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O183" s="18"/>
+      <c r="P183" s="18"/>
+      <c r="Q183" s="19"/>
+      <c r="R183" s="20"/>
+      <c r="S183" s="20"/>
+    </row>
+    <row r="184" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A184" s="13"/>
       <c r="B184" s="14"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
+      <c r="C184" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D184" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="E184" s="15"/>
       <c r="F184" s="34"/>
       <c r="G184" s="15"/>
@@ -8178,16 +11544,30 @@
       <c r="L184" s="20"/>
       <c r="M184" s="20"/>
       <c r="N184" s="21"/>
-      <c r="R184" s="12"/>
-    </row>
-    <row r="185" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O184" s="18"/>
+      <c r="P184" s="18"/>
+      <c r="Q184" s="19"/>
+      <c r="R184" s="20"/>
+      <c r="S184" s="20"/>
+    </row>
+    <row r="185" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A185" s="13"/>
       <c r="B185" s="14"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="15"/>
-      <c r="F185" s="34"/>
-      <c r="G185" s="15"/>
+      <c r="C185" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D185" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E185" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F185" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G185" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="H185" s="16"/>
       <c r="I185" s="17"/>
       <c r="J185" s="18"/>
@@ -8195,16 +11575,26 @@
       <c r="L185" s="20"/>
       <c r="M185" s="20"/>
       <c r="N185" s="21"/>
-      <c r="R185" s="12"/>
-    </row>
-    <row r="186" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O185" s="18"/>
+      <c r="P185" s="18"/>
+      <c r="Q185" s="19"/>
+      <c r="R185" s="20"/>
+      <c r="S185" s="20"/>
+    </row>
+    <row r="186" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A186" s="13"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
       <c r="D186" s="14"/>
-      <c r="E186" s="15"/>
-      <c r="F186" s="34"/>
-      <c r="G186" s="15"/>
+      <c r="E186" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F186" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="G186" s="34" t="s">
+        <v>133</v>
+      </c>
       <c r="H186" s="16"/>
       <c r="I186" s="17"/>
       <c r="J186" s="18"/>
@@ -8212,15 +11602,27 @@
       <c r="L186" s="20"/>
       <c r="M186" s="20"/>
       <c r="N186" s="21"/>
-      <c r="R186" s="12"/>
-    </row>
-    <row r="187" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O186" s="18"/>
+      <c r="P186" s="18"/>
+      <c r="Q186" s="19"/>
+      <c r="R186" s="20"/>
+      <c r="S186" s="20"/>
+    </row>
+    <row r="187" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A187" s="13"/>
       <c r="B187" s="14"/>
-      <c r="C187" s="14"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="15"/>
-      <c r="F187" s="34"/>
+      <c r="C187" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D187" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E187" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F187" s="34" t="s">
+        <v>88</v>
+      </c>
       <c r="G187" s="15"/>
       <c r="H187" s="16"/>
       <c r="I187" s="17"/>
@@ -8229,15 +11631,23 @@
       <c r="L187" s="20"/>
       <c r="M187" s="20"/>
       <c r="N187" s="21"/>
-      <c r="R187" s="12"/>
-    </row>
-    <row r="188" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O187" s="18"/>
+      <c r="P187" s="18"/>
+      <c r="Q187" s="19"/>
+      <c r="R187" s="20"/>
+      <c r="S187" s="20"/>
+    </row>
+    <row r="188" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A188" s="13"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
       <c r="D188" s="14"/>
-      <c r="E188" s="15"/>
-      <c r="F188" s="34"/>
+      <c r="E188" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F188" s="34" t="s">
+        <v>138</v>
+      </c>
       <c r="G188" s="15"/>
       <c r="H188" s="16"/>
       <c r="I188" s="17"/>
@@ -8246,15 +11656,23 @@
       <c r="L188" s="20"/>
       <c r="M188" s="20"/>
       <c r="N188" s="21"/>
-      <c r="R188" s="12"/>
-    </row>
-    <row r="189" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O188" s="18"/>
+      <c r="P188" s="18"/>
+      <c r="Q188" s="19"/>
+      <c r="R188" s="20"/>
+      <c r="S188" s="20"/>
+    </row>
+    <row r="189" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A189" s="13"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
       <c r="D189" s="14"/>
-      <c r="E189" s="15"/>
-      <c r="F189" s="34"/>
+      <c r="E189" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F189" s="34" t="s">
+        <v>138</v>
+      </c>
       <c r="G189" s="15"/>
       <c r="H189" s="16"/>
       <c r="I189" s="17"/>
@@ -8263,16 +11681,26 @@
       <c r="L189" s="20"/>
       <c r="M189" s="20"/>
       <c r="N189" s="21"/>
-      <c r="R189" s="12"/>
-    </row>
-    <row r="190" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O189" s="18"/>
+      <c r="P189" s="18"/>
+      <c r="Q189" s="19"/>
+      <c r="R189" s="20"/>
+      <c r="S189" s="20"/>
+    </row>
+    <row r="190" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A190" s="13"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="34"/>
-      <c r="G190" s="15"/>
+      <c r="E190" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F190" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G190" s="34" t="s">
+        <v>142</v>
+      </c>
       <c r="H190" s="16"/>
       <c r="I190" s="17"/>
       <c r="J190" s="18"/>
@@ -8280,15 +11708,27 @@
       <c r="L190" s="20"/>
       <c r="M190" s="20"/>
       <c r="N190" s="21"/>
-      <c r="R190" s="12"/>
-    </row>
-    <row r="191" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O190" s="18"/>
+      <c r="P190" s="18"/>
+      <c r="Q190" s="19"/>
+      <c r="R190" s="20"/>
+      <c r="S190" s="20"/>
+    </row>
+    <row r="191" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A191" s="13"/>
       <c r="B191" s="14"/>
-      <c r="C191" s="14"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="15"/>
-      <c r="F191" s="34"/>
+      <c r="C191" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D191" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E191" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F191" s="34" t="s">
+        <v>88</v>
+      </c>
       <c r="G191" s="15"/>
       <c r="H191" s="16"/>
       <c r="I191" s="17"/>
@@ -8297,15 +11737,23 @@
       <c r="L191" s="20"/>
       <c r="M191" s="20"/>
       <c r="N191" s="21"/>
-      <c r="R191" s="12"/>
-    </row>
-    <row r="192" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O191" s="18"/>
+      <c r="P191" s="18"/>
+      <c r="Q191" s="19"/>
+      <c r="R191" s="20"/>
+      <c r="S191" s="20"/>
+    </row>
+    <row r="192" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A192" s="13"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
-      <c r="E192" s="15"/>
-      <c r="F192" s="34"/>
+      <c r="E192" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F192" s="34" t="s">
+        <v>88</v>
+      </c>
       <c r="G192" s="15"/>
       <c r="H192" s="16"/>
       <c r="I192" s="17"/>
@@ -8314,13 +11762,21 @@
       <c r="L192" s="20"/>
       <c r="M192" s="20"/>
       <c r="N192" s="21"/>
-      <c r="R192" s="12"/>
-    </row>
-    <row r="193" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O192" s="18"/>
+      <c r="P192" s="18"/>
+      <c r="Q192" s="19"/>
+      <c r="R192" s="20"/>
+      <c r="S192" s="20"/>
+    </row>
+    <row r="193" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A193" s="13"/>
       <c r="B193" s="14"/>
-      <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
+      <c r="C193" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D193" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="E193" s="15"/>
       <c r="F193" s="34"/>
       <c r="G193" s="15"/>
@@ -8331,9 +11787,13 @@
       <c r="L193" s="20"/>
       <c r="M193" s="20"/>
       <c r="N193" s="21"/>
-      <c r="R193" s="12"/>
-    </row>
-    <row r="194" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O193" s="18"/>
+      <c r="P193" s="18"/>
+      <c r="Q193" s="19"/>
+      <c r="R193" s="20"/>
+      <c r="S193" s="20"/>
+    </row>
+    <row r="194" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A194" s="13"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
@@ -8348,9 +11808,13 @@
       <c r="L194" s="20"/>
       <c r="M194" s="20"/>
       <c r="N194" s="21"/>
-      <c r="R194" s="12"/>
-    </row>
-    <row r="195" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O194" s="18"/>
+      <c r="P194" s="18"/>
+      <c r="Q194" s="19"/>
+      <c r="R194" s="20"/>
+      <c r="S194" s="20"/>
+    </row>
+    <row r="195" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A195" s="13"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
@@ -8365,9 +11829,13 @@
       <c r="L195" s="20"/>
       <c r="M195" s="20"/>
       <c r="N195" s="21"/>
-      <c r="R195" s="12"/>
-    </row>
-    <row r="196" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O195" s="18"/>
+      <c r="P195" s="18"/>
+      <c r="Q195" s="19"/>
+      <c r="R195" s="20"/>
+      <c r="S195" s="20"/>
+    </row>
+    <row r="196" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A196" s="13"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
@@ -8382,9 +11850,13 @@
       <c r="L196" s="20"/>
       <c r="M196" s="20"/>
       <c r="N196" s="21"/>
-      <c r="R196" s="12"/>
-    </row>
-    <row r="197" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O196" s="18"/>
+      <c r="P196" s="18"/>
+      <c r="Q196" s="19"/>
+      <c r="R196" s="20"/>
+      <c r="S196" s="20"/>
+    </row>
+    <row r="197" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A197" s="13"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
@@ -8399,9 +11871,13 @@
       <c r="L197" s="20"/>
       <c r="M197" s="20"/>
       <c r="N197" s="21"/>
-      <c r="R197" s="12"/>
-    </row>
-    <row r="198" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O197" s="18"/>
+      <c r="P197" s="18"/>
+      <c r="Q197" s="19"/>
+      <c r="R197" s="20"/>
+      <c r="S197" s="20"/>
+    </row>
+    <row r="198" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A198" s="13"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
@@ -8416,9 +11892,13 @@
       <c r="L198" s="20"/>
       <c r="M198" s="20"/>
       <c r="N198" s="21"/>
-      <c r="R198" s="12"/>
-    </row>
-    <row r="199" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O198" s="18"/>
+      <c r="P198" s="18"/>
+      <c r="Q198" s="19"/>
+      <c r="R198" s="20"/>
+      <c r="S198" s="20"/>
+    </row>
+    <row r="199" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A199" s="13"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
@@ -8433,9 +11913,13 @@
       <c r="L199" s="20"/>
       <c r="M199" s="20"/>
       <c r="N199" s="21"/>
-      <c r="R199" s="12"/>
-    </row>
-    <row r="200" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O199" s="18"/>
+      <c r="P199" s="18"/>
+      <c r="Q199" s="19"/>
+      <c r="R199" s="20"/>
+      <c r="S199" s="20"/>
+    </row>
+    <row r="200" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A200" s="13"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
@@ -8450,9 +11934,13 @@
       <c r="L200" s="20"/>
       <c r="M200" s="20"/>
       <c r="N200" s="21"/>
-      <c r="R200" s="12"/>
-    </row>
-    <row r="201" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O200" s="18"/>
+      <c r="P200" s="18"/>
+      <c r="Q200" s="19"/>
+      <c r="R200" s="20"/>
+      <c r="S200" s="20"/>
+    </row>
+    <row r="201" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A201" s="13"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -8467,9 +11955,13 @@
       <c r="L201" s="20"/>
       <c r="M201" s="20"/>
       <c r="N201" s="21"/>
-      <c r="R201" s="12"/>
-    </row>
-    <row r="202" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O201" s="18"/>
+      <c r="P201" s="18"/>
+      <c r="Q201" s="19"/>
+      <c r="R201" s="20"/>
+      <c r="S201" s="20"/>
+    </row>
+    <row r="202" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A202" s="13"/>
       <c r="B202" s="14"/>
       <c r="C202" s="14"/>
@@ -8484,9 +11976,13 @@
       <c r="L202" s="20"/>
       <c r="M202" s="20"/>
       <c r="N202" s="21"/>
-      <c r="R202" s="12"/>
-    </row>
-    <row r="203" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O202" s="18"/>
+      <c r="P202" s="18"/>
+      <c r="Q202" s="19"/>
+      <c r="R202" s="20"/>
+      <c r="S202" s="20"/>
+    </row>
+    <row r="203" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A203" s="13"/>
       <c r="B203" s="14"/>
       <c r="C203" s="14"/>
@@ -8501,9 +11997,13 @@
       <c r="L203" s="20"/>
       <c r="M203" s="20"/>
       <c r="N203" s="21"/>
-      <c r="R203" s="12"/>
-    </row>
-    <row r="204" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O203" s="18"/>
+      <c r="P203" s="18"/>
+      <c r="Q203" s="19"/>
+      <c r="R203" s="20"/>
+      <c r="S203" s="20"/>
+    </row>
+    <row r="204" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A204" s="13"/>
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
@@ -8518,9 +12018,13 @@
       <c r="L204" s="20"/>
       <c r="M204" s="20"/>
       <c r="N204" s="21"/>
-      <c r="R204" s="12"/>
-    </row>
-    <row r="205" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O204" s="18"/>
+      <c r="P204" s="18"/>
+      <c r="Q204" s="19"/>
+      <c r="R204" s="20"/>
+      <c r="S204" s="20"/>
+    </row>
+    <row r="205" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A205" s="13"/>
       <c r="B205" s="14"/>
       <c r="C205" s="14"/>
@@ -8535,9 +12039,13 @@
       <c r="L205" s="20"/>
       <c r="M205" s="20"/>
       <c r="N205" s="21"/>
-      <c r="R205" s="12"/>
-    </row>
-    <row r="206" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O205" s="18"/>
+      <c r="P205" s="18"/>
+      <c r="Q205" s="19"/>
+      <c r="R205" s="20"/>
+      <c r="S205" s="20"/>
+    </row>
+    <row r="206" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A206" s="13"/>
       <c r="B206" s="14"/>
       <c r="C206" s="14"/>
@@ -8552,9 +12060,13 @@
       <c r="L206" s="20"/>
       <c r="M206" s="20"/>
       <c r="N206" s="21"/>
-      <c r="R206" s="12"/>
-    </row>
-    <row r="207" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O206" s="18"/>
+      <c r="P206" s="18"/>
+      <c r="Q206" s="19"/>
+      <c r="R206" s="20"/>
+      <c r="S206" s="20"/>
+    </row>
+    <row r="207" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A207" s="13"/>
       <c r="B207" s="14"/>
       <c r="C207" s="14"/>
@@ -8569,9 +12081,13 @@
       <c r="L207" s="20"/>
       <c r="M207" s="20"/>
       <c r="N207" s="21"/>
-      <c r="R207" s="12"/>
-    </row>
-    <row r="208" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O207" s="18"/>
+      <c r="P207" s="18"/>
+      <c r="Q207" s="19"/>
+      <c r="R207" s="20"/>
+      <c r="S207" s="20"/>
+    </row>
+    <row r="208" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A208" s="13"/>
       <c r="B208" s="14"/>
       <c r="C208" s="14"/>
@@ -8586,9 +12102,13 @@
       <c r="L208" s="20"/>
       <c r="M208" s="20"/>
       <c r="N208" s="21"/>
-      <c r="R208" s="12"/>
-    </row>
-    <row r="209" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O208" s="18"/>
+      <c r="P208" s="18"/>
+      <c r="Q208" s="19"/>
+      <c r="R208" s="20"/>
+      <c r="S208" s="20"/>
+    </row>
+    <row r="209" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A209" s="13"/>
       <c r="B209" s="14"/>
       <c r="C209" s="14"/>
@@ -8603,9 +12123,13 @@
       <c r="L209" s="20"/>
       <c r="M209" s="20"/>
       <c r="N209" s="21"/>
-      <c r="R209" s="12"/>
-    </row>
-    <row r="210" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O209" s="18"/>
+      <c r="P209" s="18"/>
+      <c r="Q209" s="19"/>
+      <c r="R209" s="20"/>
+      <c r="S209" s="20"/>
+    </row>
+    <row r="210" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A210" s="13"/>
       <c r="B210" s="14"/>
       <c r="C210" s="14"/>
@@ -8620,9 +12144,13 @@
       <c r="L210" s="20"/>
       <c r="M210" s="20"/>
       <c r="N210" s="21"/>
-      <c r="R210" s="12"/>
-    </row>
-    <row r="211" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O210" s="18"/>
+      <c r="P210" s="18"/>
+      <c r="Q210" s="19"/>
+      <c r="R210" s="20"/>
+      <c r="S210" s="20"/>
+    </row>
+    <row r="211" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A211" s="13"/>
       <c r="B211" s="14"/>
       <c r="C211" s="14"/>
@@ -8637,9 +12165,13 @@
       <c r="L211" s="20"/>
       <c r="M211" s="20"/>
       <c r="N211" s="21"/>
-      <c r="R211" s="12"/>
-    </row>
-    <row r="212" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O211" s="18"/>
+      <c r="P211" s="18"/>
+      <c r="Q211" s="19"/>
+      <c r="R211" s="20"/>
+      <c r="S211" s="20"/>
+    </row>
+    <row r="212" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A212" s="13"/>
       <c r="B212" s="14"/>
       <c r="C212" s="14"/>
@@ -8654,9 +12186,13 @@
       <c r="L212" s="20"/>
       <c r="M212" s="20"/>
       <c r="N212" s="21"/>
-      <c r="R212" s="12"/>
-    </row>
-    <row r="213" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O212" s="18"/>
+      <c r="P212" s="18"/>
+      <c r="Q212" s="19"/>
+      <c r="R212" s="20"/>
+      <c r="S212" s="20"/>
+    </row>
+    <row r="213" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A213" s="13"/>
       <c r="B213" s="14"/>
       <c r="C213" s="14"/>
@@ -8671,9 +12207,13 @@
       <c r="L213" s="20"/>
       <c r="M213" s="20"/>
       <c r="N213" s="21"/>
-      <c r="R213" s="12"/>
-    </row>
-    <row r="214" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O213" s="18"/>
+      <c r="P213" s="18"/>
+      <c r="Q213" s="19"/>
+      <c r="R213" s="20"/>
+      <c r="S213" s="20"/>
+    </row>
+    <row r="214" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A214" s="13"/>
       <c r="B214" s="14"/>
       <c r="C214" s="14"/>
@@ -8688,9 +12228,13 @@
       <c r="L214" s="20"/>
       <c r="M214" s="20"/>
       <c r="N214" s="21"/>
-      <c r="R214" s="12"/>
-    </row>
-    <row r="215" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O214" s="18"/>
+      <c r="P214" s="18"/>
+      <c r="Q214" s="19"/>
+      <c r="R214" s="20"/>
+      <c r="S214" s="20"/>
+    </row>
+    <row r="215" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A215" s="13"/>
       <c r="B215" s="14"/>
       <c r="C215" s="14"/>
@@ -8705,9 +12249,13 @@
       <c r="L215" s="20"/>
       <c r="M215" s="20"/>
       <c r="N215" s="21"/>
-      <c r="R215" s="12"/>
-    </row>
-    <row r="216" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O215" s="18"/>
+      <c r="P215" s="18"/>
+      <c r="Q215" s="19"/>
+      <c r="R215" s="20"/>
+      <c r="S215" s="20"/>
+    </row>
+    <row r="216" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A216" s="13"/>
       <c r="B216" s="14"/>
       <c r="C216" s="14"/>
@@ -8722,9 +12270,13 @@
       <c r="L216" s="20"/>
       <c r="M216" s="20"/>
       <c r="N216" s="21"/>
-      <c r="R216" s="12"/>
-    </row>
-    <row r="217" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O216" s="18"/>
+      <c r="P216" s="18"/>
+      <c r="Q216" s="19"/>
+      <c r="R216" s="20"/>
+      <c r="S216" s="20"/>
+    </row>
+    <row r="217" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A217" s="13"/>
       <c r="B217" s="14"/>
       <c r="C217" s="14"/>
@@ -8739,9 +12291,13 @@
       <c r="L217" s="20"/>
       <c r="M217" s="20"/>
       <c r="N217" s="21"/>
-      <c r="R217" s="12"/>
-    </row>
-    <row r="218" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O217" s="18"/>
+      <c r="P217" s="18"/>
+      <c r="Q217" s="19"/>
+      <c r="R217" s="20"/>
+      <c r="S217" s="20"/>
+    </row>
+    <row r="218" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A218" s="13"/>
       <c r="B218" s="14"/>
       <c r="C218" s="14"/>
@@ -8756,9 +12312,13 @@
       <c r="L218" s="20"/>
       <c r="M218" s="20"/>
       <c r="N218" s="21"/>
-      <c r="R218" s="12"/>
-    </row>
-    <row r="219" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O218" s="18"/>
+      <c r="P218" s="18"/>
+      <c r="Q218" s="19"/>
+      <c r="R218" s="20"/>
+      <c r="S218" s="20"/>
+    </row>
+    <row r="219" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A219" s="13"/>
       <c r="B219" s="14"/>
       <c r="C219" s="14"/>
@@ -8773,9 +12333,13 @@
       <c r="L219" s="20"/>
       <c r="M219" s="20"/>
       <c r="N219" s="21"/>
-      <c r="R219" s="12"/>
-    </row>
-    <row r="220" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O219" s="18"/>
+      <c r="P219" s="18"/>
+      <c r="Q219" s="19"/>
+      <c r="R219" s="20"/>
+      <c r="S219" s="20"/>
+    </row>
+    <row r="220" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A220" s="13"/>
       <c r="B220" s="14"/>
       <c r="C220" s="14"/>
@@ -8790,9 +12354,13 @@
       <c r="L220" s="20"/>
       <c r="M220" s="20"/>
       <c r="N220" s="21"/>
-      <c r="R220" s="12"/>
-    </row>
-    <row r="221" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O220" s="18"/>
+      <c r="P220" s="18"/>
+      <c r="Q220" s="19"/>
+      <c r="R220" s="20"/>
+      <c r="S220" s="20"/>
+    </row>
+    <row r="221" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A221" s="13"/>
       <c r="B221" s="14"/>
       <c r="C221" s="14"/>
@@ -8807,9 +12375,13 @@
       <c r="L221" s="20"/>
       <c r="M221" s="20"/>
       <c r="N221" s="21"/>
-      <c r="R221" s="12"/>
-    </row>
-    <row r="222" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O221" s="18"/>
+      <c r="P221" s="18"/>
+      <c r="Q221" s="19"/>
+      <c r="R221" s="20"/>
+      <c r="S221" s="20"/>
+    </row>
+    <row r="222" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A222" s="13"/>
       <c r="B222" s="14"/>
       <c r="C222" s="14"/>
@@ -8824,9 +12396,13 @@
       <c r="L222" s="20"/>
       <c r="M222" s="20"/>
       <c r="N222" s="21"/>
-      <c r="R222" s="12"/>
-    </row>
-    <row r="223" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O222" s="18"/>
+      <c r="P222" s="18"/>
+      <c r="Q222" s="19"/>
+      <c r="R222" s="20"/>
+      <c r="S222" s="20"/>
+    </row>
+    <row r="223" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A223" s="13"/>
       <c r="B223" s="14"/>
       <c r="C223" s="14"/>
@@ -8841,9 +12417,13 @@
       <c r="L223" s="20"/>
       <c r="M223" s="20"/>
       <c r="N223" s="21"/>
-      <c r="R223" s="12"/>
-    </row>
-    <row r="224" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O223" s="18"/>
+      <c r="P223" s="18"/>
+      <c r="Q223" s="19"/>
+      <c r="R223" s="20"/>
+      <c r="S223" s="20"/>
+    </row>
+    <row r="224" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A224" s="13"/>
       <c r="B224" s="14"/>
       <c r="C224" s="14"/>
@@ -8858,9 +12438,13 @@
       <c r="L224" s="20"/>
       <c r="M224" s="20"/>
       <c r="N224" s="21"/>
-      <c r="R224" s="12"/>
-    </row>
-    <row r="225" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O224" s="18"/>
+      <c r="P224" s="18"/>
+      <c r="Q224" s="19"/>
+      <c r="R224" s="20"/>
+      <c r="S224" s="20"/>
+    </row>
+    <row r="225" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A225" s="13"/>
       <c r="B225" s="14"/>
       <c r="C225" s="14"/>
@@ -8875,9 +12459,13 @@
       <c r="L225" s="20"/>
       <c r="M225" s="20"/>
       <c r="N225" s="21"/>
-      <c r="R225" s="12"/>
-    </row>
-    <row r="226" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O225" s="18"/>
+      <c r="P225" s="18"/>
+      <c r="Q225" s="19"/>
+      <c r="R225" s="20"/>
+      <c r="S225" s="20"/>
+    </row>
+    <row r="226" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A226" s="13"/>
       <c r="B226" s="14"/>
       <c r="C226" s="14"/>
@@ -8892,9 +12480,13 @@
       <c r="L226" s="20"/>
       <c r="M226" s="20"/>
       <c r="N226" s="21"/>
-      <c r="R226" s="12"/>
-    </row>
-    <row r="227" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O226" s="18"/>
+      <c r="P226" s="18"/>
+      <c r="Q226" s="19"/>
+      <c r="R226" s="20"/>
+      <c r="S226" s="20"/>
+    </row>
+    <row r="227" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A227" s="13"/>
       <c r="B227" s="14"/>
       <c r="C227" s="14"/>
@@ -8909,9 +12501,13 @@
       <c r="L227" s="20"/>
       <c r="M227" s="20"/>
       <c r="N227" s="21"/>
-      <c r="R227" s="12"/>
-    </row>
-    <row r="228" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O227" s="18"/>
+      <c r="P227" s="18"/>
+      <c r="Q227" s="19"/>
+      <c r="R227" s="20"/>
+      <c r="S227" s="20"/>
+    </row>
+    <row r="228" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A228" s="13"/>
       <c r="B228" s="14"/>
       <c r="C228" s="14"/>
@@ -8926,9 +12522,13 @@
       <c r="L228" s="20"/>
       <c r="M228" s="20"/>
       <c r="N228" s="21"/>
-      <c r="R228" s="12"/>
-    </row>
-    <row r="229" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O228" s="18"/>
+      <c r="P228" s="18"/>
+      <c r="Q228" s="19"/>
+      <c r="R228" s="20"/>
+      <c r="S228" s="20"/>
+    </row>
+    <row r="229" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A229" s="13"/>
       <c r="B229" s="14"/>
       <c r="C229" s="14"/>
@@ -8943,9 +12543,13 @@
       <c r="L229" s="20"/>
       <c r="M229" s="20"/>
       <c r="N229" s="21"/>
-      <c r="R229" s="12"/>
-    </row>
-    <row r="230" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O229" s="18"/>
+      <c r="P229" s="18"/>
+      <c r="Q229" s="19"/>
+      <c r="R229" s="20"/>
+      <c r="S229" s="20"/>
+    </row>
+    <row r="230" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A230" s="13"/>
       <c r="B230" s="14"/>
       <c r="C230" s="14"/>
@@ -8960,9 +12564,13 @@
       <c r="L230" s="20"/>
       <c r="M230" s="20"/>
       <c r="N230" s="21"/>
-      <c r="R230" s="12"/>
-    </row>
-    <row r="231" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O230" s="18"/>
+      <c r="P230" s="18"/>
+      <c r="Q230" s="19"/>
+      <c r="R230" s="20"/>
+      <c r="S230" s="20"/>
+    </row>
+    <row r="231" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A231" s="13"/>
       <c r="B231" s="14"/>
       <c r="C231" s="14"/>
@@ -8977,9 +12585,13 @@
       <c r="L231" s="20"/>
       <c r="M231" s="20"/>
       <c r="N231" s="21"/>
-      <c r="R231" s="12"/>
-    </row>
-    <row r="232" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O231" s="18"/>
+      <c r="P231" s="18"/>
+      <c r="Q231" s="19"/>
+      <c r="R231" s="20"/>
+      <c r="S231" s="20"/>
+    </row>
+    <row r="232" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A232" s="13"/>
       <c r="B232" s="14"/>
       <c r="C232" s="14"/>
@@ -8994,9 +12606,13 @@
       <c r="L232" s="20"/>
       <c r="M232" s="20"/>
       <c r="N232" s="21"/>
-      <c r="R232" s="12"/>
-    </row>
-    <row r="233" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O232" s="18"/>
+      <c r="P232" s="18"/>
+      <c r="Q232" s="19"/>
+      <c r="R232" s="20"/>
+      <c r="S232" s="20"/>
+    </row>
+    <row r="233" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A233" s="13"/>
       <c r="B233" s="14"/>
       <c r="C233" s="14"/>
@@ -9011,9 +12627,13 @@
       <c r="L233" s="20"/>
       <c r="M233" s="20"/>
       <c r="N233" s="21"/>
-      <c r="R233" s="12"/>
-    </row>
-    <row r="234" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O233" s="18"/>
+      <c r="P233" s="18"/>
+      <c r="Q233" s="19"/>
+      <c r="R233" s="20"/>
+      <c r="S233" s="20"/>
+    </row>
+    <row r="234" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A234" s="13"/>
       <c r="B234" s="14"/>
       <c r="C234" s="14"/>
@@ -9028,9 +12648,13 @@
       <c r="L234" s="20"/>
       <c r="M234" s="20"/>
       <c r="N234" s="21"/>
-      <c r="R234" s="12"/>
-    </row>
-    <row r="235" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O234" s="18"/>
+      <c r="P234" s="18"/>
+      <c r="Q234" s="19"/>
+      <c r="R234" s="20"/>
+      <c r="S234" s="20"/>
+    </row>
+    <row r="235" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A235" s="13"/>
       <c r="B235" s="14"/>
       <c r="C235" s="14"/>
@@ -9045,9 +12669,13 @@
       <c r="L235" s="20"/>
       <c r="M235" s="20"/>
       <c r="N235" s="21"/>
-      <c r="R235" s="12"/>
-    </row>
-    <row r="236" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O235" s="18"/>
+      <c r="P235" s="18"/>
+      <c r="Q235" s="19"/>
+      <c r="R235" s="20"/>
+      <c r="S235" s="20"/>
+    </row>
+    <row r="236" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A236" s="13"/>
       <c r="B236" s="14"/>
       <c r="C236" s="14"/>
@@ -9062,9 +12690,13 @@
       <c r="L236" s="20"/>
       <c r="M236" s="20"/>
       <c r="N236" s="21"/>
-      <c r="R236" s="12"/>
-    </row>
-    <row r="237" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O236" s="18"/>
+      <c r="P236" s="18"/>
+      <c r="Q236" s="19"/>
+      <c r="R236" s="20"/>
+      <c r="S236" s="20"/>
+    </row>
+    <row r="237" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A237" s="13"/>
       <c r="B237" s="14"/>
       <c r="C237" s="14"/>
@@ -9079,9 +12711,13 @@
       <c r="L237" s="20"/>
       <c r="M237" s="20"/>
       <c r="N237" s="21"/>
-      <c r="R237" s="12"/>
-    </row>
-    <row r="238" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O237" s="18"/>
+      <c r="P237" s="18"/>
+      <c r="Q237" s="19"/>
+      <c r="R237" s="20"/>
+      <c r="S237" s="20"/>
+    </row>
+    <row r="238" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A238" s="13"/>
       <c r="B238" s="14"/>
       <c r="C238" s="14"/>
@@ -9096,9 +12732,13 @@
       <c r="L238" s="20"/>
       <c r="M238" s="20"/>
       <c r="N238" s="21"/>
-      <c r="R238" s="12"/>
-    </row>
-    <row r="239" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O238" s="18"/>
+      <c r="P238" s="18"/>
+      <c r="Q238" s="19"/>
+      <c r="R238" s="20"/>
+      <c r="S238" s="20"/>
+    </row>
+    <row r="239" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A239" s="13"/>
       <c r="B239" s="14"/>
       <c r="C239" s="14"/>
@@ -9113,9 +12753,13 @@
       <c r="L239" s="20"/>
       <c r="M239" s="20"/>
       <c r="N239" s="21"/>
-      <c r="R239" s="12"/>
-    </row>
-    <row r="240" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O239" s="18"/>
+      <c r="P239" s="18"/>
+      <c r="Q239" s="19"/>
+      <c r="R239" s="20"/>
+      <c r="S239" s="20"/>
+    </row>
+    <row r="240" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A240" s="13"/>
       <c r="B240" s="14"/>
       <c r="C240" s="14"/>
@@ -9130,9 +12774,13 @@
       <c r="L240" s="20"/>
       <c r="M240" s="20"/>
       <c r="N240" s="21"/>
-      <c r="R240" s="12"/>
-    </row>
-    <row r="241" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O240" s="18"/>
+      <c r="P240" s="18"/>
+      <c r="Q240" s="19"/>
+      <c r="R240" s="20"/>
+      <c r="S240" s="20"/>
+    </row>
+    <row r="241" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A241" s="13"/>
       <c r="B241" s="14"/>
       <c r="C241" s="14"/>
@@ -9147,9 +12795,13 @@
       <c r="L241" s="20"/>
       <c r="M241" s="20"/>
       <c r="N241" s="21"/>
-      <c r="R241" s="12"/>
-    </row>
-    <row r="242" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O241" s="18"/>
+      <c r="P241" s="18"/>
+      <c r="Q241" s="19"/>
+      <c r="R241" s="20"/>
+      <c r="S241" s="20"/>
+    </row>
+    <row r="242" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A242" s="13"/>
       <c r="B242" s="14"/>
       <c r="C242" s="14"/>
@@ -9164,9 +12816,13 @@
       <c r="L242" s="20"/>
       <c r="M242" s="20"/>
       <c r="N242" s="21"/>
-      <c r="R242" s="12"/>
-    </row>
-    <row r="243" spans="1:18" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="O242" s="18"/>
+      <c r="P242" s="18"/>
+      <c r="Q242" s="19"/>
+      <c r="R242" s="20"/>
+      <c r="S242" s="20"/>
+    </row>
+    <row r="243" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A243" s="13"/>
       <c r="B243" s="14"/>
       <c r="C243" s="14"/>
@@ -9181,7 +12837,1292 @@
       <c r="L243" s="20"/>
       <c r="M243" s="20"/>
       <c r="N243" s="21"/>
-      <c r="R243" s="12"/>
+      <c r="O243" s="18"/>
+      <c r="P243" s="18"/>
+      <c r="Q243" s="19"/>
+      <c r="R243" s="20"/>
+      <c r="S243" s="20"/>
+    </row>
+    <row r="244" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A244" s="13"/>
+      <c r="B244" s="14"/>
+      <c r="C244" s="14"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="15"/>
+      <c r="F244" s="34"/>
+      <c r="G244" s="15"/>
+      <c r="H244" s="16"/>
+      <c r="I244" s="17"/>
+      <c r="J244" s="18"/>
+      <c r="K244" s="19"/>
+      <c r="L244" s="20"/>
+      <c r="M244" s="20"/>
+      <c r="N244" s="21"/>
+      <c r="O244" s="18"/>
+      <c r="P244" s="18"/>
+      <c r="Q244" s="19"/>
+      <c r="R244" s="20"/>
+      <c r="S244" s="20"/>
+    </row>
+    <row r="245" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A245" s="13"/>
+      <c r="B245" s="14"/>
+      <c r="C245" s="14"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="15"/>
+      <c r="F245" s="34"/>
+      <c r="G245" s="15"/>
+      <c r="H245" s="16"/>
+      <c r="I245" s="17"/>
+      <c r="J245" s="18"/>
+      <c r="K245" s="19"/>
+      <c r="L245" s="20"/>
+      <c r="M245" s="20"/>
+      <c r="N245" s="21"/>
+      <c r="O245" s="18"/>
+      <c r="P245" s="18"/>
+      <c r="Q245" s="19"/>
+      <c r="R245" s="20"/>
+      <c r="S245" s="20"/>
+    </row>
+    <row r="246" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A246" s="13"/>
+      <c r="B246" s="14"/>
+      <c r="C246" s="14"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="15"/>
+      <c r="F246" s="34"/>
+      <c r="G246" s="15"/>
+      <c r="H246" s="16"/>
+      <c r="I246" s="17"/>
+      <c r="J246" s="18"/>
+      <c r="K246" s="19"/>
+      <c r="L246" s="20"/>
+      <c r="M246" s="20"/>
+      <c r="N246" s="21"/>
+      <c r="O246" s="18"/>
+      <c r="P246" s="18"/>
+      <c r="Q246" s="19"/>
+      <c r="R246" s="20"/>
+      <c r="S246" s="20"/>
+    </row>
+    <row r="247" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A247" s="13"/>
+      <c r="B247" s="14"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="15"/>
+      <c r="F247" s="34"/>
+      <c r="G247" s="15"/>
+      <c r="H247" s="16"/>
+      <c r="I247" s="17"/>
+      <c r="J247" s="18"/>
+      <c r="K247" s="19"/>
+      <c r="L247" s="20"/>
+      <c r="M247" s="20"/>
+      <c r="N247" s="21"/>
+      <c r="O247" s="18"/>
+      <c r="P247" s="18"/>
+      <c r="Q247" s="19"/>
+      <c r="R247" s="20"/>
+      <c r="S247" s="20"/>
+    </row>
+    <row r="248" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A248" s="13"/>
+      <c r="B248" s="14"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="14"/>
+      <c r="E248" s="15"/>
+      <c r="F248" s="34"/>
+      <c r="G248" s="15"/>
+      <c r="H248" s="16"/>
+      <c r="I248" s="17"/>
+      <c r="J248" s="18"/>
+      <c r="K248" s="19"/>
+      <c r="L248" s="20"/>
+      <c r="M248" s="20"/>
+      <c r="N248" s="21"/>
+      <c r="O248" s="18"/>
+      <c r="P248" s="18"/>
+      <c r="Q248" s="19"/>
+      <c r="R248" s="20"/>
+      <c r="S248" s="20"/>
+    </row>
+    <row r="249" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A249" s="13"/>
+      <c r="B249" s="14"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="15"/>
+      <c r="F249" s="34"/>
+      <c r="G249" s="15"/>
+      <c r="H249" s="16"/>
+      <c r="I249" s="17"/>
+      <c r="J249" s="18"/>
+      <c r="K249" s="19"/>
+      <c r="L249" s="20"/>
+      <c r="M249" s="20"/>
+      <c r="N249" s="21"/>
+      <c r="O249" s="18"/>
+      <c r="P249" s="18"/>
+      <c r="Q249" s="19"/>
+      <c r="R249" s="20"/>
+      <c r="S249" s="20"/>
+    </row>
+    <row r="250" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A250" s="13"/>
+      <c r="B250" s="14"/>
+      <c r="C250" s="14"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="15"/>
+      <c r="F250" s="34"/>
+      <c r="G250" s="15"/>
+      <c r="H250" s="16"/>
+      <c r="I250" s="17"/>
+      <c r="J250" s="18"/>
+      <c r="K250" s="19"/>
+      <c r="L250" s="20"/>
+      <c r="M250" s="20"/>
+      <c r="N250" s="21"/>
+      <c r="O250" s="18"/>
+      <c r="P250" s="18"/>
+      <c r="Q250" s="19"/>
+      <c r="R250" s="20"/>
+      <c r="S250" s="20"/>
+    </row>
+    <row r="251" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A251" s="13"/>
+      <c r="B251" s="14"/>
+      <c r="C251" s="14"/>
+      <c r="D251" s="14"/>
+      <c r="E251" s="15"/>
+      <c r="F251" s="34"/>
+      <c r="G251" s="15"/>
+      <c r="H251" s="16"/>
+      <c r="I251" s="17"/>
+      <c r="J251" s="18"/>
+      <c r="K251" s="19"/>
+      <c r="L251" s="20"/>
+      <c r="M251" s="20"/>
+      <c r="N251" s="21"/>
+      <c r="O251" s="18"/>
+      <c r="P251" s="18"/>
+      <c r="Q251" s="19"/>
+      <c r="R251" s="20"/>
+      <c r="S251" s="20"/>
+    </row>
+    <row r="252" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A252" s="13"/>
+      <c r="B252" s="14"/>
+      <c r="C252" s="14"/>
+      <c r="D252" s="14"/>
+      <c r="E252" s="15"/>
+      <c r="F252" s="34"/>
+      <c r="G252" s="15"/>
+      <c r="H252" s="16"/>
+      <c r="I252" s="17"/>
+      <c r="J252" s="18"/>
+      <c r="K252" s="19"/>
+      <c r="L252" s="20"/>
+      <c r="M252" s="20"/>
+      <c r="N252" s="21"/>
+      <c r="O252" s="18"/>
+      <c r="P252" s="18"/>
+      <c r="Q252" s="19"/>
+      <c r="R252" s="20"/>
+      <c r="S252" s="20"/>
+    </row>
+    <row r="253" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A253" s="13"/>
+      <c r="B253" s="14"/>
+      <c r="C253" s="14"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="34"/>
+      <c r="G253" s="15"/>
+      <c r="H253" s="16"/>
+      <c r="I253" s="17"/>
+      <c r="J253" s="18"/>
+      <c r="K253" s="19"/>
+      <c r="L253" s="20"/>
+      <c r="M253" s="20"/>
+      <c r="N253" s="21"/>
+      <c r="O253" s="18"/>
+      <c r="P253" s="18"/>
+      <c r="Q253" s="19"/>
+      <c r="R253" s="20"/>
+      <c r="S253" s="20"/>
+    </row>
+    <row r="254" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A254" s="13"/>
+      <c r="B254" s="14"/>
+      <c r="C254" s="14"/>
+      <c r="D254" s="14"/>
+      <c r="E254" s="15"/>
+      <c r="F254" s="34"/>
+      <c r="G254" s="15"/>
+      <c r="H254" s="16"/>
+      <c r="I254" s="17"/>
+      <c r="J254" s="18"/>
+      <c r="K254" s="19"/>
+      <c r="L254" s="20"/>
+      <c r="M254" s="20"/>
+      <c r="N254" s="21"/>
+      <c r="O254" s="18"/>
+      <c r="P254" s="18"/>
+      <c r="Q254" s="19"/>
+      <c r="R254" s="20"/>
+      <c r="S254" s="20"/>
+    </row>
+    <row r="255" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A255" s="13"/>
+      <c r="B255" s="14"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="15"/>
+      <c r="F255" s="34"/>
+      <c r="G255" s="15"/>
+      <c r="H255" s="16"/>
+      <c r="I255" s="17"/>
+      <c r="J255" s="18"/>
+      <c r="K255" s="19"/>
+      <c r="L255" s="20"/>
+      <c r="M255" s="20"/>
+      <c r="N255" s="21"/>
+      <c r="O255" s="18"/>
+      <c r="P255" s="18"/>
+      <c r="Q255" s="19"/>
+      <c r="R255" s="20"/>
+      <c r="S255" s="20"/>
+    </row>
+    <row r="256" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A256" s="13"/>
+      <c r="B256" s="14"/>
+      <c r="C256" s="14"/>
+      <c r="D256" s="14"/>
+      <c r="E256" s="15"/>
+      <c r="F256" s="34"/>
+      <c r="G256" s="15"/>
+      <c r="H256" s="16"/>
+      <c r="I256" s="17"/>
+      <c r="J256" s="18"/>
+      <c r="K256" s="19"/>
+      <c r="L256" s="20"/>
+      <c r="M256" s="20"/>
+      <c r="N256" s="21"/>
+      <c r="O256" s="18"/>
+      <c r="P256" s="18"/>
+      <c r="Q256" s="19"/>
+      <c r="R256" s="20"/>
+      <c r="S256" s="20"/>
+    </row>
+    <row r="257" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A257" s="13"/>
+      <c r="B257" s="14"/>
+      <c r="C257" s="14"/>
+      <c r="D257" s="14"/>
+      <c r="E257" s="15"/>
+      <c r="F257" s="34"/>
+      <c r="G257" s="15"/>
+      <c r="H257" s="16"/>
+      <c r="I257" s="17"/>
+      <c r="J257" s="18"/>
+      <c r="K257" s="19"/>
+      <c r="L257" s="20"/>
+      <c r="M257" s="20"/>
+      <c r="N257" s="21"/>
+      <c r="O257" s="18"/>
+      <c r="P257" s="18"/>
+      <c r="Q257" s="19"/>
+      <c r="R257" s="20"/>
+      <c r="S257" s="20"/>
+    </row>
+    <row r="258" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A258" s="13"/>
+      <c r="B258" s="14"/>
+      <c r="C258" s="14"/>
+      <c r="D258" s="14"/>
+      <c r="E258" s="15"/>
+      <c r="F258" s="34"/>
+      <c r="G258" s="15"/>
+      <c r="H258" s="16"/>
+      <c r="I258" s="17"/>
+      <c r="J258" s="18"/>
+      <c r="K258" s="19"/>
+      <c r="L258" s="20"/>
+      <c r="M258" s="20"/>
+      <c r="N258" s="21"/>
+      <c r="O258" s="18"/>
+      <c r="P258" s="18"/>
+      <c r="Q258" s="19"/>
+      <c r="R258" s="20"/>
+      <c r="S258" s="20"/>
+    </row>
+    <row r="259" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A259" s="13"/>
+      <c r="B259" s="14"/>
+      <c r="C259" s="14"/>
+      <c r="D259" s="14"/>
+      <c r="E259" s="15"/>
+      <c r="F259" s="34"/>
+      <c r="G259" s="15"/>
+      <c r="H259" s="16"/>
+      <c r="I259" s="17"/>
+      <c r="J259" s="18"/>
+      <c r="K259" s="19"/>
+      <c r="L259" s="20"/>
+      <c r="M259" s="20"/>
+      <c r="N259" s="21"/>
+      <c r="O259" s="18"/>
+      <c r="P259" s="18"/>
+      <c r="Q259" s="19"/>
+      <c r="R259" s="20"/>
+      <c r="S259" s="20"/>
+    </row>
+    <row r="260" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A260" s="13"/>
+      <c r="B260" s="14"/>
+      <c r="C260" s="14"/>
+      <c r="D260" s="14"/>
+      <c r="E260" s="15"/>
+      <c r="F260" s="34"/>
+      <c r="G260" s="15"/>
+      <c r="H260" s="16"/>
+      <c r="I260" s="17"/>
+      <c r="J260" s="18"/>
+      <c r="K260" s="19"/>
+      <c r="L260" s="20"/>
+      <c r="M260" s="20"/>
+      <c r="N260" s="21"/>
+      <c r="O260" s="18"/>
+      <c r="P260" s="18"/>
+      <c r="Q260" s="19"/>
+      <c r="R260" s="20"/>
+      <c r="S260" s="20"/>
+    </row>
+    <row r="261" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A261" s="13"/>
+      <c r="B261" s="14"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="15"/>
+      <c r="F261" s="34"/>
+      <c r="G261" s="15"/>
+      <c r="H261" s="16"/>
+      <c r="I261" s="17"/>
+      <c r="J261" s="18"/>
+      <c r="K261" s="19"/>
+      <c r="L261" s="20"/>
+      <c r="M261" s="20"/>
+      <c r="N261" s="21"/>
+      <c r="O261" s="18"/>
+      <c r="P261" s="18"/>
+      <c r="Q261" s="19"/>
+      <c r="R261" s="20"/>
+      <c r="S261" s="20"/>
+    </row>
+    <row r="262" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A262" s="13"/>
+      <c r="B262" s="14"/>
+      <c r="C262" s="14"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="15"/>
+      <c r="F262" s="34"/>
+      <c r="G262" s="15"/>
+      <c r="H262" s="16"/>
+      <c r="I262" s="17"/>
+      <c r="J262" s="18"/>
+      <c r="K262" s="19"/>
+      <c r="L262" s="20"/>
+      <c r="M262" s="20"/>
+      <c r="N262" s="21"/>
+      <c r="O262" s="18"/>
+      <c r="P262" s="18"/>
+      <c r="Q262" s="19"/>
+      <c r="R262" s="20"/>
+      <c r="S262" s="20"/>
+    </row>
+    <row r="263" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A263" s="13"/>
+      <c r="B263" s="14"/>
+      <c r="C263" s="14"/>
+      <c r="D263" s="14"/>
+      <c r="E263" s="15"/>
+      <c r="F263" s="34"/>
+      <c r="G263" s="15"/>
+      <c r="H263" s="16"/>
+      <c r="I263" s="17"/>
+      <c r="J263" s="18"/>
+      <c r="K263" s="19"/>
+      <c r="L263" s="20"/>
+      <c r="M263" s="20"/>
+      <c r="N263" s="21"/>
+      <c r="O263" s="18"/>
+      <c r="P263" s="18"/>
+      <c r="Q263" s="19"/>
+      <c r="R263" s="20"/>
+      <c r="S263" s="20"/>
+    </row>
+    <row r="264" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A264" s="13"/>
+      <c r="B264" s="14"/>
+      <c r="C264" s="14"/>
+      <c r="D264" s="14"/>
+      <c r="E264" s="15"/>
+      <c r="F264" s="34"/>
+      <c r="G264" s="15"/>
+      <c r="H264" s="16"/>
+      <c r="I264" s="17"/>
+      <c r="J264" s="18"/>
+      <c r="K264" s="19"/>
+      <c r="L264" s="20"/>
+      <c r="M264" s="20"/>
+      <c r="N264" s="21"/>
+      <c r="O264" s="18"/>
+      <c r="P264" s="18"/>
+      <c r="Q264" s="19"/>
+      <c r="R264" s="20"/>
+      <c r="S264" s="20"/>
+    </row>
+    <row r="265" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A265" s="13"/>
+      <c r="B265" s="14"/>
+      <c r="C265" s="14"/>
+      <c r="D265" s="14"/>
+      <c r="E265" s="15"/>
+      <c r="F265" s="34"/>
+      <c r="G265" s="15"/>
+      <c r="H265" s="16"/>
+      <c r="I265" s="17"/>
+      <c r="J265" s="18"/>
+      <c r="K265" s="19"/>
+      <c r="L265" s="20"/>
+      <c r="M265" s="20"/>
+      <c r="N265" s="21"/>
+      <c r="O265" s="18"/>
+      <c r="P265" s="18"/>
+      <c r="Q265" s="19"/>
+      <c r="R265" s="20"/>
+      <c r="S265" s="20"/>
+    </row>
+    <row r="266" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A266" s="13"/>
+      <c r="B266" s="14"/>
+      <c r="C266" s="14"/>
+      <c r="D266" s="14"/>
+      <c r="E266" s="15"/>
+      <c r="F266" s="34"/>
+      <c r="G266" s="15"/>
+      <c r="H266" s="16"/>
+      <c r="I266" s="17"/>
+      <c r="J266" s="18"/>
+      <c r="K266" s="19"/>
+      <c r="L266" s="20"/>
+      <c r="M266" s="20"/>
+      <c r="N266" s="21"/>
+      <c r="O266" s="18"/>
+      <c r="P266" s="18"/>
+      <c r="Q266" s="19"/>
+      <c r="R266" s="20"/>
+      <c r="S266" s="20"/>
+    </row>
+    <row r="267" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A267" s="13"/>
+      <c r="B267" s="14"/>
+      <c r="C267" s="14"/>
+      <c r="D267" s="14"/>
+      <c r="E267" s="15"/>
+      <c r="F267" s="34"/>
+      <c r="G267" s="15"/>
+      <c r="H267" s="16"/>
+      <c r="I267" s="17"/>
+      <c r="J267" s="18"/>
+      <c r="K267" s="19"/>
+      <c r="L267" s="20"/>
+      <c r="M267" s="20"/>
+      <c r="N267" s="21"/>
+      <c r="O267" s="18"/>
+      <c r="P267" s="18"/>
+      <c r="Q267" s="19"/>
+      <c r="R267" s="20"/>
+      <c r="S267" s="20"/>
+    </row>
+    <row r="268" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A268" s="13"/>
+      <c r="B268" s="14"/>
+      <c r="C268" s="14"/>
+      <c r="D268" s="14"/>
+      <c r="E268" s="15"/>
+      <c r="F268" s="34"/>
+      <c r="G268" s="15"/>
+      <c r="H268" s="16"/>
+      <c r="I268" s="17"/>
+      <c r="J268" s="18"/>
+      <c r="K268" s="19"/>
+      <c r="L268" s="20"/>
+      <c r="M268" s="20"/>
+      <c r="N268" s="21"/>
+      <c r="O268" s="18"/>
+      <c r="P268" s="18"/>
+      <c r="Q268" s="19"/>
+      <c r="R268" s="20"/>
+      <c r="S268" s="20"/>
+    </row>
+    <row r="269" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A269" s="13"/>
+      <c r="B269" s="14"/>
+      <c r="C269" s="14"/>
+      <c r="D269" s="14"/>
+      <c r="E269" s="15"/>
+      <c r="F269" s="34"/>
+      <c r="G269" s="15"/>
+      <c r="H269" s="16"/>
+      <c r="I269" s="17"/>
+      <c r="J269" s="18"/>
+      <c r="K269" s="19"/>
+      <c r="L269" s="20"/>
+      <c r="M269" s="20"/>
+      <c r="N269" s="21"/>
+      <c r="O269" s="18"/>
+      <c r="P269" s="18"/>
+      <c r="Q269" s="19"/>
+      <c r="R269" s="20"/>
+      <c r="S269" s="20"/>
+    </row>
+    <row r="270" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A270" s="13"/>
+      <c r="B270" s="14"/>
+      <c r="C270" s="14"/>
+      <c r="D270" s="14"/>
+      <c r="E270" s="15"/>
+      <c r="F270" s="34"/>
+      <c r="G270" s="15"/>
+      <c r="H270" s="16"/>
+      <c r="I270" s="17"/>
+      <c r="J270" s="18"/>
+      <c r="K270" s="19"/>
+      <c r="L270" s="20"/>
+      <c r="M270" s="20"/>
+      <c r="N270" s="21"/>
+      <c r="O270" s="18"/>
+      <c r="P270" s="18"/>
+      <c r="Q270" s="19"/>
+      <c r="R270" s="20"/>
+      <c r="S270" s="20"/>
+    </row>
+    <row r="271" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A271" s="13"/>
+      <c r="B271" s="14"/>
+      <c r="C271" s="14"/>
+      <c r="D271" s="14"/>
+      <c r="E271" s="15"/>
+      <c r="F271" s="34"/>
+      <c r="G271" s="15"/>
+      <c r="H271" s="16"/>
+      <c r="I271" s="17"/>
+      <c r="J271" s="18"/>
+      <c r="K271" s="19"/>
+      <c r="L271" s="20"/>
+      <c r="M271" s="20"/>
+      <c r="N271" s="21"/>
+      <c r="O271" s="18"/>
+      <c r="P271" s="18"/>
+      <c r="Q271" s="19"/>
+      <c r="R271" s="20"/>
+      <c r="S271" s="20"/>
+    </row>
+    <row r="272" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A272" s="13"/>
+      <c r="B272" s="14"/>
+      <c r="C272" s="14"/>
+      <c r="D272" s="14"/>
+      <c r="E272" s="15"/>
+      <c r="F272" s="34"/>
+      <c r="G272" s="15"/>
+      <c r="H272" s="16"/>
+      <c r="I272" s="17"/>
+      <c r="J272" s="18"/>
+      <c r="K272" s="19"/>
+      <c r="L272" s="20"/>
+      <c r="M272" s="20"/>
+      <c r="N272" s="21"/>
+      <c r="O272" s="18"/>
+      <c r="P272" s="18"/>
+      <c r="Q272" s="19"/>
+      <c r="R272" s="20"/>
+      <c r="S272" s="20"/>
+    </row>
+    <row r="273" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A273" s="13"/>
+      <c r="B273" s="14"/>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+      <c r="E273" s="15"/>
+      <c r="F273" s="34"/>
+      <c r="G273" s="15"/>
+      <c r="H273" s="16"/>
+      <c r="I273" s="17"/>
+      <c r="J273" s="18"/>
+      <c r="K273" s="19"/>
+      <c r="L273" s="20"/>
+      <c r="M273" s="20"/>
+      <c r="N273" s="21"/>
+      <c r="O273" s="18"/>
+      <c r="P273" s="18"/>
+      <c r="Q273" s="19"/>
+      <c r="R273" s="20"/>
+      <c r="S273" s="20"/>
+    </row>
+    <row r="274" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A274" s="13"/>
+      <c r="B274" s="14"/>
+      <c r="C274" s="14"/>
+      <c r="D274" s="14"/>
+      <c r="E274" s="15"/>
+      <c r="F274" s="34"/>
+      <c r="G274" s="15"/>
+      <c r="H274" s="16"/>
+      <c r="I274" s="17"/>
+      <c r="J274" s="18"/>
+      <c r="K274" s="19"/>
+      <c r="L274" s="20"/>
+      <c r="M274" s="20"/>
+      <c r="N274" s="21"/>
+      <c r="O274" s="18"/>
+      <c r="P274" s="18"/>
+      <c r="Q274" s="19"/>
+      <c r="R274" s="20"/>
+      <c r="S274" s="20"/>
+    </row>
+    <row r="275" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A275" s="13"/>
+      <c r="B275" s="14"/>
+      <c r="C275" s="14"/>
+      <c r="D275" s="14"/>
+      <c r="E275" s="15"/>
+      <c r="F275" s="34"/>
+      <c r="G275" s="15"/>
+      <c r="H275" s="16"/>
+      <c r="I275" s="17"/>
+      <c r="J275" s="18"/>
+      <c r="K275" s="19"/>
+      <c r="L275" s="20"/>
+      <c r="M275" s="20"/>
+      <c r="N275" s="21"/>
+      <c r="O275" s="18"/>
+      <c r="P275" s="18"/>
+      <c r="Q275" s="19"/>
+      <c r="R275" s="20"/>
+      <c r="S275" s="20"/>
+    </row>
+    <row r="276" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A276" s="13"/>
+      <c r="B276" s="14"/>
+      <c r="C276" s="14"/>
+      <c r="D276" s="14"/>
+      <c r="E276" s="15"/>
+      <c r="F276" s="34"/>
+      <c r="G276" s="15"/>
+      <c r="H276" s="16"/>
+      <c r="I276" s="17"/>
+      <c r="J276" s="18"/>
+      <c r="K276" s="19"/>
+      <c r="L276" s="20"/>
+      <c r="M276" s="20"/>
+      <c r="N276" s="21"/>
+      <c r="O276" s="18"/>
+      <c r="P276" s="18"/>
+      <c r="Q276" s="19"/>
+      <c r="R276" s="20"/>
+      <c r="S276" s="20"/>
+    </row>
+    <row r="277" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A277" s="13"/>
+      <c r="B277" s="14"/>
+      <c r="C277" s="14"/>
+      <c r="D277" s="14"/>
+      <c r="E277" s="15"/>
+      <c r="F277" s="34"/>
+      <c r="G277" s="15"/>
+      <c r="H277" s="16"/>
+      <c r="I277" s="17"/>
+      <c r="J277" s="18"/>
+      <c r="K277" s="19"/>
+      <c r="L277" s="20"/>
+      <c r="M277" s="20"/>
+      <c r="N277" s="21"/>
+      <c r="O277" s="18"/>
+      <c r="P277" s="18"/>
+      <c r="Q277" s="19"/>
+      <c r="R277" s="20"/>
+      <c r="S277" s="20"/>
+    </row>
+    <row r="278" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A278" s="13"/>
+      <c r="B278" s="14"/>
+      <c r="C278" s="14"/>
+      <c r="D278" s="14"/>
+      <c r="E278" s="15"/>
+      <c r="F278" s="34"/>
+      <c r="G278" s="15"/>
+      <c r="H278" s="16"/>
+      <c r="I278" s="17"/>
+      <c r="J278" s="18"/>
+      <c r="K278" s="19"/>
+      <c r="L278" s="20"/>
+      <c r="M278" s="20"/>
+      <c r="N278" s="21"/>
+      <c r="O278" s="18"/>
+      <c r="P278" s="18"/>
+      <c r="Q278" s="19"/>
+      <c r="R278" s="20"/>
+      <c r="S278" s="20"/>
+    </row>
+    <row r="279" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A279" s="13"/>
+      <c r="B279" s="14"/>
+      <c r="C279" s="14"/>
+      <c r="D279" s="14"/>
+      <c r="E279" s="15"/>
+      <c r="F279" s="34"/>
+      <c r="G279" s="15"/>
+      <c r="H279" s="16"/>
+      <c r="I279" s="17"/>
+      <c r="J279" s="18"/>
+      <c r="K279" s="19"/>
+      <c r="L279" s="20"/>
+      <c r="M279" s="20"/>
+      <c r="N279" s="21"/>
+      <c r="O279" s="18"/>
+      <c r="P279" s="18"/>
+      <c r="Q279" s="19"/>
+      <c r="R279" s="20"/>
+      <c r="S279" s="20"/>
+    </row>
+    <row r="280" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A280" s="13"/>
+      <c r="B280" s="14"/>
+      <c r="C280" s="14"/>
+      <c r="D280" s="14"/>
+      <c r="E280" s="15"/>
+      <c r="F280" s="34"/>
+      <c r="G280" s="15"/>
+      <c r="H280" s="16"/>
+      <c r="I280" s="17"/>
+      <c r="J280" s="18"/>
+      <c r="K280" s="19"/>
+      <c r="L280" s="20"/>
+      <c r="M280" s="20"/>
+      <c r="N280" s="21"/>
+      <c r="O280" s="18"/>
+      <c r="P280" s="18"/>
+      <c r="Q280" s="19"/>
+      <c r="R280" s="20"/>
+      <c r="S280" s="20"/>
+    </row>
+    <row r="281" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A281" s="13"/>
+      <c r="B281" s="14"/>
+      <c r="C281" s="14"/>
+      <c r="D281" s="14"/>
+      <c r="E281" s="15"/>
+      <c r="F281" s="34"/>
+      <c r="G281" s="15"/>
+      <c r="H281" s="16"/>
+      <c r="I281" s="17"/>
+      <c r="J281" s="18"/>
+      <c r="K281" s="19"/>
+      <c r="L281" s="20"/>
+      <c r="M281" s="20"/>
+      <c r="N281" s="21"/>
+      <c r="O281" s="18"/>
+      <c r="P281" s="18"/>
+      <c r="Q281" s="19"/>
+      <c r="R281" s="20"/>
+      <c r="S281" s="20"/>
+    </row>
+    <row r="282" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A282" s="13"/>
+      <c r="B282" s="14"/>
+      <c r="C282" s="14"/>
+      <c r="D282" s="14"/>
+      <c r="E282" s="15"/>
+      <c r="F282" s="34"/>
+      <c r="G282" s="15"/>
+      <c r="H282" s="16"/>
+      <c r="I282" s="17"/>
+      <c r="J282" s="18"/>
+      <c r="K282" s="19"/>
+      <c r="L282" s="20"/>
+      <c r="M282" s="20"/>
+      <c r="N282" s="21"/>
+      <c r="O282" s="18"/>
+      <c r="P282" s="18"/>
+      <c r="Q282" s="19"/>
+      <c r="R282" s="20"/>
+      <c r="S282" s="20"/>
+    </row>
+    <row r="283" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A283" s="13"/>
+      <c r="B283" s="14"/>
+      <c r="C283" s="14"/>
+      <c r="D283" s="14"/>
+      <c r="E283" s="15"/>
+      <c r="F283" s="34"/>
+      <c r="G283" s="15"/>
+      <c r="H283" s="16"/>
+      <c r="I283" s="17"/>
+      <c r="J283" s="18"/>
+      <c r="K283" s="19"/>
+      <c r="L283" s="20"/>
+      <c r="M283" s="20"/>
+      <c r="N283" s="21"/>
+      <c r="O283" s="18"/>
+      <c r="P283" s="18"/>
+      <c r="Q283" s="19"/>
+      <c r="R283" s="20"/>
+      <c r="S283" s="20"/>
+    </row>
+    <row r="284" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A284" s="13"/>
+      <c r="B284" s="14"/>
+      <c r="C284" s="14"/>
+      <c r="D284" s="14"/>
+      <c r="E284" s="15"/>
+      <c r="F284" s="34"/>
+      <c r="G284" s="15"/>
+      <c r="H284" s="16"/>
+      <c r="I284" s="17"/>
+      <c r="J284" s="18"/>
+      <c r="K284" s="19"/>
+      <c r="L284" s="20"/>
+      <c r="M284" s="20"/>
+      <c r="N284" s="21"/>
+      <c r="O284" s="18"/>
+      <c r="P284" s="18"/>
+      <c r="Q284" s="19"/>
+      <c r="R284" s="20"/>
+      <c r="S284" s="20"/>
+    </row>
+    <row r="285" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A285" s="13"/>
+      <c r="B285" s="14"/>
+      <c r="C285" s="14"/>
+      <c r="D285" s="14"/>
+      <c r="E285" s="15"/>
+      <c r="F285" s="34"/>
+      <c r="G285" s="15"/>
+      <c r="H285" s="16"/>
+      <c r="I285" s="17"/>
+      <c r="J285" s="18"/>
+      <c r="K285" s="19"/>
+      <c r="L285" s="20"/>
+      <c r="M285" s="20"/>
+      <c r="N285" s="21"/>
+      <c r="O285" s="18"/>
+      <c r="P285" s="18"/>
+      <c r="Q285" s="19"/>
+      <c r="R285" s="20"/>
+      <c r="S285" s="20"/>
+    </row>
+    <row r="286" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A286" s="13"/>
+      <c r="B286" s="14"/>
+      <c r="C286" s="14"/>
+      <c r="D286" s="14"/>
+      <c r="E286" s="15"/>
+      <c r="F286" s="34"/>
+      <c r="G286" s="15"/>
+      <c r="H286" s="16"/>
+      <c r="I286" s="17"/>
+      <c r="J286" s="18"/>
+      <c r="K286" s="19"/>
+      <c r="L286" s="20"/>
+      <c r="M286" s="20"/>
+      <c r="N286" s="21"/>
+      <c r="O286" s="18"/>
+      <c r="P286" s="18"/>
+      <c r="Q286" s="19"/>
+      <c r="R286" s="20"/>
+      <c r="S286" s="20"/>
+    </row>
+    <row r="287" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A287" s="13"/>
+      <c r="B287" s="14"/>
+      <c r="C287" s="14"/>
+      <c r="D287" s="14"/>
+      <c r="E287" s="15"/>
+      <c r="F287" s="34"/>
+      <c r="G287" s="15"/>
+      <c r="H287" s="16"/>
+      <c r="I287" s="17"/>
+      <c r="J287" s="18"/>
+      <c r="K287" s="19"/>
+      <c r="L287" s="20"/>
+      <c r="M287" s="20"/>
+      <c r="N287" s="21"/>
+      <c r="O287" s="18"/>
+      <c r="P287" s="18"/>
+      <c r="Q287" s="19"/>
+      <c r="R287" s="20"/>
+      <c r="S287" s="20"/>
+    </row>
+    <row r="288" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A288" s="13"/>
+      <c r="B288" s="14"/>
+      <c r="C288" s="14"/>
+      <c r="D288" s="14"/>
+      <c r="E288" s="15"/>
+      <c r="F288" s="34"/>
+      <c r="G288" s="15"/>
+      <c r="H288" s="16"/>
+      <c r="I288" s="17"/>
+      <c r="J288" s="18"/>
+      <c r="K288" s="19"/>
+      <c r="L288" s="20"/>
+      <c r="M288" s="20"/>
+      <c r="N288" s="21"/>
+      <c r="O288" s="18"/>
+      <c r="P288" s="18"/>
+      <c r="Q288" s="19"/>
+      <c r="R288" s="20"/>
+      <c r="S288" s="20"/>
+    </row>
+    <row r="289" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A289" s="13"/>
+      <c r="B289" s="14"/>
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="15"/>
+      <c r="F289" s="34"/>
+      <c r="G289" s="15"/>
+      <c r="H289" s="16"/>
+      <c r="I289" s="17"/>
+      <c r="J289" s="18"/>
+      <c r="K289" s="19"/>
+      <c r="L289" s="20"/>
+      <c r="M289" s="20"/>
+      <c r="N289" s="21"/>
+      <c r="O289" s="18"/>
+      <c r="P289" s="18"/>
+      <c r="Q289" s="19"/>
+      <c r="R289" s="20"/>
+      <c r="S289" s="20"/>
+    </row>
+    <row r="290" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A290" s="13"/>
+      <c r="B290" s="14"/>
+      <c r="C290" s="14"/>
+      <c r="D290" s="14"/>
+      <c r="E290" s="15"/>
+      <c r="F290" s="34"/>
+      <c r="G290" s="15"/>
+      <c r="H290" s="16"/>
+      <c r="I290" s="17"/>
+      <c r="J290" s="18"/>
+      <c r="K290" s="19"/>
+      <c r="L290" s="20"/>
+      <c r="M290" s="20"/>
+      <c r="N290" s="21"/>
+      <c r="O290" s="18"/>
+      <c r="P290" s="18"/>
+      <c r="Q290" s="19"/>
+      <c r="R290" s="20"/>
+      <c r="S290" s="20"/>
+    </row>
+    <row r="291" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A291" s="13"/>
+      <c r="B291" s="14"/>
+      <c r="C291" s="14"/>
+      <c r="D291" s="14"/>
+      <c r="E291" s="15"/>
+      <c r="F291" s="34"/>
+      <c r="G291" s="15"/>
+      <c r="H291" s="16"/>
+      <c r="I291" s="17"/>
+      <c r="J291" s="18"/>
+      <c r="K291" s="19"/>
+      <c r="L291" s="20"/>
+      <c r="M291" s="20"/>
+      <c r="N291" s="21"/>
+      <c r="O291" s="18"/>
+      <c r="P291" s="18"/>
+      <c r="Q291" s="19"/>
+      <c r="R291" s="20"/>
+      <c r="S291" s="20"/>
+    </row>
+    <row r="292" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A292" s="13"/>
+      <c r="B292" s="14"/>
+      <c r="C292" s="14"/>
+      <c r="D292" s="14"/>
+      <c r="E292" s="15"/>
+      <c r="F292" s="34"/>
+      <c r="G292" s="15"/>
+      <c r="H292" s="16"/>
+      <c r="I292" s="17"/>
+      <c r="J292" s="18"/>
+      <c r="K292" s="19"/>
+      <c r="L292" s="20"/>
+      <c r="M292" s="20"/>
+      <c r="N292" s="21"/>
+      <c r="O292" s="18"/>
+      <c r="P292" s="18"/>
+      <c r="Q292" s="19"/>
+      <c r="R292" s="20"/>
+      <c r="S292" s="20"/>
+    </row>
+    <row r="293" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A293" s="13"/>
+      <c r="B293" s="14"/>
+      <c r="C293" s="14"/>
+      <c r="D293" s="14"/>
+      <c r="E293" s="15"/>
+      <c r="F293" s="34"/>
+      <c r="G293" s="15"/>
+      <c r="H293" s="16"/>
+      <c r="I293" s="17"/>
+      <c r="J293" s="18"/>
+      <c r="K293" s="19"/>
+      <c r="L293" s="20"/>
+      <c r="M293" s="20"/>
+      <c r="N293" s="21"/>
+      <c r="O293" s="18"/>
+      <c r="P293" s="18"/>
+      <c r="Q293" s="19"/>
+      <c r="R293" s="20"/>
+      <c r="S293" s="20"/>
+    </row>
+    <row r="294" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A294" s="13"/>
+      <c r="B294" s="14"/>
+      <c r="C294" s="14"/>
+      <c r="D294" s="14"/>
+      <c r="E294" s="15"/>
+      <c r="F294" s="34"/>
+      <c r="G294" s="15"/>
+      <c r="H294" s="16"/>
+      <c r="I294" s="17"/>
+      <c r="J294" s="18"/>
+      <c r="K294" s="19"/>
+      <c r="L294" s="20"/>
+      <c r="M294" s="20"/>
+      <c r="N294" s="21"/>
+      <c r="O294" s="18"/>
+      <c r="P294" s="18"/>
+      <c r="Q294" s="19"/>
+      <c r="R294" s="20"/>
+      <c r="S294" s="20"/>
+    </row>
+    <row r="295" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A295" s="13"/>
+      <c r="B295" s="14"/>
+      <c r="C295" s="14"/>
+      <c r="D295" s="14"/>
+      <c r="E295" s="15"/>
+      <c r="F295" s="34"/>
+      <c r="G295" s="15"/>
+      <c r="H295" s="16"/>
+      <c r="I295" s="17"/>
+      <c r="J295" s="18"/>
+      <c r="K295" s="19"/>
+      <c r="L295" s="20"/>
+      <c r="M295" s="20"/>
+      <c r="N295" s="21"/>
+      <c r="O295" s="18"/>
+      <c r="P295" s="18"/>
+      <c r="Q295" s="19"/>
+      <c r="R295" s="20"/>
+      <c r="S295" s="20"/>
+    </row>
+    <row r="296" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A296" s="13"/>
+      <c r="B296" s="14"/>
+      <c r="C296" s="14"/>
+      <c r="D296" s="14"/>
+      <c r="E296" s="15"/>
+      <c r="F296" s="34"/>
+      <c r="G296" s="15"/>
+      <c r="H296" s="16"/>
+      <c r="I296" s="17"/>
+      <c r="J296" s="18"/>
+      <c r="K296" s="19"/>
+      <c r="L296" s="20"/>
+      <c r="M296" s="20"/>
+      <c r="N296" s="21"/>
+      <c r="O296" s="18"/>
+      <c r="P296" s="18"/>
+      <c r="Q296" s="19"/>
+      <c r="R296" s="20"/>
+      <c r="S296" s="20"/>
+    </row>
+    <row r="297" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A297" s="13"/>
+      <c r="B297" s="14"/>
+      <c r="C297" s="14"/>
+      <c r="D297" s="14"/>
+      <c r="E297" s="15"/>
+      <c r="F297" s="34"/>
+      <c r="G297" s="15"/>
+      <c r="H297" s="16"/>
+      <c r="I297" s="17"/>
+      <c r="J297" s="18"/>
+      <c r="K297" s="19"/>
+      <c r="L297" s="20"/>
+      <c r="M297" s="20"/>
+      <c r="N297" s="21"/>
+      <c r="O297" s="18"/>
+      <c r="P297" s="18"/>
+      <c r="Q297" s="19"/>
+      <c r="R297" s="20"/>
+      <c r="S297" s="20"/>
+    </row>
+    <row r="298" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A298" s="13"/>
+      <c r="B298" s="14"/>
+      <c r="C298" s="14"/>
+      <c r="D298" s="14"/>
+      <c r="E298" s="15"/>
+      <c r="F298" s="34"/>
+      <c r="G298" s="15"/>
+      <c r="H298" s="16"/>
+      <c r="I298" s="17"/>
+      <c r="J298" s="18"/>
+      <c r="K298" s="19"/>
+      <c r="L298" s="20"/>
+      <c r="M298" s="20"/>
+      <c r="N298" s="21"/>
+      <c r="O298" s="18"/>
+      <c r="P298" s="18"/>
+      <c r="Q298" s="19"/>
+      <c r="R298" s="20"/>
+      <c r="S298" s="20"/>
+    </row>
+    <row r="299" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A299" s="13"/>
+      <c r="B299" s="14"/>
+      <c r="C299" s="14"/>
+      <c r="D299" s="14"/>
+      <c r="E299" s="15"/>
+      <c r="F299" s="34"/>
+      <c r="G299" s="15"/>
+      <c r="H299" s="16"/>
+      <c r="I299" s="17"/>
+      <c r="J299" s="18"/>
+      <c r="K299" s="19"/>
+      <c r="L299" s="20"/>
+      <c r="M299" s="20"/>
+      <c r="N299" s="21"/>
+      <c r="O299" s="18"/>
+      <c r="P299" s="18"/>
+      <c r="Q299" s="19"/>
+      <c r="R299" s="20"/>
+      <c r="S299" s="20"/>
+    </row>
+    <row r="300" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A300" s="13"/>
+      <c r="B300" s="14"/>
+      <c r="C300" s="14"/>
+      <c r="D300" s="14"/>
+      <c r="E300" s="15"/>
+      <c r="F300" s="34"/>
+      <c r="G300" s="15"/>
+      <c r="H300" s="16"/>
+      <c r="I300" s="17"/>
+      <c r="J300" s="18"/>
+      <c r="K300" s="19"/>
+      <c r="L300" s="20"/>
+      <c r="M300" s="20"/>
+      <c r="N300" s="21"/>
+      <c r="O300" s="18"/>
+      <c r="P300" s="18"/>
+      <c r="Q300" s="19"/>
+      <c r="R300" s="20"/>
+      <c r="S300" s="20"/>
+    </row>
+    <row r="301" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A301" s="13"/>
+      <c r="B301" s="14"/>
+      <c r="C301" s="14"/>
+      <c r="D301" s="14"/>
+      <c r="E301" s="15"/>
+      <c r="F301" s="34"/>
+      <c r="G301" s="15"/>
+      <c r="H301" s="16"/>
+      <c r="I301" s="17"/>
+      <c r="J301" s="18"/>
+      <c r="K301" s="19"/>
+      <c r="L301" s="20"/>
+      <c r="M301" s="20"/>
+      <c r="N301" s="21"/>
+      <c r="O301" s="18"/>
+      <c r="P301" s="18"/>
+      <c r="Q301" s="19"/>
+      <c r="R301" s="20"/>
+      <c r="S301" s="20"/>
+    </row>
+    <row r="302" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A302" s="13"/>
+      <c r="B302" s="14"/>
+      <c r="C302" s="14"/>
+      <c r="D302" s="14"/>
+      <c r="E302" s="15"/>
+      <c r="F302" s="34"/>
+      <c r="G302" s="15"/>
+      <c r="H302" s="16"/>
+      <c r="I302" s="17"/>
+      <c r="J302" s="18"/>
+      <c r="K302" s="19"/>
+      <c r="L302" s="20"/>
+      <c r="M302" s="20"/>
+      <c r="N302" s="21"/>
+      <c r="O302" s="18"/>
+      <c r="P302" s="18"/>
+      <c r="Q302" s="19"/>
+      <c r="R302" s="20"/>
+      <c r="S302" s="20"/>
+    </row>
+    <row r="303" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A303" s="13"/>
+      <c r="B303" s="14"/>
+      <c r="C303" s="14"/>
+      <c r="D303" s="14"/>
+      <c r="E303" s="15"/>
+      <c r="F303" s="34"/>
+      <c r="G303" s="15"/>
+      <c r="H303" s="16"/>
+      <c r="I303" s="17"/>
+      <c r="J303" s="18"/>
+      <c r="K303" s="19"/>
+      <c r="L303" s="20"/>
+      <c r="M303" s="20"/>
+      <c r="N303" s="21"/>
+      <c r="O303" s="18"/>
+      <c r="P303" s="18"/>
+      <c r="Q303" s="19"/>
+      <c r="R303" s="20"/>
+      <c r="S303" s="20"/>
+    </row>
+    <row r="304" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
+      <c r="A304" s="13"/>
+      <c r="B304" s="14"/>
+      <c r="C304" s="14"/>
+      <c r="D304" s="14"/>
+      <c r="E304" s="15"/>
+      <c r="F304" s="34"/>
+      <c r="G304" s="15"/>
+      <c r="H304" s="16"/>
+      <c r="I304" s="17"/>
+      <c r="J304" s="18"/>
+      <c r="K304" s="19"/>
+      <c r="L304" s="20"/>
+      <c r="M304" s="20"/>
+      <c r="N304" s="21"/>
+      <c r="O304" s="18"/>
+      <c r="P304" s="18"/>
+      <c r="Q304" s="19"/>
+      <c r="R304" s="20"/>
+      <c r="S304" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9191,40 +14132,40 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JB3:JB5 SX3:SX5 ACT3:ACT5 AMP3:AMP5 AWL3:AWL5 BGH3:BGH5 BQD3:BQD5 BZZ3:BZZ5 CJV3:CJV5 CTR3:CTR5 DDN3:DDN5 DNJ3:DNJ5 DXF3:DXF5 EHB3:EHB5 EQX3:EQX5 FAT3:FAT5 FKP3:FKP5 FUL3:FUL5 GEH3:GEH5 GOD3:GOD5 GXZ3:GXZ5 HHV3:HHV5 HRR3:HRR5 IBN3:IBN5 ILJ3:ILJ5 IVF3:IVF5 JFB3:JFB5 JOX3:JOX5 JYT3:JYT5 KIP3:KIP5 KSL3:KSL5 LCH3:LCH5 LMD3:LMD5 LVZ3:LVZ5 MFV3:MFV5 MPR3:MPR5 MZN3:MZN5 NJJ3:NJJ5 NTF3:NTF5 ODB3:ODB5 OMX3:OMX5 OWT3:OWT5 PGP3:PGP5 PQL3:PQL5 QAH3:QAH5 QKD3:QKD5 QTZ3:QTZ5 RDV3:RDV5 RNR3:RNR5 RXN3:RXN5 SHJ3:SHJ5 SRF3:SRF5 TBB3:TBB5 TKX3:TKX5 TUT3:TUT5 UEP3:UEP5 UOL3:UOL5 UYH3:UYH5 VID3:VID5 VRZ3:VRZ5 WBV3:WBV5 WLR3:WLR5 WVN3:WVN5">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IH165:IH166 WUT165:WUT166 WKX165:WKX166 WBB165:WBB166 VRF165:VRF166 VHJ165:VHJ166 UXN165:UXN166 UNR165:UNR166 UDV165:UDV166 TTZ165:TTZ166 TKD165:TKD166 TAH165:TAH166 SQL165:SQL166 SGP165:SGP166 RWT165:RWT166 RMX165:RMX166 RDB165:RDB166 QTF165:QTF166 QJJ165:QJJ166 PZN165:PZN166 PPR165:PPR166 PFV165:PFV166 OVZ165:OVZ166 OMD165:OMD166 OCH165:OCH166 NSL165:NSL166 NIP165:NIP166 MYT165:MYT166 MOX165:MOX166 MFB165:MFB166 LVF165:LVF166 LLJ165:LLJ166 LBN165:LBN166 KRR165:KRR166 KHV165:KHV166 JXZ165:JXZ166 JOD165:JOD166 JEH165:JEH166 IUL165:IUL166 IKP165:IKP166 IAT165:IAT166 HQX165:HQX166 HHB165:HHB166 GXF165:GXF166 GNJ165:GNJ166 GDN165:GDN166 FTR165:FTR166 FJV165:FJV166 EZZ165:EZZ166 EQD165:EQD166 EGH165:EGH166 DWL165:DWL166 DMP165:DMP166 DCT165:DCT166 CSX165:CSX166 CJB165:CJB166 BZF165:BZF166 BPJ165:BPJ166 BFN165:BFN166 AVR165:AVR166 ALV165:ALV166 ABZ165:ABZ166 SD165:SD166">
+      <formula1>"ArB,Arden,Attach,Cardio,CBCC,CCOW,CDS,CG,CIC,Clinical Statement,Conform,Ed,EHR,FM,II,Implementation,InM,ITS,Lab,M and M,M and M/ CMETs,M and M/ Templates,M and M/ Tooling,MedRec,OO,PA,PC,PHER,PM,PS,PSC,RCRIM,RX,Sched,Security,SOA,StructDocs,Vocab"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IW165:IW166 WVI165:WVI166 WLM165:WLM166 WBQ165:WBQ166 VRU165:VRU166 VHY165:VHY166 UYC165:UYC166 UOG165:UOG166 UEK165:UEK166 TUO165:TUO166 TKS165:TKS166 TAW165:TAW166 SRA165:SRA166 SHE165:SHE166 RXI165:RXI166 RNM165:RNM166 RDQ165:RDQ166 QTU165:QTU166 QJY165:QJY166 QAC165:QAC166 PQG165:PQG166 PGK165:PGK166 OWO165:OWO166 OMS165:OMS166 OCW165:OCW166 NTA165:NTA166 NJE165:NJE166 MZI165:MZI166 MPM165:MPM166 MFQ165:MFQ166 LVU165:LVU166 LLY165:LLY166 LCC165:LCC166 KSG165:KSG166 KIK165:KIK166 JYO165:JYO166 JOS165:JOS166 JEW165:JEW166 IVA165:IVA166 ILE165:ILE166 IBI165:IBI166 HRM165:HRM166 HHQ165:HHQ166 GXU165:GXU166 GNY165:GNY166 GEC165:GEC166 FUG165:FUG166 FKK165:FKK166 FAO165:FAO166 EQS165:EQS166 EGW165:EGW166 DXA165:DXA166 DNE165:DNE166 DDI165:DDI166 CTM165:CTM166 CJQ165:CJQ166 BZU165:BZU166 BPY165:BPY166 BGC165:BGC166 AWG165:AWG166 AMK165:AMK166 ACO165:ACO166 SS165:SS166">
+      <formula1>"ARB,Attach,Cardio,CCBC,CCOW,CDS,CG,Conform,Ed,EHR,FM,II,Implementation,InM,ITS,Lab,M and M,M and M/ CMETs,M and M/ Templates,M and M/ Tooling,MedRec,OO,PA,PC,PHER,PM,PS,PSC,Publishing,RCRIM,RX,Sched,Security,SOA,StructDocs,Vocab"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="II165:II166 WUU165:WUU166 WKY165:WKY166 WBC165:WBC166 VRG165:VRG166 VHK165:VHK166 UXO165:UXO166 UNS165:UNS166 UDW165:UDW166 TUA165:TUA166 TKE165:TKE166 TAI165:TAI166 SQM165:SQM166 SGQ165:SGQ166 RWU165:RWU166 RMY165:RMY166 RDC165:RDC166 QTG165:QTG166 QJK165:QJK166 PZO165:PZO166 PPS165:PPS166 PFW165:PFW166 OWA165:OWA166 OME165:OME166 OCI165:OCI166 NSM165:NSM166 NIQ165:NIQ166 MYU165:MYU166 MOY165:MOY166 MFC165:MFC166 LVG165:LVG166 LLK165:LLK166 LBO165:LBO166 KRS165:KRS166 KHW165:KHW166 JYA165:JYA166 JOE165:JOE166 JEI165:JEI166 IUM165:IUM166 IKQ165:IKQ166 IAU165:IAU166 HQY165:HQY166 HHC165:HHC166 GXG165:GXG166 GNK165:GNK166 GDO165:GDO166 FTS165:FTS166 FJW165:FJW166 FAA165:FAA166 EQE165:EQE166 EGI165:EGI166 DWM165:DWM166 DMQ165:DMQ166 DCU165:DCU166 CSY165:CSY166 CJC165:CJC166 BZG165:BZG166 BPK165:BPK166 BFO165:BFO166 AVS165:AVS166 ALW165:ALW166 ACA165:ACA166 SE165:SE166">
+      <formula1>Artifact_type</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="JJ165:JK166 WVV165:WVW166 WLZ165:WMA166 WCD165:WCE166 VSH165:VSI166 VIL165:VIM166 UYP165:UYQ166 UOT165:UOU166 UEX165:UEY166 TVB165:TVC166 TLF165:TLG166 TBJ165:TBK166 SRN165:SRO166 SHR165:SHS166 RXV165:RXW166 RNZ165:ROA166 RED165:REE166 QUH165:QUI166 QKL165:QKM166 QAP165:QAQ166 PQT165:PQU166 PGX165:PGY166 OXB165:OXC166 ONF165:ONG166 ODJ165:ODK166 NTN165:NTO166 NJR165:NJS166 MZV165:MZW166 MPZ165:MQA166 MGD165:MGE166 LWH165:LWI166 LML165:LMM166 LCP165:LCQ166 KST165:KSU166 KIX165:KIY166 JZB165:JZC166 JPF165:JPG166 JFJ165:JFK166 IVN165:IVO166 ILR165:ILS166 IBV165:IBW166 HRZ165:HSA166 HID165:HIE166 GYH165:GYI166 GOL165:GOM166 GEP165:GEQ166 FUT165:FUU166 FKX165:FKY166 FBB165:FBC166 ERF165:ERG166 EHJ165:EHK166 DXN165:DXO166 DNR165:DNS166 DDV165:DDW166 CTZ165:CUA166 CKD165:CKE166 CAH165:CAI166 BQL165:BQM166 BGP165:BGQ166 AWT165:AWU166 AMX165:AMY166 ADB165:ADC166 TF165:TG166">
+      <formula1>"ARB,CCOW,CDS,CQ,Ed,EHR,FM,M and M,M and M/ CMETs,M and M/ Templates,M and M/ Tooling,MedRec,OO,PA,PC,PM,Publishing,RCRIM,Sched,StructDocs,Implementation,Vocab"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IU165:IU166 WVG165:WVG166 WLK165:WLK166 WBO165:WBO166 VRS165:VRS166 VHW165:VHW166 UYA165:UYA166 UOE165:UOE166 UEI165:UEI166 TUM165:TUM166 TKQ165:TKQ166 TAU165:TAU166 SQY165:SQY166 SHC165:SHC166 RXG165:RXG166 RNK165:RNK166 RDO165:RDO166 QTS165:QTS166 QJW165:QJW166 QAA165:QAA166 PQE165:PQE166 PGI165:PGI166 OWM165:OWM166 OMQ165:OMQ166 OCU165:OCU166 NSY165:NSY166 NJC165:NJC166 MZG165:MZG166 MPK165:MPK166 MFO165:MFO166 LVS165:LVS166 LLW165:LLW166 LCA165:LCA166 KSE165:KSE166 KII165:KII166 JYM165:JYM166 JOQ165:JOQ166 JEU165:JEU166 IUY165:IUY166 ILC165:ILC166 IBG165:IBG166 HRK165:HRK166 HHO165:HHO166 GXS165:GXS166 GNW165:GNW166 GEA165:GEA166 FUE165:FUE166 FKI165:FKI166 FAM165:FAM166 EQQ165:EQQ166 EGU165:EGU166 DWY165:DWY166 DNC165:DNC166 DDG165:DDG166 CTK165:CTK166 CJO165:CJO166 BZS165:BZS166 BPW165:BPW166 BGA165:BGA166 AWE165:AWE166 AMI165:AMI166 ACM165:ACM166 SQ165:SQ166">
+      <formula1>dispositionstatus</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IS165:IS166 H165:H166 WVE165:WVE166 WLI165:WLI166 WBM165:WBM166 VRQ165:VRQ166 VHU165:VHU166 UXY165:UXY166 UOC165:UOC166 UEG165:UEG166 TUK165:TUK166 TKO165:TKO166 TAS165:TAS166 SQW165:SQW166 SHA165:SHA166 RXE165:RXE166 RNI165:RNI166 RDM165:RDM166 QTQ165:QTQ166 QJU165:QJU166 PZY165:PZY166 PQC165:PQC166 PGG165:PGG166 OWK165:OWK166 OMO165:OMO166 OCS165:OCS166 NSW165:NSW166 NJA165:NJA166 MZE165:MZE166 MPI165:MPI166 MFM165:MFM166 LVQ165:LVQ166 LLU165:LLU166 LBY165:LBY166 KSC165:KSC166 KIG165:KIG166 JYK165:JYK166 JOO165:JOO166 JES165:JES166 IUW165:IUW166 ILA165:ILA166 IBE165:IBE166 HRI165:HRI166 HHM165:HHM166 GXQ165:GXQ166 GNU165:GNU166 GDY165:GDY166 FUC165:FUC166 FKG165:FKG166 FAK165:FAK166 EQO165:EQO166 EGS165:EGS166 DWW165:DWW166 DNA165:DNA166 DDE165:DDE166 CTI165:CTI166 CJM165:CJM166 BZQ165:BZQ166 BPU165:BPU166 BFY165:BFY166 AWC165:AWC166 AMG165:AMG166 ACK165:ACK166 SO165:SO166">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IM165:IM166 WUY165:WUY166 WLC165:WLC166 WBG165:WBG166 VRK165:VRK166 VHO165:VHO166 UXS165:UXS166 UNW165:UNW166 UEA165:UEA166 TUE165:TUE166 TKI165:TKI166 TAM165:TAM166 SQQ165:SQQ166 SGU165:SGU166 RWY165:RWY166 RNC165:RNC166 RDG165:RDG166 QTK165:QTK166 QJO165:QJO166 PZS165:PZS166 PPW165:PPW166 PGA165:PGA166 OWE165:OWE166 OMI165:OMI166 OCM165:OCM166 NSQ165:NSQ166 NIU165:NIU166 MYY165:MYY166 MPC165:MPC166 MFG165:MFG166 LVK165:LVK166 LLO165:LLO166 LBS165:LBS166 KRW165:KRW166 KIA165:KIA166 JYE165:JYE166 JOI165:JOI166 JEM165:JEM166 IUQ165:IUQ166 IKU165:IKU166 IAY165:IAY166 HRC165:HRC166 HHG165:HHG166 GXK165:GXK166 GNO165:GNO166 GDS165:GDS166 FTW165:FTW166 FKA165:FKA166 FAE165:FAE166 EQI165:EQI166 EGM165:EGM166 DWQ165:DWQ166 DMU165:DMU166 DCY165:DCY166 CTC165:CTC166 CJG165:CJG166 BZK165:BZK166 BPO165:BPO166 BFS165:BFS166 AVW165:AVW166 AMA165:AMA166 ACE165:ACE166 SI165:SI166">
+      <formula1>"AB,AI,Backbone (ref),Bloodbank,CI,CR,CT,Datatypes Abstract,OO,Glossary (ref),LB,MI,MR,MT,PA,PC,PM,QI,Refinement,RI,RIM,RT,RR,RX,SC,UML-ITS DataTypes,V3 Help Guide (ref),Vocabulary (ref),XML-ITS DataTypes,XML-ITS Structures"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IV165:IV166 WVH165:WVH166 WLL165:WLL166 WBP165:WBP166 VRT165:VRT166 VHX165:VHX166 UYB165:UYB166 UOF165:UOF166 UEJ165:UEJ166 TUN165:TUN166 TKR165:TKR166 TAV165:TAV166 SQZ165:SQZ166 SHD165:SHD166 RXH165:RXH166 RNL165:RNL166 RDP165:RDP166 QTT165:QTT166 QJX165:QJX166 QAB165:QAB166 PQF165:PQF166 PGJ165:PGJ166 OWN165:OWN166 OMR165:OMR166 OCV165:OCV166 NSZ165:NSZ166 NJD165:NJD166 MZH165:MZH166 MPL165:MPL166 MFP165:MFP166 LVT165:LVT166 LLX165:LLX166 LCB165:LCB166 KSF165:KSF166 KIJ165:KIJ166 JYN165:JYN166 JOR165:JOR166 JEV165:JEV166 IUZ165:IUZ166 ILD165:ILD166 IBH165:IBH166 HRL165:HRL166 HHP165:HHP166 GXT165:GXT166 GNX165:GNX166 GEB165:GEB166 FUF165:FUF166 FKJ165:FKJ166 FAN165:FAN166 EQR165:EQR166 EGV165:EGV166 DWZ165:DWZ166 DND165:DND166 DDH165:DDH166 CTL165:CTL166 CJP165:CJP166 BZT165:BZT166 BPX165:BPX166 BGB165:BGB166 AWF165:AWF166 AMJ165:AMJ166 ACN165:ACN166 SR165:SR166">
+      <formula1>"Withdraw,Retract"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="JD165:JD166 WUZ165:WUZ166 WLD165:WLD166 WBH165:WBH166 VRL165:VRL166 VHP165:VHP166 UXT165:UXT166 UNX165:UNX166 UEB165:UEB166 TUF165:TUF166 TKJ165:TKJ166 TAN165:TAN166 SQR165:SQR166 SGV165:SGV166 RWZ165:RWZ166 RND165:RND166 RDH165:RDH166 QTL165:QTL166 QJP165:QJP166 PZT165:PZT166 PPX165:PPX166 PGB165:PGB166 OWF165:OWF166 OMJ165:OMJ166 OCN165:OCN166 NSR165:NSR166 NIV165:NIV166 MYZ165:MYZ166 MPD165:MPD166 MFH165:MFH166 LVL165:LVL166 LLP165:LLP166 LBT165:LBT166 KRX165:KRX166 KIB165:KIB166 JYF165:JYF166 JOJ165:JOJ166 JEN165:JEN166 IUR165:IUR166 IKV165:IKV166 IAZ165:IAZ166 HRD165:HRD166 HHH165:HHH166 GXL165:GXL166 GNP165:GNP166 GDT165:GDT166 FTX165:FTX166 FKB165:FKB166 FAF165:FAF166 EQJ165:EQJ166 EGN165:EGN166 DWR165:DWR166 DMV165:DMV166 DCZ165:DCZ166 CTD165:CTD166 CJH165:CJH166 BZL165:BZL166 BPP165:BPP166 BFT165:BFT166 AVX165:AVX166 AMB165:AMB166 ACF165:ACF166 SJ165:SJ166 IN165:IN166 WVP165:WVP166 WLT165:WLT166 WBX165:WBX166 VSB165:VSB166 VIF165:VIF166 UYJ165:UYJ166 UON165:UON166 UER165:UER166 TUV165:TUV166 TKZ165:TKZ166 TBD165:TBD166 SRH165:SRH166 SHL165:SHL166 RXP165:RXP166 RNT165:RNT166 RDX165:RDX166 QUB165:QUB166 QKF165:QKF166 QAJ165:QAJ166 PQN165:PQN166 PGR165:PGR166 OWV165:OWV166 OMZ165:OMZ166 ODD165:ODD166 NTH165:NTH166 NJL165:NJL166 MZP165:MZP166 MPT165:MPT166 MFX165:MFX166 LWB165:LWB166 LMF165:LMF166 LCJ165:LCJ166 KSN165:KSN166 KIR165:KIR166 JYV165:JYV166 JOZ165:JOZ166 JFD165:JFD166 IVH165:IVH166 ILL165:ILL166 IBP165:IBP166 HRT165:HRT166 HHX165:HHX166 GYB165:GYB166 GOF165:GOF166 GEJ165:GEJ166 FUN165:FUN166 FKR165:FKR166 FAV165:FAV166 EQZ165:EQZ166 EHD165:EHD166 DXH165:DXH166 DNL165:DNL166 DDP165:DDP166 CTT165:CTT166 CJX165:CJX166 CAB165:CAB166 BQF165:BQF166 BGJ165:BGJ166 AWN165:AWN166 AMR165:AMR166 ACV165:ACV166 SZ165:SZ166">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IO165:IO166 WVA165:WVA166 WLE165:WLE166 WBI165:WBI166 VRM165:VRM166 VHQ165:VHQ166 UXU165:UXU166 UNY165:UNY166 UEC165:UEC166 TUG165:TUG166 TKK165:TKK166 TAO165:TAO166 SQS165:SQS166 SGW165:SGW166 RXA165:RXA166 RNE165:RNE166 RDI165:RDI166 QTM165:QTM166 QJQ165:QJQ166 PZU165:PZU166 PPY165:PPY166 PGC165:PGC166 OWG165:OWG166 OMK165:OMK166 OCO165:OCO166 NSS165:NSS166 NIW165:NIW166 MZA165:MZA166 MPE165:MPE166 MFI165:MFI166 LVM165:LVM166 LLQ165:LLQ166 LBU165:LBU166 KRY165:KRY166 KIC165:KIC166 JYG165:JYG166 JOK165:JOK166 JEO165:JEO166 IUS165:IUS166 IKW165:IKW166 IBA165:IBA166 HRE165:HRE166 HHI165:HHI166 GXM165:GXM166 GNQ165:GNQ166 GDU165:GDU166 FTY165:FTY166 FKC165:FKC166 FAG165:FAG166 EQK165:EQK166 EGO165:EGO166 DWS165:DWS166 DMW165:DMW166 DDA165:DDA166 CTE165:CTE166 CJI165:CJI166 BZM165:BZM166 BPQ165:BPQ166 BFU165:BFU166 AVY165:AVY166 AMC165:AMC166 ACG165:ACG166 SK165:SK166">
+      <formula1>"Neg-Mj,Neg-Mi,A-S,A-T,A-Q,A-C"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="JE165:JH166 J165:M166 WUV165:WUW166 WKZ165:WLA166 WBD165:WBE166 VRH165:VRI166 VHL165:VHM166 UXP165:UXQ166 UNT165:UNU166 UDX165:UDY166 TUB165:TUC166 TKF165:TKG166 TAJ165:TAK166 SQN165:SQO166 SGR165:SGS166 RWV165:RWW166 RMZ165:RNA166 RDD165:RDE166 QTH165:QTI166 QJL165:QJM166 PZP165:PZQ166 PPT165:PPU166 PFX165:PFY166 OWB165:OWC166 OMF165:OMG166 OCJ165:OCK166 NSN165:NSO166 NIR165:NIS166 MYV165:MYW166 MOZ165:MPA166 MFD165:MFE166 LVH165:LVI166 LLL165:LLM166 LBP165:LBQ166 KRT165:KRU166 KHX165:KHY166 JYB165:JYC166 JOF165:JOG166 JEJ165:JEK166 IUN165:IUO166 IKR165:IKS166 IAV165:IAW166 HQZ165:HRA166 HHD165:HHE166 GXH165:GXI166 GNL165:GNM166 GDP165:GDQ166 FTT165:FTU166 FJX165:FJY166 FAB165:FAC166 EQF165:EQG166 EGJ165:EGK166 DWN165:DWO166 DMR165:DMS166 DCV165:DCW166 CSZ165:CTA166 CJD165:CJE166 BZH165:BZI166 BPL165:BPM166 BFP165:BFQ166 AVT165:AVU166 ALX165:ALY166 ACB165:ACC166 SF165:SG166 IJ165:IK166 WVQ165:WVT166 WLU165:WLX166 WBY165:WCB166 VSC165:VSF166 VIG165:VIJ166 UYK165:UYN166 UOO165:UOR166 UES165:UEV166 TUW165:TUZ166 TLA165:TLD166 TBE165:TBH166 SRI165:SRL166 SHM165:SHP166 RXQ165:RXT166 RNU165:RNX166 RDY165:REB166 QUC165:QUF166 QKG165:QKJ166 QAK165:QAN166 PQO165:PQR166 PGS165:PGV166 OWW165:OWZ166 ONA165:OND166 ODE165:ODH166 NTI165:NTL166 NJM165:NJP166 MZQ165:MZT166 MPU165:MPX166 MFY165:MGB166 LWC165:LWF166 LMG165:LMJ166 LCK165:LCN166 KSO165:KSR166 KIS165:KIV166 JYW165:JYZ166 JPA165:JPD166 JFE165:JFH166 IVI165:IVL166 ILM165:ILP166 IBQ165:IBT166 HRU165:HRX166 HHY165:HIB166 GYC165:GYF166 GOG165:GOJ166 GEK165:GEN166 FUO165:FUR166 FKS165:FKV166 FAW165:FAZ166 ERA165:ERD166 EHE165:EHH166 DXI165:DXL166 DNM165:DNP166 DDQ165:DDT166 CTU165:CTX166 CJY165:CKB166 CAC165:CAF166 BQG165:BQJ166 BGK165:BGN166 AWO165:AWR166 AMS165:AMV166 ACW165:ACZ166 TA165:TD166 O165:S166"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO165:WVO166 JC165:JC166 SY165:SY166 ACU165:ACU166 AMQ165:AMQ166 AWM165:AWM166 BGI165:BGI166 BQE165:BQE166 CAA165:CAA166 CJW165:CJW166 CTS165:CTS166 DDO165:DDO166 DNK165:DNK166 DXG165:DXG166 EHC165:EHC166 EQY165:EQY166 FAU165:FAU166 FKQ165:FKQ166 FUM165:FUM166 GEI165:GEI166 GOE165:GOE166 GYA165:GYA166 HHW165:HHW166 HRS165:HRS166 IBO165:IBO166 ILK165:ILK166 IVG165:IVG166 JFC165:JFC166 JOY165:JOY166 JYU165:JYU166 KIQ165:KIQ166 KSM165:KSM166 LCI165:LCI166 LME165:LME166 LWA165:LWA166 MFW165:MFW166 MPS165:MPS166 MZO165:MZO166 NJK165:NJK166 NTG165:NTG166 ODC165:ODC166 OMY165:OMY166 OWU165:OWU166 PGQ165:PGQ166 PQM165:PQM166 QAI165:QAI166 QKE165:QKE166 QUA165:QUA166 RDW165:RDW166 RNS165:RNS166 RXO165:RXO166 SHK165:SHK166 SRG165:SRG166 TBC165:TBC166 TKY165:TKY166 TUU165:TUU166 UEQ165:UEQ166 UOM165:UOM166 UYI165:UYI166 VIE165:VIE166 VSA165:VSA166 WBW165:WBW166 WLS165:WLS166 JC3 WVO3 WLS3 WBW3 VSA3 VIE3 UYI3 UOM3 UEQ3 TUU3 TKY3 TBC3 SRG3 SHK3 RXO3 RNS3 RDW3 QUA3 QKE3 QAI3 PQM3 PGQ3 OWU3 OMY3 ODC3 NTG3 NJK3 MZO3 MPS3 MFW3 LWA3 LME3 LCI3 KSM3 KIQ3 JYU3 JOY3 JFC3 IVG3 ILK3 IBO3 HRS3 HHW3 GYA3 GOE3 GEI3 FUM3 FKQ3 FAU3 EQY3 EHC3 DXG3 DNK3 DDO3 CTS3 CJW3 CAA3 BQE3 BGI3 AWM3 AMQ3 ACU3 SY3">
       <formula1>"yes, no, dup"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IG4:IG5 SC4:SC5 ABY4:ABY5 ALU4:ALU5 AVQ4:AVQ5 BFM4:BFM5 BPI4:BPI5 BZE4:BZE5 CJA4:CJA5 CSW4:CSW5 DCS4:DCS5 DMO4:DMO5 DWK4:DWK5 EGG4:EGG5 EQC4:EQC5 EZY4:EZY5 FJU4:FJU5 FTQ4:FTQ5 GDM4:GDM5 GNI4:GNI5 GXE4:GXE5 HHA4:HHA5 HQW4:HQW5 IAS4:IAS5 IKO4:IKO5 IUK4:IUK5 JEG4:JEG5 JOC4:JOC5 JXY4:JXY5 KHU4:KHU5 KRQ4:KRQ5 LBM4:LBM5 LLI4:LLI5 LVE4:LVE5 MFA4:MFA5 MOW4:MOW5 MYS4:MYS5 NIO4:NIO5 NSK4:NSK5 OCG4:OCG5 OMC4:OMC5 OVY4:OVY5 PFU4:PFU5 PPQ4:PPQ5 PZM4:PZM5 QJI4:QJI5 QTE4:QTE5 RDA4:RDA5 RMW4:RMW5 RWS4:RWS5 SGO4:SGO5 SQK4:SQK5 TAG4:TAG5 TKC4:TKC5 TTY4:TTY5 UDU4:UDU5 UNQ4:UNQ5 UXM4:UXM5 VHI4:VHI5 VRE4:VRE5 WBA4:WBA5 WKW4:WKW5 WUS4:WUS5">
-      <formula1>"ArB,Arden,Attach,Cardio,CBCC,CCOW,CDS,CG,CIC,Clinical Statement,Conform,Ed,EHR,FM,II,Implementation,InM,ITS,Lab,M and M,M and M/ CMETs,M and M/ Templates,M and M/ Tooling,MedRec,OO,PA,PC,PHER,PM,PS,PSC,RCRIM,RX,Sched,Security,SOA,StructDocs,Vocab"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IV4:IV5 SR4:SR5 ACN4:ACN5 AMJ4:AMJ5 AWF4:AWF5 BGB4:BGB5 BPX4:BPX5 BZT4:BZT5 CJP4:CJP5 CTL4:CTL5 DDH4:DDH5 DND4:DND5 DWZ4:DWZ5 EGV4:EGV5 EQR4:EQR5 FAN4:FAN5 FKJ4:FKJ5 FUF4:FUF5 GEB4:GEB5 GNX4:GNX5 GXT4:GXT5 HHP4:HHP5 HRL4:HRL5 IBH4:IBH5 ILD4:ILD5 IUZ4:IUZ5 JEV4:JEV5 JOR4:JOR5 JYN4:JYN5 KIJ4:KIJ5 KSF4:KSF5 LCB4:LCB5 LLX4:LLX5 LVT4:LVT5 MFP4:MFP5 MPL4:MPL5 MZH4:MZH5 NJD4:NJD5 NSZ4:NSZ5 OCV4:OCV5 OMR4:OMR5 OWN4:OWN5 PGJ4:PGJ5 PQF4:PQF5 QAB4:QAB5 QJX4:QJX5 QTT4:QTT5 RDP4:RDP5 RNL4:RNL5 RXH4:RXH5 SHD4:SHD5 SQZ4:SQZ5 TAV4:TAV5 TKR4:TKR5 TUN4:TUN5 UEJ4:UEJ5 UOF4:UOF5 UYB4:UYB5 VHX4:VHX5 VRT4:VRT5 WBP4:WBP5 WLL4:WLL5 WVH4:WVH5">
-      <formula1>"ARB,Attach,Cardio,CCBC,CCOW,CDS,CG,Conform,Ed,EHR,FM,II,Implementation,InM,ITS,Lab,M and M,M and M/ CMETs,M and M/ Templates,M and M/ Tooling,MedRec,OO,PA,PC,PHER,PM,PS,PSC,Publishing,RCRIM,RX,Sched,Security,SOA,StructDocs,Vocab"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IH4:IH5 SD4:SD5 ABZ4:ABZ5 ALV4:ALV5 AVR4:AVR5 BFN4:BFN5 BPJ4:BPJ5 BZF4:BZF5 CJB4:CJB5 CSX4:CSX5 DCT4:DCT5 DMP4:DMP5 DWL4:DWL5 EGH4:EGH5 EQD4:EQD5 EZZ4:EZZ5 FJV4:FJV5 FTR4:FTR5 GDN4:GDN5 GNJ4:GNJ5 GXF4:GXF5 HHB4:HHB5 HQX4:HQX5 IAT4:IAT5 IKP4:IKP5 IUL4:IUL5 JEH4:JEH5 JOD4:JOD5 JXZ4:JXZ5 KHV4:KHV5 KRR4:KRR5 LBN4:LBN5 LLJ4:LLJ5 LVF4:LVF5 MFB4:MFB5 MOX4:MOX5 MYT4:MYT5 NIP4:NIP5 NSL4:NSL5 OCH4:OCH5 OMD4:OMD5 OVZ4:OVZ5 PFV4:PFV5 PPR4:PPR5 PZN4:PZN5 QJJ4:QJJ5 QTF4:QTF5 RDB4:RDB5 RMX4:RMX5 RWT4:RWT5 SGP4:SGP5 SQL4:SQL5 TAH4:TAH5 TKD4:TKD5 TTZ4:TTZ5 UDV4:UDV5 UNR4:UNR5 UXN4:UXN5 VHJ4:VHJ5 VRF4:VRF5 WBB4:WBB5 WKX4:WKX5 WUT4:WUT5">
-      <formula1>Artifact_type</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="JI4:JJ5 TE4:TF5 ADA4:ADB5 AMW4:AMX5 AWS4:AWT5 BGO4:BGP5 BQK4:BQL5 CAG4:CAH5 CKC4:CKD5 CTY4:CTZ5 DDU4:DDV5 DNQ4:DNR5 DXM4:DXN5 EHI4:EHJ5 ERE4:ERF5 FBA4:FBB5 FKW4:FKX5 FUS4:FUT5 GEO4:GEP5 GOK4:GOL5 GYG4:GYH5 HIC4:HID5 HRY4:HRZ5 IBU4:IBV5 ILQ4:ILR5 IVM4:IVN5 JFI4:JFJ5 JPE4:JPF5 JZA4:JZB5 KIW4:KIX5 KSS4:KST5 LCO4:LCP5 LMK4:LML5 LWG4:LWH5 MGC4:MGD5 MPY4:MPZ5 MZU4:MZV5 NJQ4:NJR5 NTM4:NTN5 ODI4:ODJ5 ONE4:ONF5 OXA4:OXB5 PGW4:PGX5 PQS4:PQT5 QAO4:QAP5 QKK4:QKL5 QUG4:QUH5 REC4:RED5 RNY4:RNZ5 RXU4:RXV5 SHQ4:SHR5 SRM4:SRN5 TBI4:TBJ5 TLE4:TLF5 TVA4:TVB5 UEW4:UEX5 UOS4:UOT5 UYO4:UYP5 VIK4:VIL5 VSG4:VSH5 WCC4:WCD5 WLY4:WLZ5 WVU4:WVV5">
-      <formula1>"ARB,CCOW,CDS,CQ,Ed,EHR,FM,M and M,M and M/ CMETs,M and M/ Templates,M and M/ Tooling,MedRec,OO,PA,PC,PM,Publishing,RCRIM,Sched,StructDocs,Implementation,Vocab"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IT4:IT5 SP4:SP5 ACL4:ACL5 AMH4:AMH5 AWD4:AWD5 BFZ4:BFZ5 BPV4:BPV5 BZR4:BZR5 CJN4:CJN5 CTJ4:CTJ5 DDF4:DDF5 DNB4:DNB5 DWX4:DWX5 EGT4:EGT5 EQP4:EQP5 FAL4:FAL5 FKH4:FKH5 FUD4:FUD5 GDZ4:GDZ5 GNV4:GNV5 GXR4:GXR5 HHN4:HHN5 HRJ4:HRJ5 IBF4:IBF5 ILB4:ILB5 IUX4:IUX5 JET4:JET5 JOP4:JOP5 JYL4:JYL5 KIH4:KIH5 KSD4:KSD5 LBZ4:LBZ5 LLV4:LLV5 LVR4:LVR5 MFN4:MFN5 MPJ4:MPJ5 MZF4:MZF5 NJB4:NJB5 NSX4:NSX5 OCT4:OCT5 OMP4:OMP5 OWL4:OWL5 PGH4:PGH5 PQD4:PQD5 PZZ4:PZZ5 QJV4:QJV5 QTR4:QTR5 RDN4:RDN5 RNJ4:RNJ5 RXF4:RXF5 SHB4:SHB5 SQX4:SQX5 TAT4:TAT5 TKP4:TKP5 TUL4:TUL5 UEH4:UEH5 UOD4:UOD5 UXZ4:UXZ5 VHV4:VHV5 VRR4:VRR5 WBN4:WBN5 WLJ4:WLJ5 WVF4:WVF5">
-      <formula1>dispositionstatus</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IR4:IR5 SN4:SN5 ACJ4:ACJ5 AMF4:AMF5 AWB4:AWB5 BFX4:BFX5 BPT4:BPT5 BZP4:BZP5 CJL4:CJL5 CTH4:CTH5 DDD4:DDD5 DMZ4:DMZ5 DWV4:DWV5 EGR4:EGR5 EQN4:EQN5 FAJ4:FAJ5 FKF4:FKF5 FUB4:FUB5 GDX4:GDX5 GNT4:GNT5 GXP4:GXP5 HHL4:HHL5 HRH4:HRH5 IBD4:IBD5 IKZ4:IKZ5 IUV4:IUV5 JER4:JER5 JON4:JON5 JYJ4:JYJ5 KIF4:KIF5 KSB4:KSB5 LBX4:LBX5 LLT4:LLT5 LVP4:LVP5 MFL4:MFL5 MPH4:MPH5 MZD4:MZD5 NIZ4:NIZ5 NSV4:NSV5 OCR4:OCR5 OMN4:OMN5 OWJ4:OWJ5 PGF4:PGF5 PQB4:PQB5 PZX4:PZX5 QJT4:QJT5 QTP4:QTP5 RDL4:RDL5 RNH4:RNH5 RXD4:RXD5 SGZ4:SGZ5 SQV4:SQV5 TAR4:TAR5 TKN4:TKN5 TUJ4:TUJ5 UEF4:UEF5 UOB4:UOB5 UXX4:UXX5 VHT4:VHT5 VRP4:VRP5 WBL4:WBL5 WLH4:WLH5 WVD4:WVD5 H4:H5">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IL4:IL5 SH4:SH5 ACD4:ACD5 ALZ4:ALZ5 AVV4:AVV5 BFR4:BFR5 BPN4:BPN5 BZJ4:BZJ5 CJF4:CJF5 CTB4:CTB5 DCX4:DCX5 DMT4:DMT5 DWP4:DWP5 EGL4:EGL5 EQH4:EQH5 FAD4:FAD5 FJZ4:FJZ5 FTV4:FTV5 GDR4:GDR5 GNN4:GNN5 GXJ4:GXJ5 HHF4:HHF5 HRB4:HRB5 IAX4:IAX5 IKT4:IKT5 IUP4:IUP5 JEL4:JEL5 JOH4:JOH5 JYD4:JYD5 KHZ4:KHZ5 KRV4:KRV5 LBR4:LBR5 LLN4:LLN5 LVJ4:LVJ5 MFF4:MFF5 MPB4:MPB5 MYX4:MYX5 NIT4:NIT5 NSP4:NSP5 OCL4:OCL5 OMH4:OMH5 OWD4:OWD5 PFZ4:PFZ5 PPV4:PPV5 PZR4:PZR5 QJN4:QJN5 QTJ4:QTJ5 RDF4:RDF5 RNB4:RNB5 RWX4:RWX5 SGT4:SGT5 SQP4:SQP5 TAL4:TAL5 TKH4:TKH5 TUD4:TUD5 UDZ4:UDZ5 UNV4:UNV5 UXR4:UXR5 VHN4:VHN5 VRJ4:VRJ5 WBF4:WBF5 WLB4:WLB5 WUX4:WUX5">
-      <formula1>"AB,AI,Backbone (ref),Bloodbank,CI,CR,CT,Datatypes Abstract,OO,Glossary (ref),LB,MI,MR,MT,PA,PC,PM,QI,Refinement,RI,RIM,RT,RR,RX,SC,UML-ITS DataTypes,V3 Help Guide (ref),Vocabulary (ref),XML-ITS DataTypes,XML-ITS Structures"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IU4:IU5 SQ4:SQ5 ACM4:ACM5 AMI4:AMI5 AWE4:AWE5 BGA4:BGA5 BPW4:BPW5 BZS4:BZS5 CJO4:CJO5 CTK4:CTK5 DDG4:DDG5 DNC4:DNC5 DWY4:DWY5 EGU4:EGU5 EQQ4:EQQ5 FAM4:FAM5 FKI4:FKI5 FUE4:FUE5 GEA4:GEA5 GNW4:GNW5 GXS4:GXS5 HHO4:HHO5 HRK4:HRK5 IBG4:IBG5 ILC4:ILC5 IUY4:IUY5 JEU4:JEU5 JOQ4:JOQ5 JYM4:JYM5 KII4:KII5 KSE4:KSE5 LCA4:LCA5 LLW4:LLW5 LVS4:LVS5 MFO4:MFO5 MPK4:MPK5 MZG4:MZG5 NJC4:NJC5 NSY4:NSY5 OCU4:OCU5 OMQ4:OMQ5 OWM4:OWM5 PGI4:PGI5 PQE4:PQE5 QAA4:QAA5 QJW4:QJW5 QTS4:QTS5 RDO4:RDO5 RNK4:RNK5 RXG4:RXG5 SHC4:SHC5 SQY4:SQY5 TAU4:TAU5 TKQ4:TKQ5 TUM4:TUM5 UEI4:UEI5 UOE4:UOE5 UYA4:UYA5 VHW4:VHW5 VRS4:VRS5 WBO4:WBO5 WLK4:WLK5 WVG4:WVG5">
-      <formula1>"Withdraw,Retract"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="JC4:JC5 SY4:SY5 ACU4:ACU5 AMQ4:AMQ5 AWM4:AWM5 BGI4:BGI5 BQE4:BQE5 CAA4:CAA5 CJW4:CJW5 CTS4:CTS5 DDO4:DDO5 DNK4:DNK5 DXG4:DXG5 EHC4:EHC5 EQY4:EQY5 FAU4:FAU5 FKQ4:FKQ5 FUM4:FUM5 GEI4:GEI5 GOE4:GOE5 GYA4:GYA5 HHW4:HHW5 HRS4:HRS5 IBO4:IBO5 ILK4:ILK5 IVG4:IVG5 JFC4:JFC5 JOY4:JOY5 JYU4:JYU5 KIQ4:KIQ5 KSM4:KSM5 LCI4:LCI5 LME4:LME5 LWA4:LWA5 MFW4:MFW5 MPS4:MPS5 MZO4:MZO5 NJK4:NJK5 NTG4:NTG5 ODC4:ODC5 OMY4:OMY5 OWU4:OWU5 PGQ4:PGQ5 PQM4:PQM5 QAI4:QAI5 QKE4:QKE5 QUA4:QUA5 RDW4:RDW5 RNS4:RNS5 RXO4:RXO5 SHK4:SHK5 SRG4:SRG5 TBC4:TBC5 TKY4:TKY5 TUU4:TUU5 UEQ4:UEQ5 UOM4:UOM5 UYI4:UYI5 VIE4:VIE5 VSA4:VSA5 WBW4:WBW5 WLS4:WLS5 WVO4:WVO5 IM4:IM5 SI4:SI5 ACE4:ACE5 AMA4:AMA5 AVW4:AVW5 BFS4:BFS5 BPO4:BPO5 BZK4:BZK5 CJG4:CJG5 CTC4:CTC5 DCY4:DCY5 DMU4:DMU5 DWQ4:DWQ5 EGM4:EGM5 EQI4:EQI5 FAE4:FAE5 FKA4:FKA5 FTW4:FTW5 GDS4:GDS5 GNO4:GNO5 GXK4:GXK5 HHG4:HHG5 HRC4:HRC5 IAY4:IAY5 IKU4:IKU5 IUQ4:IUQ5 JEM4:JEM5 JOI4:JOI5 JYE4:JYE5 KIA4:KIA5 KRW4:KRW5 LBS4:LBS5 LLO4:LLO5 LVK4:LVK5 MFG4:MFG5 MPC4:MPC5 MYY4:MYY5 NIU4:NIU5 NSQ4:NSQ5 OCM4:OCM5 OMI4:OMI5 OWE4:OWE5 PGA4:PGA5 PPW4:PPW5 PZS4:PZS5 QJO4:QJO5 QTK4:QTK5 RDG4:RDG5 RNC4:RNC5 RWY4:RWY5 SGU4:SGU5 SQQ4:SQQ5 TAM4:TAM5 TKI4:TKI5 TUE4:TUE5 UEA4:UEA5 UNW4:UNW5 UXS4:UXS5 VHO4:VHO5 VRK4:VRK5 WBG4:WBG5 WLC4:WLC5 WUY4:WUY5">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IN4:IN5 SJ4:SJ5 ACF4:ACF5 AMB4:AMB5 AVX4:AVX5 BFT4:BFT5 BPP4:BPP5 BZL4:BZL5 CJH4:CJH5 CTD4:CTD5 DCZ4:DCZ5 DMV4:DMV5 DWR4:DWR5 EGN4:EGN5 EQJ4:EQJ5 FAF4:FAF5 FKB4:FKB5 FTX4:FTX5 GDT4:GDT5 GNP4:GNP5 GXL4:GXL5 HHH4:HHH5 HRD4:HRD5 IAZ4:IAZ5 IKV4:IKV5 IUR4:IUR5 JEN4:JEN5 JOJ4:JOJ5 JYF4:JYF5 KIB4:KIB5 KRX4:KRX5 LBT4:LBT5 LLP4:LLP5 LVL4:LVL5 MFH4:MFH5 MPD4:MPD5 MYZ4:MYZ5 NIV4:NIV5 NSR4:NSR5 OCN4:OCN5 OMJ4:OMJ5 OWF4:OWF5 PGB4:PGB5 PPX4:PPX5 PZT4:PZT5 QJP4:QJP5 QTL4:QTL5 RDH4:RDH5 RND4:RND5 RWZ4:RWZ5 SGV4:SGV5 SQR4:SQR5 TAN4:TAN5 TKJ4:TKJ5 TUF4:TUF5 UEB4:UEB5 UNX4:UNX5 UXT4:UXT5 VHP4:VHP5 VRL4:VRL5 WBH4:WBH5 WLD4:WLD5 WUZ4:WUZ5">
-      <formula1>"Neg-Mj,Neg-Mi,A-S,A-T,A-Q,A-C"</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="JD4:JG5 SZ4:TC5 ACV4:ACY5 AMR4:AMU5 AWN4:AWQ5 BGJ4:BGM5 BQF4:BQI5 CAB4:CAE5 CJX4:CKA5 CTT4:CTW5 DDP4:DDS5 DNL4:DNO5 DXH4:DXK5 EHD4:EHG5 EQZ4:ERC5 FAV4:FAY5 FKR4:FKU5 FUN4:FUQ5 GEJ4:GEM5 GOF4:GOI5 GYB4:GYE5 HHX4:HIA5 HRT4:HRW5 IBP4:IBS5 ILL4:ILO5 IVH4:IVK5 JFD4:JFG5 JOZ4:JPC5 JYV4:JYY5 KIR4:KIU5 KSN4:KSQ5 LCJ4:LCM5 LMF4:LMI5 LWB4:LWE5 MFX4:MGA5 MPT4:MPW5 MZP4:MZS5 NJL4:NJO5 NTH4:NTK5 ODD4:ODG5 OMZ4:ONC5 OWV4:OWY5 PGR4:PGU5 PQN4:PQQ5 QAJ4:QAM5 QKF4:QKI5 QUB4:QUE5 RDX4:REA5 RNT4:RNW5 RXP4:RXS5 SHL4:SHO5 SRH4:SRK5 TBD4:TBG5 TKZ4:TLC5 TUV4:TUY5 UER4:UEU5 UON4:UOQ5 UYJ4:UYM5 VIF4:VII5 VSB4:VSE5 WBX4:WCA5 WLT4:WLW5 WVP4:WVS5 II4:IJ5 SE4:SF5 ACA4:ACB5 ALW4:ALX5 AVS4:AVT5 BFO4:BFP5 BPK4:BPL5 BZG4:BZH5 CJC4:CJD5 CSY4:CSZ5 DCU4:DCV5 DMQ4:DMR5 DWM4:DWN5 EGI4:EGJ5 EQE4:EQF5 FAA4:FAB5 FJW4:FJX5 FTS4:FTT5 GDO4:GDP5 GNK4:GNL5 GXG4:GXH5 HHC4:HHD5 HQY4:HQZ5 IAU4:IAV5 IKQ4:IKR5 IUM4:IUN5 JEI4:JEJ5 JOE4:JOF5 JYA4:JYB5 KHW4:KHX5 KRS4:KRT5 LBO4:LBP5 LLK4:LLL5 LVG4:LVH5 MFC4:MFD5 MOY4:MOZ5 MYU4:MYV5 NIQ4:NIR5 NSM4:NSN5 OCI4:OCJ5 OME4:OMF5 OWA4:OWB5 PFW4:PFX5 PPS4:PPT5 PZO4:PZP5 QJK4:QJL5 QTG4:QTH5 RDC4:RDD5 RMY4:RMZ5 RWU4:RWV5 SGQ4:SGR5 SQM4:SQN5 TAI4:TAJ5 TKE4:TKF5 TUA4:TUB5 UDW4:UDX5 UNS4:UNT5 UXO4:UXP5 VHK4:VHL5 VRG4:VRH5 WBC4:WBD5 WKY4:WKZ5 WUU4:WUV5 J4:M5"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"卫生部"</formula1>
     </dataValidation>
@@ -9245,9 +14186,15 @@
     <hyperlink ref="M2" location="OnBehalfOf" display="On Behalf of Email"/>
     <hyperlink ref="N2" location="ID" display="Submitter Tracking ID"/>
     <hyperlink ref="B2" location="Ballot_Committee" display="Ballot Committee"/>
+    <hyperlink ref="P2" location="SubmittedBy" display="Submitted By"/>
+    <hyperlink ref="Q2" location="SubmitterOrganization" display="Submitted by organization"/>
+    <hyperlink ref="R2" location="OnBehalfOf" display="On behalf of"/>
+    <hyperlink ref="S2" location="OnBehalfOf" display="On Behalf of Email"/>
+    <hyperlink ref="O2" location="SubmittedBy" display="Submitted By"/>
+    <hyperlink ref="M85" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9255,8 +14202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9292,23 +14239,23 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" thickTop="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
@@ -13533,7 +18480,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14258,7 +19205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P282"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I260" sqref="I260"/>
     </sheetView>
   </sheetViews>

--- a/成品/R1/卫生信息数据元_校对.xlsx
+++ b/成品/R1/卫生信息数据元_校对.xlsx
@@ -19,17 +19,16 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">数据元目录!$C$1:$C$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据元目录校对!$A$165:$C$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">数据元目录校对!$A$239:$C$239</definedName>
     <definedName name="Artifact_type">[1]Setup!$A$22:$A$30</definedName>
     <definedName name="dispositionstatus">[1]Setup!$A$20:$K$20</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="966">
   <si>
     <t>Ballot Comment Submission</t>
   </si>
@@ -6580,6 +6579,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6590,9 +6592,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6999,7 +6998,7 @@
   <dimension ref="A1:V304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A239" sqref="A239:XFD267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7024,23 +7023,23 @@
   <sheetData>
     <row r="1" spans="1:22" ht="17.25" thickTop="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
       <c r="O1" s="63"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
@@ -7050,7 +7049,7 @@
       <c r="U1" s="29"/>
       <c r="V1" s="30"/>
     </row>
-    <row r="2" spans="1:22" ht="14.25" thickTop="1">
+    <row r="2" spans="1:22" ht="26.25" thickTop="1">
       <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
@@ -7557,7 +7556,9 @@
       <c r="F19" s="34" t="s">
         <v>868</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>826</v>
+      </c>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
       <c r="J19" s="18"/>
@@ -9163,7 +9164,7 @@
       </c>
       <c r="K85" s="19"/>
       <c r="L85" s="20"/>
-      <c r="M85" s="68" t="s">
+      <c r="M85" s="64" t="s">
         <v>908</v>
       </c>
       <c r="N85" s="21"/>
@@ -10945,72 +10946,34 @@
       <c r="S164" s="20"/>
     </row>
     <row r="165" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
-      <c r="A165" s="13">
-        <v>1</v>
-      </c>
-      <c r="B165" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C165" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E165" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F165" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G165" s="34" t="s">
-        <v>91</v>
-      </c>
+      <c r="A165" s="13"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="34"/>
+      <c r="G165" s="15"/>
       <c r="H165" s="16"/>
-      <c r="I165" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J165" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="K165" s="19" t="s">
-        <v>81</v>
-      </c>
+      <c r="I165" s="17"/>
+      <c r="J165" s="18"/>
+      <c r="K165" s="19"/>
       <c r="L165" s="20"/>
       <c r="M165" s="20"/>
       <c r="N165" s="21"/>
-      <c r="O165" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="P165" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q165" s="19" t="s">
-        <v>81</v>
-      </c>
+      <c r="O165" s="18"/>
+      <c r="P165" s="18"/>
+      <c r="Q165" s="19"/>
       <c r="R165" s="20"/>
       <c r="S165" s="20"/>
     </row>
     <row r="166" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A166" s="13"/>
-      <c r="B166" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C166" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D166" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E166" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F166" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="G166" s="34" t="s">
-        <v>151</v>
-      </c>
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="34"/>
+      <c r="G166" s="15"/>
       <c r="H166" s="16"/>
       <c r="I166" s="17"/>
       <c r="J166" s="18"/>
@@ -11026,24 +10989,12 @@
     </row>
     <row r="167" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A167" s="13"/>
-      <c r="B167" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C167" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D167" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E167" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F167" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G167" s="34" t="s">
-        <v>91</v>
-      </c>
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="34"/>
+      <c r="G167" s="15"/>
       <c r="H167" s="16"/>
       <c r="I167" s="17"/>
       <c r="J167" s="18"/>
@@ -11059,24 +11010,12 @@
     </row>
     <row r="168" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A168" s="13"/>
-      <c r="B168" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C168" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D168" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E168" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F168" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G168" s="34" t="s">
-        <v>208</v>
-      </c>
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="34"/>
+      <c r="G168" s="15"/>
       <c r="H168" s="16"/>
       <c r="I168" s="17"/>
       <c r="J168" s="18"/>
@@ -11092,24 +11031,12 @@
     </row>
     <row r="169" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A169" s="13"/>
-      <c r="B169" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C169" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D169" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E169" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F169" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G169" s="34" t="s">
-        <v>91</v>
-      </c>
+      <c r="B169" s="14"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="34"/>
+      <c r="G169" s="15"/>
       <c r="H169" s="16"/>
       <c r="I169" s="17"/>
       <c r="J169" s="18"/>
@@ -11125,24 +11052,12 @@
     </row>
     <row r="170" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A170" s="13"/>
-      <c r="B170" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C170" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D170" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E170" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F170" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G170" s="15" t="s">
-        <v>96</v>
-      </c>
+      <c r="B170" s="14"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="34"/>
+      <c r="G170" s="15"/>
       <c r="H170" s="16"/>
       <c r="I170" s="17"/>
       <c r="J170" s="18"/>
@@ -11159,21 +11074,11 @@
     <row r="171" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A171" s="13"/>
       <c r="B171" s="14"/>
-      <c r="C171" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D171" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E171" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F171" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G171" s="34" t="s">
-        <v>91</v>
-      </c>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="34"/>
+      <c r="G171" s="15"/>
       <c r="H171" s="16"/>
       <c r="I171" s="17"/>
       <c r="J171" s="18"/>
@@ -11190,21 +11095,11 @@
     <row r="172" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A172" s="13"/>
       <c r="B172" s="14"/>
-      <c r="C172" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D172" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E172" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F172" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G172" s="34" t="s">
-        <v>91</v>
-      </c>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="34"/>
+      <c r="G172" s="15"/>
       <c r="H172" s="16"/>
       <c r="I172" s="17"/>
       <c r="J172" s="18"/>
@@ -11223,15 +11118,9 @@
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
       <c r="D173" s="14"/>
-      <c r="E173" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F173" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="G173" s="34" t="s">
-        <v>91</v>
-      </c>
+      <c r="E173" s="15"/>
+      <c r="F173" s="34"/>
+      <c r="G173" s="15"/>
       <c r="H173" s="16"/>
       <c r="I173" s="17"/>
       <c r="J173" s="18"/>
@@ -11250,15 +11139,9 @@
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
-      <c r="E174" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F174" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G174" s="34" t="s">
-        <v>91</v>
-      </c>
+      <c r="E174" s="15"/>
+      <c r="F174" s="34"/>
+      <c r="G174" s="15"/>
       <c r="H174" s="16"/>
       <c r="I174" s="17"/>
       <c r="J174" s="18"/>
@@ -11277,15 +11160,9 @@
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
-      <c r="E175" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F175" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G175" s="34" t="s">
-        <v>91</v>
-      </c>
+      <c r="E175" s="15"/>
+      <c r="F175" s="34"/>
+      <c r="G175" s="15"/>
       <c r="H175" s="16"/>
       <c r="I175" s="17"/>
       <c r="J175" s="18"/>
@@ -11304,15 +11181,9 @@
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
       <c r="D176" s="14"/>
-      <c r="E176" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F176" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G176" s="34" t="s">
-        <v>91</v>
-      </c>
+      <c r="E176" s="15"/>
+      <c r="F176" s="34"/>
+      <c r="G176" s="15"/>
       <c r="H176" s="16"/>
       <c r="I176" s="17"/>
       <c r="J176" s="18"/>
@@ -11331,15 +11202,9 @@
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
       <c r="D177" s="14"/>
-      <c r="E177" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F177" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="G177" s="34" t="s">
-        <v>91</v>
-      </c>
+      <c r="E177" s="15"/>
+      <c r="F177" s="34"/>
+      <c r="G177" s="15"/>
       <c r="H177" s="16"/>
       <c r="I177" s="17"/>
       <c r="J177" s="18"/>
@@ -11356,21 +11221,11 @@
     <row r="178" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A178" s="13"/>
       <c r="B178" s="14"/>
-      <c r="C178" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D178" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E178" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F178" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="G178" s="34" t="s">
-        <v>109</v>
-      </c>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="34"/>
+      <c r="G178" s="15"/>
       <c r="H178" s="16"/>
       <c r="I178" s="17"/>
       <c r="J178" s="18"/>
@@ -11389,12 +11244,8 @@
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
       <c r="D179" s="14"/>
-      <c r="E179" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F179" s="34" t="s">
-        <v>88</v>
-      </c>
+      <c r="E179" s="15"/>
+      <c r="F179" s="34"/>
       <c r="G179" s="15"/>
       <c r="H179" s="16"/>
       <c r="I179" s="17"/>
@@ -11412,18 +11263,10 @@
     <row r="180" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A180" s="13"/>
       <c r="B180" s="14"/>
-      <c r="C180" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D180" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E180" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F180" s="34" t="s">
-        <v>88</v>
-      </c>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="34"/>
       <c r="G180" s="15"/>
       <c r="H180" s="16"/>
       <c r="I180" s="17"/>
@@ -11443,15 +11286,9 @@
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
       <c r="D181" s="14"/>
-      <c r="E181" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F181" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G181" s="34" t="s">
-        <v>116</v>
-      </c>
+      <c r="E181" s="15"/>
+      <c r="F181" s="34"/>
+      <c r="G181" s="15"/>
       <c r="H181" s="16"/>
       <c r="I181" s="17"/>
       <c r="J181" s="18"/>
@@ -11468,18 +11305,10 @@
     <row r="182" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A182" s="13"/>
       <c r="B182" s="14"/>
-      <c r="C182" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D182" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E182" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F182" s="34" t="s">
-        <v>88</v>
-      </c>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="34"/>
       <c r="G182" s="15"/>
       <c r="H182" s="16"/>
       <c r="I182" s="17"/>
@@ -11497,21 +11326,11 @@
     <row r="183" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A183" s="13"/>
       <c r="B183" s="14"/>
-      <c r="C183" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D183" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E183" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F183" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G183" s="34" t="s">
-        <v>123</v>
-      </c>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="34"/>
+      <c r="G183" s="15"/>
       <c r="H183" s="16"/>
       <c r="I183" s="17"/>
       <c r="J183" s="18"/>
@@ -11528,12 +11347,8 @@
     <row r="184" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A184" s="13"/>
       <c r="B184" s="14"/>
-      <c r="C184" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D184" s="14" t="s">
-        <v>125</v>
-      </c>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
       <c r="E184" s="15"/>
       <c r="F184" s="34"/>
       <c r="G184" s="15"/>
@@ -11553,21 +11368,11 @@
     <row r="185" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A185" s="13"/>
       <c r="B185" s="14"/>
-      <c r="C185" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D185" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E185" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F185" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="G185" s="15" t="s">
-        <v>130</v>
-      </c>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="34"/>
+      <c r="G185" s="15"/>
       <c r="H185" s="16"/>
       <c r="I185" s="17"/>
       <c r="J185" s="18"/>
@@ -11586,15 +11391,9 @@
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
       <c r="D186" s="14"/>
-      <c r="E186" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F186" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="G186" s="34" t="s">
-        <v>133</v>
-      </c>
+      <c r="E186" s="15"/>
+      <c r="F186" s="34"/>
+      <c r="G186" s="15"/>
       <c r="H186" s="16"/>
       <c r="I186" s="17"/>
       <c r="J186" s="18"/>
@@ -11611,18 +11410,10 @@
     <row r="187" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A187" s="13"/>
       <c r="B187" s="14"/>
-      <c r="C187" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D187" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E187" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F187" s="34" t="s">
-        <v>88</v>
-      </c>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="34"/>
       <c r="G187" s="15"/>
       <c r="H187" s="16"/>
       <c r="I187" s="17"/>
@@ -11642,12 +11433,8 @@
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
       <c r="D188" s="14"/>
-      <c r="E188" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F188" s="34" t="s">
-        <v>138</v>
-      </c>
+      <c r="E188" s="15"/>
+      <c r="F188" s="34"/>
       <c r="G188" s="15"/>
       <c r="H188" s="16"/>
       <c r="I188" s="17"/>
@@ -11667,12 +11454,8 @@
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
       <c r="D189" s="14"/>
-      <c r="E189" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F189" s="34" t="s">
-        <v>138</v>
-      </c>
+      <c r="E189" s="15"/>
+      <c r="F189" s="34"/>
       <c r="G189" s="15"/>
       <c r="H189" s="16"/>
       <c r="I189" s="17"/>
@@ -11692,15 +11475,9 @@
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
-      <c r="E190" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F190" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="G190" s="34" t="s">
-        <v>142</v>
-      </c>
+      <c r="E190" s="15"/>
+      <c r="F190" s="34"/>
+      <c r="G190" s="15"/>
       <c r="H190" s="16"/>
       <c r="I190" s="17"/>
       <c r="J190" s="18"/>
@@ -11717,18 +11494,10 @@
     <row r="191" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A191" s="13"/>
       <c r="B191" s="14"/>
-      <c r="C191" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D191" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E191" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F191" s="34" t="s">
-        <v>88</v>
-      </c>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="34"/>
       <c r="G191" s="15"/>
       <c r="H191" s="16"/>
       <c r="I191" s="17"/>
@@ -11748,12 +11517,8 @@
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
-      <c r="E192" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F192" s="34" t="s">
-        <v>88</v>
-      </c>
+      <c r="E192" s="15"/>
+      <c r="F192" s="34"/>
       <c r="G192" s="15"/>
       <c r="H192" s="16"/>
       <c r="I192" s="17"/>
@@ -11771,12 +11536,8 @@
     <row r="193" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A193" s="13"/>
       <c r="B193" s="14"/>
-      <c r="C193" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D193" s="14" t="s">
-        <v>148</v>
-      </c>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
       <c r="E193" s="15"/>
       <c r="F193" s="34"/>
       <c r="G193" s="15"/>
@@ -12739,34 +12500,72 @@
       <c r="S238" s="20"/>
     </row>
     <row r="239" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
-      <c r="A239" s="13"/>
-      <c r="B239" s="14"/>
-      <c r="C239" s="14"/>
-      <c r="D239" s="14"/>
-      <c r="E239" s="15"/>
-      <c r="F239" s="34"/>
-      <c r="G239" s="15"/>
+      <c r="A239" s="13">
+        <v>1</v>
+      </c>
+      <c r="B239" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D239" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E239" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F239" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G239" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H239" s="16"/>
-      <c r="I239" s="17"/>
-      <c r="J239" s="18"/>
-      <c r="K239" s="19"/>
+      <c r="I239" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J239" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K239" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="L239" s="20"/>
       <c r="M239" s="20"/>
       <c r="N239" s="21"/>
-      <c r="O239" s="18"/>
-      <c r="P239" s="18"/>
-      <c r="Q239" s="19"/>
+      <c r="O239" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P239" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q239" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="R239" s="20"/>
       <c r="S239" s="20"/>
     </row>
     <row r="240" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A240" s="13"/>
-      <c r="B240" s="14"/>
-      <c r="C240" s="14"/>
-      <c r="D240" s="14"/>
-      <c r="E240" s="15"/>
-      <c r="F240" s="34"/>
-      <c r="G240" s="15"/>
+      <c r="B240" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E240" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F240" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G240" s="34" t="s">
+        <v>151</v>
+      </c>
       <c r="H240" s="16"/>
       <c r="I240" s="17"/>
       <c r="J240" s="18"/>
@@ -12782,12 +12581,24 @@
     </row>
     <row r="241" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A241" s="13"/>
-      <c r="B241" s="14"/>
-      <c r="C241" s="14"/>
-      <c r="D241" s="14"/>
-      <c r="E241" s="15"/>
-      <c r="F241" s="34"/>
-      <c r="G241" s="15"/>
+      <c r="B241" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D241" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E241" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F241" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G241" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H241" s="16"/>
       <c r="I241" s="17"/>
       <c r="J241" s="18"/>
@@ -12803,12 +12614,24 @@
     </row>
     <row r="242" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A242" s="13"/>
-      <c r="B242" s="14"/>
-      <c r="C242" s="14"/>
-      <c r="D242" s="14"/>
-      <c r="E242" s="15"/>
-      <c r="F242" s="34"/>
-      <c r="G242" s="15"/>
+      <c r="B242" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C242" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D242" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E242" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F242" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G242" s="34" t="s">
+        <v>208</v>
+      </c>
       <c r="H242" s="16"/>
       <c r="I242" s="17"/>
       <c r="J242" s="18"/>
@@ -12824,12 +12647,24 @@
     </row>
     <row r="243" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A243" s="13"/>
-      <c r="B243" s="14"/>
-      <c r="C243" s="14"/>
-      <c r="D243" s="14"/>
-      <c r="E243" s="15"/>
-      <c r="F243" s="34"/>
-      <c r="G243" s="15"/>
+      <c r="B243" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C243" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D243" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E243" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F243" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G243" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H243" s="16"/>
       <c r="I243" s="17"/>
       <c r="J243" s="18"/>
@@ -12845,12 +12680,24 @@
     </row>
     <row r="244" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A244" s="13"/>
-      <c r="B244" s="14"/>
-      <c r="C244" s="14"/>
-      <c r="D244" s="14"/>
-      <c r="E244" s="15"/>
-      <c r="F244" s="34"/>
-      <c r="G244" s="15"/>
+      <c r="B244" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D244" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E244" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F244" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G244" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="H244" s="16"/>
       <c r="I244" s="17"/>
       <c r="J244" s="18"/>
@@ -12867,11 +12714,21 @@
     <row r="245" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A245" s="13"/>
       <c r="B245" s="14"/>
-      <c r="C245" s="14"/>
-      <c r="D245" s="14"/>
-      <c r="E245" s="15"/>
-      <c r="F245" s="34"/>
-      <c r="G245" s="15"/>
+      <c r="C245" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D245" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E245" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F245" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G245" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H245" s="16"/>
       <c r="I245" s="17"/>
       <c r="J245" s="18"/>
@@ -12888,11 +12745,21 @@
     <row r="246" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A246" s="13"/>
       <c r="B246" s="14"/>
-      <c r="C246" s="14"/>
-      <c r="D246" s="14"/>
-      <c r="E246" s="15"/>
-      <c r="F246" s="34"/>
-      <c r="G246" s="15"/>
+      <c r="C246" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D246" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E246" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F246" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G246" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H246" s="16"/>
       <c r="I246" s="17"/>
       <c r="J246" s="18"/>
@@ -12911,9 +12778,15 @@
       <c r="B247" s="14"/>
       <c r="C247" s="14"/>
       <c r="D247" s="14"/>
-      <c r="E247" s="15"/>
-      <c r="F247" s="34"/>
-      <c r="G247" s="15"/>
+      <c r="E247" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F247" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G247" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H247" s="16"/>
       <c r="I247" s="17"/>
       <c r="J247" s="18"/>
@@ -12932,9 +12805,15 @@
       <c r="B248" s="14"/>
       <c r="C248" s="14"/>
       <c r="D248" s="14"/>
-      <c r="E248" s="15"/>
-      <c r="F248" s="34"/>
-      <c r="G248" s="15"/>
+      <c r="E248" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F248" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G248" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H248" s="16"/>
       <c r="I248" s="17"/>
       <c r="J248" s="18"/>
@@ -12953,9 +12832,15 @@
       <c r="B249" s="14"/>
       <c r="C249" s="14"/>
       <c r="D249" s="14"/>
-      <c r="E249" s="15"/>
-      <c r="F249" s="34"/>
-      <c r="G249" s="15"/>
+      <c r="E249" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F249" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G249" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H249" s="16"/>
       <c r="I249" s="17"/>
       <c r="J249" s="18"/>
@@ -12974,9 +12859,15 @@
       <c r="B250" s="14"/>
       <c r="C250" s="14"/>
       <c r="D250" s="14"/>
-      <c r="E250" s="15"/>
-      <c r="F250" s="34"/>
-      <c r="G250" s="15"/>
+      <c r="E250" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F250" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G250" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H250" s="16"/>
       <c r="I250" s="17"/>
       <c r="J250" s="18"/>
@@ -12995,9 +12886,15 @@
       <c r="B251" s="14"/>
       <c r="C251" s="14"/>
       <c r="D251" s="14"/>
-      <c r="E251" s="15"/>
-      <c r="F251" s="34"/>
-      <c r="G251" s="15"/>
+      <c r="E251" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F251" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G251" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="H251" s="16"/>
       <c r="I251" s="17"/>
       <c r="J251" s="18"/>
@@ -13014,11 +12911,21 @@
     <row r="252" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A252" s="13"/>
       <c r="B252" s="14"/>
-      <c r="C252" s="14"/>
-      <c r="D252" s="14"/>
-      <c r="E252" s="15"/>
-      <c r="F252" s="34"/>
-      <c r="G252" s="15"/>
+      <c r="C252" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D252" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E252" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F252" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G252" s="34" t="s">
+        <v>109</v>
+      </c>
       <c r="H252" s="16"/>
       <c r="I252" s="17"/>
       <c r="J252" s="18"/>
@@ -13037,8 +12944,12 @@
       <c r="B253" s="14"/>
       <c r="C253" s="14"/>
       <c r="D253" s="14"/>
-      <c r="E253" s="15"/>
-      <c r="F253" s="34"/>
+      <c r="E253" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F253" s="34" t="s">
+        <v>88</v>
+      </c>
       <c r="G253" s="15"/>
       <c r="H253" s="16"/>
       <c r="I253" s="17"/>
@@ -13056,10 +12967,18 @@
     <row r="254" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A254" s="13"/>
       <c r="B254" s="14"/>
-      <c r="C254" s="14"/>
-      <c r="D254" s="14"/>
-      <c r="E254" s="15"/>
-      <c r="F254" s="34"/>
+      <c r="C254" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D254" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E254" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F254" s="34" t="s">
+        <v>88</v>
+      </c>
       <c r="G254" s="15"/>
       <c r="H254" s="16"/>
       <c r="I254" s="17"/>
@@ -13079,9 +12998,15 @@
       <c r="B255" s="14"/>
       <c r="C255" s="14"/>
       <c r="D255" s="14"/>
-      <c r="E255" s="15"/>
-      <c r="F255" s="34"/>
-      <c r="G255" s="15"/>
+      <c r="E255" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F255" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G255" s="34" t="s">
+        <v>116</v>
+      </c>
       <c r="H255" s="16"/>
       <c r="I255" s="17"/>
       <c r="J255" s="18"/>
@@ -13098,10 +13023,18 @@
     <row r="256" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A256" s="13"/>
       <c r="B256" s="14"/>
-      <c r="C256" s="14"/>
-      <c r="D256" s="14"/>
-      <c r="E256" s="15"/>
-      <c r="F256" s="34"/>
+      <c r="C256" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D256" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E256" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F256" s="34" t="s">
+        <v>88</v>
+      </c>
       <c r="G256" s="15"/>
       <c r="H256" s="16"/>
       <c r="I256" s="17"/>
@@ -13119,11 +13052,21 @@
     <row r="257" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A257" s="13"/>
       <c r="B257" s="14"/>
-      <c r="C257" s="14"/>
-      <c r="D257" s="14"/>
-      <c r="E257" s="15"/>
-      <c r="F257" s="34"/>
-      <c r="G257" s="15"/>
+      <c r="C257" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D257" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E257" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F257" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G257" s="34" t="s">
+        <v>123</v>
+      </c>
       <c r="H257" s="16"/>
       <c r="I257" s="17"/>
       <c r="J257" s="18"/>
@@ -13140,8 +13083,12 @@
     <row r="258" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A258" s="13"/>
       <c r="B258" s="14"/>
-      <c r="C258" s="14"/>
-      <c r="D258" s="14"/>
+      <c r="C258" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D258" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="E258" s="15"/>
       <c r="F258" s="34"/>
       <c r="G258" s="15"/>
@@ -13161,11 +13108,21 @@
     <row r="259" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A259" s="13"/>
       <c r="B259" s="14"/>
-      <c r="C259" s="14"/>
-      <c r="D259" s="14"/>
-      <c r="E259" s="15"/>
-      <c r="F259" s="34"/>
-      <c r="G259" s="15"/>
+      <c r="C259" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D259" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E259" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F259" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G259" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="H259" s="16"/>
       <c r="I259" s="17"/>
       <c r="J259" s="18"/>
@@ -13184,9 +13141,15 @@
       <c r="B260" s="14"/>
       <c r="C260" s="14"/>
       <c r="D260" s="14"/>
-      <c r="E260" s="15"/>
-      <c r="F260" s="34"/>
-      <c r="G260" s="15"/>
+      <c r="E260" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F260" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="G260" s="34" t="s">
+        <v>133</v>
+      </c>
       <c r="H260" s="16"/>
       <c r="I260" s="17"/>
       <c r="J260" s="18"/>
@@ -13203,10 +13166,18 @@
     <row r="261" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A261" s="13"/>
       <c r="B261" s="14"/>
-      <c r="C261" s="14"/>
-      <c r="D261" s="14"/>
-      <c r="E261" s="15"/>
-      <c r="F261" s="34"/>
+      <c r="C261" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D261" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E261" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F261" s="34" t="s">
+        <v>88</v>
+      </c>
       <c r="G261" s="15"/>
       <c r="H261" s="16"/>
       <c r="I261" s="17"/>
@@ -13226,8 +13197,12 @@
       <c r="B262" s="14"/>
       <c r="C262" s="14"/>
       <c r="D262" s="14"/>
-      <c r="E262" s="15"/>
-      <c r="F262" s="34"/>
+      <c r="E262" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F262" s="34" t="s">
+        <v>138</v>
+      </c>
       <c r="G262" s="15"/>
       <c r="H262" s="16"/>
       <c r="I262" s="17"/>
@@ -13247,8 +13222,12 @@
       <c r="B263" s="14"/>
       <c r="C263" s="14"/>
       <c r="D263" s="14"/>
-      <c r="E263" s="15"/>
-      <c r="F263" s="34"/>
+      <c r="E263" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F263" s="34" t="s">
+        <v>138</v>
+      </c>
       <c r="G263" s="15"/>
       <c r="H263" s="16"/>
       <c r="I263" s="17"/>
@@ -13268,9 +13247,15 @@
       <c r="B264" s="14"/>
       <c r="C264" s="14"/>
       <c r="D264" s="14"/>
-      <c r="E264" s="15"/>
-      <c r="F264" s="34"/>
-      <c r="G264" s="15"/>
+      <c r="E264" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F264" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G264" s="34" t="s">
+        <v>142</v>
+      </c>
       <c r="H264" s="16"/>
       <c r="I264" s="17"/>
       <c r="J264" s="18"/>
@@ -13287,10 +13272,18 @@
     <row r="265" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A265" s="13"/>
       <c r="B265" s="14"/>
-      <c r="C265" s="14"/>
-      <c r="D265" s="14"/>
-      <c r="E265" s="15"/>
-      <c r="F265" s="34"/>
+      <c r="C265" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D265" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E265" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F265" s="34" t="s">
+        <v>88</v>
+      </c>
       <c r="G265" s="15"/>
       <c r="H265" s="16"/>
       <c r="I265" s="17"/>
@@ -13310,8 +13303,12 @@
       <c r="B266" s="14"/>
       <c r="C266" s="14"/>
       <c r="D266" s="14"/>
-      <c r="E266" s="15"/>
-      <c r="F266" s="34"/>
+      <c r="E266" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F266" s="34" t="s">
+        <v>88</v>
+      </c>
       <c r="G266" s="15"/>
       <c r="H266" s="16"/>
       <c r="I266" s="17"/>
@@ -13329,8 +13326,12 @@
     <row r="267" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A267" s="13"/>
       <c r="B267" s="14"/>
-      <c r="C267" s="14"/>
-      <c r="D267" s="14"/>
+      <c r="C267" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D267" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="E267" s="15"/>
       <c r="F267" s="34"/>
       <c r="G267" s="15"/>
@@ -14132,38 +14133,38 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="15">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IH165:IH166 WUT165:WUT166 WKX165:WKX166 WBB165:WBB166 VRF165:VRF166 VHJ165:VHJ166 UXN165:UXN166 UNR165:UNR166 UDV165:UDV166 TTZ165:TTZ166 TKD165:TKD166 TAH165:TAH166 SQL165:SQL166 SGP165:SGP166 RWT165:RWT166 RMX165:RMX166 RDB165:RDB166 QTF165:QTF166 QJJ165:QJJ166 PZN165:PZN166 PPR165:PPR166 PFV165:PFV166 OVZ165:OVZ166 OMD165:OMD166 OCH165:OCH166 NSL165:NSL166 NIP165:NIP166 MYT165:MYT166 MOX165:MOX166 MFB165:MFB166 LVF165:LVF166 LLJ165:LLJ166 LBN165:LBN166 KRR165:KRR166 KHV165:KHV166 JXZ165:JXZ166 JOD165:JOD166 JEH165:JEH166 IUL165:IUL166 IKP165:IKP166 IAT165:IAT166 HQX165:HQX166 HHB165:HHB166 GXF165:GXF166 GNJ165:GNJ166 GDN165:GDN166 FTR165:FTR166 FJV165:FJV166 EZZ165:EZZ166 EQD165:EQD166 EGH165:EGH166 DWL165:DWL166 DMP165:DMP166 DCT165:DCT166 CSX165:CSX166 CJB165:CJB166 BZF165:BZF166 BPJ165:BPJ166 BFN165:BFN166 AVR165:AVR166 ALV165:ALV166 ABZ165:ABZ166 SD165:SD166">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IH239:IH240 WUT239:WUT240 WKX239:WKX240 WBB239:WBB240 VRF239:VRF240 VHJ239:VHJ240 UXN239:UXN240 UNR239:UNR240 UDV239:UDV240 TTZ239:TTZ240 TKD239:TKD240 TAH239:TAH240 SQL239:SQL240 SGP239:SGP240 RWT239:RWT240 RMX239:RMX240 RDB239:RDB240 QTF239:QTF240 QJJ239:QJJ240 PZN239:PZN240 PPR239:PPR240 PFV239:PFV240 OVZ239:OVZ240 OMD239:OMD240 OCH239:OCH240 NSL239:NSL240 NIP239:NIP240 MYT239:MYT240 MOX239:MOX240 MFB239:MFB240 LVF239:LVF240 LLJ239:LLJ240 LBN239:LBN240 KRR239:KRR240 KHV239:KHV240 JXZ239:JXZ240 JOD239:JOD240 JEH239:JEH240 IUL239:IUL240 IKP239:IKP240 IAT239:IAT240 HQX239:HQX240 HHB239:HHB240 GXF239:GXF240 GNJ239:GNJ240 GDN239:GDN240 FTR239:FTR240 FJV239:FJV240 EZZ239:EZZ240 EQD239:EQD240 EGH239:EGH240 DWL239:DWL240 DMP239:DMP240 DCT239:DCT240 CSX239:CSX240 CJB239:CJB240 BZF239:BZF240 BPJ239:BPJ240 BFN239:BFN240 AVR239:AVR240 ALV239:ALV240 ABZ239:ABZ240 SD239:SD240">
       <formula1>"ArB,Arden,Attach,Cardio,CBCC,CCOW,CDS,CG,CIC,Clinical Statement,Conform,Ed,EHR,FM,II,Implementation,InM,ITS,Lab,M and M,M and M/ CMETs,M and M/ Templates,M and M/ Tooling,MedRec,OO,PA,PC,PHER,PM,PS,PSC,RCRIM,RX,Sched,Security,SOA,StructDocs,Vocab"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IW165:IW166 WVI165:WVI166 WLM165:WLM166 WBQ165:WBQ166 VRU165:VRU166 VHY165:VHY166 UYC165:UYC166 UOG165:UOG166 UEK165:UEK166 TUO165:TUO166 TKS165:TKS166 TAW165:TAW166 SRA165:SRA166 SHE165:SHE166 RXI165:RXI166 RNM165:RNM166 RDQ165:RDQ166 QTU165:QTU166 QJY165:QJY166 QAC165:QAC166 PQG165:PQG166 PGK165:PGK166 OWO165:OWO166 OMS165:OMS166 OCW165:OCW166 NTA165:NTA166 NJE165:NJE166 MZI165:MZI166 MPM165:MPM166 MFQ165:MFQ166 LVU165:LVU166 LLY165:LLY166 LCC165:LCC166 KSG165:KSG166 KIK165:KIK166 JYO165:JYO166 JOS165:JOS166 JEW165:JEW166 IVA165:IVA166 ILE165:ILE166 IBI165:IBI166 HRM165:HRM166 HHQ165:HHQ166 GXU165:GXU166 GNY165:GNY166 GEC165:GEC166 FUG165:FUG166 FKK165:FKK166 FAO165:FAO166 EQS165:EQS166 EGW165:EGW166 DXA165:DXA166 DNE165:DNE166 DDI165:DDI166 CTM165:CTM166 CJQ165:CJQ166 BZU165:BZU166 BPY165:BPY166 BGC165:BGC166 AWG165:AWG166 AMK165:AMK166 ACO165:ACO166 SS165:SS166">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IW239:IW240 WVI239:WVI240 WLM239:WLM240 WBQ239:WBQ240 VRU239:VRU240 VHY239:VHY240 UYC239:UYC240 UOG239:UOG240 UEK239:UEK240 TUO239:TUO240 TKS239:TKS240 TAW239:TAW240 SRA239:SRA240 SHE239:SHE240 RXI239:RXI240 RNM239:RNM240 RDQ239:RDQ240 QTU239:QTU240 QJY239:QJY240 QAC239:QAC240 PQG239:PQG240 PGK239:PGK240 OWO239:OWO240 OMS239:OMS240 OCW239:OCW240 NTA239:NTA240 NJE239:NJE240 MZI239:MZI240 MPM239:MPM240 MFQ239:MFQ240 LVU239:LVU240 LLY239:LLY240 LCC239:LCC240 KSG239:KSG240 KIK239:KIK240 JYO239:JYO240 JOS239:JOS240 JEW239:JEW240 IVA239:IVA240 ILE239:ILE240 IBI239:IBI240 HRM239:HRM240 HHQ239:HHQ240 GXU239:GXU240 GNY239:GNY240 GEC239:GEC240 FUG239:FUG240 FKK239:FKK240 FAO239:FAO240 EQS239:EQS240 EGW239:EGW240 DXA239:DXA240 DNE239:DNE240 DDI239:DDI240 CTM239:CTM240 CJQ239:CJQ240 BZU239:BZU240 BPY239:BPY240 BGC239:BGC240 AWG239:AWG240 AMK239:AMK240 ACO239:ACO240 SS239:SS240">
       <formula1>"ARB,Attach,Cardio,CCBC,CCOW,CDS,CG,Conform,Ed,EHR,FM,II,Implementation,InM,ITS,Lab,M and M,M and M/ CMETs,M and M/ Templates,M and M/ Tooling,MedRec,OO,PA,PC,PHER,PM,PS,PSC,Publishing,RCRIM,RX,Sched,Security,SOA,StructDocs,Vocab"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="II165:II166 WUU165:WUU166 WKY165:WKY166 WBC165:WBC166 VRG165:VRG166 VHK165:VHK166 UXO165:UXO166 UNS165:UNS166 UDW165:UDW166 TUA165:TUA166 TKE165:TKE166 TAI165:TAI166 SQM165:SQM166 SGQ165:SGQ166 RWU165:RWU166 RMY165:RMY166 RDC165:RDC166 QTG165:QTG166 QJK165:QJK166 PZO165:PZO166 PPS165:PPS166 PFW165:PFW166 OWA165:OWA166 OME165:OME166 OCI165:OCI166 NSM165:NSM166 NIQ165:NIQ166 MYU165:MYU166 MOY165:MOY166 MFC165:MFC166 LVG165:LVG166 LLK165:LLK166 LBO165:LBO166 KRS165:KRS166 KHW165:KHW166 JYA165:JYA166 JOE165:JOE166 JEI165:JEI166 IUM165:IUM166 IKQ165:IKQ166 IAU165:IAU166 HQY165:HQY166 HHC165:HHC166 GXG165:GXG166 GNK165:GNK166 GDO165:GDO166 FTS165:FTS166 FJW165:FJW166 FAA165:FAA166 EQE165:EQE166 EGI165:EGI166 DWM165:DWM166 DMQ165:DMQ166 DCU165:DCU166 CSY165:CSY166 CJC165:CJC166 BZG165:BZG166 BPK165:BPK166 BFO165:BFO166 AVS165:AVS166 ALW165:ALW166 ACA165:ACA166 SE165:SE166">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="II239:II240 WUU239:WUU240 WKY239:WKY240 WBC239:WBC240 VRG239:VRG240 VHK239:VHK240 UXO239:UXO240 UNS239:UNS240 UDW239:UDW240 TUA239:TUA240 TKE239:TKE240 TAI239:TAI240 SQM239:SQM240 SGQ239:SGQ240 RWU239:RWU240 RMY239:RMY240 RDC239:RDC240 QTG239:QTG240 QJK239:QJK240 PZO239:PZO240 PPS239:PPS240 PFW239:PFW240 OWA239:OWA240 OME239:OME240 OCI239:OCI240 NSM239:NSM240 NIQ239:NIQ240 MYU239:MYU240 MOY239:MOY240 MFC239:MFC240 LVG239:LVG240 LLK239:LLK240 LBO239:LBO240 KRS239:KRS240 KHW239:KHW240 JYA239:JYA240 JOE239:JOE240 JEI239:JEI240 IUM239:IUM240 IKQ239:IKQ240 IAU239:IAU240 HQY239:HQY240 HHC239:HHC240 GXG239:GXG240 GNK239:GNK240 GDO239:GDO240 FTS239:FTS240 FJW239:FJW240 FAA239:FAA240 EQE239:EQE240 EGI239:EGI240 DWM239:DWM240 DMQ239:DMQ240 DCU239:DCU240 CSY239:CSY240 CJC239:CJC240 BZG239:BZG240 BPK239:BPK240 BFO239:BFO240 AVS239:AVS240 ALW239:ALW240 ACA239:ACA240 SE239:SE240">
       <formula1>Artifact_type</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="JJ165:JK166 WVV165:WVW166 WLZ165:WMA166 WCD165:WCE166 VSH165:VSI166 VIL165:VIM166 UYP165:UYQ166 UOT165:UOU166 UEX165:UEY166 TVB165:TVC166 TLF165:TLG166 TBJ165:TBK166 SRN165:SRO166 SHR165:SHS166 RXV165:RXW166 RNZ165:ROA166 RED165:REE166 QUH165:QUI166 QKL165:QKM166 QAP165:QAQ166 PQT165:PQU166 PGX165:PGY166 OXB165:OXC166 ONF165:ONG166 ODJ165:ODK166 NTN165:NTO166 NJR165:NJS166 MZV165:MZW166 MPZ165:MQA166 MGD165:MGE166 LWH165:LWI166 LML165:LMM166 LCP165:LCQ166 KST165:KSU166 KIX165:KIY166 JZB165:JZC166 JPF165:JPG166 JFJ165:JFK166 IVN165:IVO166 ILR165:ILS166 IBV165:IBW166 HRZ165:HSA166 HID165:HIE166 GYH165:GYI166 GOL165:GOM166 GEP165:GEQ166 FUT165:FUU166 FKX165:FKY166 FBB165:FBC166 ERF165:ERG166 EHJ165:EHK166 DXN165:DXO166 DNR165:DNS166 DDV165:DDW166 CTZ165:CUA166 CKD165:CKE166 CAH165:CAI166 BQL165:BQM166 BGP165:BGQ166 AWT165:AWU166 AMX165:AMY166 ADB165:ADC166 TF165:TG166">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="JJ239:JK240 WVV239:WVW240 WLZ239:WMA240 WCD239:WCE240 VSH239:VSI240 VIL239:VIM240 UYP239:UYQ240 UOT239:UOU240 UEX239:UEY240 TVB239:TVC240 TLF239:TLG240 TBJ239:TBK240 SRN239:SRO240 SHR239:SHS240 RXV239:RXW240 RNZ239:ROA240 RED239:REE240 QUH239:QUI240 QKL239:QKM240 QAP239:QAQ240 PQT239:PQU240 PGX239:PGY240 OXB239:OXC240 ONF239:ONG240 ODJ239:ODK240 NTN239:NTO240 NJR239:NJS240 MZV239:MZW240 MPZ239:MQA240 MGD239:MGE240 LWH239:LWI240 LML239:LMM240 LCP239:LCQ240 KST239:KSU240 KIX239:KIY240 JZB239:JZC240 JPF239:JPG240 JFJ239:JFK240 IVN239:IVO240 ILR239:ILS240 IBV239:IBW240 HRZ239:HSA240 HID239:HIE240 GYH239:GYI240 GOL239:GOM240 GEP239:GEQ240 FUT239:FUU240 FKX239:FKY240 FBB239:FBC240 ERF239:ERG240 EHJ239:EHK240 DXN239:DXO240 DNR239:DNS240 DDV239:DDW240 CTZ239:CUA240 CKD239:CKE240 CAH239:CAI240 BQL239:BQM240 BGP239:BGQ240 AWT239:AWU240 AMX239:AMY240 ADB239:ADC240 TF239:TG240">
       <formula1>"ARB,CCOW,CDS,CQ,Ed,EHR,FM,M and M,M and M/ CMETs,M and M/ Templates,M and M/ Tooling,MedRec,OO,PA,PC,PM,Publishing,RCRIM,Sched,StructDocs,Implementation,Vocab"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IU165:IU166 WVG165:WVG166 WLK165:WLK166 WBO165:WBO166 VRS165:VRS166 VHW165:VHW166 UYA165:UYA166 UOE165:UOE166 UEI165:UEI166 TUM165:TUM166 TKQ165:TKQ166 TAU165:TAU166 SQY165:SQY166 SHC165:SHC166 RXG165:RXG166 RNK165:RNK166 RDO165:RDO166 QTS165:QTS166 QJW165:QJW166 QAA165:QAA166 PQE165:PQE166 PGI165:PGI166 OWM165:OWM166 OMQ165:OMQ166 OCU165:OCU166 NSY165:NSY166 NJC165:NJC166 MZG165:MZG166 MPK165:MPK166 MFO165:MFO166 LVS165:LVS166 LLW165:LLW166 LCA165:LCA166 KSE165:KSE166 KII165:KII166 JYM165:JYM166 JOQ165:JOQ166 JEU165:JEU166 IUY165:IUY166 ILC165:ILC166 IBG165:IBG166 HRK165:HRK166 HHO165:HHO166 GXS165:GXS166 GNW165:GNW166 GEA165:GEA166 FUE165:FUE166 FKI165:FKI166 FAM165:FAM166 EQQ165:EQQ166 EGU165:EGU166 DWY165:DWY166 DNC165:DNC166 DDG165:DDG166 CTK165:CTK166 CJO165:CJO166 BZS165:BZS166 BPW165:BPW166 BGA165:BGA166 AWE165:AWE166 AMI165:AMI166 ACM165:ACM166 SQ165:SQ166">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IU239:IU240 WVG239:WVG240 WLK239:WLK240 WBO239:WBO240 VRS239:VRS240 VHW239:VHW240 UYA239:UYA240 UOE239:UOE240 UEI239:UEI240 TUM239:TUM240 TKQ239:TKQ240 TAU239:TAU240 SQY239:SQY240 SHC239:SHC240 RXG239:RXG240 RNK239:RNK240 RDO239:RDO240 QTS239:QTS240 QJW239:QJW240 QAA239:QAA240 PQE239:PQE240 PGI239:PGI240 OWM239:OWM240 OMQ239:OMQ240 OCU239:OCU240 NSY239:NSY240 NJC239:NJC240 MZG239:MZG240 MPK239:MPK240 MFO239:MFO240 LVS239:LVS240 LLW239:LLW240 LCA239:LCA240 KSE239:KSE240 KII239:KII240 JYM239:JYM240 JOQ239:JOQ240 JEU239:JEU240 IUY239:IUY240 ILC239:ILC240 IBG239:IBG240 HRK239:HRK240 HHO239:HHO240 GXS239:GXS240 GNW239:GNW240 GEA239:GEA240 FUE239:FUE240 FKI239:FKI240 FAM239:FAM240 EQQ239:EQQ240 EGU239:EGU240 DWY239:DWY240 DNC239:DNC240 DDG239:DDG240 CTK239:CTK240 CJO239:CJO240 BZS239:BZS240 BPW239:BPW240 BGA239:BGA240 AWE239:AWE240 AMI239:AMI240 ACM239:ACM240 SQ239:SQ240">
       <formula1>dispositionstatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IS165:IS166 H165:H166 WVE165:WVE166 WLI165:WLI166 WBM165:WBM166 VRQ165:VRQ166 VHU165:VHU166 UXY165:UXY166 UOC165:UOC166 UEG165:UEG166 TUK165:TUK166 TKO165:TKO166 TAS165:TAS166 SQW165:SQW166 SHA165:SHA166 RXE165:RXE166 RNI165:RNI166 RDM165:RDM166 QTQ165:QTQ166 QJU165:QJU166 PZY165:PZY166 PQC165:PQC166 PGG165:PGG166 OWK165:OWK166 OMO165:OMO166 OCS165:OCS166 NSW165:NSW166 NJA165:NJA166 MZE165:MZE166 MPI165:MPI166 MFM165:MFM166 LVQ165:LVQ166 LLU165:LLU166 LBY165:LBY166 KSC165:KSC166 KIG165:KIG166 JYK165:JYK166 JOO165:JOO166 JES165:JES166 IUW165:IUW166 ILA165:ILA166 IBE165:IBE166 HRI165:HRI166 HHM165:HHM166 GXQ165:GXQ166 GNU165:GNU166 GDY165:GDY166 FUC165:FUC166 FKG165:FKG166 FAK165:FAK166 EQO165:EQO166 EGS165:EGS166 DWW165:DWW166 DNA165:DNA166 DDE165:DDE166 CTI165:CTI166 CJM165:CJM166 BZQ165:BZQ166 BPU165:BPU166 BFY165:BFY166 AWC165:AWC166 AMG165:AMG166 ACK165:ACK166 SO165:SO166">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IS239:IS240 H239:H240 WVE239:WVE240 WLI239:WLI240 WBM239:WBM240 VRQ239:VRQ240 VHU239:VHU240 UXY239:UXY240 UOC239:UOC240 UEG239:UEG240 TUK239:TUK240 TKO239:TKO240 TAS239:TAS240 SQW239:SQW240 SHA239:SHA240 RXE239:RXE240 RNI239:RNI240 RDM239:RDM240 QTQ239:QTQ240 QJU239:QJU240 PZY239:PZY240 PQC239:PQC240 PGG239:PGG240 OWK239:OWK240 OMO239:OMO240 OCS239:OCS240 NSW239:NSW240 NJA239:NJA240 MZE239:MZE240 MPI239:MPI240 MFM239:MFM240 LVQ239:LVQ240 LLU239:LLU240 LBY239:LBY240 KSC239:KSC240 KIG239:KIG240 JYK239:JYK240 JOO239:JOO240 JES239:JES240 IUW239:IUW240 ILA239:ILA240 IBE239:IBE240 HRI239:HRI240 HHM239:HHM240 GXQ239:GXQ240 GNU239:GNU240 GDY239:GDY240 FUC239:FUC240 FKG239:FKG240 FAK239:FAK240 EQO239:EQO240 EGS239:EGS240 DWW239:DWW240 DNA239:DNA240 DDE239:DDE240 CTI239:CTI240 CJM239:CJM240 BZQ239:BZQ240 BPU239:BPU240 BFY239:BFY240 AWC239:AWC240 AMG239:AMG240 ACK239:ACK240 SO239:SO240">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IM165:IM166 WUY165:WUY166 WLC165:WLC166 WBG165:WBG166 VRK165:VRK166 VHO165:VHO166 UXS165:UXS166 UNW165:UNW166 UEA165:UEA166 TUE165:TUE166 TKI165:TKI166 TAM165:TAM166 SQQ165:SQQ166 SGU165:SGU166 RWY165:RWY166 RNC165:RNC166 RDG165:RDG166 QTK165:QTK166 QJO165:QJO166 PZS165:PZS166 PPW165:PPW166 PGA165:PGA166 OWE165:OWE166 OMI165:OMI166 OCM165:OCM166 NSQ165:NSQ166 NIU165:NIU166 MYY165:MYY166 MPC165:MPC166 MFG165:MFG166 LVK165:LVK166 LLO165:LLO166 LBS165:LBS166 KRW165:KRW166 KIA165:KIA166 JYE165:JYE166 JOI165:JOI166 JEM165:JEM166 IUQ165:IUQ166 IKU165:IKU166 IAY165:IAY166 HRC165:HRC166 HHG165:HHG166 GXK165:GXK166 GNO165:GNO166 GDS165:GDS166 FTW165:FTW166 FKA165:FKA166 FAE165:FAE166 EQI165:EQI166 EGM165:EGM166 DWQ165:DWQ166 DMU165:DMU166 DCY165:DCY166 CTC165:CTC166 CJG165:CJG166 BZK165:BZK166 BPO165:BPO166 BFS165:BFS166 AVW165:AVW166 AMA165:AMA166 ACE165:ACE166 SI165:SI166">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IM239:IM240 WUY239:WUY240 WLC239:WLC240 WBG239:WBG240 VRK239:VRK240 VHO239:VHO240 UXS239:UXS240 UNW239:UNW240 UEA239:UEA240 TUE239:TUE240 TKI239:TKI240 TAM239:TAM240 SQQ239:SQQ240 SGU239:SGU240 RWY239:RWY240 RNC239:RNC240 RDG239:RDG240 QTK239:QTK240 QJO239:QJO240 PZS239:PZS240 PPW239:PPW240 PGA239:PGA240 OWE239:OWE240 OMI239:OMI240 OCM239:OCM240 NSQ239:NSQ240 NIU239:NIU240 MYY239:MYY240 MPC239:MPC240 MFG239:MFG240 LVK239:LVK240 LLO239:LLO240 LBS239:LBS240 KRW239:KRW240 KIA239:KIA240 JYE239:JYE240 JOI239:JOI240 JEM239:JEM240 IUQ239:IUQ240 IKU239:IKU240 IAY239:IAY240 HRC239:HRC240 HHG239:HHG240 GXK239:GXK240 GNO239:GNO240 GDS239:GDS240 FTW239:FTW240 FKA239:FKA240 FAE239:FAE240 EQI239:EQI240 EGM239:EGM240 DWQ239:DWQ240 DMU239:DMU240 DCY239:DCY240 CTC239:CTC240 CJG239:CJG240 BZK239:BZK240 BPO239:BPO240 BFS239:BFS240 AVW239:AVW240 AMA239:AMA240 ACE239:ACE240 SI239:SI240">
       <formula1>"AB,AI,Backbone (ref),Bloodbank,CI,CR,CT,Datatypes Abstract,OO,Glossary (ref),LB,MI,MR,MT,PA,PC,PM,QI,Refinement,RI,RIM,RT,RR,RX,SC,UML-ITS DataTypes,V3 Help Guide (ref),Vocabulary (ref),XML-ITS DataTypes,XML-ITS Structures"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IV165:IV166 WVH165:WVH166 WLL165:WLL166 WBP165:WBP166 VRT165:VRT166 VHX165:VHX166 UYB165:UYB166 UOF165:UOF166 UEJ165:UEJ166 TUN165:TUN166 TKR165:TKR166 TAV165:TAV166 SQZ165:SQZ166 SHD165:SHD166 RXH165:RXH166 RNL165:RNL166 RDP165:RDP166 QTT165:QTT166 QJX165:QJX166 QAB165:QAB166 PQF165:PQF166 PGJ165:PGJ166 OWN165:OWN166 OMR165:OMR166 OCV165:OCV166 NSZ165:NSZ166 NJD165:NJD166 MZH165:MZH166 MPL165:MPL166 MFP165:MFP166 LVT165:LVT166 LLX165:LLX166 LCB165:LCB166 KSF165:KSF166 KIJ165:KIJ166 JYN165:JYN166 JOR165:JOR166 JEV165:JEV166 IUZ165:IUZ166 ILD165:ILD166 IBH165:IBH166 HRL165:HRL166 HHP165:HHP166 GXT165:GXT166 GNX165:GNX166 GEB165:GEB166 FUF165:FUF166 FKJ165:FKJ166 FAN165:FAN166 EQR165:EQR166 EGV165:EGV166 DWZ165:DWZ166 DND165:DND166 DDH165:DDH166 CTL165:CTL166 CJP165:CJP166 BZT165:BZT166 BPX165:BPX166 BGB165:BGB166 AWF165:AWF166 AMJ165:AMJ166 ACN165:ACN166 SR165:SR166">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IV239:IV240 WVH239:WVH240 WLL239:WLL240 WBP239:WBP240 VRT239:VRT240 VHX239:VHX240 UYB239:UYB240 UOF239:UOF240 UEJ239:UEJ240 TUN239:TUN240 TKR239:TKR240 TAV239:TAV240 SQZ239:SQZ240 SHD239:SHD240 RXH239:RXH240 RNL239:RNL240 RDP239:RDP240 QTT239:QTT240 QJX239:QJX240 QAB239:QAB240 PQF239:PQF240 PGJ239:PGJ240 OWN239:OWN240 OMR239:OMR240 OCV239:OCV240 NSZ239:NSZ240 NJD239:NJD240 MZH239:MZH240 MPL239:MPL240 MFP239:MFP240 LVT239:LVT240 LLX239:LLX240 LCB239:LCB240 KSF239:KSF240 KIJ239:KIJ240 JYN239:JYN240 JOR239:JOR240 JEV239:JEV240 IUZ239:IUZ240 ILD239:ILD240 IBH239:IBH240 HRL239:HRL240 HHP239:HHP240 GXT239:GXT240 GNX239:GNX240 GEB239:GEB240 FUF239:FUF240 FKJ239:FKJ240 FAN239:FAN240 EQR239:EQR240 EGV239:EGV240 DWZ239:DWZ240 DND239:DND240 DDH239:DDH240 CTL239:CTL240 CJP239:CJP240 BZT239:BZT240 BPX239:BPX240 BGB239:BGB240 AWF239:AWF240 AMJ239:AMJ240 ACN239:ACN240 SR239:SR240">
       <formula1>"Withdraw,Retract"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="JD165:JD166 WUZ165:WUZ166 WLD165:WLD166 WBH165:WBH166 VRL165:VRL166 VHP165:VHP166 UXT165:UXT166 UNX165:UNX166 UEB165:UEB166 TUF165:TUF166 TKJ165:TKJ166 TAN165:TAN166 SQR165:SQR166 SGV165:SGV166 RWZ165:RWZ166 RND165:RND166 RDH165:RDH166 QTL165:QTL166 QJP165:QJP166 PZT165:PZT166 PPX165:PPX166 PGB165:PGB166 OWF165:OWF166 OMJ165:OMJ166 OCN165:OCN166 NSR165:NSR166 NIV165:NIV166 MYZ165:MYZ166 MPD165:MPD166 MFH165:MFH166 LVL165:LVL166 LLP165:LLP166 LBT165:LBT166 KRX165:KRX166 KIB165:KIB166 JYF165:JYF166 JOJ165:JOJ166 JEN165:JEN166 IUR165:IUR166 IKV165:IKV166 IAZ165:IAZ166 HRD165:HRD166 HHH165:HHH166 GXL165:GXL166 GNP165:GNP166 GDT165:GDT166 FTX165:FTX166 FKB165:FKB166 FAF165:FAF166 EQJ165:EQJ166 EGN165:EGN166 DWR165:DWR166 DMV165:DMV166 DCZ165:DCZ166 CTD165:CTD166 CJH165:CJH166 BZL165:BZL166 BPP165:BPP166 BFT165:BFT166 AVX165:AVX166 AMB165:AMB166 ACF165:ACF166 SJ165:SJ166 IN165:IN166 WVP165:WVP166 WLT165:WLT166 WBX165:WBX166 VSB165:VSB166 VIF165:VIF166 UYJ165:UYJ166 UON165:UON166 UER165:UER166 TUV165:TUV166 TKZ165:TKZ166 TBD165:TBD166 SRH165:SRH166 SHL165:SHL166 RXP165:RXP166 RNT165:RNT166 RDX165:RDX166 QUB165:QUB166 QKF165:QKF166 QAJ165:QAJ166 PQN165:PQN166 PGR165:PGR166 OWV165:OWV166 OMZ165:OMZ166 ODD165:ODD166 NTH165:NTH166 NJL165:NJL166 MZP165:MZP166 MPT165:MPT166 MFX165:MFX166 LWB165:LWB166 LMF165:LMF166 LCJ165:LCJ166 KSN165:KSN166 KIR165:KIR166 JYV165:JYV166 JOZ165:JOZ166 JFD165:JFD166 IVH165:IVH166 ILL165:ILL166 IBP165:IBP166 HRT165:HRT166 HHX165:HHX166 GYB165:GYB166 GOF165:GOF166 GEJ165:GEJ166 FUN165:FUN166 FKR165:FKR166 FAV165:FAV166 EQZ165:EQZ166 EHD165:EHD166 DXH165:DXH166 DNL165:DNL166 DDP165:DDP166 CTT165:CTT166 CJX165:CJX166 CAB165:CAB166 BQF165:BQF166 BGJ165:BGJ166 AWN165:AWN166 AMR165:AMR166 ACV165:ACV166 SZ165:SZ166">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="JD239:JD240 WUZ239:WUZ240 WLD239:WLD240 WBH239:WBH240 VRL239:VRL240 VHP239:VHP240 UXT239:UXT240 UNX239:UNX240 UEB239:UEB240 TUF239:TUF240 TKJ239:TKJ240 TAN239:TAN240 SQR239:SQR240 SGV239:SGV240 RWZ239:RWZ240 RND239:RND240 RDH239:RDH240 QTL239:QTL240 QJP239:QJP240 PZT239:PZT240 PPX239:PPX240 PGB239:PGB240 OWF239:OWF240 OMJ239:OMJ240 OCN239:OCN240 NSR239:NSR240 NIV239:NIV240 MYZ239:MYZ240 MPD239:MPD240 MFH239:MFH240 LVL239:LVL240 LLP239:LLP240 LBT239:LBT240 KRX239:KRX240 KIB239:KIB240 JYF239:JYF240 JOJ239:JOJ240 JEN239:JEN240 IUR239:IUR240 IKV239:IKV240 IAZ239:IAZ240 HRD239:HRD240 HHH239:HHH240 GXL239:GXL240 GNP239:GNP240 GDT239:GDT240 FTX239:FTX240 FKB239:FKB240 FAF239:FAF240 EQJ239:EQJ240 EGN239:EGN240 DWR239:DWR240 DMV239:DMV240 DCZ239:DCZ240 CTD239:CTD240 CJH239:CJH240 BZL239:BZL240 BPP239:BPP240 BFT239:BFT240 AVX239:AVX240 AMB239:AMB240 ACF239:ACF240 SJ239:SJ240 IN239:IN240 WVP239:WVP240 WLT239:WLT240 WBX239:WBX240 VSB239:VSB240 VIF239:VIF240 UYJ239:UYJ240 UON239:UON240 UER239:UER240 TUV239:TUV240 TKZ239:TKZ240 TBD239:TBD240 SRH239:SRH240 SHL239:SHL240 RXP239:RXP240 RNT239:RNT240 RDX239:RDX240 QUB239:QUB240 QKF239:QKF240 QAJ239:QAJ240 PQN239:PQN240 PGR239:PGR240 OWV239:OWV240 OMZ239:OMZ240 ODD239:ODD240 NTH239:NTH240 NJL239:NJL240 MZP239:MZP240 MPT239:MPT240 MFX239:MFX240 LWB239:LWB240 LMF239:LMF240 LCJ239:LCJ240 KSN239:KSN240 KIR239:KIR240 JYV239:JYV240 JOZ239:JOZ240 JFD239:JFD240 IVH239:IVH240 ILL239:ILL240 IBP239:IBP240 HRT239:HRT240 HHX239:HHX240 GYB239:GYB240 GOF239:GOF240 GEJ239:GEJ240 FUN239:FUN240 FKR239:FKR240 FAV239:FAV240 EQZ239:EQZ240 EHD239:EHD240 DXH239:DXH240 DNL239:DNL240 DDP239:DDP240 CTT239:CTT240 CJX239:CJX240 CAB239:CAB240 BQF239:BQF240 BGJ239:BGJ240 AWN239:AWN240 AMR239:AMR240 ACV239:ACV240 SZ239:SZ240">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IO165:IO166 WVA165:WVA166 WLE165:WLE166 WBI165:WBI166 VRM165:VRM166 VHQ165:VHQ166 UXU165:UXU166 UNY165:UNY166 UEC165:UEC166 TUG165:TUG166 TKK165:TKK166 TAO165:TAO166 SQS165:SQS166 SGW165:SGW166 RXA165:RXA166 RNE165:RNE166 RDI165:RDI166 QTM165:QTM166 QJQ165:QJQ166 PZU165:PZU166 PPY165:PPY166 PGC165:PGC166 OWG165:OWG166 OMK165:OMK166 OCO165:OCO166 NSS165:NSS166 NIW165:NIW166 MZA165:MZA166 MPE165:MPE166 MFI165:MFI166 LVM165:LVM166 LLQ165:LLQ166 LBU165:LBU166 KRY165:KRY166 KIC165:KIC166 JYG165:JYG166 JOK165:JOK166 JEO165:JEO166 IUS165:IUS166 IKW165:IKW166 IBA165:IBA166 HRE165:HRE166 HHI165:HHI166 GXM165:GXM166 GNQ165:GNQ166 GDU165:GDU166 FTY165:FTY166 FKC165:FKC166 FAG165:FAG166 EQK165:EQK166 EGO165:EGO166 DWS165:DWS166 DMW165:DMW166 DDA165:DDA166 CTE165:CTE166 CJI165:CJI166 BZM165:BZM166 BPQ165:BPQ166 BFU165:BFU166 AVY165:AVY166 AMC165:AMC166 ACG165:ACG166 SK165:SK166">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="IO239:IO240 WVA239:WVA240 WLE239:WLE240 WBI239:WBI240 VRM239:VRM240 VHQ239:VHQ240 UXU239:UXU240 UNY239:UNY240 UEC239:UEC240 TUG239:TUG240 TKK239:TKK240 TAO239:TAO240 SQS239:SQS240 SGW239:SGW240 RXA239:RXA240 RNE239:RNE240 RDI239:RDI240 QTM239:QTM240 QJQ239:QJQ240 PZU239:PZU240 PPY239:PPY240 PGC239:PGC240 OWG239:OWG240 OMK239:OMK240 OCO239:OCO240 NSS239:NSS240 NIW239:NIW240 MZA239:MZA240 MPE239:MPE240 MFI239:MFI240 LVM239:LVM240 LLQ239:LLQ240 LBU239:LBU240 KRY239:KRY240 KIC239:KIC240 JYG239:JYG240 JOK239:JOK240 JEO239:JEO240 IUS239:IUS240 IKW239:IKW240 IBA239:IBA240 HRE239:HRE240 HHI239:HHI240 GXM239:GXM240 GNQ239:GNQ240 GDU239:GDU240 FTY239:FTY240 FKC239:FKC240 FAG239:FAG240 EQK239:EQK240 EGO239:EGO240 DWS239:DWS240 DMW239:DMW240 DDA239:DDA240 CTE239:CTE240 CJI239:CJI240 BZM239:BZM240 BPQ239:BPQ240 BFU239:BFU240 AVY239:AVY240 AMC239:AMC240 ACG239:ACG240 SK239:SK240">
       <formula1>"Neg-Mj,Neg-Mi,A-S,A-T,A-Q,A-C"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="JE165:JH166 J165:M166 WUV165:WUW166 WKZ165:WLA166 WBD165:WBE166 VRH165:VRI166 VHL165:VHM166 UXP165:UXQ166 UNT165:UNU166 UDX165:UDY166 TUB165:TUC166 TKF165:TKG166 TAJ165:TAK166 SQN165:SQO166 SGR165:SGS166 RWV165:RWW166 RMZ165:RNA166 RDD165:RDE166 QTH165:QTI166 QJL165:QJM166 PZP165:PZQ166 PPT165:PPU166 PFX165:PFY166 OWB165:OWC166 OMF165:OMG166 OCJ165:OCK166 NSN165:NSO166 NIR165:NIS166 MYV165:MYW166 MOZ165:MPA166 MFD165:MFE166 LVH165:LVI166 LLL165:LLM166 LBP165:LBQ166 KRT165:KRU166 KHX165:KHY166 JYB165:JYC166 JOF165:JOG166 JEJ165:JEK166 IUN165:IUO166 IKR165:IKS166 IAV165:IAW166 HQZ165:HRA166 HHD165:HHE166 GXH165:GXI166 GNL165:GNM166 GDP165:GDQ166 FTT165:FTU166 FJX165:FJY166 FAB165:FAC166 EQF165:EQG166 EGJ165:EGK166 DWN165:DWO166 DMR165:DMS166 DCV165:DCW166 CSZ165:CTA166 CJD165:CJE166 BZH165:BZI166 BPL165:BPM166 BFP165:BFQ166 AVT165:AVU166 ALX165:ALY166 ACB165:ACC166 SF165:SG166 IJ165:IK166 WVQ165:WVT166 WLU165:WLX166 WBY165:WCB166 VSC165:VSF166 VIG165:VIJ166 UYK165:UYN166 UOO165:UOR166 UES165:UEV166 TUW165:TUZ166 TLA165:TLD166 TBE165:TBH166 SRI165:SRL166 SHM165:SHP166 RXQ165:RXT166 RNU165:RNX166 RDY165:REB166 QUC165:QUF166 QKG165:QKJ166 QAK165:QAN166 PQO165:PQR166 PGS165:PGV166 OWW165:OWZ166 ONA165:OND166 ODE165:ODH166 NTI165:NTL166 NJM165:NJP166 MZQ165:MZT166 MPU165:MPX166 MFY165:MGB166 LWC165:LWF166 LMG165:LMJ166 LCK165:LCN166 KSO165:KSR166 KIS165:KIV166 JYW165:JYZ166 JPA165:JPD166 JFE165:JFH166 IVI165:IVL166 ILM165:ILP166 IBQ165:IBT166 HRU165:HRX166 HHY165:HIB166 GYC165:GYF166 GOG165:GOJ166 GEK165:GEN166 FUO165:FUR166 FKS165:FKV166 FAW165:FAZ166 ERA165:ERD166 EHE165:EHH166 DXI165:DXL166 DNM165:DNP166 DDQ165:DDT166 CTU165:CTX166 CJY165:CKB166 CAC165:CAF166 BQG165:BQJ166 BGK165:BGN166 AWO165:AWR166 AMS165:AMV166 ACW165:ACZ166 TA165:TD166 O165:S166"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO165:WVO166 JC165:JC166 SY165:SY166 ACU165:ACU166 AMQ165:AMQ166 AWM165:AWM166 BGI165:BGI166 BQE165:BQE166 CAA165:CAA166 CJW165:CJW166 CTS165:CTS166 DDO165:DDO166 DNK165:DNK166 DXG165:DXG166 EHC165:EHC166 EQY165:EQY166 FAU165:FAU166 FKQ165:FKQ166 FUM165:FUM166 GEI165:GEI166 GOE165:GOE166 GYA165:GYA166 HHW165:HHW166 HRS165:HRS166 IBO165:IBO166 ILK165:ILK166 IVG165:IVG166 JFC165:JFC166 JOY165:JOY166 JYU165:JYU166 KIQ165:KIQ166 KSM165:KSM166 LCI165:LCI166 LME165:LME166 LWA165:LWA166 MFW165:MFW166 MPS165:MPS166 MZO165:MZO166 NJK165:NJK166 NTG165:NTG166 ODC165:ODC166 OMY165:OMY166 OWU165:OWU166 PGQ165:PGQ166 PQM165:PQM166 QAI165:QAI166 QKE165:QKE166 QUA165:QUA166 RDW165:RDW166 RNS165:RNS166 RXO165:RXO166 SHK165:SHK166 SRG165:SRG166 TBC165:TBC166 TKY165:TKY166 TUU165:TUU166 UEQ165:UEQ166 UOM165:UOM166 UYI165:UYI166 VIE165:VIE166 VSA165:VSA166 WBW165:WBW166 WLS165:WLS166 JC3 WVO3 WLS3 WBW3 VSA3 VIE3 UYI3 UOM3 UEQ3 TUU3 TKY3 TBC3 SRG3 SHK3 RXO3 RNS3 RDW3 QUA3 QKE3 QAI3 PQM3 PGQ3 OWU3 OMY3 ODC3 NTG3 NJK3 MZO3 MPS3 MFW3 LWA3 LME3 LCI3 KSM3 KIQ3 JYU3 JOY3 JFC3 IVG3 ILK3 IBO3 HRS3 HHW3 GYA3 GOE3 GEI3 FUM3 FKQ3 FAU3 EQY3 EHC3 DXG3 DNK3 DDO3 CTS3 CJW3 CAA3 BQE3 BGI3 AWM3 AMQ3 ACU3 SY3">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="JE239:JH240 J239:M240 WUV239:WUW240 WKZ239:WLA240 WBD239:WBE240 VRH239:VRI240 VHL239:VHM240 UXP239:UXQ240 UNT239:UNU240 UDX239:UDY240 TUB239:TUC240 TKF239:TKG240 TAJ239:TAK240 SQN239:SQO240 SGR239:SGS240 RWV239:RWW240 RMZ239:RNA240 RDD239:RDE240 QTH239:QTI240 QJL239:QJM240 PZP239:PZQ240 PPT239:PPU240 PFX239:PFY240 OWB239:OWC240 OMF239:OMG240 OCJ239:OCK240 NSN239:NSO240 NIR239:NIS240 MYV239:MYW240 MOZ239:MPA240 MFD239:MFE240 LVH239:LVI240 LLL239:LLM240 LBP239:LBQ240 KRT239:KRU240 KHX239:KHY240 JYB239:JYC240 JOF239:JOG240 JEJ239:JEK240 IUN239:IUO240 IKR239:IKS240 IAV239:IAW240 HQZ239:HRA240 HHD239:HHE240 GXH239:GXI240 GNL239:GNM240 GDP239:GDQ240 FTT239:FTU240 FJX239:FJY240 FAB239:FAC240 EQF239:EQG240 EGJ239:EGK240 DWN239:DWO240 DMR239:DMS240 DCV239:DCW240 CSZ239:CTA240 CJD239:CJE240 BZH239:BZI240 BPL239:BPM240 BFP239:BFQ240 AVT239:AVU240 ALX239:ALY240 ACB239:ACC240 SF239:SG240 IJ239:IK240 WVQ239:WVT240 WLU239:WLX240 WBY239:WCB240 VSC239:VSF240 VIG239:VIJ240 UYK239:UYN240 UOO239:UOR240 UES239:UEV240 TUW239:TUZ240 TLA239:TLD240 TBE239:TBH240 SRI239:SRL240 SHM239:SHP240 RXQ239:RXT240 RNU239:RNX240 RDY239:REB240 QUC239:QUF240 QKG239:QKJ240 QAK239:QAN240 PQO239:PQR240 PGS239:PGV240 OWW239:OWZ240 ONA239:OND240 ODE239:ODH240 NTI239:NTL240 NJM239:NJP240 MZQ239:MZT240 MPU239:MPX240 MFY239:MGB240 LWC239:LWF240 LMG239:LMJ240 LCK239:LCN240 KSO239:KSR240 KIS239:KIV240 JYW239:JYZ240 JPA239:JPD240 JFE239:JFH240 IVI239:IVL240 ILM239:ILP240 IBQ239:IBT240 HRU239:HRX240 HHY239:HIB240 GYC239:GYF240 GOG239:GOJ240 GEK239:GEN240 FUO239:FUR240 FKS239:FKV240 FAW239:FAZ240 ERA239:ERD240 EHE239:EHH240 DXI239:DXL240 DNM239:DNP240 DDQ239:DDT240 CTU239:CTX240 CJY239:CKB240 CAC239:CAF240 BQG239:BQJ240 BGK239:BGN240 AWO239:AWR240 AMS239:AMV240 ACW239:ACZ240 TA239:TD240 O239:S240"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO239:WVO240 JC239:JC240 SY239:SY240 ACU239:ACU240 AMQ239:AMQ240 AWM239:AWM240 BGI239:BGI240 BQE239:BQE240 CAA239:CAA240 CJW239:CJW240 CTS239:CTS240 DDO239:DDO240 DNK239:DNK240 DXG239:DXG240 EHC239:EHC240 EQY239:EQY240 FAU239:FAU240 FKQ239:FKQ240 FUM239:FUM240 GEI239:GEI240 GOE239:GOE240 GYA239:GYA240 HHW239:HHW240 HRS239:HRS240 IBO239:IBO240 ILK239:ILK240 IVG239:IVG240 JFC239:JFC240 JOY239:JOY240 JYU239:JYU240 KIQ239:KIQ240 KSM239:KSM240 LCI239:LCI240 LME239:LME240 LWA239:LWA240 MFW239:MFW240 MPS239:MPS240 MZO239:MZO240 NJK239:NJK240 NTG239:NTG240 ODC239:ODC240 OMY239:OMY240 OWU239:OWU240 PGQ239:PGQ240 PQM239:PQM240 QAI239:QAI240 QKE239:QKE240 QUA239:QUA240 RDW239:RDW240 RNS239:RNS240 RXO239:RXO240 SHK239:SHK240 SRG239:SRG240 TBC239:TBC240 TKY239:TKY240 TUU239:TUU240 UEQ239:UEQ240 UOM239:UOM240 UYI239:UYI240 VIE239:VIE240 VSA239:VSA240 WBW239:WBW240 WLS239:WLS240 JC3 WVO3 WLS3 WBW3 VSA3 VIE3 UYI3 UOM3 UEQ3 TUU3 TKY3 TBC3 SRG3 SHK3 RXO3 RNS3 RDW3 QUA3 QKE3 QAI3 PQM3 PGQ3 OWU3 OMY3 ODC3 NTG3 NJK3 MZO3 MPS3 MFW3 LWA3 LME3 LCI3 KSM3 KIQ3 JYU3 JOY3 JFC3 IVG3 ILK3 IBO3 HRS3 HHW3 GYA3 GOE3 GEI3 FUM3 FKQ3 FAU3 EQY3 EHC3 DXG3 DNK3 DDO3 CTS3 CJW3 CAA3 BQE3 BGI3 AWM3 AMQ3 ACU3 SY3">
       <formula1>"yes, no, dup"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
@@ -14239,23 +14240,23 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" thickTop="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>

--- a/成品/R1/卫生信息数据元_校对.xlsx
+++ b/成品/R1/卫生信息数据元_校对.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="985">
   <si>
     <t>Ballot Comment Submission</t>
   </si>
@@ -6026,6 +6026,403 @@
   </si>
   <si>
     <t>264904245@qq.com</t>
+  </si>
+  <si>
+    <t>数据元允许值错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DE03.00.001.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>艾滋病接触史代码数据元允许值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> WS 364.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>健康危险因素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV03.00.114 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>艾滋病接触史代码表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WS 364.5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫生信息数据元值域代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>健康危险因素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CV03.00.113 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>艾滋病接触史代码表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE03.00.025.00</t>
+  </si>
+  <si>
+    <t>DE03.00.026.00</t>
+  </si>
+  <si>
+    <t>数据元定义出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应该将天改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">d </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将分钟改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个体受到慢性照射的累积时间长度，计量单位为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>h/a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DE03.00.039.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个体受到慢性照射的累积时间长度，计量单位为小时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DE03.00.077.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饮酒时长（年）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据元名称错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饮酒时长（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE03.00.077.00个体饮酒的累积时间长度，计量单位为年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计量单位为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DE03.00.015.00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型有疑问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edwin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edwin_uestc@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6997,8 +7394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239:XFD267"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9981,12 +10378,24 @@
     </row>
     <row r="119" spans="1:19" s="22" customFormat="1" ht="52.9" customHeight="1">
       <c r="A119" s="13"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="15"/>
+      <c r="B119" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="F119" s="34" t="s">
+        <v>966</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>968</v>
+      </c>
       <c r="H119" s="16"/>
       <c r="I119" s="17"/>
       <c r="J119" s="18"/>
@@ -10005,9 +10414,15 @@
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="15"/>
+      <c r="E120" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="F120" s="34" t="s">
+        <v>971</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>972</v>
+      </c>
       <c r="H120" s="16"/>
       <c r="I120" s="17"/>
       <c r="J120" s="18"/>
@@ -10026,9 +10441,15 @@
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="34"/>
-      <c r="G121" s="15"/>
+      <c r="E121" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="F121" s="34" t="s">
+        <v>971</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>972</v>
+      </c>
       <c r="H121" s="16"/>
       <c r="I121" s="17"/>
       <c r="J121" s="18"/>
@@ -10047,9 +10468,15 @@
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="15"/>
+      <c r="E122" s="15" t="s">
+        <v>974</v>
+      </c>
+      <c r="F122" s="34" t="s">
+        <v>971</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>973</v>
+      </c>
       <c r="H122" s="16"/>
       <c r="I122" s="17"/>
       <c r="J122" s="18"/>
@@ -10068,9 +10495,15 @@
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
       <c r="D123" s="14"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="34"/>
-      <c r="G123" s="15"/>
+      <c r="E123" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="F123" s="34" t="s">
+        <v>976</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>977</v>
+      </c>
       <c r="H123" s="16"/>
       <c r="I123" s="17"/>
       <c r="J123" s="18"/>
@@ -10089,9 +10522,15 @@
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
       <c r="D124" s="14"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="34"/>
-      <c r="G124" s="15"/>
+      <c r="E124" s="34" t="s">
+        <v>978</v>
+      </c>
+      <c r="F124" s="34" t="s">
+        <v>971</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>979</v>
+      </c>
       <c r="H124" s="16"/>
       <c r="I124" s="17"/>
       <c r="J124" s="18"/>
@@ -10110,15 +10549,25 @@
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
       <c r="D125" s="14"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="34"/>
-      <c r="G125" s="15"/>
+      <c r="E125" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="F125" s="34" t="s">
+        <v>981</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>982</v>
+      </c>
       <c r="H125" s="16"/>
       <c r="I125" s="17"/>
-      <c r="J125" s="18"/>
+      <c r="J125" s="18" t="s">
+        <v>983</v>
+      </c>
       <c r="K125" s="19"/>
       <c r="L125" s="20"/>
-      <c r="M125" s="20"/>
+      <c r="M125" s="64" t="s">
+        <v>984</v>
+      </c>
       <c r="N125" s="21"/>
       <c r="O125" s="18"/>
       <c r="P125" s="18"/>
@@ -14193,9 +14642,10 @@
     <hyperlink ref="S2" location="OnBehalfOf" display="On Behalf of Email"/>
     <hyperlink ref="O2" location="SubmittedBy" display="Submitted By"/>
     <hyperlink ref="M85" r:id="rId1"/>
+    <hyperlink ref="M125" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
